--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/BEFTA_Master_Definition_invalid.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/BEFTA_Master_Definition_invalid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olawaleolanrewaju/Documents/Git_MOJ/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC05532-9D7A-0745-B647-FE9AB75DB4A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3506C73D-DF6B-D949-BB07-30DFAF57027C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5618" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5619" uniqueCount="946">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -2971,6 +2971,9 @@
   </si>
   <si>
     <t>Update a case</t>
+  </si>
+  <si>
+    <t>[INVALID]</t>
   </si>
 </sst>
 </file>
@@ -45255,7 +45258,9 @@
       <c r="F35" s="417" t="s">
         <v>915</v>
       </c>
-      <c r="G35" s="417"/>
+      <c r="G35" s="417" t="s">
+        <v>945</v>
+      </c>
       <c r="H35" s="417"/>
       <c r="I35" s="414"/>
       <c r="J35" s="414">

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/BEFTA_Master_Definition_invalid.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/BEFTA_Master_Definition_invalid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olawaleolanrewaju/Documents/Git_MOJ/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/development/ccd/ccd-api-test-automation-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3506C73D-DF6B-D949-BB07-30DFAF57027C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942C9D45-5B96-2446-9788-438CE551FD1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35500" yWindow="1020" windowWidth="33600" windowHeight="19340" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -41,16 +41,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">CaseEvent!$A$21:$T$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CaseField!$A$3:$IO$115</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -60,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5619" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5573" uniqueCount="943">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -2892,19 +2886,10 @@
     <t>Organisation.OrganisationID</t>
   </si>
   <si>
-    <t>Organisation.OrganisationName</t>
-  </si>
-  <si>
     <t>OrganisationID</t>
   </si>
   <si>
     <t>Updated OrganisationID Label</t>
-  </si>
-  <si>
-    <t>OrganisationName</t>
-  </si>
-  <si>
-    <t>Updated Organisation Name</t>
   </si>
   <si>
     <t>Organisation Policy</t>
@@ -3654,7 +3639,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="439">
+  <cellXfs count="433">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -4520,9 +4505,6 @@
     <xf numFmtId="49" fontId="34" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="24" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4536,15 +4518,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="34" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4590,12 +4563,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -12085,7 +12052,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7776E297-B7F9-FE43-8EE1-4BFB68FF9F3F}" name="Table6" displayName="Table6" ref="A3:G41" totalsRowShown="0" headerRowDxfId="228" dataDxfId="226" headerRowBorderDxfId="227" tableBorderDxfId="225" totalsRowBorderDxfId="224" headerRowCellStyle="Normal 2 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7776E297-B7F9-FE43-8EE1-4BFB68FF9F3F}" name="Table6" displayName="Table6" ref="A3:G40" totalsRowShown="0" headerRowDxfId="228" dataDxfId="226" headerRowBorderDxfId="227" tableBorderDxfId="225" totalsRowBorderDxfId="224" headerRowCellStyle="Normal 2 3">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{10086A25-442C-7449-826A-B35FDEA13C5A}" name="LiveFrom" dataDxfId="223"/>
     <tableColumn id="2" xr3:uid="{FB00A34E-44D3-2D4F-B5A8-96DA629491A0}" name="LiveTo" dataDxfId="222"/>
@@ -12100,7 +12067,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{3217A593-E48A-BB42-A2D0-9D3131CA3F9C}" name="Table23" displayName="Table23" ref="A3:L58" totalsRowShown="0" headerRowDxfId="216" dataDxfId="214" headerRowBorderDxfId="215" tableBorderDxfId="213" totalsRowBorderDxfId="212">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{3217A593-E48A-BB42-A2D0-9D3131CA3F9C}" name="Table23" displayName="Table23" ref="A3:L50" totalsRowShown="0" headerRowDxfId="216" dataDxfId="214" headerRowBorderDxfId="215" tableBorderDxfId="213" totalsRowBorderDxfId="212">
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{CDA5C744-4A48-0C44-9DDE-72388C860C99}" name="LiveFrom" dataDxfId="211"/>
     <tableColumn id="2" xr3:uid="{8A3CAE25-78FA-AC45-B741-FC9B0207A6D2}" name="LiveTo" dataDxfId="210"/>
@@ -14143,232 +14110,232 @@
       </c>
     </row>
     <row r="27" spans="1:96" s="343" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="359">
-        <v>42736</v>
-      </c>
-      <c r="B27" s="360"/>
-      <c r="C27" s="361" t="s">
-        <v>924</v>
-      </c>
-      <c r="D27" s="361" t="s">
+      <c r="A27" s="355">
+        <v>42736</v>
+      </c>
+      <c r="B27" s="356"/>
+      <c r="C27" s="357" t="s">
+        <v>921</v>
+      </c>
+      <c r="D27" s="357" t="s">
         <v>455</v>
       </c>
       <c r="E27" s="307" t="s">
         <v>909</v>
       </c>
-      <c r="F27" s="362" t="s">
+      <c r="F27" s="358" t="s">
         <v>909</v>
       </c>
-      <c r="G27" s="363">
+      <c r="G27" s="359">
         <v>3</v>
       </c>
       <c r="H27" s="307" t="s">
         <v>910</v>
       </c>
-      <c r="I27" s="364">
+      <c r="I27" s="360">
         <v>1</v>
       </c>
-      <c r="J27" s="352"/>
-      <c r="K27" s="352"/>
-      <c r="L27" s="365"/>
-      <c r="M27" s="422"/>
-      <c r="N27" s="422"/>
-      <c r="O27" s="422"/>
-      <c r="P27" s="422"/>
-      <c r="Q27" s="422"/>
-      <c r="R27" s="422"/>
-      <c r="S27" s="422"/>
-      <c r="T27" s="422"/>
-      <c r="U27" s="422"/>
-      <c r="V27" s="422"/>
-      <c r="W27" s="422"/>
-      <c r="X27" s="422"/>
-      <c r="Y27" s="422"/>
-      <c r="Z27" s="422"/>
-      <c r="AA27" s="422"/>
-      <c r="AB27" s="422"/>
-      <c r="AC27" s="422"/>
-      <c r="AD27" s="422"/>
-      <c r="AE27" s="422"/>
-      <c r="AF27" s="422"/>
-      <c r="AG27" s="422"/>
-      <c r="AH27" s="422"/>
-      <c r="AI27" s="422"/>
-      <c r="AJ27" s="422"/>
-      <c r="AK27" s="422"/>
-      <c r="AL27" s="422"/>
-      <c r="AM27" s="422"/>
-      <c r="AN27" s="422"/>
-      <c r="AO27" s="422"/>
-      <c r="AP27" s="422"/>
-      <c r="AQ27" s="422"/>
-      <c r="AR27" s="422"/>
-      <c r="AS27" s="422"/>
-      <c r="AT27" s="422"/>
-      <c r="AU27" s="422"/>
-      <c r="AV27" s="422"/>
-      <c r="AW27" s="422"/>
-      <c r="AX27" s="422"/>
-      <c r="AY27" s="422"/>
-      <c r="AZ27" s="422"/>
-      <c r="BA27" s="422"/>
-      <c r="BB27" s="422"/>
-      <c r="BC27" s="422"/>
-      <c r="BD27" s="422"/>
-      <c r="BE27" s="422"/>
-      <c r="BF27" s="422"/>
-      <c r="BG27" s="422"/>
-      <c r="BH27" s="422"/>
-      <c r="BI27" s="422"/>
-      <c r="BJ27" s="422"/>
-      <c r="BK27" s="422"/>
-      <c r="BL27" s="422"/>
-      <c r="BM27" s="422"/>
-      <c r="BN27" s="422"/>
-      <c r="BO27" s="422"/>
-      <c r="BP27" s="422"/>
-      <c r="BQ27" s="422"/>
-      <c r="BR27" s="422"/>
-      <c r="BS27" s="422"/>
-      <c r="BT27" s="422"/>
-      <c r="BU27" s="422"/>
-      <c r="BV27" s="422"/>
-      <c r="BW27" s="422"/>
-      <c r="BX27" s="422"/>
-      <c r="BY27" s="422"/>
-      <c r="BZ27" s="422"/>
-      <c r="CA27" s="422"/>
-      <c r="CB27" s="422"/>
-      <c r="CC27" s="422"/>
-      <c r="CD27" s="422"/>
-      <c r="CE27" s="422"/>
-      <c r="CF27" s="422"/>
-      <c r="CG27" s="422"/>
-      <c r="CH27" s="422"/>
-      <c r="CI27" s="422"/>
-      <c r="CJ27" s="422"/>
-      <c r="CK27" s="422"/>
-      <c r="CL27" s="422"/>
-      <c r="CM27" s="422"/>
-      <c r="CN27" s="422"/>
-      <c r="CO27" s="422"/>
-      <c r="CP27" s="422"/>
-      <c r="CQ27" s="422"/>
-      <c r="CR27" s="422"/>
+      <c r="J27" s="351"/>
+      <c r="K27" s="351"/>
+      <c r="L27" s="361"/>
+      <c r="M27" s="416"/>
+      <c r="N27" s="416"/>
+      <c r="O27" s="416"/>
+      <c r="P27" s="416"/>
+      <c r="Q27" s="416"/>
+      <c r="R27" s="416"/>
+      <c r="S27" s="416"/>
+      <c r="T27" s="416"/>
+      <c r="U27" s="416"/>
+      <c r="V27" s="416"/>
+      <c r="W27" s="416"/>
+      <c r="X27" s="416"/>
+      <c r="Y27" s="416"/>
+      <c r="Z27" s="416"/>
+      <c r="AA27" s="416"/>
+      <c r="AB27" s="416"/>
+      <c r="AC27" s="416"/>
+      <c r="AD27" s="416"/>
+      <c r="AE27" s="416"/>
+      <c r="AF27" s="416"/>
+      <c r="AG27" s="416"/>
+      <c r="AH27" s="416"/>
+      <c r="AI27" s="416"/>
+      <c r="AJ27" s="416"/>
+      <c r="AK27" s="416"/>
+      <c r="AL27" s="416"/>
+      <c r="AM27" s="416"/>
+      <c r="AN27" s="416"/>
+      <c r="AO27" s="416"/>
+      <c r="AP27" s="416"/>
+      <c r="AQ27" s="416"/>
+      <c r="AR27" s="416"/>
+      <c r="AS27" s="416"/>
+      <c r="AT27" s="416"/>
+      <c r="AU27" s="416"/>
+      <c r="AV27" s="416"/>
+      <c r="AW27" s="416"/>
+      <c r="AX27" s="416"/>
+      <c r="AY27" s="416"/>
+      <c r="AZ27" s="416"/>
+      <c r="BA27" s="416"/>
+      <c r="BB27" s="416"/>
+      <c r="BC27" s="416"/>
+      <c r="BD27" s="416"/>
+      <c r="BE27" s="416"/>
+      <c r="BF27" s="416"/>
+      <c r="BG27" s="416"/>
+      <c r="BH27" s="416"/>
+      <c r="BI27" s="416"/>
+      <c r="BJ27" s="416"/>
+      <c r="BK27" s="416"/>
+      <c r="BL27" s="416"/>
+      <c r="BM27" s="416"/>
+      <c r="BN27" s="416"/>
+      <c r="BO27" s="416"/>
+      <c r="BP27" s="416"/>
+      <c r="BQ27" s="416"/>
+      <c r="BR27" s="416"/>
+      <c r="BS27" s="416"/>
+      <c r="BT27" s="416"/>
+      <c r="BU27" s="416"/>
+      <c r="BV27" s="416"/>
+      <c r="BW27" s="416"/>
+      <c r="BX27" s="416"/>
+      <c r="BY27" s="416"/>
+      <c r="BZ27" s="416"/>
+      <c r="CA27" s="416"/>
+      <c r="CB27" s="416"/>
+      <c r="CC27" s="416"/>
+      <c r="CD27" s="416"/>
+      <c r="CE27" s="416"/>
+      <c r="CF27" s="416"/>
+      <c r="CG27" s="416"/>
+      <c r="CH27" s="416"/>
+      <c r="CI27" s="416"/>
+      <c r="CJ27" s="416"/>
+      <c r="CK27" s="416"/>
+      <c r="CL27" s="416"/>
+      <c r="CM27" s="416"/>
+      <c r="CN27" s="416"/>
+      <c r="CO27" s="416"/>
+      <c r="CP27" s="416"/>
+      <c r="CQ27" s="416"/>
+      <c r="CR27" s="416"/>
     </row>
     <row r="28" spans="1:96" s="343" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="359">
-        <v>42736</v>
-      </c>
-      <c r="B28" s="360"/>
-      <c r="C28" s="361" t="s">
-        <v>924</v>
-      </c>
-      <c r="D28" s="361" t="s">
+      <c r="A28" s="355">
+        <v>42736</v>
+      </c>
+      <c r="B28" s="356"/>
+      <c r="C28" s="357" t="s">
+        <v>921</v>
+      </c>
+      <c r="D28" s="357" t="s">
         <v>455</v>
       </c>
       <c r="E28" s="307" t="s">
         <v>914</v>
       </c>
-      <c r="F28" s="362" t="s">
-        <v>923</v>
-      </c>
-      <c r="G28" s="363">
+      <c r="F28" s="358" t="s">
+        <v>920</v>
+      </c>
+      <c r="G28" s="359">
         <v>4</v>
       </c>
       <c r="H28" s="307" t="s">
         <v>911</v>
       </c>
-      <c r="I28" s="364">
+      <c r="I28" s="360">
         <v>2</v>
       </c>
-      <c r="J28" s="352"/>
-      <c r="K28" s="352"/>
-      <c r="L28" s="365"/>
-      <c r="M28" s="422"/>
-      <c r="N28" s="422"/>
-      <c r="O28" s="422"/>
-      <c r="P28" s="422"/>
-      <c r="Q28" s="422"/>
-      <c r="R28" s="422"/>
-      <c r="S28" s="422"/>
-      <c r="T28" s="422"/>
-      <c r="U28" s="422"/>
-      <c r="V28" s="422"/>
-      <c r="W28" s="422"/>
-      <c r="X28" s="422"/>
-      <c r="Y28" s="422"/>
-      <c r="Z28" s="422"/>
-      <c r="AA28" s="422"/>
-      <c r="AB28" s="422"/>
-      <c r="AC28" s="422"/>
-      <c r="AD28" s="422"/>
-      <c r="AE28" s="422"/>
-      <c r="AF28" s="422"/>
-      <c r="AG28" s="422"/>
-      <c r="AH28" s="422"/>
-      <c r="AI28" s="422"/>
-      <c r="AJ28" s="422"/>
-      <c r="AK28" s="422"/>
-      <c r="AL28" s="422"/>
-      <c r="AM28" s="422"/>
-      <c r="AN28" s="422"/>
-      <c r="AO28" s="422"/>
-      <c r="AP28" s="422"/>
-      <c r="AQ28" s="422"/>
-      <c r="AR28" s="422"/>
-      <c r="AS28" s="422"/>
-      <c r="AT28" s="422"/>
-      <c r="AU28" s="422"/>
-      <c r="AV28" s="422"/>
-      <c r="AW28" s="422"/>
-      <c r="AX28" s="422"/>
-      <c r="AY28" s="422"/>
-      <c r="AZ28" s="422"/>
-      <c r="BA28" s="422"/>
-      <c r="BB28" s="422"/>
-      <c r="BC28" s="422"/>
-      <c r="BD28" s="422"/>
-      <c r="BE28" s="422"/>
-      <c r="BF28" s="422"/>
-      <c r="BG28" s="422"/>
-      <c r="BH28" s="422"/>
-      <c r="BI28" s="422"/>
-      <c r="BJ28" s="422"/>
-      <c r="BK28" s="422"/>
-      <c r="BL28" s="422"/>
-      <c r="BM28" s="422"/>
-      <c r="BN28" s="422"/>
-      <c r="BO28" s="422"/>
-      <c r="BP28" s="422"/>
-      <c r="BQ28" s="422"/>
-      <c r="BR28" s="422"/>
-      <c r="BS28" s="422"/>
-      <c r="BT28" s="422"/>
-      <c r="BU28" s="422"/>
-      <c r="BV28" s="422"/>
-      <c r="BW28" s="422"/>
-      <c r="BX28" s="422"/>
-      <c r="BY28" s="422"/>
-      <c r="BZ28" s="422"/>
-      <c r="CA28" s="422"/>
-      <c r="CB28" s="422"/>
-      <c r="CC28" s="422"/>
-      <c r="CD28" s="422"/>
-      <c r="CE28" s="422"/>
-      <c r="CF28" s="422"/>
-      <c r="CG28" s="422"/>
-      <c r="CH28" s="422"/>
-      <c r="CI28" s="422"/>
-      <c r="CJ28" s="422"/>
-      <c r="CK28" s="422"/>
-      <c r="CL28" s="422"/>
-      <c r="CM28" s="422"/>
-      <c r="CN28" s="422"/>
-      <c r="CO28" s="422"/>
-      <c r="CP28" s="422"/>
-      <c r="CQ28" s="422"/>
-      <c r="CR28" s="422"/>
+      <c r="J28" s="351"/>
+      <c r="K28" s="351"/>
+      <c r="L28" s="361"/>
+      <c r="M28" s="416"/>
+      <c r="N28" s="416"/>
+      <c r="O28" s="416"/>
+      <c r="P28" s="416"/>
+      <c r="Q28" s="416"/>
+      <c r="R28" s="416"/>
+      <c r="S28" s="416"/>
+      <c r="T28" s="416"/>
+      <c r="U28" s="416"/>
+      <c r="V28" s="416"/>
+      <c r="W28" s="416"/>
+      <c r="X28" s="416"/>
+      <c r="Y28" s="416"/>
+      <c r="Z28" s="416"/>
+      <c r="AA28" s="416"/>
+      <c r="AB28" s="416"/>
+      <c r="AC28" s="416"/>
+      <c r="AD28" s="416"/>
+      <c r="AE28" s="416"/>
+      <c r="AF28" s="416"/>
+      <c r="AG28" s="416"/>
+      <c r="AH28" s="416"/>
+      <c r="AI28" s="416"/>
+      <c r="AJ28" s="416"/>
+      <c r="AK28" s="416"/>
+      <c r="AL28" s="416"/>
+      <c r="AM28" s="416"/>
+      <c r="AN28" s="416"/>
+      <c r="AO28" s="416"/>
+      <c r="AP28" s="416"/>
+      <c r="AQ28" s="416"/>
+      <c r="AR28" s="416"/>
+      <c r="AS28" s="416"/>
+      <c r="AT28" s="416"/>
+      <c r="AU28" s="416"/>
+      <c r="AV28" s="416"/>
+      <c r="AW28" s="416"/>
+      <c r="AX28" s="416"/>
+      <c r="AY28" s="416"/>
+      <c r="AZ28" s="416"/>
+      <c r="BA28" s="416"/>
+      <c r="BB28" s="416"/>
+      <c r="BC28" s="416"/>
+      <c r="BD28" s="416"/>
+      <c r="BE28" s="416"/>
+      <c r="BF28" s="416"/>
+      <c r="BG28" s="416"/>
+      <c r="BH28" s="416"/>
+      <c r="BI28" s="416"/>
+      <c r="BJ28" s="416"/>
+      <c r="BK28" s="416"/>
+      <c r="BL28" s="416"/>
+      <c r="BM28" s="416"/>
+      <c r="BN28" s="416"/>
+      <c r="BO28" s="416"/>
+      <c r="BP28" s="416"/>
+      <c r="BQ28" s="416"/>
+      <c r="BR28" s="416"/>
+      <c r="BS28" s="416"/>
+      <c r="BT28" s="416"/>
+      <c r="BU28" s="416"/>
+      <c r="BV28" s="416"/>
+      <c r="BW28" s="416"/>
+      <c r="BX28" s="416"/>
+      <c r="BY28" s="416"/>
+      <c r="BZ28" s="416"/>
+      <c r="CA28" s="416"/>
+      <c r="CB28" s="416"/>
+      <c r="CC28" s="416"/>
+      <c r="CD28" s="416"/>
+      <c r="CE28" s="416"/>
+      <c r="CF28" s="416"/>
+      <c r="CG28" s="416"/>
+      <c r="CH28" s="416"/>
+      <c r="CI28" s="416"/>
+      <c r="CJ28" s="416"/>
+      <c r="CK28" s="416"/>
+      <c r="CL28" s="416"/>
+      <c r="CM28" s="416"/>
+      <c r="CN28" s="416"/>
+      <c r="CO28" s="416"/>
+      <c r="CP28" s="416"/>
+      <c r="CQ28" s="416"/>
+      <c r="CR28" s="416"/>
     </row>
     <row r="29" spans="1:96" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="75">
@@ -14399,62 +14366,62 @@
       <c r="J29" s="95"/>
       <c r="K29" s="95"/>
       <c r="L29" s="95"/>
-      <c r="AO29" s="419"/>
-      <c r="AP29" s="419"/>
-      <c r="AQ29" s="419"/>
-      <c r="AR29" s="419"/>
-      <c r="AS29" s="419"/>
-      <c r="AT29" s="419"/>
-      <c r="AU29" s="419"/>
-      <c r="AV29" s="419"/>
-      <c r="AW29" s="419"/>
-      <c r="AX29" s="419"/>
-      <c r="AY29" s="419"/>
-      <c r="AZ29" s="419"/>
-      <c r="BA29" s="419"/>
-      <c r="BB29" s="419"/>
-      <c r="BC29" s="419"/>
-      <c r="BD29" s="419"/>
-      <c r="BE29" s="419"/>
-      <c r="BF29" s="419"/>
-      <c r="BG29" s="419"/>
-      <c r="BH29" s="419"/>
-      <c r="BI29" s="419"/>
-      <c r="BJ29" s="419"/>
-      <c r="BK29" s="419"/>
-      <c r="BL29" s="419"/>
-      <c r="BM29" s="419"/>
-      <c r="BN29" s="419"/>
-      <c r="BO29" s="419"/>
-      <c r="BP29" s="419"/>
-      <c r="BQ29" s="419"/>
-      <c r="BR29" s="419"/>
-      <c r="BS29" s="419"/>
-      <c r="BT29" s="419"/>
-      <c r="BU29" s="419"/>
-      <c r="BV29" s="419"/>
-      <c r="BW29" s="419"/>
-      <c r="BX29" s="419"/>
-      <c r="BY29" s="419"/>
-      <c r="BZ29" s="419"/>
-      <c r="CA29" s="419"/>
-      <c r="CB29" s="419"/>
-      <c r="CC29" s="419"/>
-      <c r="CD29" s="419"/>
-      <c r="CE29" s="419"/>
-      <c r="CF29" s="419"/>
-      <c r="CG29" s="419"/>
-      <c r="CH29" s="419"/>
-      <c r="CI29" s="419"/>
-      <c r="CJ29" s="419"/>
-      <c r="CK29" s="419"/>
-      <c r="CL29" s="419"/>
-      <c r="CM29" s="419"/>
-      <c r="CN29" s="419"/>
-      <c r="CO29" s="419"/>
-      <c r="CP29" s="419"/>
-      <c r="CQ29" s="419"/>
-      <c r="CR29" s="419"/>
+      <c r="AO29" s="413"/>
+      <c r="AP29" s="413"/>
+      <c r="AQ29" s="413"/>
+      <c r="AR29" s="413"/>
+      <c r="AS29" s="413"/>
+      <c r="AT29" s="413"/>
+      <c r="AU29" s="413"/>
+      <c r="AV29" s="413"/>
+      <c r="AW29" s="413"/>
+      <c r="AX29" s="413"/>
+      <c r="AY29" s="413"/>
+      <c r="AZ29" s="413"/>
+      <c r="BA29" s="413"/>
+      <c r="BB29" s="413"/>
+      <c r="BC29" s="413"/>
+      <c r="BD29" s="413"/>
+      <c r="BE29" s="413"/>
+      <c r="BF29" s="413"/>
+      <c r="BG29" s="413"/>
+      <c r="BH29" s="413"/>
+      <c r="BI29" s="413"/>
+      <c r="BJ29" s="413"/>
+      <c r="BK29" s="413"/>
+      <c r="BL29" s="413"/>
+      <c r="BM29" s="413"/>
+      <c r="BN29" s="413"/>
+      <c r="BO29" s="413"/>
+      <c r="BP29" s="413"/>
+      <c r="BQ29" s="413"/>
+      <c r="BR29" s="413"/>
+      <c r="BS29" s="413"/>
+      <c r="BT29" s="413"/>
+      <c r="BU29" s="413"/>
+      <c r="BV29" s="413"/>
+      <c r="BW29" s="413"/>
+      <c r="BX29" s="413"/>
+      <c r="BY29" s="413"/>
+      <c r="BZ29" s="413"/>
+      <c r="CA29" s="413"/>
+      <c r="CB29" s="413"/>
+      <c r="CC29" s="413"/>
+      <c r="CD29" s="413"/>
+      <c r="CE29" s="413"/>
+      <c r="CF29" s="413"/>
+      <c r="CG29" s="413"/>
+      <c r="CH29" s="413"/>
+      <c r="CI29" s="413"/>
+      <c r="CJ29" s="413"/>
+      <c r="CK29" s="413"/>
+      <c r="CL29" s="413"/>
+      <c r="CM29" s="413"/>
+      <c r="CN29" s="413"/>
+      <c r="CO29" s="413"/>
+      <c r="CP29" s="413"/>
+      <c r="CQ29" s="413"/>
+      <c r="CR29" s="413"/>
     </row>
     <row r="30" spans="1:96" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="75">
@@ -16212,162 +16179,162 @@
         <v>2</v>
       </c>
       <c r="H27" s="84"/>
-      <c r="I27" s="422"/>
-      <c r="J27" s="422"/>
-      <c r="K27" s="422"/>
-      <c r="L27" s="422"/>
-      <c r="M27" s="422"/>
-      <c r="N27" s="422"/>
-      <c r="O27" s="422"/>
-      <c r="P27" s="422"/>
-      <c r="Q27" s="422"/>
-      <c r="R27" s="422"/>
-      <c r="S27" s="422"/>
-      <c r="T27" s="422"/>
-      <c r="U27" s="422"/>
-      <c r="V27" s="422"/>
-      <c r="W27" s="422"/>
-      <c r="X27" s="422"/>
-      <c r="Y27" s="422"/>
-      <c r="Z27" s="422"/>
-      <c r="AA27" s="422"/>
-      <c r="AB27" s="422"/>
-      <c r="AC27" s="422"/>
-      <c r="AD27" s="422"/>
-      <c r="AE27" s="422"/>
-      <c r="AF27" s="422"/>
-      <c r="AG27" s="422"/>
-      <c r="AH27" s="422"/>
-      <c r="AI27" s="422"/>
-      <c r="AJ27" s="422"/>
-      <c r="AK27" s="422"/>
-      <c r="AL27" s="422"/>
-      <c r="AM27" s="422"/>
-      <c r="AN27" s="422"/>
-      <c r="AO27" s="422"/>
-      <c r="AP27" s="422"/>
-      <c r="AQ27" s="422"/>
-      <c r="AR27" s="422"/>
-      <c r="AS27" s="422"/>
-      <c r="AT27" s="422"/>
-      <c r="AU27" s="422"/>
-      <c r="AV27" s="422"/>
-      <c r="AW27" s="422"/>
-      <c r="AX27" s="422"/>
-      <c r="AY27" s="422"/>
-      <c r="AZ27" s="422"/>
-      <c r="BA27" s="422"/>
-      <c r="BB27" s="422"/>
-      <c r="BC27" s="422"/>
-      <c r="BD27" s="422"/>
-      <c r="BE27" s="422"/>
-      <c r="BF27" s="422"/>
-      <c r="BG27" s="422"/>
-      <c r="BH27" s="422"/>
-      <c r="BI27" s="422"/>
-      <c r="BJ27" s="422"/>
-      <c r="BK27" s="422"/>
-      <c r="BL27" s="422"/>
-      <c r="BM27" s="422"/>
-      <c r="BN27" s="422"/>
-      <c r="BO27" s="422"/>
-      <c r="BP27" s="422"/>
-      <c r="BQ27" s="422"/>
-      <c r="BR27" s="422"/>
-      <c r="BS27" s="422"/>
-      <c r="BT27" s="422"/>
-      <c r="BU27" s="422"/>
-      <c r="BV27" s="422"/>
-      <c r="BW27" s="422"/>
-      <c r="BX27" s="422"/>
-      <c r="BY27" s="422"/>
-      <c r="BZ27" s="422"/>
-      <c r="CA27" s="422"/>
-      <c r="CB27" s="422"/>
-      <c r="CC27" s="422"/>
-      <c r="CD27" s="422"/>
-      <c r="CE27" s="422"/>
-      <c r="CF27" s="422"/>
-      <c r="CG27" s="422"/>
-      <c r="CH27" s="422"/>
-      <c r="CI27" s="422"/>
-      <c r="CJ27" s="422"/>
-      <c r="CK27" s="422"/>
-      <c r="CL27" s="422"/>
-      <c r="CM27" s="422"/>
-      <c r="CN27" s="422"/>
-      <c r="CO27" s="422"/>
-      <c r="CP27" s="422"/>
-      <c r="CQ27" s="422"/>
-      <c r="CR27" s="422"/>
-      <c r="CS27" s="422"/>
-      <c r="CT27" s="422"/>
-      <c r="CU27" s="422"/>
-      <c r="CV27" s="422"/>
-      <c r="CW27" s="422"/>
-      <c r="CX27" s="422"/>
-      <c r="CY27" s="422"/>
-      <c r="CZ27" s="422"/>
-      <c r="DA27" s="422"/>
-      <c r="DB27" s="422"/>
-      <c r="DC27" s="422"/>
-      <c r="DD27" s="422"/>
-      <c r="DE27" s="422"/>
-      <c r="DF27" s="422"/>
-      <c r="DG27" s="422"/>
-      <c r="DH27" s="422"/>
-      <c r="DI27" s="422"/>
-      <c r="DJ27" s="422"/>
-      <c r="DK27" s="422"/>
-      <c r="DL27" s="422"/>
-      <c r="DM27" s="422"/>
-      <c r="DN27" s="422"/>
-      <c r="DO27" s="422"/>
-      <c r="DP27" s="422"/>
-      <c r="DQ27" s="422"/>
-      <c r="DR27" s="422"/>
-      <c r="DS27" s="422"/>
-      <c r="DT27" s="422"/>
-      <c r="DU27" s="422"/>
-      <c r="DV27" s="422"/>
-      <c r="DW27" s="422"/>
-      <c r="DX27" s="422"/>
-      <c r="DY27" s="422"/>
-      <c r="DZ27" s="422"/>
-      <c r="EA27" s="422"/>
-      <c r="EB27" s="422"/>
-      <c r="EC27" s="422"/>
-      <c r="ED27" s="422"/>
-      <c r="EE27" s="422"/>
-      <c r="EF27" s="422"/>
-      <c r="EG27" s="422"/>
-      <c r="EH27" s="422"/>
-      <c r="EI27" s="422"/>
-      <c r="EJ27" s="422"/>
-      <c r="EK27" s="422"/>
-      <c r="EL27" s="422"/>
-      <c r="EM27" s="422"/>
-      <c r="EN27" s="422"/>
-      <c r="EO27" s="422"/>
-      <c r="EP27" s="422"/>
-      <c r="EQ27" s="422"/>
-      <c r="ER27" s="422"/>
-      <c r="ES27" s="422"/>
-      <c r="ET27" s="422"/>
-      <c r="EU27" s="422"/>
-      <c r="EV27" s="422"/>
-      <c r="EW27" s="422"/>
-      <c r="EX27" s="422"/>
-      <c r="EY27" s="422"/>
-      <c r="EZ27" s="422"/>
-      <c r="FA27" s="422"/>
-      <c r="FB27" s="422"/>
-      <c r="FC27" s="422"/>
-      <c r="FD27" s="422"/>
-      <c r="FE27" s="422"/>
-      <c r="FF27" s="422"/>
-      <c r="FG27" s="422"/>
-      <c r="FH27" s="422"/>
+      <c r="I27" s="416"/>
+      <c r="J27" s="416"/>
+      <c r="K27" s="416"/>
+      <c r="L27" s="416"/>
+      <c r="M27" s="416"/>
+      <c r="N27" s="416"/>
+      <c r="O27" s="416"/>
+      <c r="P27" s="416"/>
+      <c r="Q27" s="416"/>
+      <c r="R27" s="416"/>
+      <c r="S27" s="416"/>
+      <c r="T27" s="416"/>
+      <c r="U27" s="416"/>
+      <c r="V27" s="416"/>
+      <c r="W27" s="416"/>
+      <c r="X27" s="416"/>
+      <c r="Y27" s="416"/>
+      <c r="Z27" s="416"/>
+      <c r="AA27" s="416"/>
+      <c r="AB27" s="416"/>
+      <c r="AC27" s="416"/>
+      <c r="AD27" s="416"/>
+      <c r="AE27" s="416"/>
+      <c r="AF27" s="416"/>
+      <c r="AG27" s="416"/>
+      <c r="AH27" s="416"/>
+      <c r="AI27" s="416"/>
+      <c r="AJ27" s="416"/>
+      <c r="AK27" s="416"/>
+      <c r="AL27" s="416"/>
+      <c r="AM27" s="416"/>
+      <c r="AN27" s="416"/>
+      <c r="AO27" s="416"/>
+      <c r="AP27" s="416"/>
+      <c r="AQ27" s="416"/>
+      <c r="AR27" s="416"/>
+      <c r="AS27" s="416"/>
+      <c r="AT27" s="416"/>
+      <c r="AU27" s="416"/>
+      <c r="AV27" s="416"/>
+      <c r="AW27" s="416"/>
+      <c r="AX27" s="416"/>
+      <c r="AY27" s="416"/>
+      <c r="AZ27" s="416"/>
+      <c r="BA27" s="416"/>
+      <c r="BB27" s="416"/>
+      <c r="BC27" s="416"/>
+      <c r="BD27" s="416"/>
+      <c r="BE27" s="416"/>
+      <c r="BF27" s="416"/>
+      <c r="BG27" s="416"/>
+      <c r="BH27" s="416"/>
+      <c r="BI27" s="416"/>
+      <c r="BJ27" s="416"/>
+      <c r="BK27" s="416"/>
+      <c r="BL27" s="416"/>
+      <c r="BM27" s="416"/>
+      <c r="BN27" s="416"/>
+      <c r="BO27" s="416"/>
+      <c r="BP27" s="416"/>
+      <c r="BQ27" s="416"/>
+      <c r="BR27" s="416"/>
+      <c r="BS27" s="416"/>
+      <c r="BT27" s="416"/>
+      <c r="BU27" s="416"/>
+      <c r="BV27" s="416"/>
+      <c r="BW27" s="416"/>
+      <c r="BX27" s="416"/>
+      <c r="BY27" s="416"/>
+      <c r="BZ27" s="416"/>
+      <c r="CA27" s="416"/>
+      <c r="CB27" s="416"/>
+      <c r="CC27" s="416"/>
+      <c r="CD27" s="416"/>
+      <c r="CE27" s="416"/>
+      <c r="CF27" s="416"/>
+      <c r="CG27" s="416"/>
+      <c r="CH27" s="416"/>
+      <c r="CI27" s="416"/>
+      <c r="CJ27" s="416"/>
+      <c r="CK27" s="416"/>
+      <c r="CL27" s="416"/>
+      <c r="CM27" s="416"/>
+      <c r="CN27" s="416"/>
+      <c r="CO27" s="416"/>
+      <c r="CP27" s="416"/>
+      <c r="CQ27" s="416"/>
+      <c r="CR27" s="416"/>
+      <c r="CS27" s="416"/>
+      <c r="CT27" s="416"/>
+      <c r="CU27" s="416"/>
+      <c r="CV27" s="416"/>
+      <c r="CW27" s="416"/>
+      <c r="CX27" s="416"/>
+      <c r="CY27" s="416"/>
+      <c r="CZ27" s="416"/>
+      <c r="DA27" s="416"/>
+      <c r="DB27" s="416"/>
+      <c r="DC27" s="416"/>
+      <c r="DD27" s="416"/>
+      <c r="DE27" s="416"/>
+      <c r="DF27" s="416"/>
+      <c r="DG27" s="416"/>
+      <c r="DH27" s="416"/>
+      <c r="DI27" s="416"/>
+      <c r="DJ27" s="416"/>
+      <c r="DK27" s="416"/>
+      <c r="DL27" s="416"/>
+      <c r="DM27" s="416"/>
+      <c r="DN27" s="416"/>
+      <c r="DO27" s="416"/>
+      <c r="DP27" s="416"/>
+      <c r="DQ27" s="416"/>
+      <c r="DR27" s="416"/>
+      <c r="DS27" s="416"/>
+      <c r="DT27" s="416"/>
+      <c r="DU27" s="416"/>
+      <c r="DV27" s="416"/>
+      <c r="DW27" s="416"/>
+      <c r="DX27" s="416"/>
+      <c r="DY27" s="416"/>
+      <c r="DZ27" s="416"/>
+      <c r="EA27" s="416"/>
+      <c r="EB27" s="416"/>
+      <c r="EC27" s="416"/>
+      <c r="ED27" s="416"/>
+      <c r="EE27" s="416"/>
+      <c r="EF27" s="416"/>
+      <c r="EG27" s="416"/>
+      <c r="EH27" s="416"/>
+      <c r="EI27" s="416"/>
+      <c r="EJ27" s="416"/>
+      <c r="EK27" s="416"/>
+      <c r="EL27" s="416"/>
+      <c r="EM27" s="416"/>
+      <c r="EN27" s="416"/>
+      <c r="EO27" s="416"/>
+      <c r="EP27" s="416"/>
+      <c r="EQ27" s="416"/>
+      <c r="ER27" s="416"/>
+      <c r="ES27" s="416"/>
+      <c r="ET27" s="416"/>
+      <c r="EU27" s="416"/>
+      <c r="EV27" s="416"/>
+      <c r="EW27" s="416"/>
+      <c r="EX27" s="416"/>
+      <c r="EY27" s="416"/>
+      <c r="EZ27" s="416"/>
+      <c r="FA27" s="416"/>
+      <c r="FB27" s="416"/>
+      <c r="FC27" s="416"/>
+      <c r="FD27" s="416"/>
+      <c r="FE27" s="416"/>
+      <c r="FF27" s="416"/>
+      <c r="FG27" s="416"/>
+      <c r="FH27" s="416"/>
     </row>
     <row r="28" spans="1:164" s="306" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="85">
@@ -16388,50 +16355,50 @@
         <v>3</v>
       </c>
       <c r="H28" s="84"/>
-      <c r="I28" s="419"/>
-      <c r="J28" s="419"/>
-      <c r="K28" s="419"/>
-      <c r="L28" s="419"/>
-      <c r="M28" s="419"/>
-      <c r="N28" s="419"/>
-      <c r="O28" s="419"/>
-      <c r="P28" s="419"/>
-      <c r="Q28" s="419"/>
-      <c r="R28" s="419"/>
-      <c r="S28" s="419"/>
-      <c r="T28" s="419"/>
-      <c r="U28" s="419"/>
-      <c r="V28" s="419"/>
-      <c r="W28" s="419"/>
-      <c r="X28" s="419"/>
-      <c r="Y28" s="419"/>
-      <c r="Z28" s="419"/>
-      <c r="AA28" s="419"/>
-      <c r="AB28" s="419"/>
-      <c r="AC28" s="419"/>
-      <c r="AD28" s="419"/>
-      <c r="AE28" s="419"/>
-      <c r="AF28" s="419"/>
-      <c r="AG28" s="419"/>
-      <c r="AH28" s="419"/>
-      <c r="AI28" s="419"/>
-      <c r="AJ28" s="419"/>
-      <c r="AK28" s="419"/>
-      <c r="AL28" s="419"/>
-      <c r="AM28" s="419"/>
-      <c r="AN28" s="419"/>
-      <c r="AO28" s="419"/>
-      <c r="AP28" s="419"/>
-      <c r="AQ28" s="419"/>
-      <c r="AR28" s="419"/>
+      <c r="I28" s="413"/>
+      <c r="J28" s="413"/>
+      <c r="K28" s="413"/>
+      <c r="L28" s="413"/>
+      <c r="M28" s="413"/>
+      <c r="N28" s="413"/>
+      <c r="O28" s="413"/>
+      <c r="P28" s="413"/>
+      <c r="Q28" s="413"/>
+      <c r="R28" s="413"/>
+      <c r="S28" s="413"/>
+      <c r="T28" s="413"/>
+      <c r="U28" s="413"/>
+      <c r="V28" s="413"/>
+      <c r="W28" s="413"/>
+      <c r="X28" s="413"/>
+      <c r="Y28" s="413"/>
+      <c r="Z28" s="413"/>
+      <c r="AA28" s="413"/>
+      <c r="AB28" s="413"/>
+      <c r="AC28" s="413"/>
+      <c r="AD28" s="413"/>
+      <c r="AE28" s="413"/>
+      <c r="AF28" s="413"/>
+      <c r="AG28" s="413"/>
+      <c r="AH28" s="413"/>
+      <c r="AI28" s="413"/>
+      <c r="AJ28" s="413"/>
+      <c r="AK28" s="413"/>
+      <c r="AL28" s="413"/>
+      <c r="AM28" s="413"/>
+      <c r="AN28" s="413"/>
+      <c r="AO28" s="413"/>
+      <c r="AP28" s="413"/>
+      <c r="AQ28" s="413"/>
+      <c r="AR28" s="413"/>
     </row>
     <row r="29" spans="1:164" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="359">
-        <v>42736</v>
-      </c>
-      <c r="B29" s="360"/>
+      <c r="A29" s="355">
+        <v>42736</v>
+      </c>
+      <c r="B29" s="356"/>
       <c r="C29" s="307" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D29" s="307" t="s">
         <v>493</v>
@@ -16439,11 +16406,11 @@
       <c r="E29" s="307" t="s">
         <v>494</v>
       </c>
-      <c r="F29" s="352"/>
-      <c r="G29" s="364">
+      <c r="F29" s="351"/>
+      <c r="G29" s="360">
         <v>1</v>
       </c>
-      <c r="H29" s="365"/>
+      <c r="H29" s="361"/>
     </row>
     <row r="30" spans="1:164" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="300">
@@ -16451,7 +16418,7 @@
       </c>
       <c r="B30" s="301"/>
       <c r="C30" s="307" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D30" s="302" t="s">
         <v>489</v>
@@ -16460,7 +16427,7 @@
         <v>490</v>
       </c>
       <c r="F30" s="303"/>
-      <c r="G30" s="378">
+      <c r="G30" s="372">
         <v>1</v>
       </c>
       <c r="H30" s="304"/>
@@ -16722,13 +16689,13 @@
         <v>884</v>
       </c>
       <c r="D5" s="79" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="E5" s="79" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F5" s="79" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G5" s="94">
         <v>1</v>
@@ -18174,77 +18141,77 @@
       <c r="T39" s="17"/>
     </row>
     <row r="40" spans="1:20" s="343" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="359">
-        <v>42736</v>
-      </c>
-      <c r="B40" s="352"/>
-      <c r="C40" s="352" t="s">
-        <v>924</v>
-      </c>
-      <c r="D40" s="379" t="s">
+      <c r="A40" s="355">
+        <v>42736</v>
+      </c>
+      <c r="B40" s="351"/>
+      <c r="C40" s="351" t="s">
+        <v>921</v>
+      </c>
+      <c r="D40" s="373" t="s">
+        <v>923</v>
+      </c>
+      <c r="E40" s="307" t="s">
         <v>926</v>
       </c>
-      <c r="E40" s="307" t="s">
-        <v>929</v>
-      </c>
       <c r="F40" s="307" t="s">
-        <v>931</v>
-      </c>
-      <c r="G40" s="364">
+        <v>928</v>
+      </c>
+      <c r="G40" s="360">
         <v>1</v>
       </c>
-      <c r="H40" s="361" t="s">
+      <c r="H40" s="357" t="s">
         <v>489</v>
       </c>
       <c r="I40" s="307" t="s">
         <v>493</v>
       </c>
-      <c r="J40" s="380"/>
-      <c r="K40" s="380"/>
-      <c r="L40" s="380"/>
-      <c r="M40" s="380"/>
-      <c r="N40" s="380"/>
-      <c r="O40" s="380"/>
-      <c r="P40" s="361" t="s">
+      <c r="J40" s="374"/>
+      <c r="K40" s="374"/>
+      <c r="L40" s="374"/>
+      <c r="M40" s="374"/>
+      <c r="N40" s="374"/>
+      <c r="O40" s="374"/>
+      <c r="P40" s="357" t="s">
         <v>26</v>
       </c>
-      <c r="Q40" s="361" t="s">
+      <c r="Q40" s="357" t="s">
         <v>533</v>
       </c>
-      <c r="R40" s="352"/>
-      <c r="S40" s="352"/>
-      <c r="T40" s="381"/>
+      <c r="R40" s="351"/>
+      <c r="S40" s="351"/>
+      <c r="T40" s="375"/>
     </row>
     <row r="41" spans="1:20" s="306" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="300">
         <v>42736</v>
       </c>
-      <c r="B41" s="382"/>
-      <c r="C41" s="382" t="s">
-        <v>924</v>
-      </c>
-      <c r="D41" s="383" t="s">
-        <v>925</v>
+      <c r="B41" s="376"/>
+      <c r="C41" s="376" t="s">
+        <v>921</v>
+      </c>
+      <c r="D41" s="377" t="s">
+        <v>922</v>
       </c>
       <c r="E41" s="307" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="F41" s="307" t="s">
-        <v>932</v>
-      </c>
-      <c r="G41" s="378">
+        <v>929</v>
+      </c>
+      <c r="G41" s="372">
         <v>1</v>
       </c>
       <c r="H41" s="302"/>
       <c r="I41" s="302" t="s">
         <v>489</v>
       </c>
-      <c r="J41" s="384"/>
-      <c r="K41" s="384"/>
-      <c r="L41" s="384"/>
-      <c r="M41" s="384"/>
-      <c r="N41" s="384"/>
-      <c r="O41" s="384"/>
+      <c r="J41" s="378"/>
+      <c r="K41" s="378"/>
+      <c r="L41" s="378"/>
+      <c r="M41" s="378"/>
+      <c r="N41" s="378"/>
+      <c r="O41" s="378"/>
       <c r="P41" s="302" t="s">
         <v>26</v>
       </c>
@@ -19061,161 +19028,161 @@
       <c r="P19" s="98"/>
       <c r="Q19" s="77"/>
     </row>
-    <row r="20" spans="1:17" s="422" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="432">
-        <v>42736</v>
-      </c>
-      <c r="B20" s="433"/>
-      <c r="C20" s="426" t="s">
+    <row r="20" spans="1:17" s="416" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="426">
+        <v>42736</v>
+      </c>
+      <c r="B20" s="427"/>
+      <c r="C20" s="420" t="s">
         <v>884</v>
       </c>
-      <c r="D20" s="426" t="s">
+      <c r="D20" s="420" t="s">
         <v>392</v>
       </c>
-      <c r="E20" s="426" t="s">
+      <c r="E20" s="420" t="s">
+        <v>936</v>
+      </c>
+      <c r="F20" s="428">
+        <v>1</v>
+      </c>
+      <c r="G20" s="420" t="s">
+        <v>609</v>
+      </c>
+      <c r="H20" s="420" t="s">
+        <v>597</v>
+      </c>
+      <c r="I20" s="420" t="s">
+        <v>598</v>
+      </c>
+      <c r="J20" s="429">
+        <v>18</v>
+      </c>
+      <c r="K20" s="430"/>
+      <c r="L20" s="430"/>
+      <c r="M20" s="430"/>
+      <c r="N20" s="430"/>
+      <c r="O20" s="431" t="s">
+        <v>533</v>
+      </c>
+      <c r="P20" s="430"/>
+      <c r="Q20" s="432"/>
+    </row>
+    <row r="21" spans="1:17" s="416" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="426">
+        <v>42736</v>
+      </c>
+      <c r="B21" s="427"/>
+      <c r="C21" s="420" t="s">
+        <v>884</v>
+      </c>
+      <c r="D21" s="420" t="s">
+        <v>392</v>
+      </c>
+      <c r="E21" s="420" t="s">
+        <v>937</v>
+      </c>
+      <c r="F21" s="428">
+        <v>1</v>
+      </c>
+      <c r="G21" s="420" t="s">
+        <v>609</v>
+      </c>
+      <c r="H21" s="420" t="s">
+        <v>597</v>
+      </c>
+      <c r="I21" s="420" t="s">
+        <v>598</v>
+      </c>
+      <c r="J21" s="429">
+        <v>19</v>
+      </c>
+      <c r="K21" s="430"/>
+      <c r="L21" s="430"/>
+      <c r="M21" s="430"/>
+      <c r="N21" s="430"/>
+      <c r="O21" s="431" t="s">
+        <v>533</v>
+      </c>
+      <c r="P21" s="430"/>
+      <c r="Q21" s="432"/>
+    </row>
+    <row r="22" spans="1:17" s="416" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="426">
+        <v>42736</v>
+      </c>
+      <c r="B22" s="427"/>
+      <c r="C22" s="420" t="s">
+        <v>884</v>
+      </c>
+      <c r="D22" s="420" t="s">
+        <v>940</v>
+      </c>
+      <c r="E22" s="420" t="s">
+        <v>936</v>
+      </c>
+      <c r="F22" s="428">
+        <v>1</v>
+      </c>
+      <c r="G22" s="420" t="s">
+        <v>609</v>
+      </c>
+      <c r="H22" s="420" t="s">
+        <v>597</v>
+      </c>
+      <c r="I22" s="420" t="s">
         <v>939</v>
       </c>
-      <c r="F20" s="434">
+      <c r="J22" s="429">
         <v>1</v>
       </c>
-      <c r="G20" s="426" t="s">
+      <c r="K22" s="430"/>
+      <c r="L22" s="430"/>
+      <c r="M22" s="430"/>
+      <c r="N22" s="430"/>
+      <c r="O22" s="431" t="s">
+        <v>533</v>
+      </c>
+      <c r="P22" s="430"/>
+      <c r="Q22" s="432"/>
+    </row>
+    <row r="23" spans="1:17" s="416" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="426">
+        <v>42736</v>
+      </c>
+      <c r="B23" s="427"/>
+      <c r="C23" s="420" t="s">
+        <v>884</v>
+      </c>
+      <c r="D23" s="420" t="s">
+        <v>940</v>
+      </c>
+      <c r="E23" s="420" t="s">
+        <v>937</v>
+      </c>
+      <c r="F23" s="428">
+        <v>1</v>
+      </c>
+      <c r="G23" s="420" t="s">
         <v>609</v>
       </c>
-      <c r="H20" s="426" t="s">
+      <c r="H23" s="420" t="s">
         <v>597</v>
       </c>
-      <c r="I20" s="426" t="s">
-        <v>598</v>
-      </c>
-      <c r="J20" s="435">
-        <v>18</v>
-      </c>
-      <c r="K20" s="436"/>
-      <c r="L20" s="436"/>
-      <c r="M20" s="436"/>
-      <c r="N20" s="436"/>
-      <c r="O20" s="437" t="s">
+      <c r="I23" s="420" t="s">
+        <v>939</v>
+      </c>
+      <c r="J23" s="429">
+        <v>2</v>
+      </c>
+      <c r="K23" s="430"/>
+      <c r="L23" s="430"/>
+      <c r="M23" s="430"/>
+      <c r="N23" s="430"/>
+      <c r="O23" s="431" t="s">
         <v>533</v>
       </c>
-      <c r="P20" s="436"/>
-      <c r="Q20" s="438"/>
-    </row>
-    <row r="21" spans="1:17" s="422" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="432">
-        <v>42736</v>
-      </c>
-      <c r="B21" s="433"/>
-      <c r="C21" s="426" t="s">
-        <v>884</v>
-      </c>
-      <c r="D21" s="426" t="s">
-        <v>392</v>
-      </c>
-      <c r="E21" s="426" t="s">
-        <v>940</v>
-      </c>
-      <c r="F21" s="434">
-        <v>1</v>
-      </c>
-      <c r="G21" s="426" t="s">
-        <v>609</v>
-      </c>
-      <c r="H21" s="426" t="s">
-        <v>597</v>
-      </c>
-      <c r="I21" s="426" t="s">
-        <v>598</v>
-      </c>
-      <c r="J21" s="435">
-        <v>19</v>
-      </c>
-      <c r="K21" s="436"/>
-      <c r="L21" s="436"/>
-      <c r="M21" s="436"/>
-      <c r="N21" s="436"/>
-      <c r="O21" s="437" t="s">
-        <v>533</v>
-      </c>
-      <c r="P21" s="436"/>
-      <c r="Q21" s="438"/>
-    </row>
-    <row r="22" spans="1:17" s="422" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="432">
-        <v>42736</v>
-      </c>
-      <c r="B22" s="433"/>
-      <c r="C22" s="426" t="s">
-        <v>884</v>
-      </c>
-      <c r="D22" s="426" t="s">
-        <v>943</v>
-      </c>
-      <c r="E22" s="426" t="s">
-        <v>939</v>
-      </c>
-      <c r="F22" s="434">
-        <v>1</v>
-      </c>
-      <c r="G22" s="426" t="s">
-        <v>609</v>
-      </c>
-      <c r="H22" s="426" t="s">
-        <v>597</v>
-      </c>
-      <c r="I22" s="426" t="s">
-        <v>942</v>
-      </c>
-      <c r="J22" s="435">
-        <v>1</v>
-      </c>
-      <c r="K22" s="436"/>
-      <c r="L22" s="436"/>
-      <c r="M22" s="436"/>
-      <c r="N22" s="436"/>
-      <c r="O22" s="437" t="s">
-        <v>533</v>
-      </c>
-      <c r="P22" s="436"/>
-      <c r="Q22" s="438"/>
-    </row>
-    <row r="23" spans="1:17" s="422" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="432">
-        <v>42736</v>
-      </c>
-      <c r="B23" s="433"/>
-      <c r="C23" s="426" t="s">
-        <v>884</v>
-      </c>
-      <c r="D23" s="426" t="s">
-        <v>943</v>
-      </c>
-      <c r="E23" s="426" t="s">
-        <v>940</v>
-      </c>
-      <c r="F23" s="434">
-        <v>1</v>
-      </c>
-      <c r="G23" s="426" t="s">
-        <v>609</v>
-      </c>
-      <c r="H23" s="426" t="s">
-        <v>597</v>
-      </c>
-      <c r="I23" s="426" t="s">
-        <v>942</v>
-      </c>
-      <c r="J23" s="435">
-        <v>2</v>
-      </c>
-      <c r="K23" s="436"/>
-      <c r="L23" s="436"/>
-      <c r="M23" s="436"/>
-      <c r="N23" s="436"/>
-      <c r="O23" s="437" t="s">
-        <v>533</v>
-      </c>
-      <c r="P23" s="436"/>
-      <c r="Q23" s="438"/>
+      <c r="P23" s="430"/>
+      <c r="Q23" s="432"/>
     </row>
     <row r="24" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="74">
@@ -19649,20 +19616,20 @@
       <c r="Q34" s="78"/>
     </row>
     <row r="35" spans="1:17" s="343" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="359">
-        <v>42736</v>
-      </c>
-      <c r="B35" s="360"/>
+      <c r="A35" s="355">
+        <v>42736</v>
+      </c>
+      <c r="B35" s="356"/>
       <c r="C35" s="307" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D35" s="307" t="s">
-        <v>925</v>
-      </c>
-      <c r="E35" s="361" t="s">
+        <v>922</v>
+      </c>
+      <c r="E35" s="357" t="s">
         <v>910</v>
       </c>
-      <c r="F35" s="366">
+      <c r="F35" s="362">
         <v>1</v>
       </c>
       <c r="G35" s="307" t="s">
@@ -19672,36 +19639,36 @@
         <v>610</v>
       </c>
       <c r="I35" s="307" t="s">
-        <v>930</v>
-      </c>
-      <c r="J35" s="364">
+        <v>927</v>
+      </c>
+      <c r="J35" s="360">
         <v>1</v>
       </c>
-      <c r="K35" s="352"/>
-      <c r="L35" s="352"/>
-      <c r="M35" s="352"/>
-      <c r="N35" s="352"/>
-      <c r="O35" s="361" t="s">
+      <c r="K35" s="351"/>
+      <c r="L35" s="351"/>
+      <c r="M35" s="351"/>
+      <c r="N35" s="351"/>
+      <c r="O35" s="357" t="s">
         <v>533</v>
       </c>
-      <c r="P35" s="352"/>
-      <c r="Q35" s="365"/>
+      <c r="P35" s="351"/>
+      <c r="Q35" s="361"/>
     </row>
     <row r="36" spans="1:17" s="343" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="359">
-        <v>42736</v>
-      </c>
-      <c r="B36" s="360"/>
+      <c r="A36" s="355">
+        <v>42736</v>
+      </c>
+      <c r="B36" s="356"/>
       <c r="C36" s="307" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D36" s="307" t="s">
-        <v>925</v>
-      </c>
-      <c r="E36" s="361" t="s">
+        <v>922</v>
+      </c>
+      <c r="E36" s="357" t="s">
         <v>911</v>
       </c>
-      <c r="F36" s="366">
+      <c r="F36" s="362">
         <v>1</v>
       </c>
       <c r="G36" s="307" t="s">
@@ -19711,36 +19678,36 @@
         <v>610</v>
       </c>
       <c r="I36" s="307" t="s">
-        <v>930</v>
-      </c>
-      <c r="J36" s="364">
+        <v>927</v>
+      </c>
+      <c r="J36" s="360">
         <v>2</v>
       </c>
-      <c r="K36" s="352"/>
-      <c r="L36" s="352"/>
-      <c r="M36" s="352"/>
-      <c r="N36" s="352"/>
-      <c r="O36" s="361" t="s">
+      <c r="K36" s="351"/>
+      <c r="L36" s="351"/>
+      <c r="M36" s="351"/>
+      <c r="N36" s="351"/>
+      <c r="O36" s="357" t="s">
         <v>533</v>
       </c>
-      <c r="P36" s="352"/>
-      <c r="Q36" s="365"/>
+      <c r="P36" s="351"/>
+      <c r="Q36" s="361"/>
     </row>
     <row r="37" spans="1:17" s="343" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="359">
-        <v>42736</v>
-      </c>
-      <c r="B37" s="360"/>
+      <c r="A37" s="355">
+        <v>42736</v>
+      </c>
+      <c r="B37" s="356"/>
       <c r="C37" s="307" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D37" s="307" t="s">
-        <v>926</v>
-      </c>
-      <c r="E37" s="361" t="s">
+        <v>923</v>
+      </c>
+      <c r="E37" s="357" t="s">
         <v>910</v>
       </c>
-      <c r="F37" s="366">
+      <c r="F37" s="362">
         <v>1</v>
       </c>
       <c r="G37" s="307" t="s">
@@ -19750,36 +19717,36 @@
         <v>610</v>
       </c>
       <c r="I37" s="307" t="s">
-        <v>929</v>
-      </c>
-      <c r="J37" s="364">
+        <v>926</v>
+      </c>
+      <c r="J37" s="360">
         <v>1</v>
       </c>
-      <c r="K37" s="352"/>
-      <c r="L37" s="352"/>
-      <c r="M37" s="352"/>
-      <c r="N37" s="352"/>
-      <c r="O37" s="361" t="s">
+      <c r="K37" s="351"/>
+      <c r="L37" s="351"/>
+      <c r="M37" s="351"/>
+      <c r="N37" s="351"/>
+      <c r="O37" s="357" t="s">
         <v>533</v>
       </c>
-      <c r="P37" s="352"/>
-      <c r="Q37" s="365"/>
+      <c r="P37" s="351"/>
+      <c r="Q37" s="361"/>
     </row>
     <row r="38" spans="1:17" s="343" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="359">
-        <v>42736</v>
-      </c>
-      <c r="B38" s="360"/>
+      <c r="A38" s="355">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="356"/>
       <c r="C38" s="307" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D38" s="307" t="s">
-        <v>926</v>
-      </c>
-      <c r="E38" s="361" t="s">
+        <v>923</v>
+      </c>
+      <c r="E38" s="357" t="s">
         <v>911</v>
       </c>
-      <c r="F38" s="366">
+      <c r="F38" s="362">
         <v>1</v>
       </c>
       <c r="G38" s="307" t="s">
@@ -19789,20 +19756,20 @@
         <v>610</v>
       </c>
       <c r="I38" s="307" t="s">
-        <v>929</v>
-      </c>
-      <c r="J38" s="364">
+        <v>926</v>
+      </c>
+      <c r="J38" s="360">
         <v>2</v>
       </c>
-      <c r="K38" s="352"/>
-      <c r="L38" s="352"/>
-      <c r="M38" s="352"/>
-      <c r="N38" s="352"/>
-      <c r="O38" s="361" t="s">
+      <c r="K38" s="351"/>
+      <c r="L38" s="351"/>
+      <c r="M38" s="351"/>
+      <c r="N38" s="351"/>
+      <c r="O38" s="357" t="s">
         <v>533</v>
       </c>
-      <c r="P38" s="352"/>
-      <c r="Q38" s="365"/>
+      <c r="P38" s="351"/>
+      <c r="Q38" s="361"/>
     </row>
     <row r="39" spans="1:17" s="343" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="74">
@@ -25504,34 +25471,34 @@
       <c r="H47" s="92"/>
     </row>
     <row r="48" spans="1:8" s="306" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="386">
-        <v>42736</v>
-      </c>
-      <c r="B48" s="386"/>
-      <c r="C48" s="387" t="s">
-        <v>924</v>
-      </c>
-      <c r="D48" s="388" t="s">
+      <c r="A48" s="380">
+        <v>42736</v>
+      </c>
+      <c r="B48" s="380"/>
+      <c r="C48" s="381" t="s">
+        <v>921</v>
+      </c>
+      <c r="D48" s="382" t="s">
         <v>910</v>
       </c>
-      <c r="E48" s="388" t="s">
-        <v>919</v>
-      </c>
-      <c r="F48" s="387" t="s">
-        <v>934</v>
-      </c>
-      <c r="G48" s="389">
+      <c r="E48" s="382" t="s">
+        <v>918</v>
+      </c>
+      <c r="F48" s="381" t="s">
+        <v>931</v>
+      </c>
+      <c r="G48" s="383">
         <v>1</v>
       </c>
-      <c r="H48" s="387"/>
+      <c r="H48" s="381"/>
     </row>
     <row r="49" spans="1:8" s="306" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="390">
-        <v>42736</v>
-      </c>
-      <c r="B49" s="390"/>
-      <c r="C49" s="391" t="s">
-        <v>924</v>
+      <c r="A49" s="384">
+        <v>42736</v>
+      </c>
+      <c r="B49" s="384"/>
+      <c r="C49" s="385" t="s">
+        <v>921</v>
       </c>
       <c r="D49" s="346" t="s">
         <v>911</v>
@@ -25539,35 +25506,35 @@
       <c r="E49" s="346" t="s">
         <v>917</v>
       </c>
-      <c r="F49" s="391" t="s">
-        <v>933</v>
-      </c>
-      <c r="G49" s="392">
+      <c r="F49" s="385" t="s">
+        <v>930</v>
+      </c>
+      <c r="G49" s="386">
         <v>2</v>
       </c>
-      <c r="H49" s="391"/>
+      <c r="H49" s="385"/>
     </row>
     <row r="50" spans="1:8" s="306" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="386">
-        <v>42736</v>
-      </c>
-      <c r="B50" s="386"/>
-      <c r="C50" s="387" t="s">
-        <v>924</v>
-      </c>
-      <c r="D50" s="388" t="s">
+      <c r="A50" s="380">
+        <v>42736</v>
+      </c>
+      <c r="B50" s="380"/>
+      <c r="C50" s="381" t="s">
+        <v>921</v>
+      </c>
+      <c r="D50" s="382" t="s">
         <v>911</v>
       </c>
-      <c r="E50" s="388" t="s">
+      <c r="E50" s="382" t="s">
         <v>915</v>
       </c>
-      <c r="F50" s="387" t="s">
-        <v>935</v>
-      </c>
-      <c r="G50" s="389">
+      <c r="F50" s="381" t="s">
+        <v>932</v>
+      </c>
+      <c r="G50" s="383">
         <v>3</v>
       </c>
-      <c r="H50" s="387"/>
+      <c r="H50" s="381"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -26287,274 +26254,274 @@
       <c r="I33" s="17"/>
     </row>
     <row r="34" spans="1:123" s="306" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="393">
-        <v>42736</v>
-      </c>
-      <c r="B34" s="394"/>
-      <c r="C34" s="395" t="s">
-        <v>924</v>
-      </c>
-      <c r="D34" s="395" t="s">
+      <c r="A34" s="387">
+        <v>42736</v>
+      </c>
+      <c r="B34" s="388"/>
+      <c r="C34" s="389" t="s">
+        <v>921</v>
+      </c>
+      <c r="D34" s="389" t="s">
         <v>910</v>
       </c>
-      <c r="E34" s="396" t="s">
+      <c r="E34" s="390" t="s">
         <v>910</v>
       </c>
-      <c r="F34" s="396"/>
-      <c r="G34" s="397">
+      <c r="F34" s="390"/>
+      <c r="G34" s="391">
         <v>1</v>
       </c>
-      <c r="H34" s="419"/>
-      <c r="I34" s="419"/>
-      <c r="J34" s="419"/>
-      <c r="K34" s="419"/>
-      <c r="L34" s="419"/>
-      <c r="M34" s="419"/>
-      <c r="N34" s="419"/>
-      <c r="O34" s="419"/>
-      <c r="P34" s="419"/>
-      <c r="Q34" s="419"/>
-      <c r="R34" s="419"/>
-      <c r="S34" s="419"/>
-      <c r="T34" s="419"/>
-      <c r="U34" s="419"/>
-      <c r="V34" s="419"/>
-      <c r="W34" s="419"/>
-      <c r="X34" s="419"/>
-      <c r="Y34" s="419"/>
-      <c r="Z34" s="419"/>
-      <c r="AA34" s="419"/>
-      <c r="AB34" s="419"/>
-      <c r="AC34" s="419"/>
-      <c r="AD34" s="419"/>
-      <c r="AE34" s="419"/>
-      <c r="AF34" s="419"/>
-      <c r="AG34" s="419"/>
-      <c r="AH34" s="419"/>
-      <c r="AI34" s="419"/>
-      <c r="AJ34" s="419"/>
-      <c r="AK34" s="419"/>
-      <c r="AL34" s="419"/>
-      <c r="AM34" s="419"/>
-      <c r="AN34" s="419"/>
-      <c r="AO34" s="419"/>
-      <c r="AP34" s="419"/>
-      <c r="AQ34" s="419"/>
-      <c r="AR34" s="419"/>
-      <c r="AS34" s="419"/>
-      <c r="AT34" s="419"/>
-      <c r="AU34" s="419"/>
-      <c r="AV34" s="419"/>
-      <c r="AW34" s="419"/>
-      <c r="AX34" s="419"/>
-      <c r="AY34" s="419"/>
-      <c r="AZ34" s="419"/>
-      <c r="BA34" s="419"/>
-      <c r="BB34" s="419"/>
-      <c r="BC34" s="419"/>
-      <c r="BD34" s="419"/>
-      <c r="BE34" s="419"/>
-      <c r="BF34" s="419"/>
-      <c r="BG34" s="419"/>
-      <c r="BH34" s="419"/>
-      <c r="BI34" s="419"/>
-      <c r="BJ34" s="419"/>
-      <c r="BK34" s="419"/>
-      <c r="BL34" s="419"/>
-      <c r="BM34" s="419"/>
-      <c r="BN34" s="419"/>
-      <c r="BO34" s="419"/>
-      <c r="BP34" s="419"/>
-      <c r="BQ34" s="419"/>
-      <c r="BR34" s="419"/>
-      <c r="BS34" s="419"/>
-      <c r="BT34" s="419"/>
-      <c r="BU34" s="419"/>
-      <c r="BV34" s="419"/>
-      <c r="BW34" s="419"/>
-      <c r="BX34" s="419"/>
-      <c r="BY34" s="419"/>
-      <c r="BZ34" s="419"/>
-      <c r="CA34" s="419"/>
-      <c r="CB34" s="419"/>
-      <c r="CC34" s="419"/>
-      <c r="CD34" s="419"/>
-      <c r="CE34" s="419"/>
-      <c r="CF34" s="419"/>
-      <c r="CG34" s="419"/>
-      <c r="CH34" s="419"/>
-      <c r="CI34" s="419"/>
-      <c r="CJ34" s="419"/>
-      <c r="CK34" s="419"/>
-      <c r="CL34" s="419"/>
-      <c r="CM34" s="419"/>
-      <c r="CN34" s="419"/>
-      <c r="CO34" s="419"/>
-      <c r="CP34" s="419"/>
-      <c r="CQ34" s="419"/>
-      <c r="CR34" s="419"/>
-      <c r="CS34" s="419"/>
-      <c r="CT34" s="419"/>
-      <c r="CU34" s="419"/>
-      <c r="CV34" s="419"/>
-      <c r="CW34" s="419"/>
-      <c r="CX34" s="419"/>
-      <c r="CY34" s="419"/>
-      <c r="CZ34" s="419"/>
-      <c r="DA34" s="419"/>
-      <c r="DB34" s="419"/>
-      <c r="DC34" s="419"/>
-      <c r="DD34" s="419"/>
-      <c r="DE34" s="419"/>
-      <c r="DF34" s="419"/>
-      <c r="DG34" s="419"/>
-      <c r="DH34" s="419"/>
-      <c r="DI34" s="419"/>
-      <c r="DJ34" s="419"/>
-      <c r="DK34" s="419"/>
-      <c r="DL34" s="419"/>
-      <c r="DM34" s="419"/>
-      <c r="DN34" s="419"/>
-      <c r="DO34" s="419"/>
-      <c r="DP34" s="419"/>
-      <c r="DQ34" s="419"/>
-      <c r="DR34" s="419"/>
-      <c r="DS34" s="419"/>
+      <c r="H34" s="413"/>
+      <c r="I34" s="413"/>
+      <c r="J34" s="413"/>
+      <c r="K34" s="413"/>
+      <c r="L34" s="413"/>
+      <c r="M34" s="413"/>
+      <c r="N34" s="413"/>
+      <c r="O34" s="413"/>
+      <c r="P34" s="413"/>
+      <c r="Q34" s="413"/>
+      <c r="R34" s="413"/>
+      <c r="S34" s="413"/>
+      <c r="T34" s="413"/>
+      <c r="U34" s="413"/>
+      <c r="V34" s="413"/>
+      <c r="W34" s="413"/>
+      <c r="X34" s="413"/>
+      <c r="Y34" s="413"/>
+      <c r="Z34" s="413"/>
+      <c r="AA34" s="413"/>
+      <c r="AB34" s="413"/>
+      <c r="AC34" s="413"/>
+      <c r="AD34" s="413"/>
+      <c r="AE34" s="413"/>
+      <c r="AF34" s="413"/>
+      <c r="AG34" s="413"/>
+      <c r="AH34" s="413"/>
+      <c r="AI34" s="413"/>
+      <c r="AJ34" s="413"/>
+      <c r="AK34" s="413"/>
+      <c r="AL34" s="413"/>
+      <c r="AM34" s="413"/>
+      <c r="AN34" s="413"/>
+      <c r="AO34" s="413"/>
+      <c r="AP34" s="413"/>
+      <c r="AQ34" s="413"/>
+      <c r="AR34" s="413"/>
+      <c r="AS34" s="413"/>
+      <c r="AT34" s="413"/>
+      <c r="AU34" s="413"/>
+      <c r="AV34" s="413"/>
+      <c r="AW34" s="413"/>
+      <c r="AX34" s="413"/>
+      <c r="AY34" s="413"/>
+      <c r="AZ34" s="413"/>
+      <c r="BA34" s="413"/>
+      <c r="BB34" s="413"/>
+      <c r="BC34" s="413"/>
+      <c r="BD34" s="413"/>
+      <c r="BE34" s="413"/>
+      <c r="BF34" s="413"/>
+      <c r="BG34" s="413"/>
+      <c r="BH34" s="413"/>
+      <c r="BI34" s="413"/>
+      <c r="BJ34" s="413"/>
+      <c r="BK34" s="413"/>
+      <c r="BL34" s="413"/>
+      <c r="BM34" s="413"/>
+      <c r="BN34" s="413"/>
+      <c r="BO34" s="413"/>
+      <c r="BP34" s="413"/>
+      <c r="BQ34" s="413"/>
+      <c r="BR34" s="413"/>
+      <c r="BS34" s="413"/>
+      <c r="BT34" s="413"/>
+      <c r="BU34" s="413"/>
+      <c r="BV34" s="413"/>
+      <c r="BW34" s="413"/>
+      <c r="BX34" s="413"/>
+      <c r="BY34" s="413"/>
+      <c r="BZ34" s="413"/>
+      <c r="CA34" s="413"/>
+      <c r="CB34" s="413"/>
+      <c r="CC34" s="413"/>
+      <c r="CD34" s="413"/>
+      <c r="CE34" s="413"/>
+      <c r="CF34" s="413"/>
+      <c r="CG34" s="413"/>
+      <c r="CH34" s="413"/>
+      <c r="CI34" s="413"/>
+      <c r="CJ34" s="413"/>
+      <c r="CK34" s="413"/>
+      <c r="CL34" s="413"/>
+      <c r="CM34" s="413"/>
+      <c r="CN34" s="413"/>
+      <c r="CO34" s="413"/>
+      <c r="CP34" s="413"/>
+      <c r="CQ34" s="413"/>
+      <c r="CR34" s="413"/>
+      <c r="CS34" s="413"/>
+      <c r="CT34" s="413"/>
+      <c r="CU34" s="413"/>
+      <c r="CV34" s="413"/>
+      <c r="CW34" s="413"/>
+      <c r="CX34" s="413"/>
+      <c r="CY34" s="413"/>
+      <c r="CZ34" s="413"/>
+      <c r="DA34" s="413"/>
+      <c r="DB34" s="413"/>
+      <c r="DC34" s="413"/>
+      <c r="DD34" s="413"/>
+      <c r="DE34" s="413"/>
+      <c r="DF34" s="413"/>
+      <c r="DG34" s="413"/>
+      <c r="DH34" s="413"/>
+      <c r="DI34" s="413"/>
+      <c r="DJ34" s="413"/>
+      <c r="DK34" s="413"/>
+      <c r="DL34" s="413"/>
+      <c r="DM34" s="413"/>
+      <c r="DN34" s="413"/>
+      <c r="DO34" s="413"/>
+      <c r="DP34" s="413"/>
+      <c r="DQ34" s="413"/>
+      <c r="DR34" s="413"/>
+      <c r="DS34" s="413"/>
     </row>
     <row r="35" spans="1:123" s="306" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="393">
-        <v>42736</v>
-      </c>
-      <c r="B35" s="394"/>
-      <c r="C35" s="395" t="s">
-        <v>924</v>
-      </c>
-      <c r="D35" s="395" t="s">
+      <c r="A35" s="387">
+        <v>42736</v>
+      </c>
+      <c r="B35" s="388"/>
+      <c r="C35" s="389" t="s">
+        <v>921</v>
+      </c>
+      <c r="D35" s="389" t="s">
         <v>911</v>
       </c>
-      <c r="E35" s="396" t="s">
+      <c r="E35" s="390" t="s">
         <v>911</v>
       </c>
-      <c r="F35" s="396"/>
-      <c r="G35" s="397">
+      <c r="F35" s="390"/>
+      <c r="G35" s="391">
         <v>2</v>
       </c>
-      <c r="H35" s="419"/>
-      <c r="I35" s="419"/>
-      <c r="J35" s="419"/>
-      <c r="K35" s="419"/>
-      <c r="L35" s="419"/>
-      <c r="M35" s="419"/>
-      <c r="N35" s="419"/>
-      <c r="O35" s="419"/>
-      <c r="P35" s="419"/>
-      <c r="Q35" s="419"/>
-      <c r="R35" s="419"/>
-      <c r="S35" s="419"/>
-      <c r="T35" s="419"/>
-      <c r="U35" s="419"/>
-      <c r="V35" s="419"/>
-      <c r="W35" s="419"/>
-      <c r="X35" s="419"/>
-      <c r="Y35" s="419"/>
-      <c r="Z35" s="419"/>
-      <c r="AA35" s="419"/>
-      <c r="AB35" s="419"/>
-      <c r="AC35" s="419"/>
-      <c r="AD35" s="419"/>
-      <c r="AE35" s="419"/>
-      <c r="AF35" s="419"/>
-      <c r="AG35" s="419"/>
-      <c r="AH35" s="419"/>
-      <c r="AI35" s="419"/>
-      <c r="AJ35" s="419"/>
-      <c r="AK35" s="419"/>
-      <c r="AL35" s="419"/>
-      <c r="AM35" s="419"/>
-      <c r="AN35" s="419"/>
-      <c r="AO35" s="419"/>
-      <c r="AP35" s="419"/>
-      <c r="AQ35" s="419"/>
-      <c r="AR35" s="419"/>
-      <c r="AS35" s="419"/>
-      <c r="AT35" s="419"/>
-      <c r="AU35" s="419"/>
-      <c r="AV35" s="419"/>
-      <c r="AW35" s="419"/>
-      <c r="AX35" s="419"/>
-      <c r="AY35" s="419"/>
-      <c r="AZ35" s="419"/>
-      <c r="BA35" s="419"/>
-      <c r="BB35" s="419"/>
-      <c r="BC35" s="419"/>
-      <c r="BD35" s="419"/>
-      <c r="BE35" s="419"/>
-      <c r="BF35" s="419"/>
-      <c r="BG35" s="419"/>
-      <c r="BH35" s="419"/>
-      <c r="BI35" s="419"/>
-      <c r="BJ35" s="419"/>
-      <c r="BK35" s="419"/>
-      <c r="BL35" s="419"/>
-      <c r="BM35" s="419"/>
-      <c r="BN35" s="419"/>
-      <c r="BO35" s="419"/>
-      <c r="BP35" s="419"/>
-      <c r="BQ35" s="419"/>
-      <c r="BR35" s="419"/>
-      <c r="BS35" s="419"/>
-      <c r="BT35" s="419"/>
-      <c r="BU35" s="419"/>
-      <c r="BV35" s="419"/>
-      <c r="BW35" s="419"/>
-      <c r="BX35" s="419"/>
-      <c r="BY35" s="419"/>
-      <c r="BZ35" s="419"/>
-      <c r="CA35" s="419"/>
-      <c r="CB35" s="419"/>
-      <c r="CC35" s="419"/>
-      <c r="CD35" s="419"/>
-      <c r="CE35" s="419"/>
-      <c r="CF35" s="419"/>
-      <c r="CG35" s="419"/>
-      <c r="CH35" s="419"/>
-      <c r="CI35" s="419"/>
-      <c r="CJ35" s="419"/>
-      <c r="CK35" s="419"/>
-      <c r="CL35" s="419"/>
-      <c r="CM35" s="419"/>
-      <c r="CN35" s="419"/>
-      <c r="CO35" s="419"/>
-      <c r="CP35" s="419"/>
-      <c r="CQ35" s="419"/>
-      <c r="CR35" s="419"/>
-      <c r="CS35" s="419"/>
-      <c r="CT35" s="419"/>
-      <c r="CU35" s="419"/>
-      <c r="CV35" s="419"/>
-      <c r="CW35" s="419"/>
-      <c r="CX35" s="419"/>
-      <c r="CY35" s="419"/>
-      <c r="CZ35" s="419"/>
-      <c r="DA35" s="419"/>
-      <c r="DB35" s="419"/>
-      <c r="DC35" s="419"/>
-      <c r="DD35" s="419"/>
-      <c r="DE35" s="419"/>
-      <c r="DF35" s="419"/>
-      <c r="DG35" s="419"/>
-      <c r="DH35" s="419"/>
-      <c r="DI35" s="419"/>
-      <c r="DJ35" s="419"/>
-      <c r="DK35" s="419"/>
-      <c r="DL35" s="419"/>
-      <c r="DM35" s="419"/>
-      <c r="DN35" s="419"/>
-      <c r="DO35" s="419"/>
-      <c r="DP35" s="419"/>
-      <c r="DQ35" s="419"/>
-      <c r="DR35" s="419"/>
-      <c r="DS35" s="419"/>
+      <c r="H35" s="413"/>
+      <c r="I35" s="413"/>
+      <c r="J35" s="413"/>
+      <c r="K35" s="413"/>
+      <c r="L35" s="413"/>
+      <c r="M35" s="413"/>
+      <c r="N35" s="413"/>
+      <c r="O35" s="413"/>
+      <c r="P35" s="413"/>
+      <c r="Q35" s="413"/>
+      <c r="R35" s="413"/>
+      <c r="S35" s="413"/>
+      <c r="T35" s="413"/>
+      <c r="U35" s="413"/>
+      <c r="V35" s="413"/>
+      <c r="W35" s="413"/>
+      <c r="X35" s="413"/>
+      <c r="Y35" s="413"/>
+      <c r="Z35" s="413"/>
+      <c r="AA35" s="413"/>
+      <c r="AB35" s="413"/>
+      <c r="AC35" s="413"/>
+      <c r="AD35" s="413"/>
+      <c r="AE35" s="413"/>
+      <c r="AF35" s="413"/>
+      <c r="AG35" s="413"/>
+      <c r="AH35" s="413"/>
+      <c r="AI35" s="413"/>
+      <c r="AJ35" s="413"/>
+      <c r="AK35" s="413"/>
+      <c r="AL35" s="413"/>
+      <c r="AM35" s="413"/>
+      <c r="AN35" s="413"/>
+      <c r="AO35" s="413"/>
+      <c r="AP35" s="413"/>
+      <c r="AQ35" s="413"/>
+      <c r="AR35" s="413"/>
+      <c r="AS35" s="413"/>
+      <c r="AT35" s="413"/>
+      <c r="AU35" s="413"/>
+      <c r="AV35" s="413"/>
+      <c r="AW35" s="413"/>
+      <c r="AX35" s="413"/>
+      <c r="AY35" s="413"/>
+      <c r="AZ35" s="413"/>
+      <c r="BA35" s="413"/>
+      <c r="BB35" s="413"/>
+      <c r="BC35" s="413"/>
+      <c r="BD35" s="413"/>
+      <c r="BE35" s="413"/>
+      <c r="BF35" s="413"/>
+      <c r="BG35" s="413"/>
+      <c r="BH35" s="413"/>
+      <c r="BI35" s="413"/>
+      <c r="BJ35" s="413"/>
+      <c r="BK35" s="413"/>
+      <c r="BL35" s="413"/>
+      <c r="BM35" s="413"/>
+      <c r="BN35" s="413"/>
+      <c r="BO35" s="413"/>
+      <c r="BP35" s="413"/>
+      <c r="BQ35" s="413"/>
+      <c r="BR35" s="413"/>
+      <c r="BS35" s="413"/>
+      <c r="BT35" s="413"/>
+      <c r="BU35" s="413"/>
+      <c r="BV35" s="413"/>
+      <c r="BW35" s="413"/>
+      <c r="BX35" s="413"/>
+      <c r="BY35" s="413"/>
+      <c r="BZ35" s="413"/>
+      <c r="CA35" s="413"/>
+      <c r="CB35" s="413"/>
+      <c r="CC35" s="413"/>
+      <c r="CD35" s="413"/>
+      <c r="CE35" s="413"/>
+      <c r="CF35" s="413"/>
+      <c r="CG35" s="413"/>
+      <c r="CH35" s="413"/>
+      <c r="CI35" s="413"/>
+      <c r="CJ35" s="413"/>
+      <c r="CK35" s="413"/>
+      <c r="CL35" s="413"/>
+      <c r="CM35" s="413"/>
+      <c r="CN35" s="413"/>
+      <c r="CO35" s="413"/>
+      <c r="CP35" s="413"/>
+      <c r="CQ35" s="413"/>
+      <c r="CR35" s="413"/>
+      <c r="CS35" s="413"/>
+      <c r="CT35" s="413"/>
+      <c r="CU35" s="413"/>
+      <c r="CV35" s="413"/>
+      <c r="CW35" s="413"/>
+      <c r="CX35" s="413"/>
+      <c r="CY35" s="413"/>
+      <c r="CZ35" s="413"/>
+      <c r="DA35" s="413"/>
+      <c r="DB35" s="413"/>
+      <c r="DC35" s="413"/>
+      <c r="DD35" s="413"/>
+      <c r="DE35" s="413"/>
+      <c r="DF35" s="413"/>
+      <c r="DG35" s="413"/>
+      <c r="DH35" s="413"/>
+      <c r="DI35" s="413"/>
+      <c r="DJ35" s="413"/>
+      <c r="DK35" s="413"/>
+      <c r="DL35" s="413"/>
+      <c r="DM35" s="413"/>
+      <c r="DN35" s="413"/>
+      <c r="DO35" s="413"/>
+      <c r="DP35" s="413"/>
+      <c r="DQ35" s="413"/>
+      <c r="DR35" s="413"/>
+      <c r="DS35" s="413"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -27613,70 +27580,70 @@
       <c r="H49" s="101"/>
     </row>
     <row r="50" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="400">
-        <v>42736</v>
-      </c>
-      <c r="B50" s="386"/>
-      <c r="C50" s="401" t="s">
-        <v>924</v>
-      </c>
-      <c r="D50" s="402" t="s">
+      <c r="A50" s="394">
+        <v>42736</v>
+      </c>
+      <c r="B50" s="380"/>
+      <c r="C50" s="395" t="s">
+        <v>921</v>
+      </c>
+      <c r="D50" s="396" t="s">
         <v>910</v>
       </c>
-      <c r="E50" s="402" t="s">
-        <v>919</v>
-      </c>
-      <c r="F50" s="387" t="s">
-        <v>934</v>
-      </c>
-      <c r="G50" s="403">
+      <c r="E50" s="396" t="s">
+        <v>918</v>
+      </c>
+      <c r="F50" s="381" t="s">
+        <v>931</v>
+      </c>
+      <c r="G50" s="397">
         <v>1</v>
       </c>
-      <c r="H50" s="387"/>
+      <c r="H50" s="381"/>
     </row>
     <row r="51" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="400">
-        <v>42736</v>
-      </c>
-      <c r="B51" s="390"/>
-      <c r="C51" s="401" t="s">
-        <v>924</v>
-      </c>
-      <c r="D51" s="402" t="s">
+      <c r="A51" s="394">
+        <v>42736</v>
+      </c>
+      <c r="B51" s="384"/>
+      <c r="C51" s="395" t="s">
+        <v>921</v>
+      </c>
+      <c r="D51" s="396" t="s">
         <v>911</v>
       </c>
-      <c r="E51" s="402" t="s">
+      <c r="E51" s="396" t="s">
         <v>917</v>
       </c>
-      <c r="F51" s="391" t="s">
-        <v>933</v>
-      </c>
-      <c r="G51" s="403">
+      <c r="F51" s="385" t="s">
+        <v>930</v>
+      </c>
+      <c r="G51" s="397">
         <v>2</v>
       </c>
-      <c r="H51" s="391"/>
+      <c r="H51" s="385"/>
     </row>
     <row r="52" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="404">
-        <v>42736</v>
-      </c>
-      <c r="B52" s="398"/>
-      <c r="C52" s="396" t="s">
-        <v>924</v>
-      </c>
-      <c r="D52" s="395" t="s">
+      <c r="A52" s="398">
+        <v>42736</v>
+      </c>
+      <c r="B52" s="392"/>
+      <c r="C52" s="390" t="s">
+        <v>921</v>
+      </c>
+      <c r="D52" s="389" t="s">
         <v>911</v>
       </c>
-      <c r="E52" s="395" t="s">
+      <c r="E52" s="389" t="s">
         <v>915</v>
       </c>
-      <c r="F52" s="399" t="s">
-        <v>935</v>
-      </c>
-      <c r="G52" s="397">
+      <c r="F52" s="393" t="s">
+        <v>932</v>
+      </c>
+      <c r="G52" s="391">
         <v>3</v>
       </c>
-      <c r="H52" s="399"/>
+      <c r="H52" s="393"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -28799,156 +28766,156 @@
       <c r="K50" s="19"/>
     </row>
     <row r="51" spans="1:64" s="306" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="405">
-        <v>42736</v>
-      </c>
-      <c r="B51" s="406"/>
-      <c r="C51" s="407" t="s">
-        <v>924</v>
-      </c>
-      <c r="D51" s="407" t="s">
+      <c r="A51" s="399">
+        <v>42736</v>
+      </c>
+      <c r="B51" s="400"/>
+      <c r="C51" s="401" t="s">
+        <v>921</v>
+      </c>
+      <c r="D51" s="401" t="s">
         <v>910</v>
       </c>
-      <c r="E51" s="407"/>
-      <c r="F51" s="407" t="s">
+      <c r="E51" s="401"/>
+      <c r="F51" s="401" t="s">
         <v>910</v>
       </c>
-      <c r="G51" s="408">
+      <c r="G51" s="402">
         <v>1</v>
       </c>
-      <c r="H51" s="407"/>
-      <c r="I51" s="407"/>
-      <c r="J51" s="419"/>
-      <c r="K51" s="419"/>
-      <c r="L51" s="419"/>
-      <c r="M51" s="419"/>
-      <c r="N51" s="419"/>
-      <c r="O51" s="419"/>
-      <c r="P51" s="419"/>
-      <c r="Q51" s="419"/>
-      <c r="R51" s="419"/>
-      <c r="S51" s="419"/>
-      <c r="T51" s="419"/>
-      <c r="U51" s="419"/>
-      <c r="V51" s="419"/>
-      <c r="W51" s="419"/>
-      <c r="X51" s="419"/>
-      <c r="Y51" s="419"/>
-      <c r="Z51" s="419"/>
-      <c r="AA51" s="419"/>
-      <c r="AB51" s="419"/>
-      <c r="AC51" s="419"/>
-      <c r="AD51" s="419"/>
-      <c r="AE51" s="419"/>
-      <c r="AF51" s="419"/>
-      <c r="AG51" s="419"/>
-      <c r="AH51" s="419"/>
-      <c r="AI51" s="419"/>
-      <c r="AJ51" s="419"/>
-      <c r="AK51" s="419"/>
-      <c r="AL51" s="419"/>
-      <c r="AM51" s="419"/>
-      <c r="AN51" s="419"/>
-      <c r="AO51" s="419"/>
-      <c r="AP51" s="419"/>
-      <c r="AQ51" s="419"/>
-      <c r="AR51" s="419"/>
-      <c r="AS51" s="419"/>
-      <c r="AT51" s="419"/>
-      <c r="AU51" s="419"/>
-      <c r="AV51" s="419"/>
-      <c r="AW51" s="419"/>
-      <c r="AX51" s="419"/>
-      <c r="AY51" s="419"/>
-      <c r="AZ51" s="419"/>
-      <c r="BA51" s="419"/>
-      <c r="BB51" s="419"/>
-      <c r="BC51" s="419"/>
-      <c r="BD51" s="419"/>
-      <c r="BE51" s="419"/>
-      <c r="BF51" s="419"/>
-      <c r="BG51" s="419"/>
-      <c r="BH51" s="419"/>
-      <c r="BI51" s="419"/>
-      <c r="BJ51" s="419"/>
-      <c r="BK51" s="419"/>
-      <c r="BL51" s="419"/>
+      <c r="H51" s="401"/>
+      <c r="I51" s="401"/>
+      <c r="J51" s="413"/>
+      <c r="K51" s="413"/>
+      <c r="L51" s="413"/>
+      <c r="M51" s="413"/>
+      <c r="N51" s="413"/>
+      <c r="O51" s="413"/>
+      <c r="P51" s="413"/>
+      <c r="Q51" s="413"/>
+      <c r="R51" s="413"/>
+      <c r="S51" s="413"/>
+      <c r="T51" s="413"/>
+      <c r="U51" s="413"/>
+      <c r="V51" s="413"/>
+      <c r="W51" s="413"/>
+      <c r="X51" s="413"/>
+      <c r="Y51" s="413"/>
+      <c r="Z51" s="413"/>
+      <c r="AA51" s="413"/>
+      <c r="AB51" s="413"/>
+      <c r="AC51" s="413"/>
+      <c r="AD51" s="413"/>
+      <c r="AE51" s="413"/>
+      <c r="AF51" s="413"/>
+      <c r="AG51" s="413"/>
+      <c r="AH51" s="413"/>
+      <c r="AI51" s="413"/>
+      <c r="AJ51" s="413"/>
+      <c r="AK51" s="413"/>
+      <c r="AL51" s="413"/>
+      <c r="AM51" s="413"/>
+      <c r="AN51" s="413"/>
+      <c r="AO51" s="413"/>
+      <c r="AP51" s="413"/>
+      <c r="AQ51" s="413"/>
+      <c r="AR51" s="413"/>
+      <c r="AS51" s="413"/>
+      <c r="AT51" s="413"/>
+      <c r="AU51" s="413"/>
+      <c r="AV51" s="413"/>
+      <c r="AW51" s="413"/>
+      <c r="AX51" s="413"/>
+      <c r="AY51" s="413"/>
+      <c r="AZ51" s="413"/>
+      <c r="BA51" s="413"/>
+      <c r="BB51" s="413"/>
+      <c r="BC51" s="413"/>
+      <c r="BD51" s="413"/>
+      <c r="BE51" s="413"/>
+      <c r="BF51" s="413"/>
+      <c r="BG51" s="413"/>
+      <c r="BH51" s="413"/>
+      <c r="BI51" s="413"/>
+      <c r="BJ51" s="413"/>
+      <c r="BK51" s="413"/>
+      <c r="BL51" s="413"/>
     </row>
     <row r="52" spans="1:64" s="306" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="409">
-        <v>42736</v>
-      </c>
-      <c r="B52" s="410"/>
-      <c r="C52" s="411" t="s">
-        <v>924</v>
-      </c>
-      <c r="D52" s="411" t="s">
+      <c r="A52" s="403">
+        <v>42736</v>
+      </c>
+      <c r="B52" s="404"/>
+      <c r="C52" s="405" t="s">
+        <v>921</v>
+      </c>
+      <c r="D52" s="405" t="s">
         <v>911</v>
       </c>
-      <c r="E52" s="411"/>
-      <c r="F52" s="411" t="s">
+      <c r="E52" s="405"/>
+      <c r="F52" s="405" t="s">
         <v>911</v>
       </c>
-      <c r="G52" s="412">
+      <c r="G52" s="406">
         <v>2</v>
       </c>
-      <c r="H52" s="411"/>
-      <c r="I52" s="411"/>
-      <c r="J52" s="419"/>
-      <c r="K52" s="419"/>
-      <c r="L52" s="419"/>
-      <c r="M52" s="419"/>
-      <c r="N52" s="419"/>
-      <c r="O52" s="419"/>
-      <c r="P52" s="419"/>
-      <c r="Q52" s="419"/>
-      <c r="R52" s="419"/>
-      <c r="S52" s="419"/>
-      <c r="T52" s="419"/>
-      <c r="U52" s="419"/>
-      <c r="V52" s="419"/>
-      <c r="W52" s="419"/>
-      <c r="X52" s="419"/>
-      <c r="Y52" s="419"/>
-      <c r="Z52" s="419"/>
-      <c r="AA52" s="419"/>
-      <c r="AB52" s="419"/>
-      <c r="AC52" s="419"/>
-      <c r="AD52" s="419"/>
-      <c r="AE52" s="419"/>
-      <c r="AF52" s="419"/>
-      <c r="AG52" s="419"/>
-      <c r="AH52" s="419"/>
-      <c r="AI52" s="419"/>
-      <c r="AJ52" s="419"/>
-      <c r="AK52" s="419"/>
-      <c r="AL52" s="419"/>
-      <c r="AM52" s="419"/>
-      <c r="AN52" s="419"/>
-      <c r="AO52" s="419"/>
-      <c r="AP52" s="419"/>
-      <c r="AQ52" s="419"/>
-      <c r="AR52" s="419"/>
-      <c r="AS52" s="419"/>
-      <c r="AT52" s="419"/>
-      <c r="AU52" s="419"/>
-      <c r="AV52" s="419"/>
-      <c r="AW52" s="419"/>
-      <c r="AX52" s="419"/>
-      <c r="AY52" s="419"/>
-      <c r="AZ52" s="419"/>
-      <c r="BA52" s="419"/>
-      <c r="BB52" s="419"/>
-      <c r="BC52" s="419"/>
-      <c r="BD52" s="419"/>
-      <c r="BE52" s="419"/>
-      <c r="BF52" s="419"/>
-      <c r="BG52" s="419"/>
-      <c r="BH52" s="419"/>
-      <c r="BI52" s="419"/>
-      <c r="BJ52" s="419"/>
-      <c r="BK52" s="419"/>
-      <c r="BL52" s="419"/>
+      <c r="H52" s="405"/>
+      <c r="I52" s="405"/>
+      <c r="J52" s="413"/>
+      <c r="K52" s="413"/>
+      <c r="L52" s="413"/>
+      <c r="M52" s="413"/>
+      <c r="N52" s="413"/>
+      <c r="O52" s="413"/>
+      <c r="P52" s="413"/>
+      <c r="Q52" s="413"/>
+      <c r="R52" s="413"/>
+      <c r="S52" s="413"/>
+      <c r="T52" s="413"/>
+      <c r="U52" s="413"/>
+      <c r="V52" s="413"/>
+      <c r="W52" s="413"/>
+      <c r="X52" s="413"/>
+      <c r="Y52" s="413"/>
+      <c r="Z52" s="413"/>
+      <c r="AA52" s="413"/>
+      <c r="AB52" s="413"/>
+      <c r="AC52" s="413"/>
+      <c r="AD52" s="413"/>
+      <c r="AE52" s="413"/>
+      <c r="AF52" s="413"/>
+      <c r="AG52" s="413"/>
+      <c r="AH52" s="413"/>
+      <c r="AI52" s="413"/>
+      <c r="AJ52" s="413"/>
+      <c r="AK52" s="413"/>
+      <c r="AL52" s="413"/>
+      <c r="AM52" s="413"/>
+      <c r="AN52" s="413"/>
+      <c r="AO52" s="413"/>
+      <c r="AP52" s="413"/>
+      <c r="AQ52" s="413"/>
+      <c r="AR52" s="413"/>
+      <c r="AS52" s="413"/>
+      <c r="AT52" s="413"/>
+      <c r="AU52" s="413"/>
+      <c r="AV52" s="413"/>
+      <c r="AW52" s="413"/>
+      <c r="AX52" s="413"/>
+      <c r="AY52" s="413"/>
+      <c r="AZ52" s="413"/>
+      <c r="BA52" s="413"/>
+      <c r="BB52" s="413"/>
+      <c r="BC52" s="413"/>
+      <c r="BD52" s="413"/>
+      <c r="BE52" s="413"/>
+      <c r="BF52" s="413"/>
+      <c r="BG52" s="413"/>
+      <c r="BH52" s="413"/>
+      <c r="BI52" s="413"/>
+      <c r="BJ52" s="413"/>
+      <c r="BK52" s="413"/>
+      <c r="BL52" s="413"/>
     </row>
   </sheetData>
   <phoneticPr fontId="39" type="noConversion"/>
@@ -29206,7 +29173,7 @@
         <v>884</v>
       </c>
       <c r="D6" s="148" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="E6" s="129" t="s">
         <v>339</v>
@@ -29232,10 +29199,10 @@
         <v>42736</v>
       </c>
       <c r="B8" s="303"/>
-      <c r="C8" s="367" t="s">
-        <v>924</v>
-      </c>
-      <c r="D8" s="385" t="s">
+      <c r="C8" s="363" t="s">
+        <v>921</v>
+      </c>
+      <c r="D8" s="379" t="s">
         <v>778</v>
       </c>
       <c r="E8" s="308" t="s">
@@ -29957,74 +29924,74 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="424">
-        <v>42736</v>
-      </c>
-      <c r="B23" s="425"/>
+      <c r="A23" s="418">
+        <v>42736</v>
+      </c>
+      <c r="B23" s="419"/>
       <c r="C23" s="79" t="s">
         <v>884</v>
       </c>
-      <c r="D23" s="426" t="s">
-        <v>939</v>
-      </c>
-      <c r="E23" s="425" t="s">
+      <c r="D23" s="420" t="s">
+        <v>936</v>
+      </c>
+      <c r="E23" s="419" t="s">
         <v>778</v>
       </c>
-      <c r="F23" s="427" t="s">
+      <c r="F23" s="421" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="424">
-        <v>42736</v>
-      </c>
-      <c r="B24" s="425"/>
+      <c r="A24" s="418">
+        <v>42736</v>
+      </c>
+      <c r="B24" s="419"/>
       <c r="C24" s="79" t="s">
         <v>884</v>
       </c>
-      <c r="D24" s="426" t="s">
-        <v>940</v>
-      </c>
-      <c r="E24" s="425" t="s">
+      <c r="D24" s="420" t="s">
+        <v>937</v>
+      </c>
+      <c r="E24" s="419" t="s">
         <v>778</v>
       </c>
-      <c r="F24" s="427" t="s">
+      <c r="F24" s="421" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="419" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="424">
-        <v>42736</v>
-      </c>
-      <c r="B25" s="425"/>
+    <row r="25" spans="1:6" s="413" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="418">
+        <v>42736</v>
+      </c>
+      <c r="B25" s="419"/>
       <c r="C25" s="79" t="s">
         <v>884</v>
       </c>
-      <c r="D25" s="426" t="s">
-        <v>939</v>
-      </c>
-      <c r="E25" s="425" t="s">
-        <v>938</v>
-      </c>
-      <c r="F25" s="427" t="s">
+      <c r="D25" s="420" t="s">
+        <v>936</v>
+      </c>
+      <c r="E25" s="419" t="s">
+        <v>935</v>
+      </c>
+      <c r="F25" s="421" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="419" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="424">
-        <v>42736</v>
-      </c>
-      <c r="B26" s="425"/>
+    <row r="26" spans="1:6" s="413" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="418">
+        <v>42736</v>
+      </c>
+      <c r="B26" s="419"/>
       <c r="C26" s="79" t="s">
         <v>884</v>
       </c>
-      <c r="D26" s="426" t="s">
-        <v>940</v>
-      </c>
-      <c r="E26" s="425" t="s">
-        <v>938</v>
-      </c>
-      <c r="F26" s="427" t="s">
+      <c r="D26" s="420" t="s">
+        <v>937</v>
+      </c>
+      <c r="E26" s="419" t="s">
+        <v>935</v>
+      </c>
+      <c r="F26" s="421" t="s">
         <v>339</v>
       </c>
     </row>
@@ -30285,10 +30252,10 @@
         <v>42736</v>
       </c>
       <c r="B41" s="303"/>
-      <c r="C41" s="367" t="s">
-        <v>924</v>
-      </c>
-      <c r="D41" s="361" t="s">
+      <c r="C41" s="363" t="s">
+        <v>921</v>
+      </c>
+      <c r="D41" s="357" t="s">
         <v>910</v>
       </c>
       <c r="E41" s="303" t="s">
@@ -30303,8 +30270,8 @@
         <v>42736</v>
       </c>
       <c r="B42" s="303"/>
-      <c r="C42" s="367" t="s">
-        <v>924</v>
+      <c r="C42" s="363" t="s">
+        <v>921</v>
       </c>
       <c r="D42" s="307" t="s">
         <v>911</v>
@@ -32028,30 +31995,30 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="421" t="s">
-        <v>924</v>
-      </c>
-      <c r="B8" s="421" t="s">
+      <c r="A8" s="415" t="s">
+        <v>921</v>
+      </c>
+      <c r="B8" s="415" t="s">
         <v>687</v>
       </c>
-      <c r="C8" s="421" t="s">
+      <c r="C8" s="415" t="s">
         <v>693</v>
       </c>
-      <c r="D8" s="421" t="s">
+      <c r="D8" s="415" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="220" t="s">
-        <v>924</v>
-      </c>
-      <c r="B9" s="420" t="s">
+        <v>921</v>
+      </c>
+      <c r="B9" s="414" t="s">
         <v>695</v>
       </c>
-      <c r="C9" s="420" t="s">
+      <c r="C9" s="414" t="s">
         <v>696</v>
       </c>
-      <c r="D9" s="420" t="s">
+      <c r="D9" s="414" t="s">
         <v>697</v>
       </c>
     </row>
@@ -32185,7 +32152,7 @@
         <v>392</v>
       </c>
       <c r="E6" s="148" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="F6" s="129" t="s">
         <v>339</v>
@@ -32200,7 +32167,7 @@
         <v>884</v>
       </c>
       <c r="D7" s="79" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="E7" s="148" t="s">
         <v>778</v>
@@ -32218,10 +32185,10 @@
         <v>884</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="E8" s="148" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="F8" s="129" t="s">
         <v>339</v>
@@ -32354,157 +32321,157 @@
       </c>
     </row>
     <row r="16" spans="1:141" s="306" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="359">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="352"/>
+      <c r="A16" s="355">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="351"/>
       <c r="C16" s="307" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D16" s="307" t="s">
-        <v>926</v>
-      </c>
-      <c r="E16" s="385" t="s">
+        <v>923</v>
+      </c>
+      <c r="E16" s="379" t="s">
         <v>778</v>
       </c>
-      <c r="F16" s="381" t="s">
+      <c r="F16" s="375" t="s">
         <v>339</v>
       </c>
-      <c r="G16" s="419"/>
-      <c r="H16" s="419"/>
-      <c r="I16" s="419"/>
-      <c r="J16" s="419"/>
-      <c r="K16" s="419"/>
-      <c r="L16" s="419"/>
-      <c r="M16" s="419"/>
-      <c r="N16" s="419"/>
-      <c r="O16" s="419"/>
-      <c r="P16" s="419"/>
-      <c r="Q16" s="419"/>
-      <c r="R16" s="419"/>
-      <c r="S16" s="419"/>
-      <c r="T16" s="419"/>
-      <c r="U16" s="419"/>
-      <c r="V16" s="419"/>
-      <c r="W16" s="419"/>
-      <c r="X16" s="419"/>
-      <c r="Y16" s="419"/>
-      <c r="Z16" s="419"/>
-      <c r="AA16" s="419"/>
-      <c r="AB16" s="419"/>
-      <c r="AC16" s="419"/>
-      <c r="AD16" s="419"/>
-      <c r="AE16" s="419"/>
-      <c r="AF16" s="419"/>
-      <c r="AG16" s="419"/>
-      <c r="AH16" s="419"/>
-      <c r="AI16" s="419"/>
-      <c r="AJ16" s="419"/>
-      <c r="AK16" s="419"/>
-      <c r="AL16" s="419"/>
-      <c r="AM16" s="419"/>
-      <c r="AN16" s="419"/>
-      <c r="AO16" s="419"/>
-      <c r="AP16" s="419"/>
-      <c r="AQ16" s="419"/>
-      <c r="AR16" s="419"/>
-      <c r="AS16" s="419"/>
-      <c r="AT16" s="419"/>
-      <c r="AU16" s="419"/>
-      <c r="AV16" s="419"/>
-      <c r="AW16" s="419"/>
-      <c r="AX16" s="419"/>
-      <c r="AY16" s="419"/>
-      <c r="AZ16" s="419"/>
-      <c r="BA16" s="419"/>
-      <c r="BB16" s="419"/>
-      <c r="BC16" s="419"/>
-      <c r="BD16" s="419"/>
-      <c r="BE16" s="419"/>
-      <c r="BF16" s="419"/>
-      <c r="BG16" s="419"/>
-      <c r="BH16" s="419"/>
-      <c r="BI16" s="419"/>
-      <c r="BJ16" s="419"/>
-      <c r="BK16" s="419"/>
-      <c r="BL16" s="419"/>
-      <c r="BM16" s="419"/>
-      <c r="BN16" s="419"/>
-      <c r="BO16" s="419"/>
-      <c r="BP16" s="419"/>
-      <c r="BQ16" s="419"/>
-      <c r="BR16" s="419"/>
-      <c r="BS16" s="419"/>
-      <c r="BT16" s="419"/>
-      <c r="BU16" s="419"/>
-      <c r="BV16" s="419"/>
-      <c r="BW16" s="419"/>
-      <c r="BX16" s="419"/>
-      <c r="BY16" s="419"/>
-      <c r="BZ16" s="419"/>
-      <c r="CA16" s="419"/>
-      <c r="CB16" s="419"/>
-      <c r="CC16" s="419"/>
-      <c r="CD16" s="419"/>
-      <c r="CE16" s="419"/>
-      <c r="CF16" s="419"/>
-      <c r="CG16" s="419"/>
-      <c r="CH16" s="419"/>
-      <c r="CI16" s="419"/>
-      <c r="CJ16" s="419"/>
-      <c r="CK16" s="419"/>
-      <c r="CL16" s="419"/>
-      <c r="CM16" s="419"/>
-      <c r="CN16" s="419"/>
-      <c r="CO16" s="419"/>
-      <c r="CP16" s="419"/>
-      <c r="CQ16" s="419"/>
-      <c r="CR16" s="419"/>
-      <c r="CS16" s="419"/>
-      <c r="CT16" s="419"/>
-      <c r="CU16" s="419"/>
-      <c r="CV16" s="419"/>
-      <c r="CW16" s="419"/>
-      <c r="CX16" s="419"/>
-      <c r="CY16" s="419"/>
-      <c r="CZ16" s="419"/>
-      <c r="DA16" s="419"/>
-      <c r="DB16" s="419"/>
-      <c r="DC16" s="419"/>
-      <c r="DD16" s="419"/>
-      <c r="DE16" s="419"/>
-      <c r="DF16" s="419"/>
-      <c r="DG16" s="419"/>
-      <c r="DH16" s="419"/>
-      <c r="DI16" s="419"/>
-      <c r="DJ16" s="419"/>
-      <c r="DK16" s="419"/>
-      <c r="DL16" s="419"/>
-      <c r="DM16" s="419"/>
-      <c r="DN16" s="419"/>
-      <c r="DO16" s="419"/>
-      <c r="DP16" s="419"/>
-      <c r="DQ16" s="419"/>
-      <c r="DR16" s="419"/>
-      <c r="DS16" s="419"/>
-      <c r="DT16" s="419"/>
-      <c r="DU16" s="419"/>
-      <c r="DV16" s="419"/>
-      <c r="DW16" s="419"/>
-      <c r="DX16" s="419"/>
-      <c r="DY16" s="419"/>
-      <c r="DZ16" s="419"/>
-      <c r="EA16" s="419"/>
-      <c r="EB16" s="419"/>
-      <c r="EC16" s="419"/>
-      <c r="ED16" s="419"/>
-      <c r="EE16" s="419"/>
-      <c r="EF16" s="419"/>
-      <c r="EG16" s="419"/>
-      <c r="EH16" s="419"/>
-      <c r="EI16" s="419"/>
-      <c r="EJ16" s="419"/>
-      <c r="EK16" s="419"/>
+      <c r="G16" s="413"/>
+      <c r="H16" s="413"/>
+      <c r="I16" s="413"/>
+      <c r="J16" s="413"/>
+      <c r="K16" s="413"/>
+      <c r="L16" s="413"/>
+      <c r="M16" s="413"/>
+      <c r="N16" s="413"/>
+      <c r="O16" s="413"/>
+      <c r="P16" s="413"/>
+      <c r="Q16" s="413"/>
+      <c r="R16" s="413"/>
+      <c r="S16" s="413"/>
+      <c r="T16" s="413"/>
+      <c r="U16" s="413"/>
+      <c r="V16" s="413"/>
+      <c r="W16" s="413"/>
+      <c r="X16" s="413"/>
+      <c r="Y16" s="413"/>
+      <c r="Z16" s="413"/>
+      <c r="AA16" s="413"/>
+      <c r="AB16" s="413"/>
+      <c r="AC16" s="413"/>
+      <c r="AD16" s="413"/>
+      <c r="AE16" s="413"/>
+      <c r="AF16" s="413"/>
+      <c r="AG16" s="413"/>
+      <c r="AH16" s="413"/>
+      <c r="AI16" s="413"/>
+      <c r="AJ16" s="413"/>
+      <c r="AK16" s="413"/>
+      <c r="AL16" s="413"/>
+      <c r="AM16" s="413"/>
+      <c r="AN16" s="413"/>
+      <c r="AO16" s="413"/>
+      <c r="AP16" s="413"/>
+      <c r="AQ16" s="413"/>
+      <c r="AR16" s="413"/>
+      <c r="AS16" s="413"/>
+      <c r="AT16" s="413"/>
+      <c r="AU16" s="413"/>
+      <c r="AV16" s="413"/>
+      <c r="AW16" s="413"/>
+      <c r="AX16" s="413"/>
+      <c r="AY16" s="413"/>
+      <c r="AZ16" s="413"/>
+      <c r="BA16" s="413"/>
+      <c r="BB16" s="413"/>
+      <c r="BC16" s="413"/>
+      <c r="BD16" s="413"/>
+      <c r="BE16" s="413"/>
+      <c r="BF16" s="413"/>
+      <c r="BG16" s="413"/>
+      <c r="BH16" s="413"/>
+      <c r="BI16" s="413"/>
+      <c r="BJ16" s="413"/>
+      <c r="BK16" s="413"/>
+      <c r="BL16" s="413"/>
+      <c r="BM16" s="413"/>
+      <c r="BN16" s="413"/>
+      <c r="BO16" s="413"/>
+      <c r="BP16" s="413"/>
+      <c r="BQ16" s="413"/>
+      <c r="BR16" s="413"/>
+      <c r="BS16" s="413"/>
+      <c r="BT16" s="413"/>
+      <c r="BU16" s="413"/>
+      <c r="BV16" s="413"/>
+      <c r="BW16" s="413"/>
+      <c r="BX16" s="413"/>
+      <c r="BY16" s="413"/>
+      <c r="BZ16" s="413"/>
+      <c r="CA16" s="413"/>
+      <c r="CB16" s="413"/>
+      <c r="CC16" s="413"/>
+      <c r="CD16" s="413"/>
+      <c r="CE16" s="413"/>
+      <c r="CF16" s="413"/>
+      <c r="CG16" s="413"/>
+      <c r="CH16" s="413"/>
+      <c r="CI16" s="413"/>
+      <c r="CJ16" s="413"/>
+      <c r="CK16" s="413"/>
+      <c r="CL16" s="413"/>
+      <c r="CM16" s="413"/>
+      <c r="CN16" s="413"/>
+      <c r="CO16" s="413"/>
+      <c r="CP16" s="413"/>
+      <c r="CQ16" s="413"/>
+      <c r="CR16" s="413"/>
+      <c r="CS16" s="413"/>
+      <c r="CT16" s="413"/>
+      <c r="CU16" s="413"/>
+      <c r="CV16" s="413"/>
+      <c r="CW16" s="413"/>
+      <c r="CX16" s="413"/>
+      <c r="CY16" s="413"/>
+      <c r="CZ16" s="413"/>
+      <c r="DA16" s="413"/>
+      <c r="DB16" s="413"/>
+      <c r="DC16" s="413"/>
+      <c r="DD16" s="413"/>
+      <c r="DE16" s="413"/>
+      <c r="DF16" s="413"/>
+      <c r="DG16" s="413"/>
+      <c r="DH16" s="413"/>
+      <c r="DI16" s="413"/>
+      <c r="DJ16" s="413"/>
+      <c r="DK16" s="413"/>
+      <c r="DL16" s="413"/>
+      <c r="DM16" s="413"/>
+      <c r="DN16" s="413"/>
+      <c r="DO16" s="413"/>
+      <c r="DP16" s="413"/>
+      <c r="DQ16" s="413"/>
+      <c r="DR16" s="413"/>
+      <c r="DS16" s="413"/>
+      <c r="DT16" s="413"/>
+      <c r="DU16" s="413"/>
+      <c r="DV16" s="413"/>
+      <c r="DW16" s="413"/>
+      <c r="DX16" s="413"/>
+      <c r="DY16" s="413"/>
+      <c r="DZ16" s="413"/>
+      <c r="EA16" s="413"/>
+      <c r="EB16" s="413"/>
+      <c r="EC16" s="413"/>
+      <c r="ED16" s="413"/>
+      <c r="EE16" s="413"/>
+      <c r="EF16" s="413"/>
+      <c r="EG16" s="413"/>
+      <c r="EH16" s="413"/>
+      <c r="EI16" s="413"/>
+      <c r="EJ16" s="413"/>
+      <c r="EK16" s="413"/>
     </row>
     <row r="17" spans="1:141" s="306" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="300">
@@ -32512,152 +32479,152 @@
       </c>
       <c r="B17" s="303"/>
       <c r="C17" s="307" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D17" s="307" t="s">
-        <v>925</v>
-      </c>
-      <c r="E17" s="385" t="s">
+        <v>922</v>
+      </c>
+      <c r="E17" s="379" t="s">
         <v>778</v>
       </c>
       <c r="F17" s="308" t="s">
         <v>339</v>
       </c>
-      <c r="G17" s="419"/>
-      <c r="H17" s="419"/>
-      <c r="I17" s="419"/>
-      <c r="J17" s="419"/>
-      <c r="K17" s="419"/>
-      <c r="L17" s="419"/>
-      <c r="M17" s="419"/>
-      <c r="N17" s="419"/>
-      <c r="O17" s="419"/>
-      <c r="P17" s="419"/>
-      <c r="Q17" s="419"/>
-      <c r="R17" s="419"/>
-      <c r="S17" s="419"/>
-      <c r="T17" s="419"/>
-      <c r="U17" s="419"/>
-      <c r="V17" s="419"/>
-      <c r="W17" s="419"/>
-      <c r="X17" s="419"/>
-      <c r="Y17" s="419"/>
-      <c r="Z17" s="419"/>
-      <c r="AA17" s="419"/>
-      <c r="AB17" s="419"/>
-      <c r="AC17" s="419"/>
-      <c r="AD17" s="419"/>
-      <c r="AE17" s="419"/>
-      <c r="AF17" s="419"/>
-      <c r="AG17" s="419"/>
-      <c r="AH17" s="419"/>
-      <c r="AI17" s="419"/>
-      <c r="AJ17" s="419"/>
-      <c r="AK17" s="419"/>
-      <c r="AL17" s="419"/>
-      <c r="AM17" s="419"/>
-      <c r="AN17" s="419"/>
-      <c r="AO17" s="419"/>
-      <c r="AP17" s="419"/>
-      <c r="AQ17" s="419"/>
-      <c r="AR17" s="419"/>
-      <c r="AS17" s="419"/>
-      <c r="AT17" s="419"/>
-      <c r="AU17" s="419"/>
-      <c r="AV17" s="419"/>
-      <c r="AW17" s="419"/>
-      <c r="AX17" s="419"/>
-      <c r="AY17" s="419"/>
-      <c r="AZ17" s="419"/>
-      <c r="BA17" s="419"/>
-      <c r="BB17" s="419"/>
-      <c r="BC17" s="419"/>
-      <c r="BD17" s="419"/>
-      <c r="BE17" s="419"/>
-      <c r="BF17" s="419"/>
-      <c r="BG17" s="419"/>
-      <c r="BH17" s="419"/>
-      <c r="BI17" s="419"/>
-      <c r="BJ17" s="419"/>
-      <c r="BK17" s="419"/>
-      <c r="BL17" s="419"/>
-      <c r="BM17" s="419"/>
-      <c r="BN17" s="419"/>
-      <c r="BO17" s="419"/>
-      <c r="BP17" s="419"/>
-      <c r="BQ17" s="419"/>
-      <c r="BR17" s="419"/>
-      <c r="BS17" s="419"/>
-      <c r="BT17" s="419"/>
-      <c r="BU17" s="419"/>
-      <c r="BV17" s="419"/>
-      <c r="BW17" s="419"/>
-      <c r="BX17" s="419"/>
-      <c r="BY17" s="419"/>
-      <c r="BZ17" s="419"/>
-      <c r="CA17" s="419"/>
-      <c r="CB17" s="419"/>
-      <c r="CC17" s="419"/>
-      <c r="CD17" s="419"/>
-      <c r="CE17" s="419"/>
-      <c r="CF17" s="419"/>
-      <c r="CG17" s="419"/>
-      <c r="CH17" s="419"/>
-      <c r="CI17" s="419"/>
-      <c r="CJ17" s="419"/>
-      <c r="CK17" s="419"/>
-      <c r="CL17" s="419"/>
-      <c r="CM17" s="419"/>
-      <c r="CN17" s="419"/>
-      <c r="CO17" s="419"/>
-      <c r="CP17" s="419"/>
-      <c r="CQ17" s="419"/>
-      <c r="CR17" s="419"/>
-      <c r="CS17" s="419"/>
-      <c r="CT17" s="419"/>
-      <c r="CU17" s="419"/>
-      <c r="CV17" s="419"/>
-      <c r="CW17" s="419"/>
-      <c r="CX17" s="419"/>
-      <c r="CY17" s="419"/>
-      <c r="CZ17" s="419"/>
-      <c r="DA17" s="419"/>
-      <c r="DB17" s="419"/>
-      <c r="DC17" s="419"/>
-      <c r="DD17" s="419"/>
-      <c r="DE17" s="419"/>
-      <c r="DF17" s="419"/>
-      <c r="DG17" s="419"/>
-      <c r="DH17" s="419"/>
-      <c r="DI17" s="419"/>
-      <c r="DJ17" s="419"/>
-      <c r="DK17" s="419"/>
-      <c r="DL17" s="419"/>
-      <c r="DM17" s="419"/>
-      <c r="DN17" s="419"/>
-      <c r="DO17" s="419"/>
-      <c r="DP17" s="419"/>
-      <c r="DQ17" s="419"/>
-      <c r="DR17" s="419"/>
-      <c r="DS17" s="419"/>
-      <c r="DT17" s="419"/>
-      <c r="DU17" s="419"/>
-      <c r="DV17" s="419"/>
-      <c r="DW17" s="419"/>
-      <c r="DX17" s="419"/>
-      <c r="DY17" s="419"/>
-      <c r="DZ17" s="419"/>
-      <c r="EA17" s="419"/>
-      <c r="EB17" s="419"/>
-      <c r="EC17" s="419"/>
-      <c r="ED17" s="419"/>
-      <c r="EE17" s="419"/>
-      <c r="EF17" s="419"/>
-      <c r="EG17" s="419"/>
-      <c r="EH17" s="419"/>
-      <c r="EI17" s="419"/>
-      <c r="EJ17" s="419"/>
-      <c r="EK17" s="419"/>
+      <c r="G17" s="413"/>
+      <c r="H17" s="413"/>
+      <c r="I17" s="413"/>
+      <c r="J17" s="413"/>
+      <c r="K17" s="413"/>
+      <c r="L17" s="413"/>
+      <c r="M17" s="413"/>
+      <c r="N17" s="413"/>
+      <c r="O17" s="413"/>
+      <c r="P17" s="413"/>
+      <c r="Q17" s="413"/>
+      <c r="R17" s="413"/>
+      <c r="S17" s="413"/>
+      <c r="T17" s="413"/>
+      <c r="U17" s="413"/>
+      <c r="V17" s="413"/>
+      <c r="W17" s="413"/>
+      <c r="X17" s="413"/>
+      <c r="Y17" s="413"/>
+      <c r="Z17" s="413"/>
+      <c r="AA17" s="413"/>
+      <c r="AB17" s="413"/>
+      <c r="AC17" s="413"/>
+      <c r="AD17" s="413"/>
+      <c r="AE17" s="413"/>
+      <c r="AF17" s="413"/>
+      <c r="AG17" s="413"/>
+      <c r="AH17" s="413"/>
+      <c r="AI17" s="413"/>
+      <c r="AJ17" s="413"/>
+      <c r="AK17" s="413"/>
+      <c r="AL17" s="413"/>
+      <c r="AM17" s="413"/>
+      <c r="AN17" s="413"/>
+      <c r="AO17" s="413"/>
+      <c r="AP17" s="413"/>
+      <c r="AQ17" s="413"/>
+      <c r="AR17" s="413"/>
+      <c r="AS17" s="413"/>
+      <c r="AT17" s="413"/>
+      <c r="AU17" s="413"/>
+      <c r="AV17" s="413"/>
+      <c r="AW17" s="413"/>
+      <c r="AX17" s="413"/>
+      <c r="AY17" s="413"/>
+      <c r="AZ17" s="413"/>
+      <c r="BA17" s="413"/>
+      <c r="BB17" s="413"/>
+      <c r="BC17" s="413"/>
+      <c r="BD17" s="413"/>
+      <c r="BE17" s="413"/>
+      <c r="BF17" s="413"/>
+      <c r="BG17" s="413"/>
+      <c r="BH17" s="413"/>
+      <c r="BI17" s="413"/>
+      <c r="BJ17" s="413"/>
+      <c r="BK17" s="413"/>
+      <c r="BL17" s="413"/>
+      <c r="BM17" s="413"/>
+      <c r="BN17" s="413"/>
+      <c r="BO17" s="413"/>
+      <c r="BP17" s="413"/>
+      <c r="BQ17" s="413"/>
+      <c r="BR17" s="413"/>
+      <c r="BS17" s="413"/>
+      <c r="BT17" s="413"/>
+      <c r="BU17" s="413"/>
+      <c r="BV17" s="413"/>
+      <c r="BW17" s="413"/>
+      <c r="BX17" s="413"/>
+      <c r="BY17" s="413"/>
+      <c r="BZ17" s="413"/>
+      <c r="CA17" s="413"/>
+      <c r="CB17" s="413"/>
+      <c r="CC17" s="413"/>
+      <c r="CD17" s="413"/>
+      <c r="CE17" s="413"/>
+      <c r="CF17" s="413"/>
+      <c r="CG17" s="413"/>
+      <c r="CH17" s="413"/>
+      <c r="CI17" s="413"/>
+      <c r="CJ17" s="413"/>
+      <c r="CK17" s="413"/>
+      <c r="CL17" s="413"/>
+      <c r="CM17" s="413"/>
+      <c r="CN17" s="413"/>
+      <c r="CO17" s="413"/>
+      <c r="CP17" s="413"/>
+      <c r="CQ17" s="413"/>
+      <c r="CR17" s="413"/>
+      <c r="CS17" s="413"/>
+      <c r="CT17" s="413"/>
+      <c r="CU17" s="413"/>
+      <c r="CV17" s="413"/>
+      <c r="CW17" s="413"/>
+      <c r="CX17" s="413"/>
+      <c r="CY17" s="413"/>
+      <c r="CZ17" s="413"/>
+      <c r="DA17" s="413"/>
+      <c r="DB17" s="413"/>
+      <c r="DC17" s="413"/>
+      <c r="DD17" s="413"/>
+      <c r="DE17" s="413"/>
+      <c r="DF17" s="413"/>
+      <c r="DG17" s="413"/>
+      <c r="DH17" s="413"/>
+      <c r="DI17" s="413"/>
+      <c r="DJ17" s="413"/>
+      <c r="DK17" s="413"/>
+      <c r="DL17" s="413"/>
+      <c r="DM17" s="413"/>
+      <c r="DN17" s="413"/>
+      <c r="DO17" s="413"/>
+      <c r="DP17" s="413"/>
+      <c r="DQ17" s="413"/>
+      <c r="DR17" s="413"/>
+      <c r="DS17" s="413"/>
+      <c r="DT17" s="413"/>
+      <c r="DU17" s="413"/>
+      <c r="DV17" s="413"/>
+      <c r="DW17" s="413"/>
+      <c r="DX17" s="413"/>
+      <c r="DY17" s="413"/>
+      <c r="DZ17" s="413"/>
+      <c r="EA17" s="413"/>
+      <c r="EB17" s="413"/>
+      <c r="EC17" s="413"/>
+      <c r="ED17" s="413"/>
+      <c r="EE17" s="413"/>
+      <c r="EF17" s="413"/>
+      <c r="EG17" s="413"/>
+      <c r="EH17" s="413"/>
+      <c r="EI17" s="413"/>
+      <c r="EJ17" s="413"/>
+      <c r="EK17" s="413"/>
     </row>
     <row r="18" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="74">
@@ -33333,7 +33300,7 @@
         <v>489</v>
       </c>
       <c r="E6" s="79" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="F6" s="291" t="s">
         <v>339</v>
@@ -33369,7 +33336,7 @@
         <v>493</v>
       </c>
       <c r="E8" s="148" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="F8" s="129" t="s">
         <v>339</v>
@@ -33448,100 +33415,100 @@
       </c>
     </row>
     <row r="13" spans="1:84" s="306" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="359">
-        <v>42736</v>
-      </c>
-      <c r="B13" s="352"/>
+      <c r="A13" s="355">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="351"/>
       <c r="C13" s="307" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D13" s="307" t="s">
         <v>493</v>
       </c>
-      <c r="E13" s="385" t="s">
+      <c r="E13" s="379" t="s">
         <v>778</v>
       </c>
-      <c r="F13" s="381" t="s">
+      <c r="F13" s="375" t="s">
         <v>339</v>
       </c>
-      <c r="G13" s="419"/>
-      <c r="H13" s="419"/>
-      <c r="I13" s="419"/>
-      <c r="J13" s="419"/>
-      <c r="K13" s="419"/>
-      <c r="L13" s="419"/>
-      <c r="M13" s="419"/>
-      <c r="N13" s="419"/>
-      <c r="O13" s="419"/>
-      <c r="P13" s="419"/>
-      <c r="Q13" s="419"/>
-      <c r="R13" s="419"/>
-      <c r="S13" s="419"/>
-      <c r="T13" s="419"/>
-      <c r="U13" s="419"/>
-      <c r="V13" s="419"/>
-      <c r="W13" s="419"/>
-      <c r="X13" s="419"/>
-      <c r="Y13" s="419"/>
-      <c r="Z13" s="419"/>
-      <c r="AA13" s="419"/>
-      <c r="AB13" s="419"/>
-      <c r="AC13" s="419"/>
-      <c r="AD13" s="419"/>
-      <c r="AE13" s="419"/>
-      <c r="AF13" s="419"/>
-      <c r="AG13" s="419"/>
-      <c r="AH13" s="419"/>
-      <c r="AI13" s="419"/>
-      <c r="AJ13" s="419"/>
-      <c r="AK13" s="419"/>
-      <c r="AL13" s="419"/>
-      <c r="AM13" s="419"/>
-      <c r="AN13" s="419"/>
-      <c r="AO13" s="419"/>
-      <c r="AP13" s="419"/>
-      <c r="AQ13" s="419"/>
-      <c r="AR13" s="419"/>
-      <c r="AS13" s="419"/>
-      <c r="AT13" s="419"/>
-      <c r="AU13" s="419"/>
-      <c r="AV13" s="419"/>
-      <c r="AW13" s="419"/>
-      <c r="AX13" s="419"/>
-      <c r="AY13" s="419"/>
-      <c r="AZ13" s="419"/>
-      <c r="BA13" s="419"/>
-      <c r="BB13" s="419"/>
-      <c r="BC13" s="419"/>
-      <c r="BD13" s="419"/>
-      <c r="BE13" s="419"/>
-      <c r="BF13" s="419"/>
-      <c r="BG13" s="419"/>
-      <c r="BH13" s="419"/>
-      <c r="BI13" s="419"/>
-      <c r="BJ13" s="419"/>
-      <c r="BK13" s="419"/>
-      <c r="BL13" s="419"/>
-      <c r="BM13" s="419"/>
-      <c r="BN13" s="419"/>
-      <c r="BO13" s="419"/>
-      <c r="BP13" s="419"/>
-      <c r="BQ13" s="419"/>
-      <c r="BR13" s="419"/>
-      <c r="BS13" s="419"/>
-      <c r="BT13" s="419"/>
-      <c r="BU13" s="419"/>
-      <c r="BV13" s="419"/>
-      <c r="BW13" s="419"/>
-      <c r="BX13" s="419"/>
-      <c r="BY13" s="419"/>
-      <c r="BZ13" s="419"/>
-      <c r="CA13" s="419"/>
-      <c r="CB13" s="419"/>
-      <c r="CC13" s="419"/>
-      <c r="CD13" s="419"/>
-      <c r="CE13" s="419"/>
-      <c r="CF13" s="419"/>
+      <c r="G13" s="413"/>
+      <c r="H13" s="413"/>
+      <c r="I13" s="413"/>
+      <c r="J13" s="413"/>
+      <c r="K13" s="413"/>
+      <c r="L13" s="413"/>
+      <c r="M13" s="413"/>
+      <c r="N13" s="413"/>
+      <c r="O13" s="413"/>
+      <c r="P13" s="413"/>
+      <c r="Q13" s="413"/>
+      <c r="R13" s="413"/>
+      <c r="S13" s="413"/>
+      <c r="T13" s="413"/>
+      <c r="U13" s="413"/>
+      <c r="V13" s="413"/>
+      <c r="W13" s="413"/>
+      <c r="X13" s="413"/>
+      <c r="Y13" s="413"/>
+      <c r="Z13" s="413"/>
+      <c r="AA13" s="413"/>
+      <c r="AB13" s="413"/>
+      <c r="AC13" s="413"/>
+      <c r="AD13" s="413"/>
+      <c r="AE13" s="413"/>
+      <c r="AF13" s="413"/>
+      <c r="AG13" s="413"/>
+      <c r="AH13" s="413"/>
+      <c r="AI13" s="413"/>
+      <c r="AJ13" s="413"/>
+      <c r="AK13" s="413"/>
+      <c r="AL13" s="413"/>
+      <c r="AM13" s="413"/>
+      <c r="AN13" s="413"/>
+      <c r="AO13" s="413"/>
+      <c r="AP13" s="413"/>
+      <c r="AQ13" s="413"/>
+      <c r="AR13" s="413"/>
+      <c r="AS13" s="413"/>
+      <c r="AT13" s="413"/>
+      <c r="AU13" s="413"/>
+      <c r="AV13" s="413"/>
+      <c r="AW13" s="413"/>
+      <c r="AX13" s="413"/>
+      <c r="AY13" s="413"/>
+      <c r="AZ13" s="413"/>
+      <c r="BA13" s="413"/>
+      <c r="BB13" s="413"/>
+      <c r="BC13" s="413"/>
+      <c r="BD13" s="413"/>
+      <c r="BE13" s="413"/>
+      <c r="BF13" s="413"/>
+      <c r="BG13" s="413"/>
+      <c r="BH13" s="413"/>
+      <c r="BI13" s="413"/>
+      <c r="BJ13" s="413"/>
+      <c r="BK13" s="413"/>
+      <c r="BL13" s="413"/>
+      <c r="BM13" s="413"/>
+      <c r="BN13" s="413"/>
+      <c r="BO13" s="413"/>
+      <c r="BP13" s="413"/>
+      <c r="BQ13" s="413"/>
+      <c r="BR13" s="413"/>
+      <c r="BS13" s="413"/>
+      <c r="BT13" s="413"/>
+      <c r="BU13" s="413"/>
+      <c r="BV13" s="413"/>
+      <c r="BW13" s="413"/>
+      <c r="BX13" s="413"/>
+      <c r="BY13" s="413"/>
+      <c r="BZ13" s="413"/>
+      <c r="CA13" s="413"/>
+      <c r="CB13" s="413"/>
+      <c r="CC13" s="413"/>
+      <c r="CD13" s="413"/>
+      <c r="CE13" s="413"/>
+      <c r="CF13" s="413"/>
     </row>
     <row r="14" spans="1:84" s="306" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="300">
@@ -33549,95 +33516,95 @@
       </c>
       <c r="B14" s="303"/>
       <c r="C14" s="307" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D14" s="307" t="s">
         <v>489</v>
       </c>
-      <c r="E14" s="385" t="s">
+      <c r="E14" s="379" t="s">
         <v>778</v>
       </c>
       <c r="F14" s="308" t="s">
         <v>339</v>
       </c>
-      <c r="G14" s="419"/>
-      <c r="H14" s="419"/>
-      <c r="I14" s="419"/>
-      <c r="J14" s="419"/>
-      <c r="K14" s="419"/>
-      <c r="L14" s="419"/>
-      <c r="M14" s="419"/>
-      <c r="N14" s="419"/>
-      <c r="O14" s="419"/>
-      <c r="P14" s="419"/>
-      <c r="Q14" s="419"/>
-      <c r="R14" s="419"/>
-      <c r="S14" s="419"/>
-      <c r="T14" s="419"/>
-      <c r="U14" s="419"/>
-      <c r="V14" s="419"/>
-      <c r="W14" s="419"/>
-      <c r="X14" s="419"/>
-      <c r="Y14" s="419"/>
-      <c r="Z14" s="419"/>
-      <c r="AA14" s="419"/>
-      <c r="AB14" s="419"/>
-      <c r="AC14" s="419"/>
-      <c r="AD14" s="419"/>
-      <c r="AE14" s="419"/>
-      <c r="AF14" s="419"/>
-      <c r="AG14" s="419"/>
-      <c r="AH14" s="419"/>
-      <c r="AI14" s="419"/>
-      <c r="AJ14" s="419"/>
-      <c r="AK14" s="419"/>
-      <c r="AL14" s="419"/>
-      <c r="AM14" s="419"/>
-      <c r="AN14" s="419"/>
-      <c r="AO14" s="419"/>
-      <c r="AP14" s="419"/>
-      <c r="AQ14" s="419"/>
-      <c r="AR14" s="419"/>
-      <c r="AS14" s="419"/>
-      <c r="AT14" s="419"/>
-      <c r="AU14" s="419"/>
-      <c r="AV14" s="419"/>
-      <c r="AW14" s="419"/>
-      <c r="AX14" s="419"/>
-      <c r="AY14" s="419"/>
-      <c r="AZ14" s="419"/>
-      <c r="BA14" s="419"/>
-      <c r="BB14" s="419"/>
-      <c r="BC14" s="419"/>
-      <c r="BD14" s="419"/>
-      <c r="BE14" s="419"/>
-      <c r="BF14" s="419"/>
-      <c r="BG14" s="419"/>
-      <c r="BH14" s="419"/>
-      <c r="BI14" s="419"/>
-      <c r="BJ14" s="419"/>
-      <c r="BK14" s="419"/>
-      <c r="BL14" s="419"/>
-      <c r="BM14" s="419"/>
-      <c r="BN14" s="419"/>
-      <c r="BO14" s="419"/>
-      <c r="BP14" s="419"/>
-      <c r="BQ14" s="419"/>
-      <c r="BR14" s="419"/>
-      <c r="BS14" s="419"/>
-      <c r="BT14" s="419"/>
-      <c r="BU14" s="419"/>
-      <c r="BV14" s="419"/>
-      <c r="BW14" s="419"/>
-      <c r="BX14" s="419"/>
-      <c r="BY14" s="419"/>
-      <c r="BZ14" s="419"/>
-      <c r="CA14" s="419"/>
-      <c r="CB14" s="419"/>
-      <c r="CC14" s="419"/>
-      <c r="CD14" s="419"/>
-      <c r="CE14" s="419"/>
-      <c r="CF14" s="419"/>
+      <c r="G14" s="413"/>
+      <c r="H14" s="413"/>
+      <c r="I14" s="413"/>
+      <c r="J14" s="413"/>
+      <c r="K14" s="413"/>
+      <c r="L14" s="413"/>
+      <c r="M14" s="413"/>
+      <c r="N14" s="413"/>
+      <c r="O14" s="413"/>
+      <c r="P14" s="413"/>
+      <c r="Q14" s="413"/>
+      <c r="R14" s="413"/>
+      <c r="S14" s="413"/>
+      <c r="T14" s="413"/>
+      <c r="U14" s="413"/>
+      <c r="V14" s="413"/>
+      <c r="W14" s="413"/>
+      <c r="X14" s="413"/>
+      <c r="Y14" s="413"/>
+      <c r="Z14" s="413"/>
+      <c r="AA14" s="413"/>
+      <c r="AB14" s="413"/>
+      <c r="AC14" s="413"/>
+      <c r="AD14" s="413"/>
+      <c r="AE14" s="413"/>
+      <c r="AF14" s="413"/>
+      <c r="AG14" s="413"/>
+      <c r="AH14" s="413"/>
+      <c r="AI14" s="413"/>
+      <c r="AJ14" s="413"/>
+      <c r="AK14" s="413"/>
+      <c r="AL14" s="413"/>
+      <c r="AM14" s="413"/>
+      <c r="AN14" s="413"/>
+      <c r="AO14" s="413"/>
+      <c r="AP14" s="413"/>
+      <c r="AQ14" s="413"/>
+      <c r="AR14" s="413"/>
+      <c r="AS14" s="413"/>
+      <c r="AT14" s="413"/>
+      <c r="AU14" s="413"/>
+      <c r="AV14" s="413"/>
+      <c r="AW14" s="413"/>
+      <c r="AX14" s="413"/>
+      <c r="AY14" s="413"/>
+      <c r="AZ14" s="413"/>
+      <c r="BA14" s="413"/>
+      <c r="BB14" s="413"/>
+      <c r="BC14" s="413"/>
+      <c r="BD14" s="413"/>
+      <c r="BE14" s="413"/>
+      <c r="BF14" s="413"/>
+      <c r="BG14" s="413"/>
+      <c r="BH14" s="413"/>
+      <c r="BI14" s="413"/>
+      <c r="BJ14" s="413"/>
+      <c r="BK14" s="413"/>
+      <c r="BL14" s="413"/>
+      <c r="BM14" s="413"/>
+      <c r="BN14" s="413"/>
+      <c r="BO14" s="413"/>
+      <c r="BP14" s="413"/>
+      <c r="BQ14" s="413"/>
+      <c r="BR14" s="413"/>
+      <c r="BS14" s="413"/>
+      <c r="BT14" s="413"/>
+      <c r="BU14" s="413"/>
+      <c r="BV14" s="413"/>
+      <c r="BW14" s="413"/>
+      <c r="BX14" s="413"/>
+      <c r="BY14" s="413"/>
+      <c r="BZ14" s="413"/>
+      <c r="CA14" s="413"/>
+      <c r="CB14" s="413"/>
+      <c r="CC14" s="413"/>
+      <c r="CD14" s="413"/>
+      <c r="CE14" s="413"/>
+      <c r="CF14" s="413"/>
     </row>
     <row r="15" spans="1:84" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="74">
@@ -34432,25 +34399,25 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="306" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="373">
-        <v>42736</v>
-      </c>
-      <c r="B17" s="374"/>
+      <c r="A17" s="367">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="368"/>
       <c r="C17" s="346" t="s">
+        <v>921</v>
+      </c>
+      <c r="D17" s="346" t="s">
+        <v>925</v>
+      </c>
+      <c r="E17" s="368" t="s">
         <v>924</v>
       </c>
-      <c r="D17" s="346" t="s">
-        <v>928</v>
-      </c>
-      <c r="E17" s="374" t="s">
-        <v>927</v>
-      </c>
-      <c r="F17" s="375" t="s">
+      <c r="F17" s="369" t="s">
         <v>775</v>
       </c>
-      <c r="G17" s="374"/>
-      <c r="H17" s="374"/>
-      <c r="I17" s="376" t="s">
+      <c r="G17" s="368"/>
+      <c r="H17" s="368"/>
+      <c r="I17" s="370" t="s">
         <v>26</v>
       </c>
     </row>
@@ -35242,7 +35209,7 @@
       <c r="G16" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="377" t="s">
+      <c r="H16" s="371" t="s">
         <v>749</v>
       </c>
       <c r="I16" s="95"/>
@@ -35274,7 +35241,7 @@
       <c r="G17" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="377" t="s">
+      <c r="H17" s="371" t="s">
         <v>751</v>
       </c>
       <c r="I17" s="95"/>
@@ -35306,7 +35273,7 @@
       <c r="G18" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="377" t="s">
+      <c r="H18" s="371" t="s">
         <v>774</v>
       </c>
       <c r="I18" s="95"/>
@@ -35472,300 +35439,300 @@
         <v>784</v>
       </c>
     </row>
-    <row r="24" spans="1:249" s="422" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="424">
-        <v>42736</v>
-      </c>
-      <c r="B24" s="428"/>
-      <c r="C24" s="429" t="s">
+    <row r="24" spans="1:249" s="416" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="418">
+        <v>42736</v>
+      </c>
+      <c r="B24" s="422"/>
+      <c r="C24" s="423" t="s">
         <v>884</v>
       </c>
-      <c r="D24" s="426" t="s">
-        <v>939</v>
-      </c>
-      <c r="E24" s="426" t="s">
+      <c r="D24" s="420" t="s">
+        <v>936</v>
+      </c>
+      <c r="E24" s="420" t="s">
         <v>913</v>
       </c>
-      <c r="F24" s="430"/>
-      <c r="G24" s="429" t="s">
+      <c r="F24" s="424"/>
+      <c r="G24" s="423" t="s">
         <v>914</v>
       </c>
-      <c r="H24" s="429"/>
-      <c r="I24" s="426"/>
-      <c r="J24" s="425"/>
-      <c r="K24" s="429" t="s">
+      <c r="H24" s="423"/>
+      <c r="I24" s="420"/>
+      <c r="J24" s="419"/>
+      <c r="K24" s="423" t="s">
         <v>26</v>
       </c>
-      <c r="L24" s="425"/>
-      <c r="M24" s="431"/>
-      <c r="N24" s="422" t="s">
+      <c r="L24" s="419"/>
+      <c r="M24" s="425"/>
+      <c r="N24" s="416" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="25" spans="1:249" s="419" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="424">
-        <v>42736</v>
-      </c>
-      <c r="B25" s="428"/>
-      <c r="C25" s="429" t="s">
+    <row r="25" spans="1:249" s="413" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="418">
+        <v>42736</v>
+      </c>
+      <c r="B25" s="422"/>
+      <c r="C25" s="423" t="s">
         <v>884</v>
       </c>
-      <c r="D25" s="426" t="s">
-        <v>940</v>
-      </c>
-      <c r="E25" s="426" t="s">
-        <v>941</v>
-      </c>
-      <c r="F25" s="430"/>
-      <c r="G25" s="429" t="s">
+      <c r="D25" s="420" t="s">
+        <v>937</v>
+      </c>
+      <c r="E25" s="420" t="s">
+        <v>938</v>
+      </c>
+      <c r="F25" s="424"/>
+      <c r="G25" s="423" t="s">
         <v>914</v>
       </c>
-      <c r="H25" s="429"/>
-      <c r="I25" s="426"/>
-      <c r="J25" s="425"/>
-      <c r="K25" s="429" t="s">
+      <c r="H25" s="423"/>
+      <c r="I25" s="420"/>
+      <c r="J25" s="419"/>
+      <c r="K25" s="423" t="s">
         <v>26</v>
       </c>
-      <c r="L25" s="425"/>
-      <c r="M25" s="431"/>
-      <c r="N25" s="422" t="s">
+      <c r="L25" s="419"/>
+      <c r="M25" s="425"/>
+      <c r="N25" s="416" t="s">
         <v>784</v>
       </c>
-      <c r="O25" s="423"/>
-      <c r="P25" s="423"/>
-      <c r="Q25" s="423"/>
-      <c r="R25" s="423"/>
-      <c r="S25" s="423"/>
-      <c r="T25" s="423"/>
-      <c r="U25" s="423"/>
-      <c r="V25" s="423"/>
-      <c r="W25" s="423"/>
-      <c r="X25" s="423"/>
-      <c r="Y25" s="423"/>
-      <c r="Z25" s="423"/>
-      <c r="AA25" s="423"/>
-      <c r="AB25" s="423"/>
-      <c r="AC25" s="423"/>
-      <c r="AD25" s="423"/>
-      <c r="AE25" s="423"/>
-      <c r="AF25" s="423"/>
-      <c r="AG25" s="423"/>
-      <c r="AH25" s="423"/>
-      <c r="AI25" s="423"/>
-      <c r="AJ25" s="423"/>
-      <c r="AK25" s="423"/>
-      <c r="AL25" s="423"/>
-      <c r="AM25" s="423"/>
-      <c r="AN25" s="423"/>
-      <c r="AO25" s="423"/>
-      <c r="AP25" s="423"/>
-      <c r="AQ25" s="423"/>
-      <c r="AR25" s="423"/>
-      <c r="AS25" s="423"/>
-      <c r="AT25" s="423"/>
-      <c r="AU25" s="423"/>
-      <c r="AV25" s="423"/>
-      <c r="AW25" s="423"/>
-      <c r="AX25" s="423"/>
-      <c r="AY25" s="423"/>
-      <c r="AZ25" s="423"/>
-      <c r="BA25" s="423"/>
-      <c r="BB25" s="423"/>
-      <c r="BC25" s="423"/>
-      <c r="BD25" s="423"/>
-      <c r="BE25" s="423"/>
-      <c r="BF25" s="423"/>
-      <c r="BG25" s="423"/>
-      <c r="BH25" s="423"/>
-      <c r="BI25" s="423"/>
-      <c r="BJ25" s="423"/>
-      <c r="BK25" s="423"/>
-      <c r="BL25" s="423"/>
-      <c r="BM25" s="423"/>
-      <c r="BN25" s="423"/>
-      <c r="BO25" s="423"/>
-      <c r="BP25" s="423"/>
-      <c r="BQ25" s="423"/>
-      <c r="BR25" s="423"/>
-      <c r="BS25" s="423"/>
-      <c r="BT25" s="423"/>
-      <c r="BU25" s="423"/>
-      <c r="BV25" s="423"/>
-      <c r="BW25" s="423"/>
-      <c r="BX25" s="423"/>
-      <c r="BY25" s="423"/>
-      <c r="BZ25" s="423"/>
-      <c r="CA25" s="423"/>
-      <c r="CB25" s="423"/>
-      <c r="CC25" s="423"/>
-      <c r="CD25" s="423"/>
-      <c r="CE25" s="423"/>
-      <c r="CF25" s="423"/>
-      <c r="CG25" s="423"/>
-      <c r="CH25" s="423"/>
-      <c r="CI25" s="423"/>
-      <c r="CJ25" s="423"/>
-      <c r="CK25" s="423"/>
-      <c r="CL25" s="423"/>
-      <c r="CM25" s="423"/>
-      <c r="CN25" s="423"/>
-      <c r="CO25" s="423"/>
-      <c r="CP25" s="423"/>
-      <c r="CQ25" s="423"/>
-      <c r="CR25" s="423"/>
-      <c r="CS25" s="423"/>
-      <c r="CT25" s="423"/>
-      <c r="CU25" s="423"/>
-      <c r="CV25" s="423"/>
-      <c r="CW25" s="423"/>
-      <c r="CX25" s="423"/>
-      <c r="CY25" s="423"/>
-      <c r="CZ25" s="423"/>
-      <c r="DA25" s="423"/>
-      <c r="DB25" s="423"/>
-      <c r="DC25" s="423"/>
-      <c r="DD25" s="423"/>
-      <c r="DE25" s="423"/>
-      <c r="DF25" s="423"/>
-      <c r="DG25" s="423"/>
-      <c r="DH25" s="423"/>
-      <c r="DI25" s="423"/>
-      <c r="DJ25" s="423"/>
-      <c r="DK25" s="423"/>
-      <c r="DL25" s="423"/>
-      <c r="DM25" s="423"/>
-      <c r="DN25" s="423"/>
-      <c r="DO25" s="423"/>
-      <c r="DP25" s="423"/>
-      <c r="DQ25" s="423"/>
-      <c r="DR25" s="423"/>
-      <c r="DS25" s="423"/>
-      <c r="DT25" s="423"/>
-      <c r="DU25" s="423"/>
-      <c r="DV25" s="423"/>
-      <c r="DW25" s="423"/>
-      <c r="DX25" s="423"/>
-      <c r="DY25" s="423"/>
-      <c r="DZ25" s="423"/>
-      <c r="EA25" s="423"/>
-      <c r="EB25" s="423"/>
-      <c r="EC25" s="423"/>
-      <c r="ED25" s="423"/>
-      <c r="EE25" s="423"/>
-      <c r="EF25" s="423"/>
-      <c r="EG25" s="423"/>
-      <c r="EH25" s="423"/>
-      <c r="EI25" s="423"/>
-      <c r="EJ25" s="423"/>
-      <c r="EK25" s="423"/>
-      <c r="EL25" s="423"/>
-      <c r="EM25" s="423"/>
-      <c r="EN25" s="423"/>
-      <c r="EO25" s="423"/>
-      <c r="EP25" s="423"/>
-      <c r="EQ25" s="423"/>
-      <c r="ER25" s="423"/>
-      <c r="ES25" s="423"/>
-      <c r="ET25" s="423"/>
-      <c r="EU25" s="423"/>
-      <c r="EV25" s="423"/>
-      <c r="EW25" s="423"/>
-      <c r="EX25" s="423"/>
-      <c r="EY25" s="423"/>
-      <c r="EZ25" s="423"/>
-      <c r="FA25" s="423"/>
-      <c r="FB25" s="423"/>
-      <c r="FC25" s="423"/>
-      <c r="FD25" s="423"/>
-      <c r="FE25" s="423"/>
-      <c r="FF25" s="423"/>
-      <c r="FG25" s="423"/>
-      <c r="FH25" s="423"/>
-      <c r="FI25" s="423"/>
-      <c r="FJ25" s="423"/>
-      <c r="FK25" s="423"/>
-      <c r="FL25" s="423"/>
-      <c r="FM25" s="423"/>
-      <c r="FN25" s="423"/>
-      <c r="FO25" s="423"/>
-      <c r="FP25" s="423"/>
-      <c r="FQ25" s="423"/>
-      <c r="FR25" s="423"/>
-      <c r="FS25" s="423"/>
-      <c r="FT25" s="423"/>
-      <c r="FU25" s="423"/>
-      <c r="FV25" s="423"/>
-      <c r="FW25" s="423"/>
-      <c r="FX25" s="423"/>
-      <c r="FY25" s="423"/>
-      <c r="FZ25" s="423"/>
-      <c r="GA25" s="423"/>
-      <c r="GB25" s="423"/>
-      <c r="GC25" s="423"/>
-      <c r="GD25" s="423"/>
-      <c r="GE25" s="423"/>
-      <c r="GF25" s="423"/>
-      <c r="GG25" s="423"/>
-      <c r="GH25" s="423"/>
-      <c r="GI25" s="423"/>
-      <c r="GJ25" s="423"/>
-      <c r="GK25" s="423"/>
-      <c r="GL25" s="423"/>
-      <c r="GM25" s="423"/>
-      <c r="GN25" s="423"/>
-      <c r="GO25" s="423"/>
-      <c r="GP25" s="423"/>
-      <c r="GQ25" s="423"/>
-      <c r="GR25" s="423"/>
-      <c r="GS25" s="423"/>
-      <c r="GT25" s="423"/>
-      <c r="GU25" s="423"/>
-      <c r="GV25" s="423"/>
-      <c r="GW25" s="423"/>
-      <c r="GX25" s="423"/>
-      <c r="GY25" s="423"/>
-      <c r="GZ25" s="423"/>
-      <c r="HA25" s="423"/>
-      <c r="HB25" s="423"/>
-      <c r="HC25" s="423"/>
-      <c r="HD25" s="423"/>
-      <c r="HE25" s="423"/>
-      <c r="HF25" s="423"/>
-      <c r="HG25" s="423"/>
-      <c r="HH25" s="423"/>
-      <c r="HI25" s="423"/>
-      <c r="HJ25" s="423"/>
-      <c r="HK25" s="423"/>
-      <c r="HL25" s="423"/>
-      <c r="HM25" s="423"/>
-      <c r="HN25" s="423"/>
-      <c r="HO25" s="423"/>
-      <c r="HP25" s="423"/>
-      <c r="HQ25" s="423"/>
-      <c r="HR25" s="423"/>
-      <c r="HS25" s="423"/>
-      <c r="HT25" s="423"/>
-      <c r="HU25" s="423"/>
-      <c r="HV25" s="423"/>
-      <c r="HW25" s="423"/>
-      <c r="HX25" s="423"/>
-      <c r="HY25" s="423"/>
-      <c r="HZ25" s="423"/>
-      <c r="IA25" s="423"/>
-      <c r="IB25" s="423"/>
-      <c r="IC25" s="423"/>
-      <c r="ID25" s="423"/>
-      <c r="IE25" s="423"/>
-      <c r="IF25" s="423"/>
-      <c r="IG25" s="423"/>
-      <c r="IH25" s="423"/>
-      <c r="II25" s="423"/>
-      <c r="IJ25" s="423"/>
-      <c r="IK25" s="423"/>
-      <c r="IL25" s="423"/>
-      <c r="IM25" s="423"/>
-      <c r="IN25" s="423"/>
-      <c r="IO25" s="423"/>
+      <c r="O25" s="417"/>
+      <c r="P25" s="417"/>
+      <c r="Q25" s="417"/>
+      <c r="R25" s="417"/>
+      <c r="S25" s="417"/>
+      <c r="T25" s="417"/>
+      <c r="U25" s="417"/>
+      <c r="V25" s="417"/>
+      <c r="W25" s="417"/>
+      <c r="X25" s="417"/>
+      <c r="Y25" s="417"/>
+      <c r="Z25" s="417"/>
+      <c r="AA25" s="417"/>
+      <c r="AB25" s="417"/>
+      <c r="AC25" s="417"/>
+      <c r="AD25" s="417"/>
+      <c r="AE25" s="417"/>
+      <c r="AF25" s="417"/>
+      <c r="AG25" s="417"/>
+      <c r="AH25" s="417"/>
+      <c r="AI25" s="417"/>
+      <c r="AJ25" s="417"/>
+      <c r="AK25" s="417"/>
+      <c r="AL25" s="417"/>
+      <c r="AM25" s="417"/>
+      <c r="AN25" s="417"/>
+      <c r="AO25" s="417"/>
+      <c r="AP25" s="417"/>
+      <c r="AQ25" s="417"/>
+      <c r="AR25" s="417"/>
+      <c r="AS25" s="417"/>
+      <c r="AT25" s="417"/>
+      <c r="AU25" s="417"/>
+      <c r="AV25" s="417"/>
+      <c r="AW25" s="417"/>
+      <c r="AX25" s="417"/>
+      <c r="AY25" s="417"/>
+      <c r="AZ25" s="417"/>
+      <c r="BA25" s="417"/>
+      <c r="BB25" s="417"/>
+      <c r="BC25" s="417"/>
+      <c r="BD25" s="417"/>
+      <c r="BE25" s="417"/>
+      <c r="BF25" s="417"/>
+      <c r="BG25" s="417"/>
+      <c r="BH25" s="417"/>
+      <c r="BI25" s="417"/>
+      <c r="BJ25" s="417"/>
+      <c r="BK25" s="417"/>
+      <c r="BL25" s="417"/>
+      <c r="BM25" s="417"/>
+      <c r="BN25" s="417"/>
+      <c r="BO25" s="417"/>
+      <c r="BP25" s="417"/>
+      <c r="BQ25" s="417"/>
+      <c r="BR25" s="417"/>
+      <c r="BS25" s="417"/>
+      <c r="BT25" s="417"/>
+      <c r="BU25" s="417"/>
+      <c r="BV25" s="417"/>
+      <c r="BW25" s="417"/>
+      <c r="BX25" s="417"/>
+      <c r="BY25" s="417"/>
+      <c r="BZ25" s="417"/>
+      <c r="CA25" s="417"/>
+      <c r="CB25" s="417"/>
+      <c r="CC25" s="417"/>
+      <c r="CD25" s="417"/>
+      <c r="CE25" s="417"/>
+      <c r="CF25" s="417"/>
+      <c r="CG25" s="417"/>
+      <c r="CH25" s="417"/>
+      <c r="CI25" s="417"/>
+      <c r="CJ25" s="417"/>
+      <c r="CK25" s="417"/>
+      <c r="CL25" s="417"/>
+      <c r="CM25" s="417"/>
+      <c r="CN25" s="417"/>
+      <c r="CO25" s="417"/>
+      <c r="CP25" s="417"/>
+      <c r="CQ25" s="417"/>
+      <c r="CR25" s="417"/>
+      <c r="CS25" s="417"/>
+      <c r="CT25" s="417"/>
+      <c r="CU25" s="417"/>
+      <c r="CV25" s="417"/>
+      <c r="CW25" s="417"/>
+      <c r="CX25" s="417"/>
+      <c r="CY25" s="417"/>
+      <c r="CZ25" s="417"/>
+      <c r="DA25" s="417"/>
+      <c r="DB25" s="417"/>
+      <c r="DC25" s="417"/>
+      <c r="DD25" s="417"/>
+      <c r="DE25" s="417"/>
+      <c r="DF25" s="417"/>
+      <c r="DG25" s="417"/>
+      <c r="DH25" s="417"/>
+      <c r="DI25" s="417"/>
+      <c r="DJ25" s="417"/>
+      <c r="DK25" s="417"/>
+      <c r="DL25" s="417"/>
+      <c r="DM25" s="417"/>
+      <c r="DN25" s="417"/>
+      <c r="DO25" s="417"/>
+      <c r="DP25" s="417"/>
+      <c r="DQ25" s="417"/>
+      <c r="DR25" s="417"/>
+      <c r="DS25" s="417"/>
+      <c r="DT25" s="417"/>
+      <c r="DU25" s="417"/>
+      <c r="DV25" s="417"/>
+      <c r="DW25" s="417"/>
+      <c r="DX25" s="417"/>
+      <c r="DY25" s="417"/>
+      <c r="DZ25" s="417"/>
+      <c r="EA25" s="417"/>
+      <c r="EB25" s="417"/>
+      <c r="EC25" s="417"/>
+      <c r="ED25" s="417"/>
+      <c r="EE25" s="417"/>
+      <c r="EF25" s="417"/>
+      <c r="EG25" s="417"/>
+      <c r="EH25" s="417"/>
+      <c r="EI25" s="417"/>
+      <c r="EJ25" s="417"/>
+      <c r="EK25" s="417"/>
+      <c r="EL25" s="417"/>
+      <c r="EM25" s="417"/>
+      <c r="EN25" s="417"/>
+      <c r="EO25" s="417"/>
+      <c r="EP25" s="417"/>
+      <c r="EQ25" s="417"/>
+      <c r="ER25" s="417"/>
+      <c r="ES25" s="417"/>
+      <c r="ET25" s="417"/>
+      <c r="EU25" s="417"/>
+      <c r="EV25" s="417"/>
+      <c r="EW25" s="417"/>
+      <c r="EX25" s="417"/>
+      <c r="EY25" s="417"/>
+      <c r="EZ25" s="417"/>
+      <c r="FA25" s="417"/>
+      <c r="FB25" s="417"/>
+      <c r="FC25" s="417"/>
+      <c r="FD25" s="417"/>
+      <c r="FE25" s="417"/>
+      <c r="FF25" s="417"/>
+      <c r="FG25" s="417"/>
+      <c r="FH25" s="417"/>
+      <c r="FI25" s="417"/>
+      <c r="FJ25" s="417"/>
+      <c r="FK25" s="417"/>
+      <c r="FL25" s="417"/>
+      <c r="FM25" s="417"/>
+      <c r="FN25" s="417"/>
+      <c r="FO25" s="417"/>
+      <c r="FP25" s="417"/>
+      <c r="FQ25" s="417"/>
+      <c r="FR25" s="417"/>
+      <c r="FS25" s="417"/>
+      <c r="FT25" s="417"/>
+      <c r="FU25" s="417"/>
+      <c r="FV25" s="417"/>
+      <c r="FW25" s="417"/>
+      <c r="FX25" s="417"/>
+      <c r="FY25" s="417"/>
+      <c r="FZ25" s="417"/>
+      <c r="GA25" s="417"/>
+      <c r="GB25" s="417"/>
+      <c r="GC25" s="417"/>
+      <c r="GD25" s="417"/>
+      <c r="GE25" s="417"/>
+      <c r="GF25" s="417"/>
+      <c r="GG25" s="417"/>
+      <c r="GH25" s="417"/>
+      <c r="GI25" s="417"/>
+      <c r="GJ25" s="417"/>
+      <c r="GK25" s="417"/>
+      <c r="GL25" s="417"/>
+      <c r="GM25" s="417"/>
+      <c r="GN25" s="417"/>
+      <c r="GO25" s="417"/>
+      <c r="GP25" s="417"/>
+      <c r="GQ25" s="417"/>
+      <c r="GR25" s="417"/>
+      <c r="GS25" s="417"/>
+      <c r="GT25" s="417"/>
+      <c r="GU25" s="417"/>
+      <c r="GV25" s="417"/>
+      <c r="GW25" s="417"/>
+      <c r="GX25" s="417"/>
+      <c r="GY25" s="417"/>
+      <c r="GZ25" s="417"/>
+      <c r="HA25" s="417"/>
+      <c r="HB25" s="417"/>
+      <c r="HC25" s="417"/>
+      <c r="HD25" s="417"/>
+      <c r="HE25" s="417"/>
+      <c r="HF25" s="417"/>
+      <c r="HG25" s="417"/>
+      <c r="HH25" s="417"/>
+      <c r="HI25" s="417"/>
+      <c r="HJ25" s="417"/>
+      <c r="HK25" s="417"/>
+      <c r="HL25" s="417"/>
+      <c r="HM25" s="417"/>
+      <c r="HN25" s="417"/>
+      <c r="HO25" s="417"/>
+      <c r="HP25" s="417"/>
+      <c r="HQ25" s="417"/>
+      <c r="HR25" s="417"/>
+      <c r="HS25" s="417"/>
+      <c r="HT25" s="417"/>
+      <c r="HU25" s="417"/>
+      <c r="HV25" s="417"/>
+      <c r="HW25" s="417"/>
+      <c r="HX25" s="417"/>
+      <c r="HY25" s="417"/>
+      <c r="HZ25" s="417"/>
+      <c r="IA25" s="417"/>
+      <c r="IB25" s="417"/>
+      <c r="IC25" s="417"/>
+      <c r="ID25" s="417"/>
+      <c r="IE25" s="417"/>
+      <c r="IF25" s="417"/>
+      <c r="IG25" s="417"/>
+      <c r="IH25" s="417"/>
+      <c r="II25" s="417"/>
+      <c r="IJ25" s="417"/>
+      <c r="IK25" s="417"/>
+      <c r="IL25" s="417"/>
+      <c r="IM25" s="417"/>
+      <c r="IN25" s="417"/>
+      <c r="IO25" s="417"/>
     </row>
     <row r="26" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="74">
@@ -36199,7 +36166,7 @@
       </c>
       <c r="B40" s="301"/>
       <c r="C40" s="302" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D40" s="342" t="s">
         <v>910</v>
@@ -36222,55 +36189,55 @@
       <c r="N40" s="343" t="s">
         <v>784</v>
       </c>
-      <c r="O40" s="423"/>
-      <c r="P40" s="423"/>
-      <c r="Q40" s="423"/>
-      <c r="R40" s="423"/>
-      <c r="S40" s="423"/>
-      <c r="T40" s="423"/>
-      <c r="U40" s="423"/>
-      <c r="V40" s="423"/>
-      <c r="W40" s="423"/>
-      <c r="X40" s="423"/>
-      <c r="Y40" s="423"/>
-      <c r="Z40" s="423"/>
-      <c r="AA40" s="423"/>
-      <c r="AB40" s="423"/>
-      <c r="AC40" s="423"/>
-      <c r="AD40" s="423"/>
-      <c r="AE40" s="423"/>
-      <c r="AF40" s="423"/>
-      <c r="AG40" s="423"/>
-      <c r="AH40" s="423"/>
-      <c r="AI40" s="423"/>
-      <c r="AJ40" s="423"/>
-      <c r="AK40" s="423"/>
-      <c r="AL40" s="423"/>
-      <c r="AM40" s="423"/>
-      <c r="AN40" s="423"/>
-      <c r="AO40" s="423"/>
-      <c r="AP40" s="423"/>
-      <c r="AQ40" s="423"/>
-      <c r="AR40" s="423"/>
-      <c r="AS40" s="423"/>
-      <c r="AT40" s="423"/>
-      <c r="AU40" s="423"/>
-      <c r="AV40" s="423"/>
-      <c r="AW40" s="423"/>
-      <c r="AX40" s="423"/>
-      <c r="AY40" s="423"/>
-      <c r="AZ40" s="423"/>
-      <c r="BA40" s="423"/>
-      <c r="BB40" s="423"/>
-      <c r="BC40" s="423"/>
-      <c r="BD40" s="423"/>
-      <c r="BE40" s="423"/>
-      <c r="BF40" s="423"/>
-      <c r="BG40" s="423"/>
-      <c r="BH40" s="423"/>
-      <c r="BI40" s="423"/>
-      <c r="BJ40" s="423"/>
-      <c r="BK40" s="423"/>
+      <c r="O40" s="417"/>
+      <c r="P40" s="417"/>
+      <c r="Q40" s="417"/>
+      <c r="R40" s="417"/>
+      <c r="S40" s="417"/>
+      <c r="T40" s="417"/>
+      <c r="U40" s="417"/>
+      <c r="V40" s="417"/>
+      <c r="W40" s="417"/>
+      <c r="X40" s="417"/>
+      <c r="Y40" s="417"/>
+      <c r="Z40" s="417"/>
+      <c r="AA40" s="417"/>
+      <c r="AB40" s="417"/>
+      <c r="AC40" s="417"/>
+      <c r="AD40" s="417"/>
+      <c r="AE40" s="417"/>
+      <c r="AF40" s="417"/>
+      <c r="AG40" s="417"/>
+      <c r="AH40" s="417"/>
+      <c r="AI40" s="417"/>
+      <c r="AJ40" s="417"/>
+      <c r="AK40" s="417"/>
+      <c r="AL40" s="417"/>
+      <c r="AM40" s="417"/>
+      <c r="AN40" s="417"/>
+      <c r="AO40" s="417"/>
+      <c r="AP40" s="417"/>
+      <c r="AQ40" s="417"/>
+      <c r="AR40" s="417"/>
+      <c r="AS40" s="417"/>
+      <c r="AT40" s="417"/>
+      <c r="AU40" s="417"/>
+      <c r="AV40" s="417"/>
+      <c r="AW40" s="417"/>
+      <c r="AX40" s="417"/>
+      <c r="AY40" s="417"/>
+      <c r="AZ40" s="417"/>
+      <c r="BA40" s="417"/>
+      <c r="BB40" s="417"/>
+      <c r="BC40" s="417"/>
+      <c r="BD40" s="417"/>
+      <c r="BE40" s="417"/>
+      <c r="BF40" s="417"/>
+      <c r="BG40" s="417"/>
+      <c r="BH40" s="417"/>
+      <c r="BI40" s="417"/>
+      <c r="BJ40" s="417"/>
+      <c r="BK40" s="417"/>
       <c r="BL40" s="305"/>
       <c r="BM40" s="305"/>
       <c r="BN40" s="305"/>
@@ -36464,7 +36431,7 @@
       </c>
       <c r="B41" s="301"/>
       <c r="C41" s="302" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D41" s="307" t="s">
         <v>911</v>
@@ -36487,55 +36454,55 @@
       <c r="N41" s="343" t="s">
         <v>784</v>
       </c>
-      <c r="O41" s="423"/>
-      <c r="P41" s="423"/>
-      <c r="Q41" s="423"/>
-      <c r="R41" s="423"/>
-      <c r="S41" s="423"/>
-      <c r="T41" s="423"/>
-      <c r="U41" s="423"/>
-      <c r="V41" s="423"/>
-      <c r="W41" s="423"/>
-      <c r="X41" s="423"/>
-      <c r="Y41" s="423"/>
-      <c r="Z41" s="423"/>
-      <c r="AA41" s="423"/>
-      <c r="AB41" s="423"/>
-      <c r="AC41" s="423"/>
-      <c r="AD41" s="423"/>
-      <c r="AE41" s="423"/>
-      <c r="AF41" s="423"/>
-      <c r="AG41" s="423"/>
-      <c r="AH41" s="423"/>
-      <c r="AI41" s="423"/>
-      <c r="AJ41" s="423"/>
-      <c r="AK41" s="423"/>
-      <c r="AL41" s="423"/>
-      <c r="AM41" s="423"/>
-      <c r="AN41" s="423"/>
-      <c r="AO41" s="423"/>
-      <c r="AP41" s="423"/>
-      <c r="AQ41" s="423"/>
-      <c r="AR41" s="423"/>
-      <c r="AS41" s="423"/>
-      <c r="AT41" s="423"/>
-      <c r="AU41" s="423"/>
-      <c r="AV41" s="423"/>
-      <c r="AW41" s="423"/>
-      <c r="AX41" s="423"/>
-      <c r="AY41" s="423"/>
-      <c r="AZ41" s="423"/>
-      <c r="BA41" s="423"/>
-      <c r="BB41" s="423"/>
-      <c r="BC41" s="423"/>
-      <c r="BD41" s="423"/>
-      <c r="BE41" s="423"/>
-      <c r="BF41" s="423"/>
-      <c r="BG41" s="423"/>
-      <c r="BH41" s="423"/>
-      <c r="BI41" s="423"/>
-      <c r="BJ41" s="423"/>
-      <c r="BK41" s="423"/>
+      <c r="O41" s="417"/>
+      <c r="P41" s="417"/>
+      <c r="Q41" s="417"/>
+      <c r="R41" s="417"/>
+      <c r="S41" s="417"/>
+      <c r="T41" s="417"/>
+      <c r="U41" s="417"/>
+      <c r="V41" s="417"/>
+      <c r="W41" s="417"/>
+      <c r="X41" s="417"/>
+      <c r="Y41" s="417"/>
+      <c r="Z41" s="417"/>
+      <c r="AA41" s="417"/>
+      <c r="AB41" s="417"/>
+      <c r="AC41" s="417"/>
+      <c r="AD41" s="417"/>
+      <c r="AE41" s="417"/>
+      <c r="AF41" s="417"/>
+      <c r="AG41" s="417"/>
+      <c r="AH41" s="417"/>
+      <c r="AI41" s="417"/>
+      <c r="AJ41" s="417"/>
+      <c r="AK41" s="417"/>
+      <c r="AL41" s="417"/>
+      <c r="AM41" s="417"/>
+      <c r="AN41" s="417"/>
+      <c r="AO41" s="417"/>
+      <c r="AP41" s="417"/>
+      <c r="AQ41" s="417"/>
+      <c r="AR41" s="417"/>
+      <c r="AS41" s="417"/>
+      <c r="AT41" s="417"/>
+      <c r="AU41" s="417"/>
+      <c r="AV41" s="417"/>
+      <c r="AW41" s="417"/>
+      <c r="AX41" s="417"/>
+      <c r="AY41" s="417"/>
+      <c r="AZ41" s="417"/>
+      <c r="BA41" s="417"/>
+      <c r="BB41" s="417"/>
+      <c r="BC41" s="417"/>
+      <c r="BD41" s="417"/>
+      <c r="BE41" s="417"/>
+      <c r="BF41" s="417"/>
+      <c r="BG41" s="417"/>
+      <c r="BH41" s="417"/>
+      <c r="BI41" s="417"/>
+      <c r="BJ41" s="417"/>
+      <c r="BK41" s="417"/>
       <c r="BL41" s="305"/>
       <c r="BM41" s="305"/>
       <c r="BN41" s="305"/>
@@ -36752,39 +36719,39 @@
       <c r="N42" s="17" t="s">
         <v>784</v>
       </c>
-      <c r="O42" s="423"/>
-      <c r="P42" s="423"/>
-      <c r="Q42" s="423"/>
-      <c r="R42" s="423"/>
-      <c r="S42" s="423"/>
-      <c r="T42" s="423"/>
-      <c r="U42" s="423"/>
-      <c r="V42" s="423"/>
-      <c r="W42" s="423"/>
-      <c r="X42" s="423"/>
-      <c r="Y42" s="423"/>
-      <c r="Z42" s="423"/>
-      <c r="AA42" s="423"/>
-      <c r="AB42" s="423"/>
-      <c r="AC42" s="423"/>
-      <c r="AD42" s="423"/>
-      <c r="AE42" s="423"/>
-      <c r="AF42" s="423"/>
-      <c r="AG42" s="423"/>
-      <c r="AH42" s="423"/>
-      <c r="AI42" s="423"/>
-      <c r="AJ42" s="423"/>
-      <c r="AK42" s="423"/>
-      <c r="AL42" s="423"/>
-      <c r="AM42" s="423"/>
-      <c r="AN42" s="423"/>
-      <c r="AO42" s="423"/>
-      <c r="AP42" s="423"/>
-      <c r="AQ42" s="423"/>
-      <c r="AR42" s="423"/>
-      <c r="AS42" s="423"/>
-      <c r="AT42" s="423"/>
-      <c r="AU42" s="423"/>
+      <c r="O42" s="417"/>
+      <c r="P42" s="417"/>
+      <c r="Q42" s="417"/>
+      <c r="R42" s="417"/>
+      <c r="S42" s="417"/>
+      <c r="T42" s="417"/>
+      <c r="U42" s="417"/>
+      <c r="V42" s="417"/>
+      <c r="W42" s="417"/>
+      <c r="X42" s="417"/>
+      <c r="Y42" s="417"/>
+      <c r="Z42" s="417"/>
+      <c r="AA42" s="417"/>
+      <c r="AB42" s="417"/>
+      <c r="AC42" s="417"/>
+      <c r="AD42" s="417"/>
+      <c r="AE42" s="417"/>
+      <c r="AF42" s="417"/>
+      <c r="AG42" s="417"/>
+      <c r="AH42" s="417"/>
+      <c r="AI42" s="417"/>
+      <c r="AJ42" s="417"/>
+      <c r="AK42" s="417"/>
+      <c r="AL42" s="417"/>
+      <c r="AM42" s="417"/>
+      <c r="AN42" s="417"/>
+      <c r="AO42" s="417"/>
+      <c r="AP42" s="417"/>
+      <c r="AQ42" s="417"/>
+      <c r="AR42" s="417"/>
+      <c r="AS42" s="417"/>
+      <c r="AT42" s="417"/>
+      <c r="AU42" s="417"/>
     </row>
     <row r="43" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="74">
@@ -43353,10 +43320,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2A25AD-5D69-564D-9511-0323740C2E1F}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -44120,107 +44087,86 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="306" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="350">
-        <v>42736</v>
-      </c>
-      <c r="B37" s="352"/>
+      <c r="A37" s="349">
+        <v>42736</v>
+      </c>
+      <c r="B37" s="351"/>
       <c r="C37" s="346" t="s">
-        <v>924</v>
-      </c>
-      <c r="D37" s="368" t="s">
+        <v>921</v>
+      </c>
+      <c r="D37" s="364" t="s">
         <v>911</v>
       </c>
       <c r="E37" s="307" t="s">
         <v>915</v>
       </c>
-      <c r="F37" s="369" t="s">
+      <c r="F37" s="365" t="s">
         <v>778</v>
       </c>
-      <c r="G37" s="370" t="s">
+      <c r="G37" s="366" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="306" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="351">
-        <v>42736</v>
-      </c>
-      <c r="B38" s="349"/>
+      <c r="A38" s="350">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="348"/>
       <c r="C38" s="346" t="s">
-        <v>924</v>
-      </c>
-      <c r="D38" s="368" t="s">
+        <v>921</v>
+      </c>
+      <c r="D38" s="364" t="s">
         <v>911</v>
       </c>
       <c r="E38" s="307" t="s">
         <v>916</v>
       </c>
-      <c r="F38" s="369" t="s">
+      <c r="F38" s="365" t="s">
         <v>778</v>
       </c>
-      <c r="G38" s="370" t="s">
+      <c r="G38" s="366" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="306" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="350">
-        <v>42736</v>
-      </c>
-      <c r="B39" s="352"/>
+      <c r="A39" s="349">
+        <v>42736</v>
+      </c>
+      <c r="B39" s="351"/>
       <c r="C39" s="346" t="s">
-        <v>924</v>
-      </c>
-      <c r="D39" s="368" t="s">
+        <v>921</v>
+      </c>
+      <c r="D39" s="364" t="s">
         <v>911</v>
       </c>
       <c r="E39" s="307" t="s">
         <v>909</v>
       </c>
-      <c r="F39" s="369" t="s">
+      <c r="F39" s="365" t="s">
         <v>778</v>
       </c>
-      <c r="G39" s="370" t="s">
+      <c r="G39" s="366" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="306" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="350">
-        <v>42736</v>
-      </c>
-      <c r="B40" s="352"/>
+      <c r="A40" s="349">
+        <v>42736</v>
+      </c>
+      <c r="B40" s="351"/>
       <c r="C40" s="346" t="s">
-        <v>924</v>
-      </c>
-      <c r="D40" s="368" t="s">
+        <v>921</v>
+      </c>
+      <c r="D40" s="364" t="s">
         <v>911</v>
       </c>
       <c r="E40" s="307" t="s">
         <v>917</v>
       </c>
-      <c r="F40" s="369" t="s">
+      <c r="F40" s="365" t="s">
         <v>778</v>
       </c>
-      <c r="G40" s="370" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="306" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="353">
-        <v>42736</v>
-      </c>
-      <c r="B41" s="354"/>
-      <c r="C41" s="355" t="s">
-        <v>924</v>
-      </c>
-      <c r="D41" s="347" t="s">
-        <v>911</v>
-      </c>
-      <c r="E41" s="348" t="s">
-        <v>918</v>
-      </c>
-      <c r="F41" s="371" t="s">
-        <v>778</v>
-      </c>
-      <c r="G41" s="372" t="s">
+      <c r="G40" s="366" t="s">
         <v>339</v>
       </c>
     </row>
@@ -44234,10 +44180,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -44339,7 +44285,7 @@
         <v>225</v>
       </c>
       <c r="G3" s="255" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="H3" s="255" t="s">
         <v>369</v>
@@ -44846,817 +44792,819 @@
         <v>43101</v>
       </c>
       <c r="B21" s="345"/>
-      <c r="C21" s="348" t="s">
+      <c r="C21" s="347" t="s">
         <v>909</v>
       </c>
-      <c r="D21" s="348" t="s">
-        <v>925</v>
-      </c>
-      <c r="E21" s="356" t="s">
+      <c r="D21" s="347" t="s">
+        <v>922</v>
+      </c>
+      <c r="E21" s="352" t="s">
         <v>910</v>
       </c>
-      <c r="F21" s="357" t="s">
+      <c r="F21" s="353" t="s">
+        <v>918</v>
+      </c>
+      <c r="G21" s="353"/>
+      <c r="H21" s="345" t="s">
         <v>919</v>
-      </c>
-      <c r="G21" s="357"/>
-      <c r="H21" s="345" t="s">
-        <v>920</v>
       </c>
       <c r="I21" s="345"/>
       <c r="J21" s="345">
         <v>1</v>
       </c>
-      <c r="K21" s="357" t="s">
+      <c r="K21" s="353" t="s">
         <v>375</v>
       </c>
-      <c r="L21" s="358"/>
+      <c r="L21" s="354"/>
     </row>
     <row r="22" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="344">
         <v>43101</v>
       </c>
       <c r="B22" s="345"/>
-      <c r="C22" s="348" t="s">
-        <v>909</v>
-      </c>
-      <c r="D22" s="348" t="s">
-        <v>925</v>
-      </c>
-      <c r="E22" s="356" t="s">
-        <v>910</v>
-      </c>
-      <c r="F22" s="357" t="s">
-        <v>921</v>
-      </c>
-      <c r="G22" s="357"/>
-      <c r="H22" s="357" t="s">
+      <c r="C22" s="347" t="s">
+        <v>914</v>
+      </c>
+      <c r="D22" s="347" t="s">
         <v>922</v>
       </c>
+      <c r="E22" s="352" t="s">
+        <v>911</v>
+      </c>
+      <c r="F22" s="353" t="s">
+        <v>917</v>
+      </c>
+      <c r="G22" s="353"/>
+      <c r="H22" s="345"/>
       <c r="I22" s="345"/>
       <c r="J22" s="345">
-        <v>2</v>
-      </c>
-      <c r="K22" s="357" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="353" t="s">
         <v>375</v>
       </c>
-      <c r="L22" s="358"/>
+      <c r="L22" s="354"/>
     </row>
     <row r="23" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="344">
         <v>43101</v>
       </c>
       <c r="B23" s="345"/>
-      <c r="C23" s="348" t="s">
+      <c r="C23" s="347" t="s">
         <v>914</v>
       </c>
-      <c r="D23" s="348" t="s">
-        <v>925</v>
-      </c>
-      <c r="E23" s="356" t="s">
+      <c r="D23" s="347" t="s">
+        <v>922</v>
+      </c>
+      <c r="E23" s="352" t="s">
         <v>911</v>
       </c>
-      <c r="F23" s="357" t="s">
-        <v>917</v>
-      </c>
-      <c r="G23" s="357"/>
+      <c r="F23" s="353" t="s">
+        <v>915</v>
+      </c>
+      <c r="G23" s="353" t="s">
+        <v>687</v>
+      </c>
       <c r="H23" s="345"/>
       <c r="I23" s="345"/>
       <c r="J23" s="345">
-        <v>3</v>
-      </c>
-      <c r="K23" s="357" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="353" t="s">
         <v>375</v>
       </c>
-      <c r="L23" s="358"/>
+      <c r="L23" s="354"/>
     </row>
     <row r="24" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="344">
         <v>43101</v>
       </c>
       <c r="B24" s="345"/>
-      <c r="C24" s="348" t="s">
+      <c r="C24" s="347" t="s">
         <v>914</v>
       </c>
-      <c r="D24" s="348" t="s">
-        <v>925</v>
-      </c>
-      <c r="E24" s="356" t="s">
+      <c r="D24" s="347" t="s">
+        <v>922</v>
+      </c>
+      <c r="E24" s="352" t="s">
         <v>911</v>
       </c>
-      <c r="F24" s="357" t="s">
-        <v>918</v>
-      </c>
-      <c r="G24" s="357"/>
+      <c r="F24" s="353" t="s">
+        <v>916</v>
+      </c>
+      <c r="G24" s="353"/>
       <c r="H24" s="345"/>
       <c r="I24" s="345"/>
       <c r="J24" s="345">
-        <v>4</v>
-      </c>
-      <c r="K24" s="357" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="353" t="s">
         <v>375</v>
       </c>
-      <c r="L24" s="358"/>
+      <c r="L24" s="354"/>
     </row>
     <row r="25" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="344">
         <v>43101</v>
       </c>
       <c r="B25" s="345"/>
-      <c r="C25" s="348" t="s">
-        <v>914</v>
-      </c>
-      <c r="D25" s="348" t="s">
-        <v>925</v>
-      </c>
-      <c r="E25" s="356" t="s">
-        <v>911</v>
-      </c>
-      <c r="F25" s="357" t="s">
-        <v>915</v>
-      </c>
-      <c r="G25" s="357" t="s">
-        <v>687</v>
-      </c>
+      <c r="C25" s="347" t="s">
+        <v>909</v>
+      </c>
+      <c r="D25" s="347" t="s">
+        <v>923</v>
+      </c>
+      <c r="E25" s="352" t="s">
+        <v>910</v>
+      </c>
+      <c r="F25" s="353" t="s">
+        <v>918</v>
+      </c>
+      <c r="G25" s="353"/>
       <c r="H25" s="345"/>
       <c r="I25" s="345"/>
       <c r="J25" s="345">
-        <v>5</v>
-      </c>
-      <c r="K25" s="357" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="353" t="s">
         <v>375</v>
       </c>
-      <c r="L25" s="358"/>
+      <c r="L25" s="354"/>
     </row>
     <row r="26" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="344">
         <v>43101</v>
       </c>
       <c r="B26" s="345"/>
-      <c r="C26" s="348" t="s">
+      <c r="C26" s="347" t="s">
         <v>914</v>
       </c>
-      <c r="D26" s="348" t="s">
-        <v>925</v>
-      </c>
-      <c r="E26" s="356" t="s">
+      <c r="D26" s="347" t="s">
+        <v>923</v>
+      </c>
+      <c r="E26" s="352" t="s">
         <v>911</v>
       </c>
-      <c r="F26" s="357" t="s">
-        <v>916</v>
-      </c>
-      <c r="G26" s="357"/>
+      <c r="F26" s="353" t="s">
+        <v>917</v>
+      </c>
+      <c r="G26" s="353"/>
       <c r="H26" s="345"/>
       <c r="I26" s="345"/>
       <c r="J26" s="345">
-        <v>6</v>
-      </c>
-      <c r="K26" s="357" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="353" t="s">
         <v>375</v>
       </c>
-      <c r="L26" s="358"/>
+      <c r="L26" s="354"/>
     </row>
     <row r="27" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="344">
         <v>43101</v>
       </c>
       <c r="B27" s="345"/>
-      <c r="C27" s="348" t="s">
-        <v>909</v>
-      </c>
-      <c r="D27" s="348" t="s">
-        <v>926</v>
-      </c>
-      <c r="E27" s="356" t="s">
-        <v>910</v>
-      </c>
-      <c r="F27" s="357" t="s">
-        <v>919</v>
-      </c>
-      <c r="G27" s="357"/>
+      <c r="C27" s="347" t="s">
+        <v>914</v>
+      </c>
+      <c r="D27" s="347" t="s">
+        <v>923</v>
+      </c>
+      <c r="E27" s="352" t="s">
+        <v>911</v>
+      </c>
+      <c r="F27" s="353" t="s">
+        <v>915</v>
+      </c>
+      <c r="G27" s="353" t="s">
+        <v>695</v>
+      </c>
       <c r="H27" s="345"/>
       <c r="I27" s="345"/>
       <c r="J27" s="345">
-        <v>1</v>
-      </c>
-      <c r="K27" s="357" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="353" t="s">
         <v>375</v>
       </c>
-      <c r="L27" s="358"/>
-    </row>
-    <row r="28" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L27" s="354"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="344">
         <v>43101</v>
       </c>
       <c r="B28" s="345"/>
-      <c r="C28" s="348" t="s">
-        <v>909</v>
-      </c>
-      <c r="D28" s="348" t="s">
-        <v>926</v>
-      </c>
-      <c r="E28" s="356" t="s">
-        <v>910</v>
-      </c>
-      <c r="F28" s="357" t="s">
-        <v>921</v>
-      </c>
-      <c r="G28" s="357"/>
-      <c r="H28" s="357"/>
+      <c r="C28" s="347" t="s">
+        <v>914</v>
+      </c>
+      <c r="D28" s="347" t="s">
+        <v>923</v>
+      </c>
+      <c r="E28" s="352" t="s">
+        <v>911</v>
+      </c>
+      <c r="F28" s="353" t="s">
+        <v>916</v>
+      </c>
+      <c r="G28" s="353"/>
+      <c r="H28" s="345"/>
       <c r="I28" s="345"/>
       <c r="J28" s="345">
+        <v>6</v>
+      </c>
+      <c r="K28" s="353" t="s">
+        <v>375</v>
+      </c>
+      <c r="L28" s="354"/>
+    </row>
+    <row r="29" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="407">
+        <v>43983</v>
+      </c>
+      <c r="B29" s="408"/>
+      <c r="C29" s="409" t="s">
+        <v>934</v>
+      </c>
+      <c r="D29" s="409" t="s">
+        <v>392</v>
+      </c>
+      <c r="E29" s="410" t="s">
+        <v>936</v>
+      </c>
+      <c r="F29" s="411" t="s">
+        <v>917</v>
+      </c>
+      <c r="G29" s="411"/>
+      <c r="H29" s="411"/>
+      <c r="I29" s="408"/>
+      <c r="J29" s="408">
+        <v>3</v>
+      </c>
+      <c r="K29" s="411" t="s">
+        <v>375</v>
+      </c>
+      <c r="L29" s="412"/>
+    </row>
+    <row r="30" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="407">
+        <v>43983</v>
+      </c>
+      <c r="B30" s="408"/>
+      <c r="C30" s="409" t="s">
+        <v>934</v>
+      </c>
+      <c r="D30" s="409" t="s">
+        <v>392</v>
+      </c>
+      <c r="E30" s="410" t="s">
+        <v>936</v>
+      </c>
+      <c r="F30" s="411" t="s">
+        <v>915</v>
+      </c>
+      <c r="G30" s="411" t="s">
+        <v>942</v>
+      </c>
+      <c r="H30" s="411"/>
+      <c r="I30" s="408"/>
+      <c r="J30" s="408">
+        <v>5</v>
+      </c>
+      <c r="K30" s="411" t="s">
+        <v>375</v>
+      </c>
+      <c r="L30" s="412"/>
+    </row>
+    <row r="31" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="407">
+        <v>43983</v>
+      </c>
+      <c r="B31" s="408"/>
+      <c r="C31" s="409" t="s">
+        <v>934</v>
+      </c>
+      <c r="D31" s="409" t="s">
+        <v>392</v>
+      </c>
+      <c r="E31" s="410" t="s">
+        <v>936</v>
+      </c>
+      <c r="F31" s="411" t="s">
+        <v>916</v>
+      </c>
+      <c r="G31" s="411"/>
+      <c r="H31" s="411"/>
+      <c r="I31" s="408"/>
+      <c r="J31" s="408">
+        <v>6</v>
+      </c>
+      <c r="K31" s="411" t="s">
+        <v>375</v>
+      </c>
+      <c r="L31" s="412"/>
+    </row>
+    <row r="32" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="407">
+        <v>43983</v>
+      </c>
+      <c r="B32" s="408"/>
+      <c r="C32" s="409" t="s">
+        <v>934</v>
+      </c>
+      <c r="D32" s="409" t="s">
+        <v>392</v>
+      </c>
+      <c r="E32" s="410" t="s">
+        <v>937</v>
+      </c>
+      <c r="F32" s="411" t="s">
+        <v>917</v>
+      </c>
+      <c r="G32" s="411"/>
+      <c r="H32" s="411"/>
+      <c r="I32" s="408"/>
+      <c r="J32" s="408">
+        <v>7</v>
+      </c>
+      <c r="K32" s="411" t="s">
+        <v>375</v>
+      </c>
+      <c r="L32" s="412"/>
+    </row>
+    <row r="33" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="407">
+        <v>43983</v>
+      </c>
+      <c r="B33" s="408"/>
+      <c r="C33" s="409" t="s">
+        <v>934</v>
+      </c>
+      <c r="D33" s="409" t="s">
+        <v>392</v>
+      </c>
+      <c r="E33" s="410" t="s">
+        <v>937</v>
+      </c>
+      <c r="F33" s="411" t="s">
+        <v>915</v>
+      </c>
+      <c r="G33" s="411" t="s">
+        <v>695</v>
+      </c>
+      <c r="H33" s="411"/>
+      <c r="I33" s="408"/>
+      <c r="J33" s="408">
+        <v>9</v>
+      </c>
+      <c r="K33" s="411" t="s">
+        <v>375</v>
+      </c>
+      <c r="L33" s="412"/>
+    </row>
+    <row r="34" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="407">
+        <v>43983</v>
+      </c>
+      <c r="B34" s="408"/>
+      <c r="C34" s="409" t="s">
+        <v>934</v>
+      </c>
+      <c r="D34" s="409" t="s">
+        <v>392</v>
+      </c>
+      <c r="E34" s="410" t="s">
+        <v>937</v>
+      </c>
+      <c r="F34" s="411" t="s">
+        <v>916</v>
+      </c>
+      <c r="G34" s="411"/>
+      <c r="H34" s="411"/>
+      <c r="I34" s="408"/>
+      <c r="J34" s="408">
+        <v>10</v>
+      </c>
+      <c r="K34" s="411" t="s">
+        <v>375</v>
+      </c>
+      <c r="L34" s="412"/>
+    </row>
+    <row r="35" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="407">
+        <v>43983</v>
+      </c>
+      <c r="B35" s="408"/>
+      <c r="C35" s="409" t="s">
+        <v>934</v>
+      </c>
+      <c r="D35" s="409" t="s">
+        <v>940</v>
+      </c>
+      <c r="E35" s="410" t="s">
+        <v>936</v>
+      </c>
+      <c r="F35" s="411" t="s">
+        <v>917</v>
+      </c>
+      <c r="G35" s="411"/>
+      <c r="H35" s="411"/>
+      <c r="I35" s="408"/>
+      <c r="J35" s="408">
+        <v>3</v>
+      </c>
+      <c r="K35" s="411" t="s">
+        <v>375</v>
+      </c>
+      <c r="L35" s="412"/>
+    </row>
+    <row r="36" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="407">
+        <v>43983</v>
+      </c>
+      <c r="B36" s="408"/>
+      <c r="C36" s="409" t="s">
+        <v>934</v>
+      </c>
+      <c r="D36" s="409" t="s">
+        <v>940</v>
+      </c>
+      <c r="E36" s="410" t="s">
+        <v>936</v>
+      </c>
+      <c r="F36" s="411" t="s">
+        <v>915</v>
+      </c>
+      <c r="G36" s="411" t="s">
+        <v>695</v>
+      </c>
+      <c r="H36" s="411"/>
+      <c r="I36" s="408"/>
+      <c r="J36" s="408">
+        <v>5</v>
+      </c>
+      <c r="K36" s="411" t="s">
+        <v>375</v>
+      </c>
+      <c r="L36" s="412"/>
+    </row>
+    <row r="37" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="407">
+        <v>43983</v>
+      </c>
+      <c r="B37" s="408"/>
+      <c r="C37" s="409" t="s">
+        <v>934</v>
+      </c>
+      <c r="D37" s="409" t="s">
+        <v>940</v>
+      </c>
+      <c r="E37" s="410" t="s">
+        <v>936</v>
+      </c>
+      <c r="F37" s="411" t="s">
+        <v>916</v>
+      </c>
+      <c r="G37" s="411"/>
+      <c r="H37" s="411"/>
+      <c r="I37" s="408"/>
+      <c r="J37" s="408">
+        <v>6</v>
+      </c>
+      <c r="K37" s="411" t="s">
+        <v>375</v>
+      </c>
+      <c r="L37" s="412"/>
+    </row>
+    <row r="38" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="407">
+        <v>43983</v>
+      </c>
+      <c r="B38" s="408"/>
+      <c r="C38" s="409" t="s">
+        <v>934</v>
+      </c>
+      <c r="D38" s="409" t="s">
+        <v>940</v>
+      </c>
+      <c r="E38" s="410" t="s">
+        <v>937</v>
+      </c>
+      <c r="F38" s="411" t="s">
+        <v>917</v>
+      </c>
+      <c r="G38" s="411"/>
+      <c r="H38" s="411"/>
+      <c r="I38" s="408"/>
+      <c r="J38" s="408">
+        <v>7</v>
+      </c>
+      <c r="K38" s="411" t="s">
+        <v>375</v>
+      </c>
+      <c r="L38" s="412"/>
+    </row>
+    <row r="39" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="407">
+        <v>43983</v>
+      </c>
+      <c r="B39" s="408"/>
+      <c r="C39" s="409" t="s">
+        <v>934</v>
+      </c>
+      <c r="D39" s="409" t="s">
+        <v>940</v>
+      </c>
+      <c r="E39" s="410" t="s">
+        <v>937</v>
+      </c>
+      <c r="F39" s="411" t="s">
+        <v>915</v>
+      </c>
+      <c r="G39" s="411" t="s">
+        <v>687</v>
+      </c>
+      <c r="H39" s="411"/>
+      <c r="I39" s="408"/>
+      <c r="J39" s="408">
+        <v>9</v>
+      </c>
+      <c r="K39" s="411" t="s">
+        <v>375</v>
+      </c>
+      <c r="L39" s="412"/>
+    </row>
+    <row r="40" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="407">
+        <v>43983</v>
+      </c>
+      <c r="B40" s="408"/>
+      <c r="C40" s="409" t="s">
+        <v>934</v>
+      </c>
+      <c r="D40" s="409" t="s">
+        <v>940</v>
+      </c>
+      <c r="E40" s="410" t="s">
+        <v>937</v>
+      </c>
+      <c r="F40" s="411" t="s">
+        <v>916</v>
+      </c>
+      <c r="G40" s="411"/>
+      <c r="H40" s="411"/>
+      <c r="I40" s="408"/>
+      <c r="J40" s="408">
+        <v>10</v>
+      </c>
+      <c r="K40" s="411" t="s">
+        <v>375</v>
+      </c>
+      <c r="L40" s="412"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41" s="251">
+        <v>43101</v>
+      </c>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98" t="s">
+        <v>297</v>
+      </c>
+      <c r="D41" s="132" t="s">
+        <v>388</v>
+      </c>
+      <c r="E41" s="132" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" s="132" t="s">
+        <v>344</v>
+      </c>
+      <c r="G41" s="132"/>
+      <c r="H41" s="98"/>
+      <c r="I41" s="98"/>
+      <c r="J41" s="98">
+        <v>1</v>
+      </c>
+      <c r="K41" s="132" t="s">
+        <v>389</v>
+      </c>
+      <c r="L41" s="231" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A42" s="251">
+        <v>43101</v>
+      </c>
+      <c r="B42" s="98"/>
+      <c r="C42" s="98" t="s">
+        <v>297</v>
+      </c>
+      <c r="D42" s="132" t="s">
+        <v>388</v>
+      </c>
+      <c r="E42" s="132" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" s="132" t="s">
+        <v>341</v>
+      </c>
+      <c r="G42" s="132"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="98">
+        <v>1</v>
+      </c>
+      <c r="K42" s="132" t="s">
+        <v>375</v>
+      </c>
+      <c r="L42" s="231" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43" s="251">
+        <v>43101</v>
+      </c>
+      <c r="B43" s="98"/>
+      <c r="C43" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="E43" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="F43" s="132" t="s">
+        <v>326</v>
+      </c>
+      <c r="G43" s="132"/>
+      <c r="H43" s="98"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="98">
+        <v>1</v>
+      </c>
+      <c r="K43" s="132" t="s">
+        <v>374</v>
+      </c>
+      <c r="L43" s="77"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A44" s="251">
+        <v>43101</v>
+      </c>
+      <c r="B44" s="98"/>
+      <c r="C44" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="D44" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="E44" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="F44" s="132" t="s">
+        <v>328</v>
+      </c>
+      <c r="G44" s="132"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="98">
+        <v>1</v>
+      </c>
+      <c r="K44" s="132" t="s">
+        <v>374</v>
+      </c>
+      <c r="L44" s="77"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A45" s="251">
+        <v>43101</v>
+      </c>
+      <c r="B45" s="98"/>
+      <c r="C45" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="D45" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="E45" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="F45" s="132" t="s">
+        <v>330</v>
+      </c>
+      <c r="G45" s="132"/>
+      <c r="H45" s="98"/>
+      <c r="I45" s="98"/>
+      <c r="J45" s="98">
         <v>2</v>
       </c>
-      <c r="K28" s="357" t="s">
-        <v>375</v>
-      </c>
-      <c r="L28" s="358"/>
-    </row>
-    <row r="29" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="344">
+      <c r="K45" s="132" t="s">
+        <v>374</v>
+      </c>
+      <c r="L45" s="77"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46" s="251">
         <v>43101</v>
       </c>
-      <c r="B29" s="345"/>
-      <c r="C29" s="348" t="s">
-        <v>914</v>
-      </c>
-      <c r="D29" s="348" t="s">
-        <v>926</v>
-      </c>
-      <c r="E29" s="356" t="s">
-        <v>911</v>
-      </c>
-      <c r="F29" s="357" t="s">
-        <v>917</v>
-      </c>
-      <c r="G29" s="357"/>
-      <c r="H29" s="345"/>
-      <c r="I29" s="345"/>
-      <c r="J29" s="345">
-        <v>3</v>
-      </c>
-      <c r="K29" s="357" t="s">
-        <v>375</v>
-      </c>
-      <c r="L29" s="358"/>
-    </row>
-    <row r="30" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="344">
+      <c r="B46" s="98"/>
+      <c r="C46" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="D46" s="82" t="s">
+        <v>393</v>
+      </c>
+      <c r="E46" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="F46" s="132" t="s">
+        <v>326</v>
+      </c>
+      <c r="G46" s="132"/>
+      <c r="H46" s="98"/>
+      <c r="I46" s="98"/>
+      <c r="J46" s="98">
+        <v>1</v>
+      </c>
+      <c r="K46" s="132" t="s">
+        <v>374</v>
+      </c>
+      <c r="L46" s="77"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A47" s="251">
         <v>43101</v>
       </c>
-      <c r="B30" s="345"/>
-      <c r="C30" s="348" t="s">
-        <v>914</v>
-      </c>
-      <c r="D30" s="348" t="s">
-        <v>926</v>
-      </c>
-      <c r="E30" s="356" t="s">
-        <v>911</v>
-      </c>
-      <c r="F30" s="357" t="s">
-        <v>918</v>
-      </c>
-      <c r="G30" s="357"/>
-      <c r="H30" s="345"/>
-      <c r="I30" s="345"/>
-      <c r="J30" s="345">
-        <v>4</v>
-      </c>
-      <c r="K30" s="357" t="s">
-        <v>375</v>
-      </c>
-      <c r="L30" s="358"/>
-    </row>
-    <row r="31" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="344">
+      <c r="B47" s="98"/>
+      <c r="C47" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="D47" s="82" t="s">
+        <v>393</v>
+      </c>
+      <c r="E47" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="F47" s="132" t="s">
+        <v>328</v>
+      </c>
+      <c r="G47" s="132"/>
+      <c r="H47" s="98"/>
+      <c r="I47" s="98"/>
+      <c r="J47" s="98">
+        <v>1</v>
+      </c>
+      <c r="K47" s="132" t="s">
+        <v>374</v>
+      </c>
+      <c r="L47" s="77"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48" s="251">
         <v>43101</v>
       </c>
-      <c r="B31" s="345"/>
-      <c r="C31" s="348" t="s">
-        <v>914</v>
-      </c>
-      <c r="D31" s="348" t="s">
-        <v>926</v>
-      </c>
-      <c r="E31" s="356" t="s">
-        <v>911</v>
-      </c>
-      <c r="F31" s="357" t="s">
-        <v>915</v>
-      </c>
-      <c r="G31" s="357" t="s">
-        <v>695</v>
-      </c>
-      <c r="H31" s="345"/>
-      <c r="I31" s="345"/>
-      <c r="J31" s="345">
-        <v>5</v>
-      </c>
-      <c r="K31" s="357" t="s">
-        <v>375</v>
-      </c>
-      <c r="L31" s="358"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="344">
-        <v>43101</v>
-      </c>
-      <c r="B32" s="345"/>
-      <c r="C32" s="348" t="s">
-        <v>914</v>
-      </c>
-      <c r="D32" s="348" t="s">
-        <v>926</v>
-      </c>
-      <c r="E32" s="356" t="s">
-        <v>911</v>
-      </c>
-      <c r="F32" s="357" t="s">
-        <v>916</v>
-      </c>
-      <c r="G32" s="357"/>
-      <c r="H32" s="345"/>
-      <c r="I32" s="345"/>
-      <c r="J32" s="345">
-        <v>6</v>
-      </c>
-      <c r="K32" s="357" t="s">
-        <v>375</v>
-      </c>
-      <c r="L32" s="358"/>
-    </row>
-    <row r="33" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="413">
-        <v>43983</v>
-      </c>
-      <c r="B33" s="414"/>
-      <c r="C33" s="415" t="s">
-        <v>937</v>
-      </c>
-      <c r="D33" s="415" t="s">
-        <v>392</v>
-      </c>
-      <c r="E33" s="416" t="s">
-        <v>939</v>
-      </c>
-      <c r="F33" s="417" t="s">
-        <v>917</v>
-      </c>
-      <c r="G33" s="417"/>
-      <c r="H33" s="417"/>
-      <c r="I33" s="414"/>
-      <c r="J33" s="414">
-        <v>3</v>
-      </c>
-      <c r="K33" s="417" t="s">
-        <v>375</v>
-      </c>
-      <c r="L33" s="418"/>
-    </row>
-    <row r="34" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="413">
-        <v>43983</v>
-      </c>
-      <c r="B34" s="414"/>
-      <c r="C34" s="415" t="s">
-        <v>937</v>
-      </c>
-      <c r="D34" s="415" t="s">
-        <v>392</v>
-      </c>
-      <c r="E34" s="416" t="s">
-        <v>939</v>
-      </c>
-      <c r="F34" s="417" t="s">
-        <v>918</v>
-      </c>
-      <c r="G34" s="417"/>
-      <c r="H34" s="417"/>
-      <c r="I34" s="414"/>
-      <c r="J34" s="414">
-        <v>4</v>
-      </c>
-      <c r="K34" s="417" t="s">
-        <v>375</v>
-      </c>
-      <c r="L34" s="418"/>
-    </row>
-    <row r="35" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="413">
-        <v>43983</v>
-      </c>
-      <c r="B35" s="414"/>
-      <c r="C35" s="415" t="s">
-        <v>937</v>
-      </c>
-      <c r="D35" s="415" t="s">
-        <v>392</v>
-      </c>
-      <c r="E35" s="416" t="s">
-        <v>939</v>
-      </c>
-      <c r="F35" s="417" t="s">
-        <v>915</v>
-      </c>
-      <c r="G35" s="417" t="s">
-        <v>945</v>
-      </c>
-      <c r="H35" s="417"/>
-      <c r="I35" s="414"/>
-      <c r="J35" s="414">
-        <v>5</v>
-      </c>
-      <c r="K35" s="417" t="s">
-        <v>375</v>
-      </c>
-      <c r="L35" s="418"/>
-    </row>
-    <row r="36" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="413">
-        <v>43983</v>
-      </c>
-      <c r="B36" s="414"/>
-      <c r="C36" s="415" t="s">
-        <v>937</v>
-      </c>
-      <c r="D36" s="415" t="s">
-        <v>392</v>
-      </c>
-      <c r="E36" s="416" t="s">
-        <v>939</v>
-      </c>
-      <c r="F36" s="417" t="s">
-        <v>916</v>
-      </c>
-      <c r="G36" s="417"/>
-      <c r="H36" s="417"/>
-      <c r="I36" s="414"/>
-      <c r="J36" s="414">
-        <v>6</v>
-      </c>
-      <c r="K36" s="417" t="s">
-        <v>375</v>
-      </c>
-      <c r="L36" s="418"/>
-    </row>
-    <row r="37" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="413">
-        <v>43983</v>
-      </c>
-      <c r="B37" s="414"/>
-      <c r="C37" s="415" t="s">
-        <v>937</v>
-      </c>
-      <c r="D37" s="415" t="s">
-        <v>392</v>
-      </c>
-      <c r="E37" s="416" t="s">
-        <v>940</v>
-      </c>
-      <c r="F37" s="417" t="s">
-        <v>917</v>
-      </c>
-      <c r="G37" s="417"/>
-      <c r="H37" s="417"/>
-      <c r="I37" s="414"/>
-      <c r="J37" s="414">
-        <v>7</v>
-      </c>
-      <c r="K37" s="417" t="s">
-        <v>375</v>
-      </c>
-      <c r="L37" s="418"/>
-    </row>
-    <row r="38" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="413">
-        <v>43983</v>
-      </c>
-      <c r="B38" s="414"/>
-      <c r="C38" s="415" t="s">
-        <v>937</v>
-      </c>
-      <c r="D38" s="415" t="s">
-        <v>392</v>
-      </c>
-      <c r="E38" s="416" t="s">
-        <v>940</v>
-      </c>
-      <c r="F38" s="417" t="s">
-        <v>918</v>
-      </c>
-      <c r="G38" s="417"/>
-      <c r="H38" s="417"/>
-      <c r="I38" s="414"/>
-      <c r="J38" s="414">
-        <v>8</v>
-      </c>
-      <c r="K38" s="417" t="s">
-        <v>375</v>
-      </c>
-      <c r="L38" s="418"/>
-    </row>
-    <row r="39" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="413">
-        <v>43983</v>
-      </c>
-      <c r="B39" s="414"/>
-      <c r="C39" s="415" t="s">
-        <v>937</v>
-      </c>
-      <c r="D39" s="415" t="s">
-        <v>392</v>
-      </c>
-      <c r="E39" s="416" t="s">
-        <v>940</v>
-      </c>
-      <c r="F39" s="417" t="s">
-        <v>915</v>
-      </c>
-      <c r="G39" s="417" t="s">
-        <v>695</v>
-      </c>
-      <c r="H39" s="417"/>
-      <c r="I39" s="414"/>
-      <c r="J39" s="414">
-        <v>9</v>
-      </c>
-      <c r="K39" s="417" t="s">
-        <v>375</v>
-      </c>
-      <c r="L39" s="418"/>
-    </row>
-    <row r="40" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="413">
-        <v>43983</v>
-      </c>
-      <c r="B40" s="414"/>
-      <c r="C40" s="415" t="s">
-        <v>937</v>
-      </c>
-      <c r="D40" s="415" t="s">
-        <v>392</v>
-      </c>
-      <c r="E40" s="416" t="s">
-        <v>940</v>
-      </c>
-      <c r="F40" s="417" t="s">
-        <v>916</v>
-      </c>
-      <c r="G40" s="417"/>
-      <c r="H40" s="417"/>
-      <c r="I40" s="414"/>
-      <c r="J40" s="414">
-        <v>10</v>
-      </c>
-      <c r="K40" s="417" t="s">
-        <v>375</v>
-      </c>
-      <c r="L40" s="418"/>
-    </row>
-    <row r="41" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="413">
-        <v>43983</v>
-      </c>
-      <c r="B41" s="414"/>
-      <c r="C41" s="415" t="s">
-        <v>937</v>
-      </c>
-      <c r="D41" s="415" t="s">
-        <v>943</v>
-      </c>
-      <c r="E41" s="416" t="s">
-        <v>939</v>
-      </c>
-      <c r="F41" s="417" t="s">
-        <v>917</v>
-      </c>
-      <c r="G41" s="417"/>
-      <c r="H41" s="417"/>
-      <c r="I41" s="414"/>
-      <c r="J41" s="414">
-        <v>3</v>
-      </c>
-      <c r="K41" s="417" t="s">
-        <v>375</v>
-      </c>
-      <c r="L41" s="418"/>
-    </row>
-    <row r="42" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="413">
-        <v>43983</v>
-      </c>
-      <c r="B42" s="414"/>
-      <c r="C42" s="415" t="s">
-        <v>937</v>
-      </c>
-      <c r="D42" s="415" t="s">
-        <v>943</v>
-      </c>
-      <c r="E42" s="416" t="s">
-        <v>939</v>
-      </c>
-      <c r="F42" s="417" t="s">
-        <v>918</v>
-      </c>
-      <c r="G42" s="417"/>
-      <c r="H42" s="417"/>
-      <c r="I42" s="414"/>
-      <c r="J42" s="414">
-        <v>4</v>
-      </c>
-      <c r="K42" s="417" t="s">
-        <v>375</v>
-      </c>
-      <c r="L42" s="418"/>
-    </row>
-    <row r="43" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="413">
-        <v>43983</v>
-      </c>
-      <c r="B43" s="414"/>
-      <c r="C43" s="415" t="s">
-        <v>937</v>
-      </c>
-      <c r="D43" s="415" t="s">
-        <v>943</v>
-      </c>
-      <c r="E43" s="416" t="s">
-        <v>939</v>
-      </c>
-      <c r="F43" s="417" t="s">
-        <v>915</v>
-      </c>
-      <c r="G43" s="417" t="s">
-        <v>695</v>
-      </c>
-      <c r="H43" s="417"/>
-      <c r="I43" s="414"/>
-      <c r="J43" s="414">
-        <v>5</v>
-      </c>
-      <c r="K43" s="417" t="s">
-        <v>375</v>
-      </c>
-      <c r="L43" s="418"/>
-    </row>
-    <row r="44" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="413">
-        <v>43983</v>
-      </c>
-      <c r="B44" s="414"/>
-      <c r="C44" s="415" t="s">
-        <v>937</v>
-      </c>
-      <c r="D44" s="415" t="s">
-        <v>943</v>
-      </c>
-      <c r="E44" s="416" t="s">
-        <v>939</v>
-      </c>
-      <c r="F44" s="417" t="s">
-        <v>916</v>
-      </c>
-      <c r="G44" s="417"/>
-      <c r="H44" s="417"/>
-      <c r="I44" s="414"/>
-      <c r="J44" s="414">
-        <v>6</v>
-      </c>
-      <c r="K44" s="417" t="s">
-        <v>375</v>
-      </c>
-      <c r="L44" s="418"/>
-    </row>
-    <row r="45" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="413">
-        <v>43983</v>
-      </c>
-      <c r="B45" s="414"/>
-      <c r="C45" s="415" t="s">
-        <v>937</v>
-      </c>
-      <c r="D45" s="415" t="s">
-        <v>943</v>
-      </c>
-      <c r="E45" s="416" t="s">
-        <v>940</v>
-      </c>
-      <c r="F45" s="417" t="s">
-        <v>917</v>
-      </c>
-      <c r="G45" s="417"/>
-      <c r="H45" s="417"/>
-      <c r="I45" s="414"/>
-      <c r="J45" s="414">
-        <v>7</v>
-      </c>
-      <c r="K45" s="417" t="s">
-        <v>375</v>
-      </c>
-      <c r="L45" s="418"/>
-    </row>
-    <row r="46" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="413">
-        <v>43983</v>
-      </c>
-      <c r="B46" s="414"/>
-      <c r="C46" s="415" t="s">
-        <v>937</v>
-      </c>
-      <c r="D46" s="415" t="s">
-        <v>943</v>
-      </c>
-      <c r="E46" s="416" t="s">
-        <v>940</v>
-      </c>
-      <c r="F46" s="417" t="s">
-        <v>918</v>
-      </c>
-      <c r="G46" s="417"/>
-      <c r="H46" s="417"/>
-      <c r="I46" s="414"/>
-      <c r="J46" s="414">
-        <v>8</v>
-      </c>
-      <c r="K46" s="417" t="s">
-        <v>375</v>
-      </c>
-      <c r="L46" s="418"/>
-    </row>
-    <row r="47" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="413">
-        <v>43983</v>
-      </c>
-      <c r="B47" s="414"/>
-      <c r="C47" s="415" t="s">
-        <v>937</v>
-      </c>
-      <c r="D47" s="415" t="s">
-        <v>943</v>
-      </c>
-      <c r="E47" s="416" t="s">
-        <v>940</v>
-      </c>
-      <c r="F47" s="417" t="s">
-        <v>915</v>
-      </c>
-      <c r="G47" s="417" t="s">
-        <v>687</v>
-      </c>
-      <c r="H47" s="417"/>
-      <c r="I47" s="414"/>
-      <c r="J47" s="414">
-        <v>9</v>
-      </c>
-      <c r="K47" s="417" t="s">
-        <v>375</v>
-      </c>
-      <c r="L47" s="418"/>
-    </row>
-    <row r="48" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="413">
-        <v>43983</v>
-      </c>
-      <c r="B48" s="414"/>
-      <c r="C48" s="415" t="s">
-        <v>937</v>
-      </c>
-      <c r="D48" s="415" t="s">
-        <v>943</v>
-      </c>
-      <c r="E48" s="416" t="s">
-        <v>940</v>
-      </c>
-      <c r="F48" s="417" t="s">
-        <v>916</v>
-      </c>
-      <c r="G48" s="417"/>
-      <c r="H48" s="417"/>
-      <c r="I48" s="414"/>
-      <c r="J48" s="414">
-        <v>10</v>
-      </c>
-      <c r="K48" s="417" t="s">
-        <v>375</v>
-      </c>
-      <c r="L48" s="418"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="D48" s="82" t="s">
+        <v>393</v>
+      </c>
+      <c r="E48" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="F48" s="132" t="s">
+        <v>330</v>
+      </c>
+      <c r="G48" s="132"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="98">
+        <v>2</v>
+      </c>
+      <c r="K48" s="132" t="s">
+        <v>374</v>
+      </c>
+      <c r="L48" s="77"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="251">
         <v>43101</v>
       </c>
       <c r="B49" s="98"/>
-      <c r="C49" s="98" t="s">
-        <v>297</v>
-      </c>
-      <c r="D49" s="132" t="s">
-        <v>388</v>
-      </c>
-      <c r="E49" s="132" t="s">
-        <v>124</v>
+      <c r="C49" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" s="82" t="s">
+        <v>394</v>
+      </c>
+      <c r="E49" s="96" t="s">
+        <v>212</v>
       </c>
       <c r="F49" s="132" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="G49" s="132"/>
       <c r="H49" s="98"/>
@@ -45665,265 +45613,37 @@
         <v>1</v>
       </c>
       <c r="K49" s="132" t="s">
-        <v>389</v>
-      </c>
-      <c r="L49" s="231" t="s">
-        <v>390</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="L49" s="77"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A50" s="251">
+      <c r="A50" s="252">
         <v>43101</v>
       </c>
-      <c r="B50" s="98"/>
-      <c r="C50" s="98" t="s">
-        <v>297</v>
-      </c>
-      <c r="D50" s="132" t="s">
-        <v>388</v>
-      </c>
-      <c r="E50" s="132" t="s">
-        <v>124</v>
-      </c>
-      <c r="F50" s="132" t="s">
-        <v>341</v>
-      </c>
-      <c r="G50" s="132"/>
-      <c r="H50" s="98"/>
-      <c r="I50" s="98"/>
-      <c r="J50" s="98">
+      <c r="B50" s="104"/>
+      <c r="C50" s="87" t="s">
+        <v>214</v>
+      </c>
+      <c r="D50" s="100" t="s">
+        <v>394</v>
+      </c>
+      <c r="E50" s="102" t="s">
+        <v>212</v>
+      </c>
+      <c r="F50" s="253" t="s">
+        <v>328</v>
+      </c>
+      <c r="G50" s="253"/>
+      <c r="H50" s="104"/>
+      <c r="I50" s="104"/>
+      <c r="J50" s="104">
         <v>1</v>
       </c>
-      <c r="K50" s="132" t="s">
-        <v>375</v>
-      </c>
-      <c r="L50" s="231" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A51" s="251">
-        <v>43101</v>
-      </c>
-      <c r="B51" s="98"/>
-      <c r="C51" s="79" t="s">
-        <v>214</v>
-      </c>
-      <c r="D51" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="E51" s="96" t="s">
-        <v>212</v>
-      </c>
-      <c r="F51" s="132" t="s">
-        <v>326</v>
-      </c>
-      <c r="G51" s="132"/>
-      <c r="H51" s="98"/>
-      <c r="I51" s="98"/>
-      <c r="J51" s="98">
-        <v>1</v>
-      </c>
-      <c r="K51" s="132" t="s">
+      <c r="K50" s="253" t="s">
         <v>374</v>
       </c>
-      <c r="L51" s="77"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A52" s="251">
-        <v>43101</v>
-      </c>
-      <c r="B52" s="98"/>
-      <c r="C52" s="79" t="s">
-        <v>214</v>
-      </c>
-      <c r="D52" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="E52" s="96" t="s">
-        <v>212</v>
-      </c>
-      <c r="F52" s="132" t="s">
-        <v>328</v>
-      </c>
-      <c r="G52" s="132"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="98"/>
-      <c r="J52" s="98">
-        <v>1</v>
-      </c>
-      <c r="K52" s="132" t="s">
-        <v>374</v>
-      </c>
-      <c r="L52" s="77"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A53" s="251">
-        <v>43101</v>
-      </c>
-      <c r="B53" s="98"/>
-      <c r="C53" s="82" t="s">
-        <v>218</v>
-      </c>
-      <c r="D53" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="E53" s="96" t="s">
-        <v>216</v>
-      </c>
-      <c r="F53" s="132" t="s">
-        <v>330</v>
-      </c>
-      <c r="G53" s="132"/>
-      <c r="H53" s="98"/>
-      <c r="I53" s="98"/>
-      <c r="J53" s="98">
-        <v>2</v>
-      </c>
-      <c r="K53" s="132" t="s">
-        <v>374</v>
-      </c>
-      <c r="L53" s="77"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A54" s="251">
-        <v>43101</v>
-      </c>
-      <c r="B54" s="98"/>
-      <c r="C54" s="79" t="s">
-        <v>214</v>
-      </c>
-      <c r="D54" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="E54" s="96" t="s">
-        <v>212</v>
-      </c>
-      <c r="F54" s="132" t="s">
-        <v>326</v>
-      </c>
-      <c r="G54" s="132"/>
-      <c r="H54" s="98"/>
-      <c r="I54" s="98"/>
-      <c r="J54" s="98">
-        <v>1</v>
-      </c>
-      <c r="K54" s="132" t="s">
-        <v>374</v>
-      </c>
-      <c r="L54" s="77"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A55" s="251">
-        <v>43101</v>
-      </c>
-      <c r="B55" s="98"/>
-      <c r="C55" s="79" t="s">
-        <v>214</v>
-      </c>
-      <c r="D55" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="E55" s="96" t="s">
-        <v>212</v>
-      </c>
-      <c r="F55" s="132" t="s">
-        <v>328</v>
-      </c>
-      <c r="G55" s="132"/>
-      <c r="H55" s="98"/>
-      <c r="I55" s="98"/>
-      <c r="J55" s="98">
-        <v>1</v>
-      </c>
-      <c r="K55" s="132" t="s">
-        <v>374</v>
-      </c>
-      <c r="L55" s="77"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A56" s="251">
-        <v>43101</v>
-      </c>
-      <c r="B56" s="98"/>
-      <c r="C56" s="82" t="s">
-        <v>218</v>
-      </c>
-      <c r="D56" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="E56" s="96" t="s">
-        <v>216</v>
-      </c>
-      <c r="F56" s="132" t="s">
-        <v>330</v>
-      </c>
-      <c r="G56" s="132"/>
-      <c r="H56" s="98"/>
-      <c r="I56" s="98"/>
-      <c r="J56" s="98">
-        <v>2</v>
-      </c>
-      <c r="K56" s="132" t="s">
-        <v>374</v>
-      </c>
-      <c r="L56" s="77"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A57" s="251">
-        <v>43101</v>
-      </c>
-      <c r="B57" s="98"/>
-      <c r="C57" s="79" t="s">
-        <v>214</v>
-      </c>
-      <c r="D57" s="82" t="s">
-        <v>394</v>
-      </c>
-      <c r="E57" s="96" t="s">
-        <v>212</v>
-      </c>
-      <c r="F57" s="132" t="s">
-        <v>326</v>
-      </c>
-      <c r="G57" s="132"/>
-      <c r="H57" s="98"/>
-      <c r="I57" s="98"/>
-      <c r="J57" s="98">
-        <v>1</v>
-      </c>
-      <c r="K57" s="132" t="s">
-        <v>374</v>
-      </c>
-      <c r="L57" s="77"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A58" s="252">
-        <v>43101</v>
-      </c>
-      <c r="B58" s="104"/>
-      <c r="C58" s="87" t="s">
-        <v>214</v>
-      </c>
-      <c r="D58" s="100" t="s">
-        <v>394</v>
-      </c>
-      <c r="E58" s="102" t="s">
-        <v>212</v>
-      </c>
-      <c r="F58" s="253" t="s">
-        <v>328</v>
-      </c>
-      <c r="G58" s="253"/>
-      <c r="H58" s="104"/>
-      <c r="I58" s="104"/>
-      <c r="J58" s="104">
-        <v>1</v>
-      </c>
-      <c r="K58" s="253" t="s">
-        <v>374</v>
-      </c>
-      <c r="L58" s="105"/>
+      <c r="L50" s="105"/>
     </row>
   </sheetData>
   <phoneticPr fontId="58" type="noConversion"/>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/BEFTA_Master_Definition_invalid.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/BEFTA_Master_Definition_invalid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/development/ccd/ccd-api-test-automation-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olawaleolanrewaju/Documents/Git_MOJ/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942C9D45-5B96-2446-9788-438CE551FD1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3506C73D-DF6B-D949-BB07-30DFAF57027C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35500" yWindow="1020" windowWidth="33600" windowHeight="19340" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">CaseEvent!$A$21:$T$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CaseField!$A$3:$IO$115</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -54,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5573" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5619" uniqueCount="946">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -2886,10 +2892,19 @@
     <t>Organisation.OrganisationID</t>
   </si>
   <si>
+    <t>Organisation.OrganisationName</t>
+  </si>
+  <si>
     <t>OrganisationID</t>
   </si>
   <si>
     <t>Updated OrganisationID Label</t>
+  </si>
+  <si>
+    <t>OrganisationName</t>
+  </si>
+  <si>
+    <t>Updated Organisation Name</t>
   </si>
   <si>
     <t>Organisation Policy</t>
@@ -3639,7 +3654,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="433">
+  <cellXfs count="439">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -4505,6 +4520,9 @@
     <xf numFmtId="49" fontId="34" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="22" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="24" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4518,6 +4536,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4563,6 +4590,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -12052,7 +12085,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7776E297-B7F9-FE43-8EE1-4BFB68FF9F3F}" name="Table6" displayName="Table6" ref="A3:G40" totalsRowShown="0" headerRowDxfId="228" dataDxfId="226" headerRowBorderDxfId="227" tableBorderDxfId="225" totalsRowBorderDxfId="224" headerRowCellStyle="Normal 2 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7776E297-B7F9-FE43-8EE1-4BFB68FF9F3F}" name="Table6" displayName="Table6" ref="A3:G41" totalsRowShown="0" headerRowDxfId="228" dataDxfId="226" headerRowBorderDxfId="227" tableBorderDxfId="225" totalsRowBorderDxfId="224" headerRowCellStyle="Normal 2 3">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{10086A25-442C-7449-826A-B35FDEA13C5A}" name="LiveFrom" dataDxfId="223"/>
     <tableColumn id="2" xr3:uid="{FB00A34E-44D3-2D4F-B5A8-96DA629491A0}" name="LiveTo" dataDxfId="222"/>
@@ -12067,7 +12100,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{3217A593-E48A-BB42-A2D0-9D3131CA3F9C}" name="Table23" displayName="Table23" ref="A3:L50" totalsRowShown="0" headerRowDxfId="216" dataDxfId="214" headerRowBorderDxfId="215" tableBorderDxfId="213" totalsRowBorderDxfId="212">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{3217A593-E48A-BB42-A2D0-9D3131CA3F9C}" name="Table23" displayName="Table23" ref="A3:L58" totalsRowShown="0" headerRowDxfId="216" dataDxfId="214" headerRowBorderDxfId="215" tableBorderDxfId="213" totalsRowBorderDxfId="212">
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{CDA5C744-4A48-0C44-9DDE-72388C860C99}" name="LiveFrom" dataDxfId="211"/>
     <tableColumn id="2" xr3:uid="{8A3CAE25-78FA-AC45-B741-FC9B0207A6D2}" name="LiveTo" dataDxfId="210"/>
@@ -14110,232 +14143,232 @@
       </c>
     </row>
     <row r="27" spans="1:96" s="343" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="355">
-        <v>42736</v>
-      </c>
-      <c r="B27" s="356"/>
-      <c r="C27" s="357" t="s">
-        <v>921</v>
-      </c>
-      <c r="D27" s="357" t="s">
+      <c r="A27" s="359">
+        <v>42736</v>
+      </c>
+      <c r="B27" s="360"/>
+      <c r="C27" s="361" t="s">
+        <v>924</v>
+      </c>
+      <c r="D27" s="361" t="s">
         <v>455</v>
       </c>
       <c r="E27" s="307" t="s">
         <v>909</v>
       </c>
-      <c r="F27" s="358" t="s">
+      <c r="F27" s="362" t="s">
         <v>909</v>
       </c>
-      <c r="G27" s="359">
+      <c r="G27" s="363">
         <v>3</v>
       </c>
       <c r="H27" s="307" t="s">
         <v>910</v>
       </c>
-      <c r="I27" s="360">
+      <c r="I27" s="364">
         <v>1</v>
       </c>
-      <c r="J27" s="351"/>
-      <c r="K27" s="351"/>
-      <c r="L27" s="361"/>
-      <c r="M27" s="416"/>
-      <c r="N27" s="416"/>
-      <c r="O27" s="416"/>
-      <c r="P27" s="416"/>
-      <c r="Q27" s="416"/>
-      <c r="R27" s="416"/>
-      <c r="S27" s="416"/>
-      <c r="T27" s="416"/>
-      <c r="U27" s="416"/>
-      <c r="V27" s="416"/>
-      <c r="W27" s="416"/>
-      <c r="X27" s="416"/>
-      <c r="Y27" s="416"/>
-      <c r="Z27" s="416"/>
-      <c r="AA27" s="416"/>
-      <c r="AB27" s="416"/>
-      <c r="AC27" s="416"/>
-      <c r="AD27" s="416"/>
-      <c r="AE27" s="416"/>
-      <c r="AF27" s="416"/>
-      <c r="AG27" s="416"/>
-      <c r="AH27" s="416"/>
-      <c r="AI27" s="416"/>
-      <c r="AJ27" s="416"/>
-      <c r="AK27" s="416"/>
-      <c r="AL27" s="416"/>
-      <c r="AM27" s="416"/>
-      <c r="AN27" s="416"/>
-      <c r="AO27" s="416"/>
-      <c r="AP27" s="416"/>
-      <c r="AQ27" s="416"/>
-      <c r="AR27" s="416"/>
-      <c r="AS27" s="416"/>
-      <c r="AT27" s="416"/>
-      <c r="AU27" s="416"/>
-      <c r="AV27" s="416"/>
-      <c r="AW27" s="416"/>
-      <c r="AX27" s="416"/>
-      <c r="AY27" s="416"/>
-      <c r="AZ27" s="416"/>
-      <c r="BA27" s="416"/>
-      <c r="BB27" s="416"/>
-      <c r="BC27" s="416"/>
-      <c r="BD27" s="416"/>
-      <c r="BE27" s="416"/>
-      <c r="BF27" s="416"/>
-      <c r="BG27" s="416"/>
-      <c r="BH27" s="416"/>
-      <c r="BI27" s="416"/>
-      <c r="BJ27" s="416"/>
-      <c r="BK27" s="416"/>
-      <c r="BL27" s="416"/>
-      <c r="BM27" s="416"/>
-      <c r="BN27" s="416"/>
-      <c r="BO27" s="416"/>
-      <c r="BP27" s="416"/>
-      <c r="BQ27" s="416"/>
-      <c r="BR27" s="416"/>
-      <c r="BS27" s="416"/>
-      <c r="BT27" s="416"/>
-      <c r="BU27" s="416"/>
-      <c r="BV27" s="416"/>
-      <c r="BW27" s="416"/>
-      <c r="BX27" s="416"/>
-      <c r="BY27" s="416"/>
-      <c r="BZ27" s="416"/>
-      <c r="CA27" s="416"/>
-      <c r="CB27" s="416"/>
-      <c r="CC27" s="416"/>
-      <c r="CD27" s="416"/>
-      <c r="CE27" s="416"/>
-      <c r="CF27" s="416"/>
-      <c r="CG27" s="416"/>
-      <c r="CH27" s="416"/>
-      <c r="CI27" s="416"/>
-      <c r="CJ27" s="416"/>
-      <c r="CK27" s="416"/>
-      <c r="CL27" s="416"/>
-      <c r="CM27" s="416"/>
-      <c r="CN27" s="416"/>
-      <c r="CO27" s="416"/>
-      <c r="CP27" s="416"/>
-      <c r="CQ27" s="416"/>
-      <c r="CR27" s="416"/>
+      <c r="J27" s="352"/>
+      <c r="K27" s="352"/>
+      <c r="L27" s="365"/>
+      <c r="M27" s="422"/>
+      <c r="N27" s="422"/>
+      <c r="O27" s="422"/>
+      <c r="P27" s="422"/>
+      <c r="Q27" s="422"/>
+      <c r="R27" s="422"/>
+      <c r="S27" s="422"/>
+      <c r="T27" s="422"/>
+      <c r="U27" s="422"/>
+      <c r="V27" s="422"/>
+      <c r="W27" s="422"/>
+      <c r="X27" s="422"/>
+      <c r="Y27" s="422"/>
+      <c r="Z27" s="422"/>
+      <c r="AA27" s="422"/>
+      <c r="AB27" s="422"/>
+      <c r="AC27" s="422"/>
+      <c r="AD27" s="422"/>
+      <c r="AE27" s="422"/>
+      <c r="AF27" s="422"/>
+      <c r="AG27" s="422"/>
+      <c r="AH27" s="422"/>
+      <c r="AI27" s="422"/>
+      <c r="AJ27" s="422"/>
+      <c r="AK27" s="422"/>
+      <c r="AL27" s="422"/>
+      <c r="AM27" s="422"/>
+      <c r="AN27" s="422"/>
+      <c r="AO27" s="422"/>
+      <c r="AP27" s="422"/>
+      <c r="AQ27" s="422"/>
+      <c r="AR27" s="422"/>
+      <c r="AS27" s="422"/>
+      <c r="AT27" s="422"/>
+      <c r="AU27" s="422"/>
+      <c r="AV27" s="422"/>
+      <c r="AW27" s="422"/>
+      <c r="AX27" s="422"/>
+      <c r="AY27" s="422"/>
+      <c r="AZ27" s="422"/>
+      <c r="BA27" s="422"/>
+      <c r="BB27" s="422"/>
+      <c r="BC27" s="422"/>
+      <c r="BD27" s="422"/>
+      <c r="BE27" s="422"/>
+      <c r="BF27" s="422"/>
+      <c r="BG27" s="422"/>
+      <c r="BH27" s="422"/>
+      <c r="BI27" s="422"/>
+      <c r="BJ27" s="422"/>
+      <c r="BK27" s="422"/>
+      <c r="BL27" s="422"/>
+      <c r="BM27" s="422"/>
+      <c r="BN27" s="422"/>
+      <c r="BO27" s="422"/>
+      <c r="BP27" s="422"/>
+      <c r="BQ27" s="422"/>
+      <c r="BR27" s="422"/>
+      <c r="BS27" s="422"/>
+      <c r="BT27" s="422"/>
+      <c r="BU27" s="422"/>
+      <c r="BV27" s="422"/>
+      <c r="BW27" s="422"/>
+      <c r="BX27" s="422"/>
+      <c r="BY27" s="422"/>
+      <c r="BZ27" s="422"/>
+      <c r="CA27" s="422"/>
+      <c r="CB27" s="422"/>
+      <c r="CC27" s="422"/>
+      <c r="CD27" s="422"/>
+      <c r="CE27" s="422"/>
+      <c r="CF27" s="422"/>
+      <c r="CG27" s="422"/>
+      <c r="CH27" s="422"/>
+      <c r="CI27" s="422"/>
+      <c r="CJ27" s="422"/>
+      <c r="CK27" s="422"/>
+      <c r="CL27" s="422"/>
+      <c r="CM27" s="422"/>
+      <c r="CN27" s="422"/>
+      <c r="CO27" s="422"/>
+      <c r="CP27" s="422"/>
+      <c r="CQ27" s="422"/>
+      <c r="CR27" s="422"/>
     </row>
     <row r="28" spans="1:96" s="343" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="355">
-        <v>42736</v>
-      </c>
-      <c r="B28" s="356"/>
-      <c r="C28" s="357" t="s">
-        <v>921</v>
-      </c>
-      <c r="D28" s="357" t="s">
+      <c r="A28" s="359">
+        <v>42736</v>
+      </c>
+      <c r="B28" s="360"/>
+      <c r="C28" s="361" t="s">
+        <v>924</v>
+      </c>
+      <c r="D28" s="361" t="s">
         <v>455</v>
       </c>
       <c r="E28" s="307" t="s">
         <v>914</v>
       </c>
-      <c r="F28" s="358" t="s">
-        <v>920</v>
-      </c>
-      <c r="G28" s="359">
+      <c r="F28" s="362" t="s">
+        <v>923</v>
+      </c>
+      <c r="G28" s="363">
         <v>4</v>
       </c>
       <c r="H28" s="307" t="s">
         <v>911</v>
       </c>
-      <c r="I28" s="360">
+      <c r="I28" s="364">
         <v>2</v>
       </c>
-      <c r="J28" s="351"/>
-      <c r="K28" s="351"/>
-      <c r="L28" s="361"/>
-      <c r="M28" s="416"/>
-      <c r="N28" s="416"/>
-      <c r="O28" s="416"/>
-      <c r="P28" s="416"/>
-      <c r="Q28" s="416"/>
-      <c r="R28" s="416"/>
-      <c r="S28" s="416"/>
-      <c r="T28" s="416"/>
-      <c r="U28" s="416"/>
-      <c r="V28" s="416"/>
-      <c r="W28" s="416"/>
-      <c r="X28" s="416"/>
-      <c r="Y28" s="416"/>
-      <c r="Z28" s="416"/>
-      <c r="AA28" s="416"/>
-      <c r="AB28" s="416"/>
-      <c r="AC28" s="416"/>
-      <c r="AD28" s="416"/>
-      <c r="AE28" s="416"/>
-      <c r="AF28" s="416"/>
-      <c r="AG28" s="416"/>
-      <c r="AH28" s="416"/>
-      <c r="AI28" s="416"/>
-      <c r="AJ28" s="416"/>
-      <c r="AK28" s="416"/>
-      <c r="AL28" s="416"/>
-      <c r="AM28" s="416"/>
-      <c r="AN28" s="416"/>
-      <c r="AO28" s="416"/>
-      <c r="AP28" s="416"/>
-      <c r="AQ28" s="416"/>
-      <c r="AR28" s="416"/>
-      <c r="AS28" s="416"/>
-      <c r="AT28" s="416"/>
-      <c r="AU28" s="416"/>
-      <c r="AV28" s="416"/>
-      <c r="AW28" s="416"/>
-      <c r="AX28" s="416"/>
-      <c r="AY28" s="416"/>
-      <c r="AZ28" s="416"/>
-      <c r="BA28" s="416"/>
-      <c r="BB28" s="416"/>
-      <c r="BC28" s="416"/>
-      <c r="BD28" s="416"/>
-      <c r="BE28" s="416"/>
-      <c r="BF28" s="416"/>
-      <c r="BG28" s="416"/>
-      <c r="BH28" s="416"/>
-      <c r="BI28" s="416"/>
-      <c r="BJ28" s="416"/>
-      <c r="BK28" s="416"/>
-      <c r="BL28" s="416"/>
-      <c r="BM28" s="416"/>
-      <c r="BN28" s="416"/>
-      <c r="BO28" s="416"/>
-      <c r="BP28" s="416"/>
-      <c r="BQ28" s="416"/>
-      <c r="BR28" s="416"/>
-      <c r="BS28" s="416"/>
-      <c r="BT28" s="416"/>
-      <c r="BU28" s="416"/>
-      <c r="BV28" s="416"/>
-      <c r="BW28" s="416"/>
-      <c r="BX28" s="416"/>
-      <c r="BY28" s="416"/>
-      <c r="BZ28" s="416"/>
-      <c r="CA28" s="416"/>
-      <c r="CB28" s="416"/>
-      <c r="CC28" s="416"/>
-      <c r="CD28" s="416"/>
-      <c r="CE28" s="416"/>
-      <c r="CF28" s="416"/>
-      <c r="CG28" s="416"/>
-      <c r="CH28" s="416"/>
-      <c r="CI28" s="416"/>
-      <c r="CJ28" s="416"/>
-      <c r="CK28" s="416"/>
-      <c r="CL28" s="416"/>
-      <c r="CM28" s="416"/>
-      <c r="CN28" s="416"/>
-      <c r="CO28" s="416"/>
-      <c r="CP28" s="416"/>
-      <c r="CQ28" s="416"/>
-      <c r="CR28" s="416"/>
+      <c r="J28" s="352"/>
+      <c r="K28" s="352"/>
+      <c r="L28" s="365"/>
+      <c r="M28" s="422"/>
+      <c r="N28" s="422"/>
+      <c r="O28" s="422"/>
+      <c r="P28" s="422"/>
+      <c r="Q28" s="422"/>
+      <c r="R28" s="422"/>
+      <c r="S28" s="422"/>
+      <c r="T28" s="422"/>
+      <c r="U28" s="422"/>
+      <c r="V28" s="422"/>
+      <c r="W28" s="422"/>
+      <c r="X28" s="422"/>
+      <c r="Y28" s="422"/>
+      <c r="Z28" s="422"/>
+      <c r="AA28" s="422"/>
+      <c r="AB28" s="422"/>
+      <c r="AC28" s="422"/>
+      <c r="AD28" s="422"/>
+      <c r="AE28" s="422"/>
+      <c r="AF28" s="422"/>
+      <c r="AG28" s="422"/>
+      <c r="AH28" s="422"/>
+      <c r="AI28" s="422"/>
+      <c r="AJ28" s="422"/>
+      <c r="AK28" s="422"/>
+      <c r="AL28" s="422"/>
+      <c r="AM28" s="422"/>
+      <c r="AN28" s="422"/>
+      <c r="AO28" s="422"/>
+      <c r="AP28" s="422"/>
+      <c r="AQ28" s="422"/>
+      <c r="AR28" s="422"/>
+      <c r="AS28" s="422"/>
+      <c r="AT28" s="422"/>
+      <c r="AU28" s="422"/>
+      <c r="AV28" s="422"/>
+      <c r="AW28" s="422"/>
+      <c r="AX28" s="422"/>
+      <c r="AY28" s="422"/>
+      <c r="AZ28" s="422"/>
+      <c r="BA28" s="422"/>
+      <c r="BB28" s="422"/>
+      <c r="BC28" s="422"/>
+      <c r="BD28" s="422"/>
+      <c r="BE28" s="422"/>
+      <c r="BF28" s="422"/>
+      <c r="BG28" s="422"/>
+      <c r="BH28" s="422"/>
+      <c r="BI28" s="422"/>
+      <c r="BJ28" s="422"/>
+      <c r="BK28" s="422"/>
+      <c r="BL28" s="422"/>
+      <c r="BM28" s="422"/>
+      <c r="BN28" s="422"/>
+      <c r="BO28" s="422"/>
+      <c r="BP28" s="422"/>
+      <c r="BQ28" s="422"/>
+      <c r="BR28" s="422"/>
+      <c r="BS28" s="422"/>
+      <c r="BT28" s="422"/>
+      <c r="BU28" s="422"/>
+      <c r="BV28" s="422"/>
+      <c r="BW28" s="422"/>
+      <c r="BX28" s="422"/>
+      <c r="BY28" s="422"/>
+      <c r="BZ28" s="422"/>
+      <c r="CA28" s="422"/>
+      <c r="CB28" s="422"/>
+      <c r="CC28" s="422"/>
+      <c r="CD28" s="422"/>
+      <c r="CE28" s="422"/>
+      <c r="CF28" s="422"/>
+      <c r="CG28" s="422"/>
+      <c r="CH28" s="422"/>
+      <c r="CI28" s="422"/>
+      <c r="CJ28" s="422"/>
+      <c r="CK28" s="422"/>
+      <c r="CL28" s="422"/>
+      <c r="CM28" s="422"/>
+      <c r="CN28" s="422"/>
+      <c r="CO28" s="422"/>
+      <c r="CP28" s="422"/>
+      <c r="CQ28" s="422"/>
+      <c r="CR28" s="422"/>
     </row>
     <row r="29" spans="1:96" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="75">
@@ -14366,62 +14399,62 @@
       <c r="J29" s="95"/>
       <c r="K29" s="95"/>
       <c r="L29" s="95"/>
-      <c r="AO29" s="413"/>
-      <c r="AP29" s="413"/>
-      <c r="AQ29" s="413"/>
-      <c r="AR29" s="413"/>
-      <c r="AS29" s="413"/>
-      <c r="AT29" s="413"/>
-      <c r="AU29" s="413"/>
-      <c r="AV29" s="413"/>
-      <c r="AW29" s="413"/>
-      <c r="AX29" s="413"/>
-      <c r="AY29" s="413"/>
-      <c r="AZ29" s="413"/>
-      <c r="BA29" s="413"/>
-      <c r="BB29" s="413"/>
-      <c r="BC29" s="413"/>
-      <c r="BD29" s="413"/>
-      <c r="BE29" s="413"/>
-      <c r="BF29" s="413"/>
-      <c r="BG29" s="413"/>
-      <c r="BH29" s="413"/>
-      <c r="BI29" s="413"/>
-      <c r="BJ29" s="413"/>
-      <c r="BK29" s="413"/>
-      <c r="BL29" s="413"/>
-      <c r="BM29" s="413"/>
-      <c r="BN29" s="413"/>
-      <c r="BO29" s="413"/>
-      <c r="BP29" s="413"/>
-      <c r="BQ29" s="413"/>
-      <c r="BR29" s="413"/>
-      <c r="BS29" s="413"/>
-      <c r="BT29" s="413"/>
-      <c r="BU29" s="413"/>
-      <c r="BV29" s="413"/>
-      <c r="BW29" s="413"/>
-      <c r="BX29" s="413"/>
-      <c r="BY29" s="413"/>
-      <c r="BZ29" s="413"/>
-      <c r="CA29" s="413"/>
-      <c r="CB29" s="413"/>
-      <c r="CC29" s="413"/>
-      <c r="CD29" s="413"/>
-      <c r="CE29" s="413"/>
-      <c r="CF29" s="413"/>
-      <c r="CG29" s="413"/>
-      <c r="CH29" s="413"/>
-      <c r="CI29" s="413"/>
-      <c r="CJ29" s="413"/>
-      <c r="CK29" s="413"/>
-      <c r="CL29" s="413"/>
-      <c r="CM29" s="413"/>
-      <c r="CN29" s="413"/>
-      <c r="CO29" s="413"/>
-      <c r="CP29" s="413"/>
-      <c r="CQ29" s="413"/>
-      <c r="CR29" s="413"/>
+      <c r="AO29" s="419"/>
+      <c r="AP29" s="419"/>
+      <c r="AQ29" s="419"/>
+      <c r="AR29" s="419"/>
+      <c r="AS29" s="419"/>
+      <c r="AT29" s="419"/>
+      <c r="AU29" s="419"/>
+      <c r="AV29" s="419"/>
+      <c r="AW29" s="419"/>
+      <c r="AX29" s="419"/>
+      <c r="AY29" s="419"/>
+      <c r="AZ29" s="419"/>
+      <c r="BA29" s="419"/>
+      <c r="BB29" s="419"/>
+      <c r="BC29" s="419"/>
+      <c r="BD29" s="419"/>
+      <c r="BE29" s="419"/>
+      <c r="BF29" s="419"/>
+      <c r="BG29" s="419"/>
+      <c r="BH29" s="419"/>
+      <c r="BI29" s="419"/>
+      <c r="BJ29" s="419"/>
+      <c r="BK29" s="419"/>
+      <c r="BL29" s="419"/>
+      <c r="BM29" s="419"/>
+      <c r="BN29" s="419"/>
+      <c r="BO29" s="419"/>
+      <c r="BP29" s="419"/>
+      <c r="BQ29" s="419"/>
+      <c r="BR29" s="419"/>
+      <c r="BS29" s="419"/>
+      <c r="BT29" s="419"/>
+      <c r="BU29" s="419"/>
+      <c r="BV29" s="419"/>
+      <c r="BW29" s="419"/>
+      <c r="BX29" s="419"/>
+      <c r="BY29" s="419"/>
+      <c r="BZ29" s="419"/>
+      <c r="CA29" s="419"/>
+      <c r="CB29" s="419"/>
+      <c r="CC29" s="419"/>
+      <c r="CD29" s="419"/>
+      <c r="CE29" s="419"/>
+      <c r="CF29" s="419"/>
+      <c r="CG29" s="419"/>
+      <c r="CH29" s="419"/>
+      <c r="CI29" s="419"/>
+      <c r="CJ29" s="419"/>
+      <c r="CK29" s="419"/>
+      <c r="CL29" s="419"/>
+      <c r="CM29" s="419"/>
+      <c r="CN29" s="419"/>
+      <c r="CO29" s="419"/>
+      <c r="CP29" s="419"/>
+      <c r="CQ29" s="419"/>
+      <c r="CR29" s="419"/>
     </row>
     <row r="30" spans="1:96" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="75">
@@ -16179,162 +16212,162 @@
         <v>2</v>
       </c>
       <c r="H27" s="84"/>
-      <c r="I27" s="416"/>
-      <c r="J27" s="416"/>
-      <c r="K27" s="416"/>
-      <c r="L27" s="416"/>
-      <c r="M27" s="416"/>
-      <c r="N27" s="416"/>
-      <c r="O27" s="416"/>
-      <c r="P27" s="416"/>
-      <c r="Q27" s="416"/>
-      <c r="R27" s="416"/>
-      <c r="S27" s="416"/>
-      <c r="T27" s="416"/>
-      <c r="U27" s="416"/>
-      <c r="V27" s="416"/>
-      <c r="W27" s="416"/>
-      <c r="X27" s="416"/>
-      <c r="Y27" s="416"/>
-      <c r="Z27" s="416"/>
-      <c r="AA27" s="416"/>
-      <c r="AB27" s="416"/>
-      <c r="AC27" s="416"/>
-      <c r="AD27" s="416"/>
-      <c r="AE27" s="416"/>
-      <c r="AF27" s="416"/>
-      <c r="AG27" s="416"/>
-      <c r="AH27" s="416"/>
-      <c r="AI27" s="416"/>
-      <c r="AJ27" s="416"/>
-      <c r="AK27" s="416"/>
-      <c r="AL27" s="416"/>
-      <c r="AM27" s="416"/>
-      <c r="AN27" s="416"/>
-      <c r="AO27" s="416"/>
-      <c r="AP27" s="416"/>
-      <c r="AQ27" s="416"/>
-      <c r="AR27" s="416"/>
-      <c r="AS27" s="416"/>
-      <c r="AT27" s="416"/>
-      <c r="AU27" s="416"/>
-      <c r="AV27" s="416"/>
-      <c r="AW27" s="416"/>
-      <c r="AX27" s="416"/>
-      <c r="AY27" s="416"/>
-      <c r="AZ27" s="416"/>
-      <c r="BA27" s="416"/>
-      <c r="BB27" s="416"/>
-      <c r="BC27" s="416"/>
-      <c r="BD27" s="416"/>
-      <c r="BE27" s="416"/>
-      <c r="BF27" s="416"/>
-      <c r="BG27" s="416"/>
-      <c r="BH27" s="416"/>
-      <c r="BI27" s="416"/>
-      <c r="BJ27" s="416"/>
-      <c r="BK27" s="416"/>
-      <c r="BL27" s="416"/>
-      <c r="BM27" s="416"/>
-      <c r="BN27" s="416"/>
-      <c r="BO27" s="416"/>
-      <c r="BP27" s="416"/>
-      <c r="BQ27" s="416"/>
-      <c r="BR27" s="416"/>
-      <c r="BS27" s="416"/>
-      <c r="BT27" s="416"/>
-      <c r="BU27" s="416"/>
-      <c r="BV27" s="416"/>
-      <c r="BW27" s="416"/>
-      <c r="BX27" s="416"/>
-      <c r="BY27" s="416"/>
-      <c r="BZ27" s="416"/>
-      <c r="CA27" s="416"/>
-      <c r="CB27" s="416"/>
-      <c r="CC27" s="416"/>
-      <c r="CD27" s="416"/>
-      <c r="CE27" s="416"/>
-      <c r="CF27" s="416"/>
-      <c r="CG27" s="416"/>
-      <c r="CH27" s="416"/>
-      <c r="CI27" s="416"/>
-      <c r="CJ27" s="416"/>
-      <c r="CK27" s="416"/>
-      <c r="CL27" s="416"/>
-      <c r="CM27" s="416"/>
-      <c r="CN27" s="416"/>
-      <c r="CO27" s="416"/>
-      <c r="CP27" s="416"/>
-      <c r="CQ27" s="416"/>
-      <c r="CR27" s="416"/>
-      <c r="CS27" s="416"/>
-      <c r="CT27" s="416"/>
-      <c r="CU27" s="416"/>
-      <c r="CV27" s="416"/>
-      <c r="CW27" s="416"/>
-      <c r="CX27" s="416"/>
-      <c r="CY27" s="416"/>
-      <c r="CZ27" s="416"/>
-      <c r="DA27" s="416"/>
-      <c r="DB27" s="416"/>
-      <c r="DC27" s="416"/>
-      <c r="DD27" s="416"/>
-      <c r="DE27" s="416"/>
-      <c r="DF27" s="416"/>
-      <c r="DG27" s="416"/>
-      <c r="DH27" s="416"/>
-      <c r="DI27" s="416"/>
-      <c r="DJ27" s="416"/>
-      <c r="DK27" s="416"/>
-      <c r="DL27" s="416"/>
-      <c r="DM27" s="416"/>
-      <c r="DN27" s="416"/>
-      <c r="DO27" s="416"/>
-      <c r="DP27" s="416"/>
-      <c r="DQ27" s="416"/>
-      <c r="DR27" s="416"/>
-      <c r="DS27" s="416"/>
-      <c r="DT27" s="416"/>
-      <c r="DU27" s="416"/>
-      <c r="DV27" s="416"/>
-      <c r="DW27" s="416"/>
-      <c r="DX27" s="416"/>
-      <c r="DY27" s="416"/>
-      <c r="DZ27" s="416"/>
-      <c r="EA27" s="416"/>
-      <c r="EB27" s="416"/>
-      <c r="EC27" s="416"/>
-      <c r="ED27" s="416"/>
-      <c r="EE27" s="416"/>
-      <c r="EF27" s="416"/>
-      <c r="EG27" s="416"/>
-      <c r="EH27" s="416"/>
-      <c r="EI27" s="416"/>
-      <c r="EJ27" s="416"/>
-      <c r="EK27" s="416"/>
-      <c r="EL27" s="416"/>
-      <c r="EM27" s="416"/>
-      <c r="EN27" s="416"/>
-      <c r="EO27" s="416"/>
-      <c r="EP27" s="416"/>
-      <c r="EQ27" s="416"/>
-      <c r="ER27" s="416"/>
-      <c r="ES27" s="416"/>
-      <c r="ET27" s="416"/>
-      <c r="EU27" s="416"/>
-      <c r="EV27" s="416"/>
-      <c r="EW27" s="416"/>
-      <c r="EX27" s="416"/>
-      <c r="EY27" s="416"/>
-      <c r="EZ27" s="416"/>
-      <c r="FA27" s="416"/>
-      <c r="FB27" s="416"/>
-      <c r="FC27" s="416"/>
-      <c r="FD27" s="416"/>
-      <c r="FE27" s="416"/>
-      <c r="FF27" s="416"/>
-      <c r="FG27" s="416"/>
-      <c r="FH27" s="416"/>
+      <c r="I27" s="422"/>
+      <c r="J27" s="422"/>
+      <c r="K27" s="422"/>
+      <c r="L27" s="422"/>
+      <c r="M27" s="422"/>
+      <c r="N27" s="422"/>
+      <c r="O27" s="422"/>
+      <c r="P27" s="422"/>
+      <c r="Q27" s="422"/>
+      <c r="R27" s="422"/>
+      <c r="S27" s="422"/>
+      <c r="T27" s="422"/>
+      <c r="U27" s="422"/>
+      <c r="V27" s="422"/>
+      <c r="W27" s="422"/>
+      <c r="X27" s="422"/>
+      <c r="Y27" s="422"/>
+      <c r="Z27" s="422"/>
+      <c r="AA27" s="422"/>
+      <c r="AB27" s="422"/>
+      <c r="AC27" s="422"/>
+      <c r="AD27" s="422"/>
+      <c r="AE27" s="422"/>
+      <c r="AF27" s="422"/>
+      <c r="AG27" s="422"/>
+      <c r="AH27" s="422"/>
+      <c r="AI27" s="422"/>
+      <c r="AJ27" s="422"/>
+      <c r="AK27" s="422"/>
+      <c r="AL27" s="422"/>
+      <c r="AM27" s="422"/>
+      <c r="AN27" s="422"/>
+      <c r="AO27" s="422"/>
+      <c r="AP27" s="422"/>
+      <c r="AQ27" s="422"/>
+      <c r="AR27" s="422"/>
+      <c r="AS27" s="422"/>
+      <c r="AT27" s="422"/>
+      <c r="AU27" s="422"/>
+      <c r="AV27" s="422"/>
+      <c r="AW27" s="422"/>
+      <c r="AX27" s="422"/>
+      <c r="AY27" s="422"/>
+      <c r="AZ27" s="422"/>
+      <c r="BA27" s="422"/>
+      <c r="BB27" s="422"/>
+      <c r="BC27" s="422"/>
+      <c r="BD27" s="422"/>
+      <c r="BE27" s="422"/>
+      <c r="BF27" s="422"/>
+      <c r="BG27" s="422"/>
+      <c r="BH27" s="422"/>
+      <c r="BI27" s="422"/>
+      <c r="BJ27" s="422"/>
+      <c r="BK27" s="422"/>
+      <c r="BL27" s="422"/>
+      <c r="BM27" s="422"/>
+      <c r="BN27" s="422"/>
+      <c r="BO27" s="422"/>
+      <c r="BP27" s="422"/>
+      <c r="BQ27" s="422"/>
+      <c r="BR27" s="422"/>
+      <c r="BS27" s="422"/>
+      <c r="BT27" s="422"/>
+      <c r="BU27" s="422"/>
+      <c r="BV27" s="422"/>
+      <c r="BW27" s="422"/>
+      <c r="BX27" s="422"/>
+      <c r="BY27" s="422"/>
+      <c r="BZ27" s="422"/>
+      <c r="CA27" s="422"/>
+      <c r="CB27" s="422"/>
+      <c r="CC27" s="422"/>
+      <c r="CD27" s="422"/>
+      <c r="CE27" s="422"/>
+      <c r="CF27" s="422"/>
+      <c r="CG27" s="422"/>
+      <c r="CH27" s="422"/>
+      <c r="CI27" s="422"/>
+      <c r="CJ27" s="422"/>
+      <c r="CK27" s="422"/>
+      <c r="CL27" s="422"/>
+      <c r="CM27" s="422"/>
+      <c r="CN27" s="422"/>
+      <c r="CO27" s="422"/>
+      <c r="CP27" s="422"/>
+      <c r="CQ27" s="422"/>
+      <c r="CR27" s="422"/>
+      <c r="CS27" s="422"/>
+      <c r="CT27" s="422"/>
+      <c r="CU27" s="422"/>
+      <c r="CV27" s="422"/>
+      <c r="CW27" s="422"/>
+      <c r="CX27" s="422"/>
+      <c r="CY27" s="422"/>
+      <c r="CZ27" s="422"/>
+      <c r="DA27" s="422"/>
+      <c r="DB27" s="422"/>
+      <c r="DC27" s="422"/>
+      <c r="DD27" s="422"/>
+      <c r="DE27" s="422"/>
+      <c r="DF27" s="422"/>
+      <c r="DG27" s="422"/>
+      <c r="DH27" s="422"/>
+      <c r="DI27" s="422"/>
+      <c r="DJ27" s="422"/>
+      <c r="DK27" s="422"/>
+      <c r="DL27" s="422"/>
+      <c r="DM27" s="422"/>
+      <c r="DN27" s="422"/>
+      <c r="DO27" s="422"/>
+      <c r="DP27" s="422"/>
+      <c r="DQ27" s="422"/>
+      <c r="DR27" s="422"/>
+      <c r="DS27" s="422"/>
+      <c r="DT27" s="422"/>
+      <c r="DU27" s="422"/>
+      <c r="DV27" s="422"/>
+      <c r="DW27" s="422"/>
+      <c r="DX27" s="422"/>
+      <c r="DY27" s="422"/>
+      <c r="DZ27" s="422"/>
+      <c r="EA27" s="422"/>
+      <c r="EB27" s="422"/>
+      <c r="EC27" s="422"/>
+      <c r="ED27" s="422"/>
+      <c r="EE27" s="422"/>
+      <c r="EF27" s="422"/>
+      <c r="EG27" s="422"/>
+      <c r="EH27" s="422"/>
+      <c r="EI27" s="422"/>
+      <c r="EJ27" s="422"/>
+      <c r="EK27" s="422"/>
+      <c r="EL27" s="422"/>
+      <c r="EM27" s="422"/>
+      <c r="EN27" s="422"/>
+      <c r="EO27" s="422"/>
+      <c r="EP27" s="422"/>
+      <c r="EQ27" s="422"/>
+      <c r="ER27" s="422"/>
+      <c r="ES27" s="422"/>
+      <c r="ET27" s="422"/>
+      <c r="EU27" s="422"/>
+      <c r="EV27" s="422"/>
+      <c r="EW27" s="422"/>
+      <c r="EX27" s="422"/>
+      <c r="EY27" s="422"/>
+      <c r="EZ27" s="422"/>
+      <c r="FA27" s="422"/>
+      <c r="FB27" s="422"/>
+      <c r="FC27" s="422"/>
+      <c r="FD27" s="422"/>
+      <c r="FE27" s="422"/>
+      <c r="FF27" s="422"/>
+      <c r="FG27" s="422"/>
+      <c r="FH27" s="422"/>
     </row>
     <row r="28" spans="1:164" s="306" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="85">
@@ -16355,50 +16388,50 @@
         <v>3</v>
       </c>
       <c r="H28" s="84"/>
-      <c r="I28" s="413"/>
-      <c r="J28" s="413"/>
-      <c r="K28" s="413"/>
-      <c r="L28" s="413"/>
-      <c r="M28" s="413"/>
-      <c r="N28" s="413"/>
-      <c r="O28" s="413"/>
-      <c r="P28" s="413"/>
-      <c r="Q28" s="413"/>
-      <c r="R28" s="413"/>
-      <c r="S28" s="413"/>
-      <c r="T28" s="413"/>
-      <c r="U28" s="413"/>
-      <c r="V28" s="413"/>
-      <c r="W28" s="413"/>
-      <c r="X28" s="413"/>
-      <c r="Y28" s="413"/>
-      <c r="Z28" s="413"/>
-      <c r="AA28" s="413"/>
-      <c r="AB28" s="413"/>
-      <c r="AC28" s="413"/>
-      <c r="AD28" s="413"/>
-      <c r="AE28" s="413"/>
-      <c r="AF28" s="413"/>
-      <c r="AG28" s="413"/>
-      <c r="AH28" s="413"/>
-      <c r="AI28" s="413"/>
-      <c r="AJ28" s="413"/>
-      <c r="AK28" s="413"/>
-      <c r="AL28" s="413"/>
-      <c r="AM28" s="413"/>
-      <c r="AN28" s="413"/>
-      <c r="AO28" s="413"/>
-      <c r="AP28" s="413"/>
-      <c r="AQ28" s="413"/>
-      <c r="AR28" s="413"/>
+      <c r="I28" s="419"/>
+      <c r="J28" s="419"/>
+      <c r="K28" s="419"/>
+      <c r="L28" s="419"/>
+      <c r="M28" s="419"/>
+      <c r="N28" s="419"/>
+      <c r="O28" s="419"/>
+      <c r="P28" s="419"/>
+      <c r="Q28" s="419"/>
+      <c r="R28" s="419"/>
+      <c r="S28" s="419"/>
+      <c r="T28" s="419"/>
+      <c r="U28" s="419"/>
+      <c r="V28" s="419"/>
+      <c r="W28" s="419"/>
+      <c r="X28" s="419"/>
+      <c r="Y28" s="419"/>
+      <c r="Z28" s="419"/>
+      <c r="AA28" s="419"/>
+      <c r="AB28" s="419"/>
+      <c r="AC28" s="419"/>
+      <c r="AD28" s="419"/>
+      <c r="AE28" s="419"/>
+      <c r="AF28" s="419"/>
+      <c r="AG28" s="419"/>
+      <c r="AH28" s="419"/>
+      <c r="AI28" s="419"/>
+      <c r="AJ28" s="419"/>
+      <c r="AK28" s="419"/>
+      <c r="AL28" s="419"/>
+      <c r="AM28" s="419"/>
+      <c r="AN28" s="419"/>
+      <c r="AO28" s="419"/>
+      <c r="AP28" s="419"/>
+      <c r="AQ28" s="419"/>
+      <c r="AR28" s="419"/>
     </row>
     <row r="29" spans="1:164" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="355">
-        <v>42736</v>
-      </c>
-      <c r="B29" s="356"/>
+      <c r="A29" s="359">
+        <v>42736</v>
+      </c>
+      <c r="B29" s="360"/>
       <c r="C29" s="307" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D29" s="307" t="s">
         <v>493</v>
@@ -16406,11 +16439,11 @@
       <c r="E29" s="307" t="s">
         <v>494</v>
       </c>
-      <c r="F29" s="351"/>
-      <c r="G29" s="360">
+      <c r="F29" s="352"/>
+      <c r="G29" s="364">
         <v>1</v>
       </c>
-      <c r="H29" s="361"/>
+      <c r="H29" s="365"/>
     </row>
     <row r="30" spans="1:164" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="300">
@@ -16418,7 +16451,7 @@
       </c>
       <c r="B30" s="301"/>
       <c r="C30" s="307" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D30" s="302" t="s">
         <v>489</v>
@@ -16427,7 +16460,7 @@
         <v>490</v>
       </c>
       <c r="F30" s="303"/>
-      <c r="G30" s="372">
+      <c r="G30" s="378">
         <v>1</v>
       </c>
       <c r="H30" s="304"/>
@@ -16689,13 +16722,13 @@
         <v>884</v>
       </c>
       <c r="D5" s="79" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="E5" s="79" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="F5" s="79" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="G5" s="94">
         <v>1</v>
@@ -18141,77 +18174,77 @@
       <c r="T39" s="17"/>
     </row>
     <row r="40" spans="1:20" s="343" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="355">
-        <v>42736</v>
-      </c>
-      <c r="B40" s="351"/>
-      <c r="C40" s="351" t="s">
-        <v>921</v>
-      </c>
-      <c r="D40" s="373" t="s">
-        <v>923</v>
+      <c r="A40" s="359">
+        <v>42736</v>
+      </c>
+      <c r="B40" s="352"/>
+      <c r="C40" s="352" t="s">
+        <v>924</v>
+      </c>
+      <c r="D40" s="379" t="s">
+        <v>926</v>
       </c>
       <c r="E40" s="307" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="F40" s="307" t="s">
-        <v>928</v>
-      </c>
-      <c r="G40" s="360">
+        <v>931</v>
+      </c>
+      <c r="G40" s="364">
         <v>1</v>
       </c>
-      <c r="H40" s="357" t="s">
+      <c r="H40" s="361" t="s">
         <v>489</v>
       </c>
       <c r="I40" s="307" t="s">
         <v>493</v>
       </c>
-      <c r="J40" s="374"/>
-      <c r="K40" s="374"/>
-      <c r="L40" s="374"/>
-      <c r="M40" s="374"/>
-      <c r="N40" s="374"/>
-      <c r="O40" s="374"/>
-      <c r="P40" s="357" t="s">
+      <c r="J40" s="380"/>
+      <c r="K40" s="380"/>
+      <c r="L40" s="380"/>
+      <c r="M40" s="380"/>
+      <c r="N40" s="380"/>
+      <c r="O40" s="380"/>
+      <c r="P40" s="361" t="s">
         <v>26</v>
       </c>
-      <c r="Q40" s="357" t="s">
+      <c r="Q40" s="361" t="s">
         <v>533</v>
       </c>
-      <c r="R40" s="351"/>
-      <c r="S40" s="351"/>
-      <c r="T40" s="375"/>
+      <c r="R40" s="352"/>
+      <c r="S40" s="352"/>
+      <c r="T40" s="381"/>
     </row>
     <row r="41" spans="1:20" s="306" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="300">
         <v>42736</v>
       </c>
-      <c r="B41" s="376"/>
-      <c r="C41" s="376" t="s">
-        <v>921</v>
-      </c>
-      <c r="D41" s="377" t="s">
-        <v>922</v>
+      <c r="B41" s="382"/>
+      <c r="C41" s="382" t="s">
+        <v>924</v>
+      </c>
+      <c r="D41" s="383" t="s">
+        <v>925</v>
       </c>
       <c r="E41" s="307" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="F41" s="307" t="s">
-        <v>929</v>
-      </c>
-      <c r="G41" s="372">
+        <v>932</v>
+      </c>
+      <c r="G41" s="378">
         <v>1</v>
       </c>
       <c r="H41" s="302"/>
       <c r="I41" s="302" t="s">
         <v>489</v>
       </c>
-      <c r="J41" s="378"/>
-      <c r="K41" s="378"/>
-      <c r="L41" s="378"/>
-      <c r="M41" s="378"/>
-      <c r="N41" s="378"/>
-      <c r="O41" s="378"/>
+      <c r="J41" s="384"/>
+      <c r="K41" s="384"/>
+      <c r="L41" s="384"/>
+      <c r="M41" s="384"/>
+      <c r="N41" s="384"/>
+      <c r="O41" s="384"/>
       <c r="P41" s="302" t="s">
         <v>26</v>
       </c>
@@ -19028,161 +19061,161 @@
       <c r="P19" s="98"/>
       <c r="Q19" s="77"/>
     </row>
-    <row r="20" spans="1:17" s="416" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="426">
-        <v>42736</v>
-      </c>
-      <c r="B20" s="427"/>
-      <c r="C20" s="420" t="s">
+    <row r="20" spans="1:17" s="422" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="432">
+        <v>42736</v>
+      </c>
+      <c r="B20" s="433"/>
+      <c r="C20" s="426" t="s">
         <v>884</v>
       </c>
-      <c r="D20" s="420" t="s">
+      <c r="D20" s="426" t="s">
         <v>392</v>
       </c>
-      <c r="E20" s="420" t="s">
-        <v>936</v>
-      </c>
-      <c r="F20" s="428">
+      <c r="E20" s="426" t="s">
+        <v>939</v>
+      </c>
+      <c r="F20" s="434">
         <v>1</v>
       </c>
-      <c r="G20" s="420" t="s">
+      <c r="G20" s="426" t="s">
         <v>609</v>
       </c>
-      <c r="H20" s="420" t="s">
+      <c r="H20" s="426" t="s">
         <v>597</v>
       </c>
-      <c r="I20" s="420" t="s">
+      <c r="I20" s="426" t="s">
         <v>598</v>
       </c>
-      <c r="J20" s="429">
+      <c r="J20" s="435">
         <v>18</v>
       </c>
-      <c r="K20" s="430"/>
-      <c r="L20" s="430"/>
-      <c r="M20" s="430"/>
-      <c r="N20" s="430"/>
-      <c r="O20" s="431" t="s">
+      <c r="K20" s="436"/>
+      <c r="L20" s="436"/>
+      <c r="M20" s="436"/>
+      <c r="N20" s="436"/>
+      <c r="O20" s="437" t="s">
         <v>533</v>
       </c>
-      <c r="P20" s="430"/>
-      <c r="Q20" s="432"/>
-    </row>
-    <row r="21" spans="1:17" s="416" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="426">
-        <v>42736</v>
-      </c>
-      <c r="B21" s="427"/>
-      <c r="C21" s="420" t="s">
+      <c r="P20" s="436"/>
+      <c r="Q20" s="438"/>
+    </row>
+    <row r="21" spans="1:17" s="422" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="432">
+        <v>42736</v>
+      </c>
+      <c r="B21" s="433"/>
+      <c r="C21" s="426" t="s">
         <v>884</v>
       </c>
-      <c r="D21" s="420" t="s">
+      <c r="D21" s="426" t="s">
         <v>392</v>
       </c>
-      <c r="E21" s="420" t="s">
-        <v>937</v>
-      </c>
-      <c r="F21" s="428">
+      <c r="E21" s="426" t="s">
+        <v>940</v>
+      </c>
+      <c r="F21" s="434">
         <v>1</v>
       </c>
-      <c r="G21" s="420" t="s">
+      <c r="G21" s="426" t="s">
         <v>609</v>
       </c>
-      <c r="H21" s="420" t="s">
+      <c r="H21" s="426" t="s">
         <v>597</v>
       </c>
-      <c r="I21" s="420" t="s">
+      <c r="I21" s="426" t="s">
         <v>598</v>
       </c>
-      <c r="J21" s="429">
+      <c r="J21" s="435">
         <v>19</v>
       </c>
-      <c r="K21" s="430"/>
-      <c r="L21" s="430"/>
-      <c r="M21" s="430"/>
-      <c r="N21" s="430"/>
-      <c r="O21" s="431" t="s">
+      <c r="K21" s="436"/>
+      <c r="L21" s="436"/>
+      <c r="M21" s="436"/>
+      <c r="N21" s="436"/>
+      <c r="O21" s="437" t="s">
         <v>533</v>
       </c>
-      <c r="P21" s="430"/>
-      <c r="Q21" s="432"/>
-    </row>
-    <row r="22" spans="1:17" s="416" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="426">
-        <v>42736</v>
-      </c>
-      <c r="B22" s="427"/>
-      <c r="C22" s="420" t="s">
+      <c r="P21" s="436"/>
+      <c r="Q21" s="438"/>
+    </row>
+    <row r="22" spans="1:17" s="422" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="432">
+        <v>42736</v>
+      </c>
+      <c r="B22" s="433"/>
+      <c r="C22" s="426" t="s">
         <v>884</v>
       </c>
-      <c r="D22" s="420" t="s">
+      <c r="D22" s="426" t="s">
+        <v>943</v>
+      </c>
+      <c r="E22" s="426" t="s">
+        <v>939</v>
+      </c>
+      <c r="F22" s="434">
+        <v>1</v>
+      </c>
+      <c r="G22" s="426" t="s">
+        <v>609</v>
+      </c>
+      <c r="H22" s="426" t="s">
+        <v>597</v>
+      </c>
+      <c r="I22" s="426" t="s">
+        <v>942</v>
+      </c>
+      <c r="J22" s="435">
+        <v>1</v>
+      </c>
+      <c r="K22" s="436"/>
+      <c r="L22" s="436"/>
+      <c r="M22" s="436"/>
+      <c r="N22" s="436"/>
+      <c r="O22" s="437" t="s">
+        <v>533</v>
+      </c>
+      <c r="P22" s="436"/>
+      <c r="Q22" s="438"/>
+    </row>
+    <row r="23" spans="1:17" s="422" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="432">
+        <v>42736</v>
+      </c>
+      <c r="B23" s="433"/>
+      <c r="C23" s="426" t="s">
+        <v>884</v>
+      </c>
+      <c r="D23" s="426" t="s">
+        <v>943</v>
+      </c>
+      <c r="E23" s="426" t="s">
         <v>940</v>
       </c>
-      <c r="E22" s="420" t="s">
-        <v>936</v>
-      </c>
-      <c r="F22" s="428">
+      <c r="F23" s="434">
         <v>1</v>
       </c>
-      <c r="G22" s="420" t="s">
+      <c r="G23" s="426" t="s">
         <v>609</v>
       </c>
-      <c r="H22" s="420" t="s">
+      <c r="H23" s="426" t="s">
         <v>597</v>
       </c>
-      <c r="I22" s="420" t="s">
-        <v>939</v>
-      </c>
-      <c r="J22" s="429">
-        <v>1</v>
-      </c>
-      <c r="K22" s="430"/>
-      <c r="L22" s="430"/>
-      <c r="M22" s="430"/>
-      <c r="N22" s="430"/>
-      <c r="O22" s="431" t="s">
+      <c r="I23" s="426" t="s">
+        <v>942</v>
+      </c>
+      <c r="J23" s="435">
+        <v>2</v>
+      </c>
+      <c r="K23" s="436"/>
+      <c r="L23" s="436"/>
+      <c r="M23" s="436"/>
+      <c r="N23" s="436"/>
+      <c r="O23" s="437" t="s">
         <v>533</v>
       </c>
-      <c r="P22" s="430"/>
-      <c r="Q22" s="432"/>
-    </row>
-    <row r="23" spans="1:17" s="416" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="426">
-        <v>42736</v>
-      </c>
-      <c r="B23" s="427"/>
-      <c r="C23" s="420" t="s">
-        <v>884</v>
-      </c>
-      <c r="D23" s="420" t="s">
-        <v>940</v>
-      </c>
-      <c r="E23" s="420" t="s">
-        <v>937</v>
-      </c>
-      <c r="F23" s="428">
-        <v>1</v>
-      </c>
-      <c r="G23" s="420" t="s">
-        <v>609</v>
-      </c>
-      <c r="H23" s="420" t="s">
-        <v>597</v>
-      </c>
-      <c r="I23" s="420" t="s">
-        <v>939</v>
-      </c>
-      <c r="J23" s="429">
-        <v>2</v>
-      </c>
-      <c r="K23" s="430"/>
-      <c r="L23" s="430"/>
-      <c r="M23" s="430"/>
-      <c r="N23" s="430"/>
-      <c r="O23" s="431" t="s">
-        <v>533</v>
-      </c>
-      <c r="P23" s="430"/>
-      <c r="Q23" s="432"/>
+      <c r="P23" s="436"/>
+      <c r="Q23" s="438"/>
     </row>
     <row r="24" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="74">
@@ -19616,20 +19649,20 @@
       <c r="Q34" s="78"/>
     </row>
     <row r="35" spans="1:17" s="343" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="355">
-        <v>42736</v>
-      </c>
-      <c r="B35" s="356"/>
+      <c r="A35" s="359">
+        <v>42736</v>
+      </c>
+      <c r="B35" s="360"/>
       <c r="C35" s="307" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D35" s="307" t="s">
-        <v>922</v>
-      </c>
-      <c r="E35" s="357" t="s">
+        <v>925</v>
+      </c>
+      <c r="E35" s="361" t="s">
         <v>910</v>
       </c>
-      <c r="F35" s="362">
+      <c r="F35" s="366">
         <v>1</v>
       </c>
       <c r="G35" s="307" t="s">
@@ -19639,36 +19672,36 @@
         <v>610</v>
       </c>
       <c r="I35" s="307" t="s">
-        <v>927</v>
-      </c>
-      <c r="J35" s="360">
+        <v>930</v>
+      </c>
+      <c r="J35" s="364">
         <v>1</v>
       </c>
-      <c r="K35" s="351"/>
-      <c r="L35" s="351"/>
-      <c r="M35" s="351"/>
-      <c r="N35" s="351"/>
-      <c r="O35" s="357" t="s">
+      <c r="K35" s="352"/>
+      <c r="L35" s="352"/>
+      <c r="M35" s="352"/>
+      <c r="N35" s="352"/>
+      <c r="O35" s="361" t="s">
         <v>533</v>
       </c>
-      <c r="P35" s="351"/>
-      <c r="Q35" s="361"/>
+      <c r="P35" s="352"/>
+      <c r="Q35" s="365"/>
     </row>
     <row r="36" spans="1:17" s="343" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="355">
-        <v>42736</v>
-      </c>
-      <c r="B36" s="356"/>
+      <c r="A36" s="359">
+        <v>42736</v>
+      </c>
+      <c r="B36" s="360"/>
       <c r="C36" s="307" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D36" s="307" t="s">
-        <v>922</v>
-      </c>
-      <c r="E36" s="357" t="s">
+        <v>925</v>
+      </c>
+      <c r="E36" s="361" t="s">
         <v>911</v>
       </c>
-      <c r="F36" s="362">
+      <c r="F36" s="366">
         <v>1</v>
       </c>
       <c r="G36" s="307" t="s">
@@ -19678,36 +19711,36 @@
         <v>610</v>
       </c>
       <c r="I36" s="307" t="s">
-        <v>927</v>
-      </c>
-      <c r="J36" s="360">
+        <v>930</v>
+      </c>
+      <c r="J36" s="364">
         <v>2</v>
       </c>
-      <c r="K36" s="351"/>
-      <c r="L36" s="351"/>
-      <c r="M36" s="351"/>
-      <c r="N36" s="351"/>
-      <c r="O36" s="357" t="s">
+      <c r="K36" s="352"/>
+      <c r="L36" s="352"/>
+      <c r="M36" s="352"/>
+      <c r="N36" s="352"/>
+      <c r="O36" s="361" t="s">
         <v>533</v>
       </c>
-      <c r="P36" s="351"/>
-      <c r="Q36" s="361"/>
+      <c r="P36" s="352"/>
+      <c r="Q36" s="365"/>
     </row>
     <row r="37" spans="1:17" s="343" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="355">
-        <v>42736</v>
-      </c>
-      <c r="B37" s="356"/>
+      <c r="A37" s="359">
+        <v>42736</v>
+      </c>
+      <c r="B37" s="360"/>
       <c r="C37" s="307" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D37" s="307" t="s">
-        <v>923</v>
-      </c>
-      <c r="E37" s="357" t="s">
+        <v>926</v>
+      </c>
+      <c r="E37" s="361" t="s">
         <v>910</v>
       </c>
-      <c r="F37" s="362">
+      <c r="F37" s="366">
         <v>1</v>
       </c>
       <c r="G37" s="307" t="s">
@@ -19717,36 +19750,36 @@
         <v>610</v>
       </c>
       <c r="I37" s="307" t="s">
+        <v>929</v>
+      </c>
+      <c r="J37" s="364">
+        <v>1</v>
+      </c>
+      <c r="K37" s="352"/>
+      <c r="L37" s="352"/>
+      <c r="M37" s="352"/>
+      <c r="N37" s="352"/>
+      <c r="O37" s="361" t="s">
+        <v>533</v>
+      </c>
+      <c r="P37" s="352"/>
+      <c r="Q37" s="365"/>
+    </row>
+    <row r="38" spans="1:17" s="343" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="359">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="360"/>
+      <c r="C38" s="307" t="s">
+        <v>924</v>
+      </c>
+      <c r="D38" s="307" t="s">
         <v>926</v>
       </c>
-      <c r="J37" s="360">
-        <v>1</v>
-      </c>
-      <c r="K37" s="351"/>
-      <c r="L37" s="351"/>
-      <c r="M37" s="351"/>
-      <c r="N37" s="351"/>
-      <c r="O37" s="357" t="s">
-        <v>533</v>
-      </c>
-      <c r="P37" s="351"/>
-      <c r="Q37" s="361"/>
-    </row>
-    <row r="38" spans="1:17" s="343" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="355">
-        <v>42736</v>
-      </c>
-      <c r="B38" s="356"/>
-      <c r="C38" s="307" t="s">
-        <v>921</v>
-      </c>
-      <c r="D38" s="307" t="s">
-        <v>923</v>
-      </c>
-      <c r="E38" s="357" t="s">
+      <c r="E38" s="361" t="s">
         <v>911</v>
       </c>
-      <c r="F38" s="362">
+      <c r="F38" s="366">
         <v>1</v>
       </c>
       <c r="G38" s="307" t="s">
@@ -19756,20 +19789,20 @@
         <v>610</v>
       </c>
       <c r="I38" s="307" t="s">
-        <v>926</v>
-      </c>
-      <c r="J38" s="360">
+        <v>929</v>
+      </c>
+      <c r="J38" s="364">
         <v>2</v>
       </c>
-      <c r="K38" s="351"/>
-      <c r="L38" s="351"/>
-      <c r="M38" s="351"/>
-      <c r="N38" s="351"/>
-      <c r="O38" s="357" t="s">
+      <c r="K38" s="352"/>
+      <c r="L38" s="352"/>
+      <c r="M38" s="352"/>
+      <c r="N38" s="352"/>
+      <c r="O38" s="361" t="s">
         <v>533</v>
       </c>
-      <c r="P38" s="351"/>
-      <c r="Q38" s="361"/>
+      <c r="P38" s="352"/>
+      <c r="Q38" s="365"/>
     </row>
     <row r="39" spans="1:17" s="343" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="74">
@@ -25471,34 +25504,34 @@
       <c r="H47" s="92"/>
     </row>
     <row r="48" spans="1:8" s="306" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="380">
-        <v>42736</v>
-      </c>
-      <c r="B48" s="380"/>
-      <c r="C48" s="381" t="s">
-        <v>921</v>
-      </c>
-      <c r="D48" s="382" t="s">
+      <c r="A48" s="386">
+        <v>42736</v>
+      </c>
+      <c r="B48" s="386"/>
+      <c r="C48" s="387" t="s">
+        <v>924</v>
+      </c>
+      <c r="D48" s="388" t="s">
         <v>910</v>
       </c>
-      <c r="E48" s="382" t="s">
-        <v>918</v>
-      </c>
-      <c r="F48" s="381" t="s">
-        <v>931</v>
-      </c>
-      <c r="G48" s="383">
+      <c r="E48" s="388" t="s">
+        <v>919</v>
+      </c>
+      <c r="F48" s="387" t="s">
+        <v>934</v>
+      </c>
+      <c r="G48" s="389">
         <v>1</v>
       </c>
-      <c r="H48" s="381"/>
+      <c r="H48" s="387"/>
     </row>
     <row r="49" spans="1:8" s="306" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="384">
-        <v>42736</v>
-      </c>
-      <c r="B49" s="384"/>
-      <c r="C49" s="385" t="s">
-        <v>921</v>
+      <c r="A49" s="390">
+        <v>42736</v>
+      </c>
+      <c r="B49" s="390"/>
+      <c r="C49" s="391" t="s">
+        <v>924</v>
       </c>
       <c r="D49" s="346" t="s">
         <v>911</v>
@@ -25506,35 +25539,35 @@
       <c r="E49" s="346" t="s">
         <v>917</v>
       </c>
-      <c r="F49" s="385" t="s">
-        <v>930</v>
-      </c>
-      <c r="G49" s="386">
+      <c r="F49" s="391" t="s">
+        <v>933</v>
+      </c>
+      <c r="G49" s="392">
         <v>2</v>
       </c>
-      <c r="H49" s="385"/>
+      <c r="H49" s="391"/>
     </row>
     <row r="50" spans="1:8" s="306" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="380">
-        <v>42736</v>
-      </c>
-      <c r="B50" s="380"/>
-      <c r="C50" s="381" t="s">
-        <v>921</v>
-      </c>
-      <c r="D50" s="382" t="s">
+      <c r="A50" s="386">
+        <v>42736</v>
+      </c>
+      <c r="B50" s="386"/>
+      <c r="C50" s="387" t="s">
+        <v>924</v>
+      </c>
+      <c r="D50" s="388" t="s">
         <v>911</v>
       </c>
-      <c r="E50" s="382" t="s">
+      <c r="E50" s="388" t="s">
         <v>915</v>
       </c>
-      <c r="F50" s="381" t="s">
-        <v>932</v>
-      </c>
-      <c r="G50" s="383">
+      <c r="F50" s="387" t="s">
+        <v>935</v>
+      </c>
+      <c r="G50" s="389">
         <v>3</v>
       </c>
-      <c r="H50" s="381"/>
+      <c r="H50" s="387"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -26254,274 +26287,274 @@
       <c r="I33" s="17"/>
     </row>
     <row r="34" spans="1:123" s="306" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="387">
-        <v>42736</v>
-      </c>
-      <c r="B34" s="388"/>
-      <c r="C34" s="389" t="s">
-        <v>921</v>
-      </c>
-      <c r="D34" s="389" t="s">
+      <c r="A34" s="393">
+        <v>42736</v>
+      </c>
+      <c r="B34" s="394"/>
+      <c r="C34" s="395" t="s">
+        <v>924</v>
+      </c>
+      <c r="D34" s="395" t="s">
         <v>910</v>
       </c>
-      <c r="E34" s="390" t="s">
+      <c r="E34" s="396" t="s">
         <v>910</v>
       </c>
-      <c r="F34" s="390"/>
-      <c r="G34" s="391">
+      <c r="F34" s="396"/>
+      <c r="G34" s="397">
         <v>1</v>
       </c>
-      <c r="H34" s="413"/>
-      <c r="I34" s="413"/>
-      <c r="J34" s="413"/>
-      <c r="K34" s="413"/>
-      <c r="L34" s="413"/>
-      <c r="M34" s="413"/>
-      <c r="N34" s="413"/>
-      <c r="O34" s="413"/>
-      <c r="P34" s="413"/>
-      <c r="Q34" s="413"/>
-      <c r="R34" s="413"/>
-      <c r="S34" s="413"/>
-      <c r="T34" s="413"/>
-      <c r="U34" s="413"/>
-      <c r="V34" s="413"/>
-      <c r="W34" s="413"/>
-      <c r="X34" s="413"/>
-      <c r="Y34" s="413"/>
-      <c r="Z34" s="413"/>
-      <c r="AA34" s="413"/>
-      <c r="AB34" s="413"/>
-      <c r="AC34" s="413"/>
-      <c r="AD34" s="413"/>
-      <c r="AE34" s="413"/>
-      <c r="AF34" s="413"/>
-      <c r="AG34" s="413"/>
-      <c r="AH34" s="413"/>
-      <c r="AI34" s="413"/>
-      <c r="AJ34" s="413"/>
-      <c r="AK34" s="413"/>
-      <c r="AL34" s="413"/>
-      <c r="AM34" s="413"/>
-      <c r="AN34" s="413"/>
-      <c r="AO34" s="413"/>
-      <c r="AP34" s="413"/>
-      <c r="AQ34" s="413"/>
-      <c r="AR34" s="413"/>
-      <c r="AS34" s="413"/>
-      <c r="AT34" s="413"/>
-      <c r="AU34" s="413"/>
-      <c r="AV34" s="413"/>
-      <c r="AW34" s="413"/>
-      <c r="AX34" s="413"/>
-      <c r="AY34" s="413"/>
-      <c r="AZ34" s="413"/>
-      <c r="BA34" s="413"/>
-      <c r="BB34" s="413"/>
-      <c r="BC34" s="413"/>
-      <c r="BD34" s="413"/>
-      <c r="BE34" s="413"/>
-      <c r="BF34" s="413"/>
-      <c r="BG34" s="413"/>
-      <c r="BH34" s="413"/>
-      <c r="BI34" s="413"/>
-      <c r="BJ34" s="413"/>
-      <c r="BK34" s="413"/>
-      <c r="BL34" s="413"/>
-      <c r="BM34" s="413"/>
-      <c r="BN34" s="413"/>
-      <c r="BO34" s="413"/>
-      <c r="BP34" s="413"/>
-      <c r="BQ34" s="413"/>
-      <c r="BR34" s="413"/>
-      <c r="BS34" s="413"/>
-      <c r="BT34" s="413"/>
-      <c r="BU34" s="413"/>
-      <c r="BV34" s="413"/>
-      <c r="BW34" s="413"/>
-      <c r="BX34" s="413"/>
-      <c r="BY34" s="413"/>
-      <c r="BZ34" s="413"/>
-      <c r="CA34" s="413"/>
-      <c r="CB34" s="413"/>
-      <c r="CC34" s="413"/>
-      <c r="CD34" s="413"/>
-      <c r="CE34" s="413"/>
-      <c r="CF34" s="413"/>
-      <c r="CG34" s="413"/>
-      <c r="CH34" s="413"/>
-      <c r="CI34" s="413"/>
-      <c r="CJ34" s="413"/>
-      <c r="CK34" s="413"/>
-      <c r="CL34" s="413"/>
-      <c r="CM34" s="413"/>
-      <c r="CN34" s="413"/>
-      <c r="CO34" s="413"/>
-      <c r="CP34" s="413"/>
-      <c r="CQ34" s="413"/>
-      <c r="CR34" s="413"/>
-      <c r="CS34" s="413"/>
-      <c r="CT34" s="413"/>
-      <c r="CU34" s="413"/>
-      <c r="CV34" s="413"/>
-      <c r="CW34" s="413"/>
-      <c r="CX34" s="413"/>
-      <c r="CY34" s="413"/>
-      <c r="CZ34" s="413"/>
-      <c r="DA34" s="413"/>
-      <c r="DB34" s="413"/>
-      <c r="DC34" s="413"/>
-      <c r="DD34" s="413"/>
-      <c r="DE34" s="413"/>
-      <c r="DF34" s="413"/>
-      <c r="DG34" s="413"/>
-      <c r="DH34" s="413"/>
-      <c r="DI34" s="413"/>
-      <c r="DJ34" s="413"/>
-      <c r="DK34" s="413"/>
-      <c r="DL34" s="413"/>
-      <c r="DM34" s="413"/>
-      <c r="DN34" s="413"/>
-      <c r="DO34" s="413"/>
-      <c r="DP34" s="413"/>
-      <c r="DQ34" s="413"/>
-      <c r="DR34" s="413"/>
-      <c r="DS34" s="413"/>
+      <c r="H34" s="419"/>
+      <c r="I34" s="419"/>
+      <c r="J34" s="419"/>
+      <c r="K34" s="419"/>
+      <c r="L34" s="419"/>
+      <c r="M34" s="419"/>
+      <c r="N34" s="419"/>
+      <c r="O34" s="419"/>
+      <c r="P34" s="419"/>
+      <c r="Q34" s="419"/>
+      <c r="R34" s="419"/>
+      <c r="S34" s="419"/>
+      <c r="T34" s="419"/>
+      <c r="U34" s="419"/>
+      <c r="V34" s="419"/>
+      <c r="W34" s="419"/>
+      <c r="X34" s="419"/>
+      <c r="Y34" s="419"/>
+      <c r="Z34" s="419"/>
+      <c r="AA34" s="419"/>
+      <c r="AB34" s="419"/>
+      <c r="AC34" s="419"/>
+      <c r="AD34" s="419"/>
+      <c r="AE34" s="419"/>
+      <c r="AF34" s="419"/>
+      <c r="AG34" s="419"/>
+      <c r="AH34" s="419"/>
+      <c r="AI34" s="419"/>
+      <c r="AJ34" s="419"/>
+      <c r="AK34" s="419"/>
+      <c r="AL34" s="419"/>
+      <c r="AM34" s="419"/>
+      <c r="AN34" s="419"/>
+      <c r="AO34" s="419"/>
+      <c r="AP34" s="419"/>
+      <c r="AQ34" s="419"/>
+      <c r="AR34" s="419"/>
+      <c r="AS34" s="419"/>
+      <c r="AT34" s="419"/>
+      <c r="AU34" s="419"/>
+      <c r="AV34" s="419"/>
+      <c r="AW34" s="419"/>
+      <c r="AX34" s="419"/>
+      <c r="AY34" s="419"/>
+      <c r="AZ34" s="419"/>
+      <c r="BA34" s="419"/>
+      <c r="BB34" s="419"/>
+      <c r="BC34" s="419"/>
+      <c r="BD34" s="419"/>
+      <c r="BE34" s="419"/>
+      <c r="BF34" s="419"/>
+      <c r="BG34" s="419"/>
+      <c r="BH34" s="419"/>
+      <c r="BI34" s="419"/>
+      <c r="BJ34" s="419"/>
+      <c r="BK34" s="419"/>
+      <c r="BL34" s="419"/>
+      <c r="BM34" s="419"/>
+      <c r="BN34" s="419"/>
+      <c r="BO34" s="419"/>
+      <c r="BP34" s="419"/>
+      <c r="BQ34" s="419"/>
+      <c r="BR34" s="419"/>
+      <c r="BS34" s="419"/>
+      <c r="BT34" s="419"/>
+      <c r="BU34" s="419"/>
+      <c r="BV34" s="419"/>
+      <c r="BW34" s="419"/>
+      <c r="BX34" s="419"/>
+      <c r="BY34" s="419"/>
+      <c r="BZ34" s="419"/>
+      <c r="CA34" s="419"/>
+      <c r="CB34" s="419"/>
+      <c r="CC34" s="419"/>
+      <c r="CD34" s="419"/>
+      <c r="CE34" s="419"/>
+      <c r="CF34" s="419"/>
+      <c r="CG34" s="419"/>
+      <c r="CH34" s="419"/>
+      <c r="CI34" s="419"/>
+      <c r="CJ34" s="419"/>
+      <c r="CK34" s="419"/>
+      <c r="CL34" s="419"/>
+      <c r="CM34" s="419"/>
+      <c r="CN34" s="419"/>
+      <c r="CO34" s="419"/>
+      <c r="CP34" s="419"/>
+      <c r="CQ34" s="419"/>
+      <c r="CR34" s="419"/>
+      <c r="CS34" s="419"/>
+      <c r="CT34" s="419"/>
+      <c r="CU34" s="419"/>
+      <c r="CV34" s="419"/>
+      <c r="CW34" s="419"/>
+      <c r="CX34" s="419"/>
+      <c r="CY34" s="419"/>
+      <c r="CZ34" s="419"/>
+      <c r="DA34" s="419"/>
+      <c r="DB34" s="419"/>
+      <c r="DC34" s="419"/>
+      <c r="DD34" s="419"/>
+      <c r="DE34" s="419"/>
+      <c r="DF34" s="419"/>
+      <c r="DG34" s="419"/>
+      <c r="DH34" s="419"/>
+      <c r="DI34" s="419"/>
+      <c r="DJ34" s="419"/>
+      <c r="DK34" s="419"/>
+      <c r="DL34" s="419"/>
+      <c r="DM34" s="419"/>
+      <c r="DN34" s="419"/>
+      <c r="DO34" s="419"/>
+      <c r="DP34" s="419"/>
+      <c r="DQ34" s="419"/>
+      <c r="DR34" s="419"/>
+      <c r="DS34" s="419"/>
     </row>
     <row r="35" spans="1:123" s="306" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="387">
-        <v>42736</v>
-      </c>
-      <c r="B35" s="388"/>
-      <c r="C35" s="389" t="s">
-        <v>921</v>
-      </c>
-      <c r="D35" s="389" t="s">
+      <c r="A35" s="393">
+        <v>42736</v>
+      </c>
+      <c r="B35" s="394"/>
+      <c r="C35" s="395" t="s">
+        <v>924</v>
+      </c>
+      <c r="D35" s="395" t="s">
         <v>911</v>
       </c>
-      <c r="E35" s="390" t="s">
+      <c r="E35" s="396" t="s">
         <v>911</v>
       </c>
-      <c r="F35" s="390"/>
-      <c r="G35" s="391">
+      <c r="F35" s="396"/>
+      <c r="G35" s="397">
         <v>2</v>
       </c>
-      <c r="H35" s="413"/>
-      <c r="I35" s="413"/>
-      <c r="J35" s="413"/>
-      <c r="K35" s="413"/>
-      <c r="L35" s="413"/>
-      <c r="M35" s="413"/>
-      <c r="N35" s="413"/>
-      <c r="O35" s="413"/>
-      <c r="P35" s="413"/>
-      <c r="Q35" s="413"/>
-      <c r="R35" s="413"/>
-      <c r="S35" s="413"/>
-      <c r="T35" s="413"/>
-      <c r="U35" s="413"/>
-      <c r="V35" s="413"/>
-      <c r="W35" s="413"/>
-      <c r="X35" s="413"/>
-      <c r="Y35" s="413"/>
-      <c r="Z35" s="413"/>
-      <c r="AA35" s="413"/>
-      <c r="AB35" s="413"/>
-      <c r="AC35" s="413"/>
-      <c r="AD35" s="413"/>
-      <c r="AE35" s="413"/>
-      <c r="AF35" s="413"/>
-      <c r="AG35" s="413"/>
-      <c r="AH35" s="413"/>
-      <c r="AI35" s="413"/>
-      <c r="AJ35" s="413"/>
-      <c r="AK35" s="413"/>
-      <c r="AL35" s="413"/>
-      <c r="AM35" s="413"/>
-      <c r="AN35" s="413"/>
-      <c r="AO35" s="413"/>
-      <c r="AP35" s="413"/>
-      <c r="AQ35" s="413"/>
-      <c r="AR35" s="413"/>
-      <c r="AS35" s="413"/>
-      <c r="AT35" s="413"/>
-      <c r="AU35" s="413"/>
-      <c r="AV35" s="413"/>
-      <c r="AW35" s="413"/>
-      <c r="AX35" s="413"/>
-      <c r="AY35" s="413"/>
-      <c r="AZ35" s="413"/>
-      <c r="BA35" s="413"/>
-      <c r="BB35" s="413"/>
-      <c r="BC35" s="413"/>
-      <c r="BD35" s="413"/>
-      <c r="BE35" s="413"/>
-      <c r="BF35" s="413"/>
-      <c r="BG35" s="413"/>
-      <c r="BH35" s="413"/>
-      <c r="BI35" s="413"/>
-      <c r="BJ35" s="413"/>
-      <c r="BK35" s="413"/>
-      <c r="BL35" s="413"/>
-      <c r="BM35" s="413"/>
-      <c r="BN35" s="413"/>
-      <c r="BO35" s="413"/>
-      <c r="BP35" s="413"/>
-      <c r="BQ35" s="413"/>
-      <c r="BR35" s="413"/>
-      <c r="BS35" s="413"/>
-      <c r="BT35" s="413"/>
-      <c r="BU35" s="413"/>
-      <c r="BV35" s="413"/>
-      <c r="BW35" s="413"/>
-      <c r="BX35" s="413"/>
-      <c r="BY35" s="413"/>
-      <c r="BZ35" s="413"/>
-      <c r="CA35" s="413"/>
-      <c r="CB35" s="413"/>
-      <c r="CC35" s="413"/>
-      <c r="CD35" s="413"/>
-      <c r="CE35" s="413"/>
-      <c r="CF35" s="413"/>
-      <c r="CG35" s="413"/>
-      <c r="CH35" s="413"/>
-      <c r="CI35" s="413"/>
-      <c r="CJ35" s="413"/>
-      <c r="CK35" s="413"/>
-      <c r="CL35" s="413"/>
-      <c r="CM35" s="413"/>
-      <c r="CN35" s="413"/>
-      <c r="CO35" s="413"/>
-      <c r="CP35" s="413"/>
-      <c r="CQ35" s="413"/>
-      <c r="CR35" s="413"/>
-      <c r="CS35" s="413"/>
-      <c r="CT35" s="413"/>
-      <c r="CU35" s="413"/>
-      <c r="CV35" s="413"/>
-      <c r="CW35" s="413"/>
-      <c r="CX35" s="413"/>
-      <c r="CY35" s="413"/>
-      <c r="CZ35" s="413"/>
-      <c r="DA35" s="413"/>
-      <c r="DB35" s="413"/>
-      <c r="DC35" s="413"/>
-      <c r="DD35" s="413"/>
-      <c r="DE35" s="413"/>
-      <c r="DF35" s="413"/>
-      <c r="DG35" s="413"/>
-      <c r="DH35" s="413"/>
-      <c r="DI35" s="413"/>
-      <c r="DJ35" s="413"/>
-      <c r="DK35" s="413"/>
-      <c r="DL35" s="413"/>
-      <c r="DM35" s="413"/>
-      <c r="DN35" s="413"/>
-      <c r="DO35" s="413"/>
-      <c r="DP35" s="413"/>
-      <c r="DQ35" s="413"/>
-      <c r="DR35" s="413"/>
-      <c r="DS35" s="413"/>
+      <c r="H35" s="419"/>
+      <c r="I35" s="419"/>
+      <c r="J35" s="419"/>
+      <c r="K35" s="419"/>
+      <c r="L35" s="419"/>
+      <c r="M35" s="419"/>
+      <c r="N35" s="419"/>
+      <c r="O35" s="419"/>
+      <c r="P35" s="419"/>
+      <c r="Q35" s="419"/>
+      <c r="R35" s="419"/>
+      <c r="S35" s="419"/>
+      <c r="T35" s="419"/>
+      <c r="U35" s="419"/>
+      <c r="V35" s="419"/>
+      <c r="W35" s="419"/>
+      <c r="X35" s="419"/>
+      <c r="Y35" s="419"/>
+      <c r="Z35" s="419"/>
+      <c r="AA35" s="419"/>
+      <c r="AB35" s="419"/>
+      <c r="AC35" s="419"/>
+      <c r="AD35" s="419"/>
+      <c r="AE35" s="419"/>
+      <c r="AF35" s="419"/>
+      <c r="AG35" s="419"/>
+      <c r="AH35" s="419"/>
+      <c r="AI35" s="419"/>
+      <c r="AJ35" s="419"/>
+      <c r="AK35" s="419"/>
+      <c r="AL35" s="419"/>
+      <c r="AM35" s="419"/>
+      <c r="AN35" s="419"/>
+      <c r="AO35" s="419"/>
+      <c r="AP35" s="419"/>
+      <c r="AQ35" s="419"/>
+      <c r="AR35" s="419"/>
+      <c r="AS35" s="419"/>
+      <c r="AT35" s="419"/>
+      <c r="AU35" s="419"/>
+      <c r="AV35" s="419"/>
+      <c r="AW35" s="419"/>
+      <c r="AX35" s="419"/>
+      <c r="AY35" s="419"/>
+      <c r="AZ35" s="419"/>
+      <c r="BA35" s="419"/>
+      <c r="BB35" s="419"/>
+      <c r="BC35" s="419"/>
+      <c r="BD35" s="419"/>
+      <c r="BE35" s="419"/>
+      <c r="BF35" s="419"/>
+      <c r="BG35" s="419"/>
+      <c r="BH35" s="419"/>
+      <c r="BI35" s="419"/>
+      <c r="BJ35" s="419"/>
+      <c r="BK35" s="419"/>
+      <c r="BL35" s="419"/>
+      <c r="BM35" s="419"/>
+      <c r="BN35" s="419"/>
+      <c r="BO35" s="419"/>
+      <c r="BP35" s="419"/>
+      <c r="BQ35" s="419"/>
+      <c r="BR35" s="419"/>
+      <c r="BS35" s="419"/>
+      <c r="BT35" s="419"/>
+      <c r="BU35" s="419"/>
+      <c r="BV35" s="419"/>
+      <c r="BW35" s="419"/>
+      <c r="BX35" s="419"/>
+      <c r="BY35" s="419"/>
+      <c r="BZ35" s="419"/>
+      <c r="CA35" s="419"/>
+      <c r="CB35" s="419"/>
+      <c r="CC35" s="419"/>
+      <c r="CD35" s="419"/>
+      <c r="CE35" s="419"/>
+      <c r="CF35" s="419"/>
+      <c r="CG35" s="419"/>
+      <c r="CH35" s="419"/>
+      <c r="CI35" s="419"/>
+      <c r="CJ35" s="419"/>
+      <c r="CK35" s="419"/>
+      <c r="CL35" s="419"/>
+      <c r="CM35" s="419"/>
+      <c r="CN35" s="419"/>
+      <c r="CO35" s="419"/>
+      <c r="CP35" s="419"/>
+      <c r="CQ35" s="419"/>
+      <c r="CR35" s="419"/>
+      <c r="CS35" s="419"/>
+      <c r="CT35" s="419"/>
+      <c r="CU35" s="419"/>
+      <c r="CV35" s="419"/>
+      <c r="CW35" s="419"/>
+      <c r="CX35" s="419"/>
+      <c r="CY35" s="419"/>
+      <c r="CZ35" s="419"/>
+      <c r="DA35" s="419"/>
+      <c r="DB35" s="419"/>
+      <c r="DC35" s="419"/>
+      <c r="DD35" s="419"/>
+      <c r="DE35" s="419"/>
+      <c r="DF35" s="419"/>
+      <c r="DG35" s="419"/>
+      <c r="DH35" s="419"/>
+      <c r="DI35" s="419"/>
+      <c r="DJ35" s="419"/>
+      <c r="DK35" s="419"/>
+      <c r="DL35" s="419"/>
+      <c r="DM35" s="419"/>
+      <c r="DN35" s="419"/>
+      <c r="DO35" s="419"/>
+      <c r="DP35" s="419"/>
+      <c r="DQ35" s="419"/>
+      <c r="DR35" s="419"/>
+      <c r="DS35" s="419"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -27580,70 +27613,70 @@
       <c r="H49" s="101"/>
     </row>
     <row r="50" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="394">
-        <v>42736</v>
-      </c>
-      <c r="B50" s="380"/>
-      <c r="C50" s="395" t="s">
-        <v>921</v>
-      </c>
-      <c r="D50" s="396" t="s">
+      <c r="A50" s="400">
+        <v>42736</v>
+      </c>
+      <c r="B50" s="386"/>
+      <c r="C50" s="401" t="s">
+        <v>924</v>
+      </c>
+      <c r="D50" s="402" t="s">
         <v>910</v>
       </c>
-      <c r="E50" s="396" t="s">
-        <v>918</v>
-      </c>
-      <c r="F50" s="381" t="s">
-        <v>931</v>
-      </c>
-      <c r="G50" s="397">
+      <c r="E50" s="402" t="s">
+        <v>919</v>
+      </c>
+      <c r="F50" s="387" t="s">
+        <v>934</v>
+      </c>
+      <c r="G50" s="403">
         <v>1</v>
       </c>
-      <c r="H50" s="381"/>
+      <c r="H50" s="387"/>
     </row>
     <row r="51" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="394">
-        <v>42736</v>
-      </c>
-      <c r="B51" s="384"/>
-      <c r="C51" s="395" t="s">
-        <v>921</v>
-      </c>
-      <c r="D51" s="396" t="s">
+      <c r="A51" s="400">
+        <v>42736</v>
+      </c>
+      <c r="B51" s="390"/>
+      <c r="C51" s="401" t="s">
+        <v>924</v>
+      </c>
+      <c r="D51" s="402" t="s">
         <v>911</v>
       </c>
-      <c r="E51" s="396" t="s">
+      <c r="E51" s="402" t="s">
         <v>917</v>
       </c>
-      <c r="F51" s="385" t="s">
-        <v>930</v>
-      </c>
-      <c r="G51" s="397">
+      <c r="F51" s="391" t="s">
+        <v>933</v>
+      </c>
+      <c r="G51" s="403">
         <v>2</v>
       </c>
-      <c r="H51" s="385"/>
+      <c r="H51" s="391"/>
     </row>
     <row r="52" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="398">
-        <v>42736</v>
-      </c>
-      <c r="B52" s="392"/>
-      <c r="C52" s="390" t="s">
-        <v>921</v>
-      </c>
-      <c r="D52" s="389" t="s">
+      <c r="A52" s="404">
+        <v>42736</v>
+      </c>
+      <c r="B52" s="398"/>
+      <c r="C52" s="396" t="s">
+        <v>924</v>
+      </c>
+      <c r="D52" s="395" t="s">
         <v>911</v>
       </c>
-      <c r="E52" s="389" t="s">
+      <c r="E52" s="395" t="s">
         <v>915</v>
       </c>
-      <c r="F52" s="393" t="s">
-        <v>932</v>
-      </c>
-      <c r="G52" s="391">
+      <c r="F52" s="399" t="s">
+        <v>935</v>
+      </c>
+      <c r="G52" s="397">
         <v>3</v>
       </c>
-      <c r="H52" s="393"/>
+      <c r="H52" s="399"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -28766,156 +28799,156 @@
       <c r="K50" s="19"/>
     </row>
     <row r="51" spans="1:64" s="306" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="399">
-        <v>42736</v>
-      </c>
-      <c r="B51" s="400"/>
-      <c r="C51" s="401" t="s">
-        <v>921</v>
-      </c>
-      <c r="D51" s="401" t="s">
+      <c r="A51" s="405">
+        <v>42736</v>
+      </c>
+      <c r="B51" s="406"/>
+      <c r="C51" s="407" t="s">
+        <v>924</v>
+      </c>
+      <c r="D51" s="407" t="s">
         <v>910</v>
       </c>
-      <c r="E51" s="401"/>
-      <c r="F51" s="401" t="s">
+      <c r="E51" s="407"/>
+      <c r="F51" s="407" t="s">
         <v>910</v>
       </c>
-      <c r="G51" s="402">
+      <c r="G51" s="408">
         <v>1</v>
       </c>
-      <c r="H51" s="401"/>
-      <c r="I51" s="401"/>
-      <c r="J51" s="413"/>
-      <c r="K51" s="413"/>
-      <c r="L51" s="413"/>
-      <c r="M51" s="413"/>
-      <c r="N51" s="413"/>
-      <c r="O51" s="413"/>
-      <c r="P51" s="413"/>
-      <c r="Q51" s="413"/>
-      <c r="R51" s="413"/>
-      <c r="S51" s="413"/>
-      <c r="T51" s="413"/>
-      <c r="U51" s="413"/>
-      <c r="V51" s="413"/>
-      <c r="W51" s="413"/>
-      <c r="X51" s="413"/>
-      <c r="Y51" s="413"/>
-      <c r="Z51" s="413"/>
-      <c r="AA51" s="413"/>
-      <c r="AB51" s="413"/>
-      <c r="AC51" s="413"/>
-      <c r="AD51" s="413"/>
-      <c r="AE51" s="413"/>
-      <c r="AF51" s="413"/>
-      <c r="AG51" s="413"/>
-      <c r="AH51" s="413"/>
-      <c r="AI51" s="413"/>
-      <c r="AJ51" s="413"/>
-      <c r="AK51" s="413"/>
-      <c r="AL51" s="413"/>
-      <c r="AM51" s="413"/>
-      <c r="AN51" s="413"/>
-      <c r="AO51" s="413"/>
-      <c r="AP51" s="413"/>
-      <c r="AQ51" s="413"/>
-      <c r="AR51" s="413"/>
-      <c r="AS51" s="413"/>
-      <c r="AT51" s="413"/>
-      <c r="AU51" s="413"/>
-      <c r="AV51" s="413"/>
-      <c r="AW51" s="413"/>
-      <c r="AX51" s="413"/>
-      <c r="AY51" s="413"/>
-      <c r="AZ51" s="413"/>
-      <c r="BA51" s="413"/>
-      <c r="BB51" s="413"/>
-      <c r="BC51" s="413"/>
-      <c r="BD51" s="413"/>
-      <c r="BE51" s="413"/>
-      <c r="BF51" s="413"/>
-      <c r="BG51" s="413"/>
-      <c r="BH51" s="413"/>
-      <c r="BI51" s="413"/>
-      <c r="BJ51" s="413"/>
-      <c r="BK51" s="413"/>
-      <c r="BL51" s="413"/>
+      <c r="H51" s="407"/>
+      <c r="I51" s="407"/>
+      <c r="J51" s="419"/>
+      <c r="K51" s="419"/>
+      <c r="L51" s="419"/>
+      <c r="M51" s="419"/>
+      <c r="N51" s="419"/>
+      <c r="O51" s="419"/>
+      <c r="P51" s="419"/>
+      <c r="Q51" s="419"/>
+      <c r="R51" s="419"/>
+      <c r="S51" s="419"/>
+      <c r="T51" s="419"/>
+      <c r="U51" s="419"/>
+      <c r="V51" s="419"/>
+      <c r="W51" s="419"/>
+      <c r="X51" s="419"/>
+      <c r="Y51" s="419"/>
+      <c r="Z51" s="419"/>
+      <c r="AA51" s="419"/>
+      <c r="AB51" s="419"/>
+      <c r="AC51" s="419"/>
+      <c r="AD51" s="419"/>
+      <c r="AE51" s="419"/>
+      <c r="AF51" s="419"/>
+      <c r="AG51" s="419"/>
+      <c r="AH51" s="419"/>
+      <c r="AI51" s="419"/>
+      <c r="AJ51" s="419"/>
+      <c r="AK51" s="419"/>
+      <c r="AL51" s="419"/>
+      <c r="AM51" s="419"/>
+      <c r="AN51" s="419"/>
+      <c r="AO51" s="419"/>
+      <c r="AP51" s="419"/>
+      <c r="AQ51" s="419"/>
+      <c r="AR51" s="419"/>
+      <c r="AS51" s="419"/>
+      <c r="AT51" s="419"/>
+      <c r="AU51" s="419"/>
+      <c r="AV51" s="419"/>
+      <c r="AW51" s="419"/>
+      <c r="AX51" s="419"/>
+      <c r="AY51" s="419"/>
+      <c r="AZ51" s="419"/>
+      <c r="BA51" s="419"/>
+      <c r="BB51" s="419"/>
+      <c r="BC51" s="419"/>
+      <c r="BD51" s="419"/>
+      <c r="BE51" s="419"/>
+      <c r="BF51" s="419"/>
+      <c r="BG51" s="419"/>
+      <c r="BH51" s="419"/>
+      <c r="BI51" s="419"/>
+      <c r="BJ51" s="419"/>
+      <c r="BK51" s="419"/>
+      <c r="BL51" s="419"/>
     </row>
     <row r="52" spans="1:64" s="306" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="403">
-        <v>42736</v>
-      </c>
-      <c r="B52" s="404"/>
-      <c r="C52" s="405" t="s">
-        <v>921</v>
-      </c>
-      <c r="D52" s="405" t="s">
+      <c r="A52" s="409">
+        <v>42736</v>
+      </c>
+      <c r="B52" s="410"/>
+      <c r="C52" s="411" t="s">
+        <v>924</v>
+      </c>
+      <c r="D52" s="411" t="s">
         <v>911</v>
       </c>
-      <c r="E52" s="405"/>
-      <c r="F52" s="405" t="s">
+      <c r="E52" s="411"/>
+      <c r="F52" s="411" t="s">
         <v>911</v>
       </c>
-      <c r="G52" s="406">
+      <c r="G52" s="412">
         <v>2</v>
       </c>
-      <c r="H52" s="405"/>
-      <c r="I52" s="405"/>
-      <c r="J52" s="413"/>
-      <c r="K52" s="413"/>
-      <c r="L52" s="413"/>
-      <c r="M52" s="413"/>
-      <c r="N52" s="413"/>
-      <c r="O52" s="413"/>
-      <c r="P52" s="413"/>
-      <c r="Q52" s="413"/>
-      <c r="R52" s="413"/>
-      <c r="S52" s="413"/>
-      <c r="T52" s="413"/>
-      <c r="U52" s="413"/>
-      <c r="V52" s="413"/>
-      <c r="W52" s="413"/>
-      <c r="X52" s="413"/>
-      <c r="Y52" s="413"/>
-      <c r="Z52" s="413"/>
-      <c r="AA52" s="413"/>
-      <c r="AB52" s="413"/>
-      <c r="AC52" s="413"/>
-      <c r="AD52" s="413"/>
-      <c r="AE52" s="413"/>
-      <c r="AF52" s="413"/>
-      <c r="AG52" s="413"/>
-      <c r="AH52" s="413"/>
-      <c r="AI52" s="413"/>
-      <c r="AJ52" s="413"/>
-      <c r="AK52" s="413"/>
-      <c r="AL52" s="413"/>
-      <c r="AM52" s="413"/>
-      <c r="AN52" s="413"/>
-      <c r="AO52" s="413"/>
-      <c r="AP52" s="413"/>
-      <c r="AQ52" s="413"/>
-      <c r="AR52" s="413"/>
-      <c r="AS52" s="413"/>
-      <c r="AT52" s="413"/>
-      <c r="AU52" s="413"/>
-      <c r="AV52" s="413"/>
-      <c r="AW52" s="413"/>
-      <c r="AX52" s="413"/>
-      <c r="AY52" s="413"/>
-      <c r="AZ52" s="413"/>
-      <c r="BA52" s="413"/>
-      <c r="BB52" s="413"/>
-      <c r="BC52" s="413"/>
-      <c r="BD52" s="413"/>
-      <c r="BE52" s="413"/>
-      <c r="BF52" s="413"/>
-      <c r="BG52" s="413"/>
-      <c r="BH52" s="413"/>
-      <c r="BI52" s="413"/>
-      <c r="BJ52" s="413"/>
-      <c r="BK52" s="413"/>
-      <c r="BL52" s="413"/>
+      <c r="H52" s="411"/>
+      <c r="I52" s="411"/>
+      <c r="J52" s="419"/>
+      <c r="K52" s="419"/>
+      <c r="L52" s="419"/>
+      <c r="M52" s="419"/>
+      <c r="N52" s="419"/>
+      <c r="O52" s="419"/>
+      <c r="P52" s="419"/>
+      <c r="Q52" s="419"/>
+      <c r="R52" s="419"/>
+      <c r="S52" s="419"/>
+      <c r="T52" s="419"/>
+      <c r="U52" s="419"/>
+      <c r="V52" s="419"/>
+      <c r="W52" s="419"/>
+      <c r="X52" s="419"/>
+      <c r="Y52" s="419"/>
+      <c r="Z52" s="419"/>
+      <c r="AA52" s="419"/>
+      <c r="AB52" s="419"/>
+      <c r="AC52" s="419"/>
+      <c r="AD52" s="419"/>
+      <c r="AE52" s="419"/>
+      <c r="AF52" s="419"/>
+      <c r="AG52" s="419"/>
+      <c r="AH52" s="419"/>
+      <c r="AI52" s="419"/>
+      <c r="AJ52" s="419"/>
+      <c r="AK52" s="419"/>
+      <c r="AL52" s="419"/>
+      <c r="AM52" s="419"/>
+      <c r="AN52" s="419"/>
+      <c r="AO52" s="419"/>
+      <c r="AP52" s="419"/>
+      <c r="AQ52" s="419"/>
+      <c r="AR52" s="419"/>
+      <c r="AS52" s="419"/>
+      <c r="AT52" s="419"/>
+      <c r="AU52" s="419"/>
+      <c r="AV52" s="419"/>
+      <c r="AW52" s="419"/>
+      <c r="AX52" s="419"/>
+      <c r="AY52" s="419"/>
+      <c r="AZ52" s="419"/>
+      <c r="BA52" s="419"/>
+      <c r="BB52" s="419"/>
+      <c r="BC52" s="419"/>
+      <c r="BD52" s="419"/>
+      <c r="BE52" s="419"/>
+      <c r="BF52" s="419"/>
+      <c r="BG52" s="419"/>
+      <c r="BH52" s="419"/>
+      <c r="BI52" s="419"/>
+      <c r="BJ52" s="419"/>
+      <c r="BK52" s="419"/>
+      <c r="BL52" s="419"/>
     </row>
   </sheetData>
   <phoneticPr fontId="39" type="noConversion"/>
@@ -29173,7 +29206,7 @@
         <v>884</v>
       </c>
       <c r="D6" s="148" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="E6" s="129" t="s">
         <v>339</v>
@@ -29199,10 +29232,10 @@
         <v>42736</v>
       </c>
       <c r="B8" s="303"/>
-      <c r="C8" s="363" t="s">
-        <v>921</v>
-      </c>
-      <c r="D8" s="379" t="s">
+      <c r="C8" s="367" t="s">
+        <v>924</v>
+      </c>
+      <c r="D8" s="385" t="s">
         <v>778</v>
       </c>
       <c r="E8" s="308" t="s">
@@ -29924,74 +29957,74 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="418">
-        <v>42736</v>
-      </c>
-      <c r="B23" s="419"/>
+      <c r="A23" s="424">
+        <v>42736</v>
+      </c>
+      <c r="B23" s="425"/>
       <c r="C23" s="79" t="s">
         <v>884</v>
       </c>
-      <c r="D23" s="420" t="s">
-        <v>936</v>
-      </c>
-      <c r="E23" s="419" t="s">
+      <c r="D23" s="426" t="s">
+        <v>939</v>
+      </c>
+      <c r="E23" s="425" t="s">
         <v>778</v>
       </c>
-      <c r="F23" s="421" t="s">
+      <c r="F23" s="427" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="418">
-        <v>42736</v>
-      </c>
-      <c r="B24" s="419"/>
+      <c r="A24" s="424">
+        <v>42736</v>
+      </c>
+      <c r="B24" s="425"/>
       <c r="C24" s="79" t="s">
         <v>884</v>
       </c>
-      <c r="D24" s="420" t="s">
-        <v>937</v>
-      </c>
-      <c r="E24" s="419" t="s">
+      <c r="D24" s="426" t="s">
+        <v>940</v>
+      </c>
+      <c r="E24" s="425" t="s">
         <v>778</v>
       </c>
-      <c r="F24" s="421" t="s">
+      <c r="F24" s="427" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="413" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="418">
-        <v>42736</v>
-      </c>
-      <c r="B25" s="419"/>
+    <row r="25" spans="1:6" s="419" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="424">
+        <v>42736</v>
+      </c>
+      <c r="B25" s="425"/>
       <c r="C25" s="79" t="s">
         <v>884</v>
       </c>
-      <c r="D25" s="420" t="s">
-        <v>936</v>
-      </c>
-      <c r="E25" s="419" t="s">
-        <v>935</v>
-      </c>
-      <c r="F25" s="421" t="s">
+      <c r="D25" s="426" t="s">
+        <v>939</v>
+      </c>
+      <c r="E25" s="425" t="s">
+        <v>938</v>
+      </c>
+      <c r="F25" s="427" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="413" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="418">
-        <v>42736</v>
-      </c>
-      <c r="B26" s="419"/>
+    <row r="26" spans="1:6" s="419" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="424">
+        <v>42736</v>
+      </c>
+      <c r="B26" s="425"/>
       <c r="C26" s="79" t="s">
         <v>884</v>
       </c>
-      <c r="D26" s="420" t="s">
-        <v>937</v>
-      </c>
-      <c r="E26" s="419" t="s">
-        <v>935</v>
-      </c>
-      <c r="F26" s="421" t="s">
+      <c r="D26" s="426" t="s">
+        <v>940</v>
+      </c>
+      <c r="E26" s="425" t="s">
+        <v>938</v>
+      </c>
+      <c r="F26" s="427" t="s">
         <v>339</v>
       </c>
     </row>
@@ -30252,10 +30285,10 @@
         <v>42736</v>
       </c>
       <c r="B41" s="303"/>
-      <c r="C41" s="363" t="s">
-        <v>921</v>
-      </c>
-      <c r="D41" s="357" t="s">
+      <c r="C41" s="367" t="s">
+        <v>924</v>
+      </c>
+      <c r="D41" s="361" t="s">
         <v>910</v>
       </c>
       <c r="E41" s="303" t="s">
@@ -30270,8 +30303,8 @@
         <v>42736</v>
       </c>
       <c r="B42" s="303"/>
-      <c r="C42" s="363" t="s">
-        <v>921</v>
+      <c r="C42" s="367" t="s">
+        <v>924</v>
       </c>
       <c r="D42" s="307" t="s">
         <v>911</v>
@@ -31995,30 +32028,30 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="415" t="s">
-        <v>921</v>
-      </c>
-      <c r="B8" s="415" t="s">
+      <c r="A8" s="421" t="s">
+        <v>924</v>
+      </c>
+      <c r="B8" s="421" t="s">
         <v>687</v>
       </c>
-      <c r="C8" s="415" t="s">
+      <c r="C8" s="421" t="s">
         <v>693</v>
       </c>
-      <c r="D8" s="415" t="s">
+      <c r="D8" s="421" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="220" t="s">
-        <v>921</v>
-      </c>
-      <c r="B9" s="414" t="s">
+        <v>924</v>
+      </c>
+      <c r="B9" s="420" t="s">
         <v>695</v>
       </c>
-      <c r="C9" s="414" t="s">
+      <c r="C9" s="420" t="s">
         <v>696</v>
       </c>
-      <c r="D9" s="414" t="s">
+      <c r="D9" s="420" t="s">
         <v>697</v>
       </c>
     </row>
@@ -32152,7 +32185,7 @@
         <v>392</v>
       </c>
       <c r="E6" s="148" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="F6" s="129" t="s">
         <v>339</v>
@@ -32167,7 +32200,7 @@
         <v>884</v>
       </c>
       <c r="D7" s="79" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="E7" s="148" t="s">
         <v>778</v>
@@ -32185,10 +32218,10 @@
         <v>884</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="E8" s="148" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="F8" s="129" t="s">
         <v>339</v>
@@ -32321,157 +32354,157 @@
       </c>
     </row>
     <row r="16" spans="1:141" s="306" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="355">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="351"/>
+      <c r="A16" s="359">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="352"/>
       <c r="C16" s="307" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D16" s="307" t="s">
-        <v>923</v>
-      </c>
-      <c r="E16" s="379" t="s">
+        <v>926</v>
+      </c>
+      <c r="E16" s="385" t="s">
         <v>778</v>
       </c>
-      <c r="F16" s="375" t="s">
+      <c r="F16" s="381" t="s">
         <v>339</v>
       </c>
-      <c r="G16" s="413"/>
-      <c r="H16" s="413"/>
-      <c r="I16" s="413"/>
-      <c r="J16" s="413"/>
-      <c r="K16" s="413"/>
-      <c r="L16" s="413"/>
-      <c r="M16" s="413"/>
-      <c r="N16" s="413"/>
-      <c r="O16" s="413"/>
-      <c r="P16" s="413"/>
-      <c r="Q16" s="413"/>
-      <c r="R16" s="413"/>
-      <c r="S16" s="413"/>
-      <c r="T16" s="413"/>
-      <c r="U16" s="413"/>
-      <c r="V16" s="413"/>
-      <c r="W16" s="413"/>
-      <c r="X16" s="413"/>
-      <c r="Y16" s="413"/>
-      <c r="Z16" s="413"/>
-      <c r="AA16" s="413"/>
-      <c r="AB16" s="413"/>
-      <c r="AC16" s="413"/>
-      <c r="AD16" s="413"/>
-      <c r="AE16" s="413"/>
-      <c r="AF16" s="413"/>
-      <c r="AG16" s="413"/>
-      <c r="AH16" s="413"/>
-      <c r="AI16" s="413"/>
-      <c r="AJ16" s="413"/>
-      <c r="AK16" s="413"/>
-      <c r="AL16" s="413"/>
-      <c r="AM16" s="413"/>
-      <c r="AN16" s="413"/>
-      <c r="AO16" s="413"/>
-      <c r="AP16" s="413"/>
-      <c r="AQ16" s="413"/>
-      <c r="AR16" s="413"/>
-      <c r="AS16" s="413"/>
-      <c r="AT16" s="413"/>
-      <c r="AU16" s="413"/>
-      <c r="AV16" s="413"/>
-      <c r="AW16" s="413"/>
-      <c r="AX16" s="413"/>
-      <c r="AY16" s="413"/>
-      <c r="AZ16" s="413"/>
-      <c r="BA16" s="413"/>
-      <c r="BB16" s="413"/>
-      <c r="BC16" s="413"/>
-      <c r="BD16" s="413"/>
-      <c r="BE16" s="413"/>
-      <c r="BF16" s="413"/>
-      <c r="BG16" s="413"/>
-      <c r="BH16" s="413"/>
-      <c r="BI16" s="413"/>
-      <c r="BJ16" s="413"/>
-      <c r="BK16" s="413"/>
-      <c r="BL16" s="413"/>
-      <c r="BM16" s="413"/>
-      <c r="BN16" s="413"/>
-      <c r="BO16" s="413"/>
-      <c r="BP16" s="413"/>
-      <c r="BQ16" s="413"/>
-      <c r="BR16" s="413"/>
-      <c r="BS16" s="413"/>
-      <c r="BT16" s="413"/>
-      <c r="BU16" s="413"/>
-      <c r="BV16" s="413"/>
-      <c r="BW16" s="413"/>
-      <c r="BX16" s="413"/>
-      <c r="BY16" s="413"/>
-      <c r="BZ16" s="413"/>
-      <c r="CA16" s="413"/>
-      <c r="CB16" s="413"/>
-      <c r="CC16" s="413"/>
-      <c r="CD16" s="413"/>
-      <c r="CE16" s="413"/>
-      <c r="CF16" s="413"/>
-      <c r="CG16" s="413"/>
-      <c r="CH16" s="413"/>
-      <c r="CI16" s="413"/>
-      <c r="CJ16" s="413"/>
-      <c r="CK16" s="413"/>
-      <c r="CL16" s="413"/>
-      <c r="CM16" s="413"/>
-      <c r="CN16" s="413"/>
-      <c r="CO16" s="413"/>
-      <c r="CP16" s="413"/>
-      <c r="CQ16" s="413"/>
-      <c r="CR16" s="413"/>
-      <c r="CS16" s="413"/>
-      <c r="CT16" s="413"/>
-      <c r="CU16" s="413"/>
-      <c r="CV16" s="413"/>
-      <c r="CW16" s="413"/>
-      <c r="CX16" s="413"/>
-      <c r="CY16" s="413"/>
-      <c r="CZ16" s="413"/>
-      <c r="DA16" s="413"/>
-      <c r="DB16" s="413"/>
-      <c r="DC16" s="413"/>
-      <c r="DD16" s="413"/>
-      <c r="DE16" s="413"/>
-      <c r="DF16" s="413"/>
-      <c r="DG16" s="413"/>
-      <c r="DH16" s="413"/>
-      <c r="DI16" s="413"/>
-      <c r="DJ16" s="413"/>
-      <c r="DK16" s="413"/>
-      <c r="DL16" s="413"/>
-      <c r="DM16" s="413"/>
-      <c r="DN16" s="413"/>
-      <c r="DO16" s="413"/>
-      <c r="DP16" s="413"/>
-      <c r="DQ16" s="413"/>
-      <c r="DR16" s="413"/>
-      <c r="DS16" s="413"/>
-      <c r="DT16" s="413"/>
-      <c r="DU16" s="413"/>
-      <c r="DV16" s="413"/>
-      <c r="DW16" s="413"/>
-      <c r="DX16" s="413"/>
-      <c r="DY16" s="413"/>
-      <c r="DZ16" s="413"/>
-      <c r="EA16" s="413"/>
-      <c r="EB16" s="413"/>
-      <c r="EC16" s="413"/>
-      <c r="ED16" s="413"/>
-      <c r="EE16" s="413"/>
-      <c r="EF16" s="413"/>
-      <c r="EG16" s="413"/>
-      <c r="EH16" s="413"/>
-      <c r="EI16" s="413"/>
-      <c r="EJ16" s="413"/>
-      <c r="EK16" s="413"/>
+      <c r="G16" s="419"/>
+      <c r="H16" s="419"/>
+      <c r="I16" s="419"/>
+      <c r="J16" s="419"/>
+      <c r="K16" s="419"/>
+      <c r="L16" s="419"/>
+      <c r="M16" s="419"/>
+      <c r="N16" s="419"/>
+      <c r="O16" s="419"/>
+      <c r="P16" s="419"/>
+      <c r="Q16" s="419"/>
+      <c r="R16" s="419"/>
+      <c r="S16" s="419"/>
+      <c r="T16" s="419"/>
+      <c r="U16" s="419"/>
+      <c r="V16" s="419"/>
+      <c r="W16" s="419"/>
+      <c r="X16" s="419"/>
+      <c r="Y16" s="419"/>
+      <c r="Z16" s="419"/>
+      <c r="AA16" s="419"/>
+      <c r="AB16" s="419"/>
+      <c r="AC16" s="419"/>
+      <c r="AD16" s="419"/>
+      <c r="AE16" s="419"/>
+      <c r="AF16" s="419"/>
+      <c r="AG16" s="419"/>
+      <c r="AH16" s="419"/>
+      <c r="AI16" s="419"/>
+      <c r="AJ16" s="419"/>
+      <c r="AK16" s="419"/>
+      <c r="AL16" s="419"/>
+      <c r="AM16" s="419"/>
+      <c r="AN16" s="419"/>
+      <c r="AO16" s="419"/>
+      <c r="AP16" s="419"/>
+      <c r="AQ16" s="419"/>
+      <c r="AR16" s="419"/>
+      <c r="AS16" s="419"/>
+      <c r="AT16" s="419"/>
+      <c r="AU16" s="419"/>
+      <c r="AV16" s="419"/>
+      <c r="AW16" s="419"/>
+      <c r="AX16" s="419"/>
+      <c r="AY16" s="419"/>
+      <c r="AZ16" s="419"/>
+      <c r="BA16" s="419"/>
+      <c r="BB16" s="419"/>
+      <c r="BC16" s="419"/>
+      <c r="BD16" s="419"/>
+      <c r="BE16" s="419"/>
+      <c r="BF16" s="419"/>
+      <c r="BG16" s="419"/>
+      <c r="BH16" s="419"/>
+      <c r="BI16" s="419"/>
+      <c r="BJ16" s="419"/>
+      <c r="BK16" s="419"/>
+      <c r="BL16" s="419"/>
+      <c r="BM16" s="419"/>
+      <c r="BN16" s="419"/>
+      <c r="BO16" s="419"/>
+      <c r="BP16" s="419"/>
+      <c r="BQ16" s="419"/>
+      <c r="BR16" s="419"/>
+      <c r="BS16" s="419"/>
+      <c r="BT16" s="419"/>
+      <c r="BU16" s="419"/>
+      <c r="BV16" s="419"/>
+      <c r="BW16" s="419"/>
+      <c r="BX16" s="419"/>
+      <c r="BY16" s="419"/>
+      <c r="BZ16" s="419"/>
+      <c r="CA16" s="419"/>
+      <c r="CB16" s="419"/>
+      <c r="CC16" s="419"/>
+      <c r="CD16" s="419"/>
+      <c r="CE16" s="419"/>
+      <c r="CF16" s="419"/>
+      <c r="CG16" s="419"/>
+      <c r="CH16" s="419"/>
+      <c r="CI16" s="419"/>
+      <c r="CJ16" s="419"/>
+      <c r="CK16" s="419"/>
+      <c r="CL16" s="419"/>
+      <c r="CM16" s="419"/>
+      <c r="CN16" s="419"/>
+      <c r="CO16" s="419"/>
+      <c r="CP16" s="419"/>
+      <c r="CQ16" s="419"/>
+      <c r="CR16" s="419"/>
+      <c r="CS16" s="419"/>
+      <c r="CT16" s="419"/>
+      <c r="CU16" s="419"/>
+      <c r="CV16" s="419"/>
+      <c r="CW16" s="419"/>
+      <c r="CX16" s="419"/>
+      <c r="CY16" s="419"/>
+      <c r="CZ16" s="419"/>
+      <c r="DA16" s="419"/>
+      <c r="DB16" s="419"/>
+      <c r="DC16" s="419"/>
+      <c r="DD16" s="419"/>
+      <c r="DE16" s="419"/>
+      <c r="DF16" s="419"/>
+      <c r="DG16" s="419"/>
+      <c r="DH16" s="419"/>
+      <c r="DI16" s="419"/>
+      <c r="DJ16" s="419"/>
+      <c r="DK16" s="419"/>
+      <c r="DL16" s="419"/>
+      <c r="DM16" s="419"/>
+      <c r="DN16" s="419"/>
+      <c r="DO16" s="419"/>
+      <c r="DP16" s="419"/>
+      <c r="DQ16" s="419"/>
+      <c r="DR16" s="419"/>
+      <c r="DS16" s="419"/>
+      <c r="DT16" s="419"/>
+      <c r="DU16" s="419"/>
+      <c r="DV16" s="419"/>
+      <c r="DW16" s="419"/>
+      <c r="DX16" s="419"/>
+      <c r="DY16" s="419"/>
+      <c r="DZ16" s="419"/>
+      <c r="EA16" s="419"/>
+      <c r="EB16" s="419"/>
+      <c r="EC16" s="419"/>
+      <c r="ED16" s="419"/>
+      <c r="EE16" s="419"/>
+      <c r="EF16" s="419"/>
+      <c r="EG16" s="419"/>
+      <c r="EH16" s="419"/>
+      <c r="EI16" s="419"/>
+      <c r="EJ16" s="419"/>
+      <c r="EK16" s="419"/>
     </row>
     <row r="17" spans="1:141" s="306" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="300">
@@ -32479,152 +32512,152 @@
       </c>
       <c r="B17" s="303"/>
       <c r="C17" s="307" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D17" s="307" t="s">
-        <v>922</v>
-      </c>
-      <c r="E17" s="379" t="s">
+        <v>925</v>
+      </c>
+      <c r="E17" s="385" t="s">
         <v>778</v>
       </c>
       <c r="F17" s="308" t="s">
         <v>339</v>
       </c>
-      <c r="G17" s="413"/>
-      <c r="H17" s="413"/>
-      <c r="I17" s="413"/>
-      <c r="J17" s="413"/>
-      <c r="K17" s="413"/>
-      <c r="L17" s="413"/>
-      <c r="M17" s="413"/>
-      <c r="N17" s="413"/>
-      <c r="O17" s="413"/>
-      <c r="P17" s="413"/>
-      <c r="Q17" s="413"/>
-      <c r="R17" s="413"/>
-      <c r="S17" s="413"/>
-      <c r="T17" s="413"/>
-      <c r="U17" s="413"/>
-      <c r="V17" s="413"/>
-      <c r="W17" s="413"/>
-      <c r="X17" s="413"/>
-      <c r="Y17" s="413"/>
-      <c r="Z17" s="413"/>
-      <c r="AA17" s="413"/>
-      <c r="AB17" s="413"/>
-      <c r="AC17" s="413"/>
-      <c r="AD17" s="413"/>
-      <c r="AE17" s="413"/>
-      <c r="AF17" s="413"/>
-      <c r="AG17" s="413"/>
-      <c r="AH17" s="413"/>
-      <c r="AI17" s="413"/>
-      <c r="AJ17" s="413"/>
-      <c r="AK17" s="413"/>
-      <c r="AL17" s="413"/>
-      <c r="AM17" s="413"/>
-      <c r="AN17" s="413"/>
-      <c r="AO17" s="413"/>
-      <c r="AP17" s="413"/>
-      <c r="AQ17" s="413"/>
-      <c r="AR17" s="413"/>
-      <c r="AS17" s="413"/>
-      <c r="AT17" s="413"/>
-      <c r="AU17" s="413"/>
-      <c r="AV17" s="413"/>
-      <c r="AW17" s="413"/>
-      <c r="AX17" s="413"/>
-      <c r="AY17" s="413"/>
-      <c r="AZ17" s="413"/>
-      <c r="BA17" s="413"/>
-      <c r="BB17" s="413"/>
-      <c r="BC17" s="413"/>
-      <c r="BD17" s="413"/>
-      <c r="BE17" s="413"/>
-      <c r="BF17" s="413"/>
-      <c r="BG17" s="413"/>
-      <c r="BH17" s="413"/>
-      <c r="BI17" s="413"/>
-      <c r="BJ17" s="413"/>
-      <c r="BK17" s="413"/>
-      <c r="BL17" s="413"/>
-      <c r="BM17" s="413"/>
-      <c r="BN17" s="413"/>
-      <c r="BO17" s="413"/>
-      <c r="BP17" s="413"/>
-      <c r="BQ17" s="413"/>
-      <c r="BR17" s="413"/>
-      <c r="BS17" s="413"/>
-      <c r="BT17" s="413"/>
-      <c r="BU17" s="413"/>
-      <c r="BV17" s="413"/>
-      <c r="BW17" s="413"/>
-      <c r="BX17" s="413"/>
-      <c r="BY17" s="413"/>
-      <c r="BZ17" s="413"/>
-      <c r="CA17" s="413"/>
-      <c r="CB17" s="413"/>
-      <c r="CC17" s="413"/>
-      <c r="CD17" s="413"/>
-      <c r="CE17" s="413"/>
-      <c r="CF17" s="413"/>
-      <c r="CG17" s="413"/>
-      <c r="CH17" s="413"/>
-      <c r="CI17" s="413"/>
-      <c r="CJ17" s="413"/>
-      <c r="CK17" s="413"/>
-      <c r="CL17" s="413"/>
-      <c r="CM17" s="413"/>
-      <c r="CN17" s="413"/>
-      <c r="CO17" s="413"/>
-      <c r="CP17" s="413"/>
-      <c r="CQ17" s="413"/>
-      <c r="CR17" s="413"/>
-      <c r="CS17" s="413"/>
-      <c r="CT17" s="413"/>
-      <c r="CU17" s="413"/>
-      <c r="CV17" s="413"/>
-      <c r="CW17" s="413"/>
-      <c r="CX17" s="413"/>
-      <c r="CY17" s="413"/>
-      <c r="CZ17" s="413"/>
-      <c r="DA17" s="413"/>
-      <c r="DB17" s="413"/>
-      <c r="DC17" s="413"/>
-      <c r="DD17" s="413"/>
-      <c r="DE17" s="413"/>
-      <c r="DF17" s="413"/>
-      <c r="DG17" s="413"/>
-      <c r="DH17" s="413"/>
-      <c r="DI17" s="413"/>
-      <c r="DJ17" s="413"/>
-      <c r="DK17" s="413"/>
-      <c r="DL17" s="413"/>
-      <c r="DM17" s="413"/>
-      <c r="DN17" s="413"/>
-      <c r="DO17" s="413"/>
-      <c r="DP17" s="413"/>
-      <c r="DQ17" s="413"/>
-      <c r="DR17" s="413"/>
-      <c r="DS17" s="413"/>
-      <c r="DT17" s="413"/>
-      <c r="DU17" s="413"/>
-      <c r="DV17" s="413"/>
-      <c r="DW17" s="413"/>
-      <c r="DX17" s="413"/>
-      <c r="DY17" s="413"/>
-      <c r="DZ17" s="413"/>
-      <c r="EA17" s="413"/>
-      <c r="EB17" s="413"/>
-      <c r="EC17" s="413"/>
-      <c r="ED17" s="413"/>
-      <c r="EE17" s="413"/>
-      <c r="EF17" s="413"/>
-      <c r="EG17" s="413"/>
-      <c r="EH17" s="413"/>
-      <c r="EI17" s="413"/>
-      <c r="EJ17" s="413"/>
-      <c r="EK17" s="413"/>
+      <c r="G17" s="419"/>
+      <c r="H17" s="419"/>
+      <c r="I17" s="419"/>
+      <c r="J17" s="419"/>
+      <c r="K17" s="419"/>
+      <c r="L17" s="419"/>
+      <c r="M17" s="419"/>
+      <c r="N17" s="419"/>
+      <c r="O17" s="419"/>
+      <c r="P17" s="419"/>
+      <c r="Q17" s="419"/>
+      <c r="R17" s="419"/>
+      <c r="S17" s="419"/>
+      <c r="T17" s="419"/>
+      <c r="U17" s="419"/>
+      <c r="V17" s="419"/>
+      <c r="W17" s="419"/>
+      <c r="X17" s="419"/>
+      <c r="Y17" s="419"/>
+      <c r="Z17" s="419"/>
+      <c r="AA17" s="419"/>
+      <c r="AB17" s="419"/>
+      <c r="AC17" s="419"/>
+      <c r="AD17" s="419"/>
+      <c r="AE17" s="419"/>
+      <c r="AF17" s="419"/>
+      <c r="AG17" s="419"/>
+      <c r="AH17" s="419"/>
+      <c r="AI17" s="419"/>
+      <c r="AJ17" s="419"/>
+      <c r="AK17" s="419"/>
+      <c r="AL17" s="419"/>
+      <c r="AM17" s="419"/>
+      <c r="AN17" s="419"/>
+      <c r="AO17" s="419"/>
+      <c r="AP17" s="419"/>
+      <c r="AQ17" s="419"/>
+      <c r="AR17" s="419"/>
+      <c r="AS17" s="419"/>
+      <c r="AT17" s="419"/>
+      <c r="AU17" s="419"/>
+      <c r="AV17" s="419"/>
+      <c r="AW17" s="419"/>
+      <c r="AX17" s="419"/>
+      <c r="AY17" s="419"/>
+      <c r="AZ17" s="419"/>
+      <c r="BA17" s="419"/>
+      <c r="BB17" s="419"/>
+      <c r="BC17" s="419"/>
+      <c r="BD17" s="419"/>
+      <c r="BE17" s="419"/>
+      <c r="BF17" s="419"/>
+      <c r="BG17" s="419"/>
+      <c r="BH17" s="419"/>
+      <c r="BI17" s="419"/>
+      <c r="BJ17" s="419"/>
+      <c r="BK17" s="419"/>
+      <c r="BL17" s="419"/>
+      <c r="BM17" s="419"/>
+      <c r="BN17" s="419"/>
+      <c r="BO17" s="419"/>
+      <c r="BP17" s="419"/>
+      <c r="BQ17" s="419"/>
+      <c r="BR17" s="419"/>
+      <c r="BS17" s="419"/>
+      <c r="BT17" s="419"/>
+      <c r="BU17" s="419"/>
+      <c r="BV17" s="419"/>
+      <c r="BW17" s="419"/>
+      <c r="BX17" s="419"/>
+      <c r="BY17" s="419"/>
+      <c r="BZ17" s="419"/>
+      <c r="CA17" s="419"/>
+      <c r="CB17" s="419"/>
+      <c r="CC17" s="419"/>
+      <c r="CD17" s="419"/>
+      <c r="CE17" s="419"/>
+      <c r="CF17" s="419"/>
+      <c r="CG17" s="419"/>
+      <c r="CH17" s="419"/>
+      <c r="CI17" s="419"/>
+      <c r="CJ17" s="419"/>
+      <c r="CK17" s="419"/>
+      <c r="CL17" s="419"/>
+      <c r="CM17" s="419"/>
+      <c r="CN17" s="419"/>
+      <c r="CO17" s="419"/>
+      <c r="CP17" s="419"/>
+      <c r="CQ17" s="419"/>
+      <c r="CR17" s="419"/>
+      <c r="CS17" s="419"/>
+      <c r="CT17" s="419"/>
+      <c r="CU17" s="419"/>
+      <c r="CV17" s="419"/>
+      <c r="CW17" s="419"/>
+      <c r="CX17" s="419"/>
+      <c r="CY17" s="419"/>
+      <c r="CZ17" s="419"/>
+      <c r="DA17" s="419"/>
+      <c r="DB17" s="419"/>
+      <c r="DC17" s="419"/>
+      <c r="DD17" s="419"/>
+      <c r="DE17" s="419"/>
+      <c r="DF17" s="419"/>
+      <c r="DG17" s="419"/>
+      <c r="DH17" s="419"/>
+      <c r="DI17" s="419"/>
+      <c r="DJ17" s="419"/>
+      <c r="DK17" s="419"/>
+      <c r="DL17" s="419"/>
+      <c r="DM17" s="419"/>
+      <c r="DN17" s="419"/>
+      <c r="DO17" s="419"/>
+      <c r="DP17" s="419"/>
+      <c r="DQ17" s="419"/>
+      <c r="DR17" s="419"/>
+      <c r="DS17" s="419"/>
+      <c r="DT17" s="419"/>
+      <c r="DU17" s="419"/>
+      <c r="DV17" s="419"/>
+      <c r="DW17" s="419"/>
+      <c r="DX17" s="419"/>
+      <c r="DY17" s="419"/>
+      <c r="DZ17" s="419"/>
+      <c r="EA17" s="419"/>
+      <c r="EB17" s="419"/>
+      <c r="EC17" s="419"/>
+      <c r="ED17" s="419"/>
+      <c r="EE17" s="419"/>
+      <c r="EF17" s="419"/>
+      <c r="EG17" s="419"/>
+      <c r="EH17" s="419"/>
+      <c r="EI17" s="419"/>
+      <c r="EJ17" s="419"/>
+      <c r="EK17" s="419"/>
     </row>
     <row r="18" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="74">
@@ -33300,7 +33333,7 @@
         <v>489</v>
       </c>
       <c r="E6" s="79" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="F6" s="291" t="s">
         <v>339</v>
@@ -33336,7 +33369,7 @@
         <v>493</v>
       </c>
       <c r="E8" s="148" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="F8" s="129" t="s">
         <v>339</v>
@@ -33415,100 +33448,100 @@
       </c>
     </row>
     <row r="13" spans="1:84" s="306" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="355">
-        <v>42736</v>
-      </c>
-      <c r="B13" s="351"/>
+      <c r="A13" s="359">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="352"/>
       <c r="C13" s="307" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D13" s="307" t="s">
         <v>493</v>
       </c>
-      <c r="E13" s="379" t="s">
+      <c r="E13" s="385" t="s">
         <v>778</v>
       </c>
-      <c r="F13" s="375" t="s">
+      <c r="F13" s="381" t="s">
         <v>339</v>
       </c>
-      <c r="G13" s="413"/>
-      <c r="H13" s="413"/>
-      <c r="I13" s="413"/>
-      <c r="J13" s="413"/>
-      <c r="K13" s="413"/>
-      <c r="L13" s="413"/>
-      <c r="M13" s="413"/>
-      <c r="N13" s="413"/>
-      <c r="O13" s="413"/>
-      <c r="P13" s="413"/>
-      <c r="Q13" s="413"/>
-      <c r="R13" s="413"/>
-      <c r="S13" s="413"/>
-      <c r="T13" s="413"/>
-      <c r="U13" s="413"/>
-      <c r="V13" s="413"/>
-      <c r="W13" s="413"/>
-      <c r="X13" s="413"/>
-      <c r="Y13" s="413"/>
-      <c r="Z13" s="413"/>
-      <c r="AA13" s="413"/>
-      <c r="AB13" s="413"/>
-      <c r="AC13" s="413"/>
-      <c r="AD13" s="413"/>
-      <c r="AE13" s="413"/>
-      <c r="AF13" s="413"/>
-      <c r="AG13" s="413"/>
-      <c r="AH13" s="413"/>
-      <c r="AI13" s="413"/>
-      <c r="AJ13" s="413"/>
-      <c r="AK13" s="413"/>
-      <c r="AL13" s="413"/>
-      <c r="AM13" s="413"/>
-      <c r="AN13" s="413"/>
-      <c r="AO13" s="413"/>
-      <c r="AP13" s="413"/>
-      <c r="AQ13" s="413"/>
-      <c r="AR13" s="413"/>
-      <c r="AS13" s="413"/>
-      <c r="AT13" s="413"/>
-      <c r="AU13" s="413"/>
-      <c r="AV13" s="413"/>
-      <c r="AW13" s="413"/>
-      <c r="AX13" s="413"/>
-      <c r="AY13" s="413"/>
-      <c r="AZ13" s="413"/>
-      <c r="BA13" s="413"/>
-      <c r="BB13" s="413"/>
-      <c r="BC13" s="413"/>
-      <c r="BD13" s="413"/>
-      <c r="BE13" s="413"/>
-      <c r="BF13" s="413"/>
-      <c r="BG13" s="413"/>
-      <c r="BH13" s="413"/>
-      <c r="BI13" s="413"/>
-      <c r="BJ13" s="413"/>
-      <c r="BK13" s="413"/>
-      <c r="BL13" s="413"/>
-      <c r="BM13" s="413"/>
-      <c r="BN13" s="413"/>
-      <c r="BO13" s="413"/>
-      <c r="BP13" s="413"/>
-      <c r="BQ13" s="413"/>
-      <c r="BR13" s="413"/>
-      <c r="BS13" s="413"/>
-      <c r="BT13" s="413"/>
-      <c r="BU13" s="413"/>
-      <c r="BV13" s="413"/>
-      <c r="BW13" s="413"/>
-      <c r="BX13" s="413"/>
-      <c r="BY13" s="413"/>
-      <c r="BZ13" s="413"/>
-      <c r="CA13" s="413"/>
-      <c r="CB13" s="413"/>
-      <c r="CC13" s="413"/>
-      <c r="CD13" s="413"/>
-      <c r="CE13" s="413"/>
-      <c r="CF13" s="413"/>
+      <c r="G13" s="419"/>
+      <c r="H13" s="419"/>
+      <c r="I13" s="419"/>
+      <c r="J13" s="419"/>
+      <c r="K13" s="419"/>
+      <c r="L13" s="419"/>
+      <c r="M13" s="419"/>
+      <c r="N13" s="419"/>
+      <c r="O13" s="419"/>
+      <c r="P13" s="419"/>
+      <c r="Q13" s="419"/>
+      <c r="R13" s="419"/>
+      <c r="S13" s="419"/>
+      <c r="T13" s="419"/>
+      <c r="U13" s="419"/>
+      <c r="V13" s="419"/>
+      <c r="W13" s="419"/>
+      <c r="X13" s="419"/>
+      <c r="Y13" s="419"/>
+      <c r="Z13" s="419"/>
+      <c r="AA13" s="419"/>
+      <c r="AB13" s="419"/>
+      <c r="AC13" s="419"/>
+      <c r="AD13" s="419"/>
+      <c r="AE13" s="419"/>
+      <c r="AF13" s="419"/>
+      <c r="AG13" s="419"/>
+      <c r="AH13" s="419"/>
+      <c r="AI13" s="419"/>
+      <c r="AJ13" s="419"/>
+      <c r="AK13" s="419"/>
+      <c r="AL13" s="419"/>
+      <c r="AM13" s="419"/>
+      <c r="AN13" s="419"/>
+      <c r="AO13" s="419"/>
+      <c r="AP13" s="419"/>
+      <c r="AQ13" s="419"/>
+      <c r="AR13" s="419"/>
+      <c r="AS13" s="419"/>
+      <c r="AT13" s="419"/>
+      <c r="AU13" s="419"/>
+      <c r="AV13" s="419"/>
+      <c r="AW13" s="419"/>
+      <c r="AX13" s="419"/>
+      <c r="AY13" s="419"/>
+      <c r="AZ13" s="419"/>
+      <c r="BA13" s="419"/>
+      <c r="BB13" s="419"/>
+      <c r="BC13" s="419"/>
+      <c r="BD13" s="419"/>
+      <c r="BE13" s="419"/>
+      <c r="BF13" s="419"/>
+      <c r="BG13" s="419"/>
+      <c r="BH13" s="419"/>
+      <c r="BI13" s="419"/>
+      <c r="BJ13" s="419"/>
+      <c r="BK13" s="419"/>
+      <c r="BL13" s="419"/>
+      <c r="BM13" s="419"/>
+      <c r="BN13" s="419"/>
+      <c r="BO13" s="419"/>
+      <c r="BP13" s="419"/>
+      <c r="BQ13" s="419"/>
+      <c r="BR13" s="419"/>
+      <c r="BS13" s="419"/>
+      <c r="BT13" s="419"/>
+      <c r="BU13" s="419"/>
+      <c r="BV13" s="419"/>
+      <c r="BW13" s="419"/>
+      <c r="BX13" s="419"/>
+      <c r="BY13" s="419"/>
+      <c r="BZ13" s="419"/>
+      <c r="CA13" s="419"/>
+      <c r="CB13" s="419"/>
+      <c r="CC13" s="419"/>
+      <c r="CD13" s="419"/>
+      <c r="CE13" s="419"/>
+      <c r="CF13" s="419"/>
     </row>
     <row r="14" spans="1:84" s="306" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="300">
@@ -33516,95 +33549,95 @@
       </c>
       <c r="B14" s="303"/>
       <c r="C14" s="307" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D14" s="307" t="s">
         <v>489</v>
       </c>
-      <c r="E14" s="379" t="s">
+      <c r="E14" s="385" t="s">
         <v>778</v>
       </c>
       <c r="F14" s="308" t="s">
         <v>339</v>
       </c>
-      <c r="G14" s="413"/>
-      <c r="H14" s="413"/>
-      <c r="I14" s="413"/>
-      <c r="J14" s="413"/>
-      <c r="K14" s="413"/>
-      <c r="L14" s="413"/>
-      <c r="M14" s="413"/>
-      <c r="N14" s="413"/>
-      <c r="O14" s="413"/>
-      <c r="P14" s="413"/>
-      <c r="Q14" s="413"/>
-      <c r="R14" s="413"/>
-      <c r="S14" s="413"/>
-      <c r="T14" s="413"/>
-      <c r="U14" s="413"/>
-      <c r="V14" s="413"/>
-      <c r="W14" s="413"/>
-      <c r="X14" s="413"/>
-      <c r="Y14" s="413"/>
-      <c r="Z14" s="413"/>
-      <c r="AA14" s="413"/>
-      <c r="AB14" s="413"/>
-      <c r="AC14" s="413"/>
-      <c r="AD14" s="413"/>
-      <c r="AE14" s="413"/>
-      <c r="AF14" s="413"/>
-      <c r="AG14" s="413"/>
-      <c r="AH14" s="413"/>
-      <c r="AI14" s="413"/>
-      <c r="AJ14" s="413"/>
-      <c r="AK14" s="413"/>
-      <c r="AL14" s="413"/>
-      <c r="AM14" s="413"/>
-      <c r="AN14" s="413"/>
-      <c r="AO14" s="413"/>
-      <c r="AP14" s="413"/>
-      <c r="AQ14" s="413"/>
-      <c r="AR14" s="413"/>
-      <c r="AS14" s="413"/>
-      <c r="AT14" s="413"/>
-      <c r="AU14" s="413"/>
-      <c r="AV14" s="413"/>
-      <c r="AW14" s="413"/>
-      <c r="AX14" s="413"/>
-      <c r="AY14" s="413"/>
-      <c r="AZ14" s="413"/>
-      <c r="BA14" s="413"/>
-      <c r="BB14" s="413"/>
-      <c r="BC14" s="413"/>
-      <c r="BD14" s="413"/>
-      <c r="BE14" s="413"/>
-      <c r="BF14" s="413"/>
-      <c r="BG14" s="413"/>
-      <c r="BH14" s="413"/>
-      <c r="BI14" s="413"/>
-      <c r="BJ14" s="413"/>
-      <c r="BK14" s="413"/>
-      <c r="BL14" s="413"/>
-      <c r="BM14" s="413"/>
-      <c r="BN14" s="413"/>
-      <c r="BO14" s="413"/>
-      <c r="BP14" s="413"/>
-      <c r="BQ14" s="413"/>
-      <c r="BR14" s="413"/>
-      <c r="BS14" s="413"/>
-      <c r="BT14" s="413"/>
-      <c r="BU14" s="413"/>
-      <c r="BV14" s="413"/>
-      <c r="BW14" s="413"/>
-      <c r="BX14" s="413"/>
-      <c r="BY14" s="413"/>
-      <c r="BZ14" s="413"/>
-      <c r="CA14" s="413"/>
-      <c r="CB14" s="413"/>
-      <c r="CC14" s="413"/>
-      <c r="CD14" s="413"/>
-      <c r="CE14" s="413"/>
-      <c r="CF14" s="413"/>
+      <c r="G14" s="419"/>
+      <c r="H14" s="419"/>
+      <c r="I14" s="419"/>
+      <c r="J14" s="419"/>
+      <c r="K14" s="419"/>
+      <c r="L14" s="419"/>
+      <c r="M14" s="419"/>
+      <c r="N14" s="419"/>
+      <c r="O14" s="419"/>
+      <c r="P14" s="419"/>
+      <c r="Q14" s="419"/>
+      <c r="R14" s="419"/>
+      <c r="S14" s="419"/>
+      <c r="T14" s="419"/>
+      <c r="U14" s="419"/>
+      <c r="V14" s="419"/>
+      <c r="W14" s="419"/>
+      <c r="X14" s="419"/>
+      <c r="Y14" s="419"/>
+      <c r="Z14" s="419"/>
+      <c r="AA14" s="419"/>
+      <c r="AB14" s="419"/>
+      <c r="AC14" s="419"/>
+      <c r="AD14" s="419"/>
+      <c r="AE14" s="419"/>
+      <c r="AF14" s="419"/>
+      <c r="AG14" s="419"/>
+      <c r="AH14" s="419"/>
+      <c r="AI14" s="419"/>
+      <c r="AJ14" s="419"/>
+      <c r="AK14" s="419"/>
+      <c r="AL14" s="419"/>
+      <c r="AM14" s="419"/>
+      <c r="AN14" s="419"/>
+      <c r="AO14" s="419"/>
+      <c r="AP14" s="419"/>
+      <c r="AQ14" s="419"/>
+      <c r="AR14" s="419"/>
+      <c r="AS14" s="419"/>
+      <c r="AT14" s="419"/>
+      <c r="AU14" s="419"/>
+      <c r="AV14" s="419"/>
+      <c r="AW14" s="419"/>
+      <c r="AX14" s="419"/>
+      <c r="AY14" s="419"/>
+      <c r="AZ14" s="419"/>
+      <c r="BA14" s="419"/>
+      <c r="BB14" s="419"/>
+      <c r="BC14" s="419"/>
+      <c r="BD14" s="419"/>
+      <c r="BE14" s="419"/>
+      <c r="BF14" s="419"/>
+      <c r="BG14" s="419"/>
+      <c r="BH14" s="419"/>
+      <c r="BI14" s="419"/>
+      <c r="BJ14" s="419"/>
+      <c r="BK14" s="419"/>
+      <c r="BL14" s="419"/>
+      <c r="BM14" s="419"/>
+      <c r="BN14" s="419"/>
+      <c r="BO14" s="419"/>
+      <c r="BP14" s="419"/>
+      <c r="BQ14" s="419"/>
+      <c r="BR14" s="419"/>
+      <c r="BS14" s="419"/>
+      <c r="BT14" s="419"/>
+      <c r="BU14" s="419"/>
+      <c r="BV14" s="419"/>
+      <c r="BW14" s="419"/>
+      <c r="BX14" s="419"/>
+      <c r="BY14" s="419"/>
+      <c r="BZ14" s="419"/>
+      <c r="CA14" s="419"/>
+      <c r="CB14" s="419"/>
+      <c r="CC14" s="419"/>
+      <c r="CD14" s="419"/>
+      <c r="CE14" s="419"/>
+      <c r="CF14" s="419"/>
     </row>
     <row r="15" spans="1:84" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="74">
@@ -34399,25 +34432,25 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="306" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="367">
-        <v>42736</v>
-      </c>
-      <c r="B17" s="368"/>
+      <c r="A17" s="373">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="374"/>
       <c r="C17" s="346" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D17" s="346" t="s">
-        <v>925</v>
-      </c>
-      <c r="E17" s="368" t="s">
-        <v>924</v>
-      </c>
-      <c r="F17" s="369" t="s">
+        <v>928</v>
+      </c>
+      <c r="E17" s="374" t="s">
+        <v>927</v>
+      </c>
+      <c r="F17" s="375" t="s">
         <v>775</v>
       </c>
-      <c r="G17" s="368"/>
-      <c r="H17" s="368"/>
-      <c r="I17" s="370" t="s">
+      <c r="G17" s="374"/>
+      <c r="H17" s="374"/>
+      <c r="I17" s="376" t="s">
         <v>26</v>
       </c>
     </row>
@@ -35209,7 +35242,7 @@
       <c r="G16" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="371" t="s">
+      <c r="H16" s="377" t="s">
         <v>749</v>
       </c>
       <c r="I16" s="95"/>
@@ -35241,7 +35274,7 @@
       <c r="G17" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="371" t="s">
+      <c r="H17" s="377" t="s">
         <v>751</v>
       </c>
       <c r="I17" s="95"/>
@@ -35273,7 +35306,7 @@
       <c r="G18" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="371" t="s">
+      <c r="H18" s="377" t="s">
         <v>774</v>
       </c>
       <c r="I18" s="95"/>
@@ -35439,300 +35472,300 @@
         <v>784</v>
       </c>
     </row>
-    <row r="24" spans="1:249" s="416" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="418">
-        <v>42736</v>
-      </c>
-      <c r="B24" s="422"/>
-      <c r="C24" s="423" t="s">
+    <row r="24" spans="1:249" s="422" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="424">
+        <v>42736</v>
+      </c>
+      <c r="B24" s="428"/>
+      <c r="C24" s="429" t="s">
         <v>884</v>
       </c>
-      <c r="D24" s="420" t="s">
-        <v>936</v>
-      </c>
-      <c r="E24" s="420" t="s">
+      <c r="D24" s="426" t="s">
+        <v>939</v>
+      </c>
+      <c r="E24" s="426" t="s">
         <v>913</v>
       </c>
-      <c r="F24" s="424"/>
-      <c r="G24" s="423" t="s">
+      <c r="F24" s="430"/>
+      <c r="G24" s="429" t="s">
         <v>914</v>
       </c>
-      <c r="H24" s="423"/>
-      <c r="I24" s="420"/>
-      <c r="J24" s="419"/>
-      <c r="K24" s="423" t="s">
+      <c r="H24" s="429"/>
+      <c r="I24" s="426"/>
+      <c r="J24" s="425"/>
+      <c r="K24" s="429" t="s">
         <v>26</v>
       </c>
-      <c r="L24" s="419"/>
-      <c r="M24" s="425"/>
-      <c r="N24" s="416" t="s">
+      <c r="L24" s="425"/>
+      <c r="M24" s="431"/>
+      <c r="N24" s="422" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="25" spans="1:249" s="413" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="418">
-        <v>42736</v>
-      </c>
-      <c r="B25" s="422"/>
-      <c r="C25" s="423" t="s">
+    <row r="25" spans="1:249" s="419" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="424">
+        <v>42736</v>
+      </c>
+      <c r="B25" s="428"/>
+      <c r="C25" s="429" t="s">
         <v>884</v>
       </c>
-      <c r="D25" s="420" t="s">
-        <v>937</v>
-      </c>
-      <c r="E25" s="420" t="s">
-        <v>938</v>
-      </c>
-      <c r="F25" s="424"/>
-      <c r="G25" s="423" t="s">
+      <c r="D25" s="426" t="s">
+        <v>940</v>
+      </c>
+      <c r="E25" s="426" t="s">
+        <v>941</v>
+      </c>
+      <c r="F25" s="430"/>
+      <c r="G25" s="429" t="s">
         <v>914</v>
       </c>
-      <c r="H25" s="423"/>
-      <c r="I25" s="420"/>
-      <c r="J25" s="419"/>
-      <c r="K25" s="423" t="s">
+      <c r="H25" s="429"/>
+      <c r="I25" s="426"/>
+      <c r="J25" s="425"/>
+      <c r="K25" s="429" t="s">
         <v>26</v>
       </c>
-      <c r="L25" s="419"/>
-      <c r="M25" s="425"/>
-      <c r="N25" s="416" t="s">
+      <c r="L25" s="425"/>
+      <c r="M25" s="431"/>
+      <c r="N25" s="422" t="s">
         <v>784</v>
       </c>
-      <c r="O25" s="417"/>
-      <c r="P25" s="417"/>
-      <c r="Q25" s="417"/>
-      <c r="R25" s="417"/>
-      <c r="S25" s="417"/>
-      <c r="T25" s="417"/>
-      <c r="U25" s="417"/>
-      <c r="V25" s="417"/>
-      <c r="W25" s="417"/>
-      <c r="X25" s="417"/>
-      <c r="Y25" s="417"/>
-      <c r="Z25" s="417"/>
-      <c r="AA25" s="417"/>
-      <c r="AB25" s="417"/>
-      <c r="AC25" s="417"/>
-      <c r="AD25" s="417"/>
-      <c r="AE25" s="417"/>
-      <c r="AF25" s="417"/>
-      <c r="AG25" s="417"/>
-      <c r="AH25" s="417"/>
-      <c r="AI25" s="417"/>
-      <c r="AJ25" s="417"/>
-      <c r="AK25" s="417"/>
-      <c r="AL25" s="417"/>
-      <c r="AM25" s="417"/>
-      <c r="AN25" s="417"/>
-      <c r="AO25" s="417"/>
-      <c r="AP25" s="417"/>
-      <c r="AQ25" s="417"/>
-      <c r="AR25" s="417"/>
-      <c r="AS25" s="417"/>
-      <c r="AT25" s="417"/>
-      <c r="AU25" s="417"/>
-      <c r="AV25" s="417"/>
-      <c r="AW25" s="417"/>
-      <c r="AX25" s="417"/>
-      <c r="AY25" s="417"/>
-      <c r="AZ25" s="417"/>
-      <c r="BA25" s="417"/>
-      <c r="BB25" s="417"/>
-      <c r="BC25" s="417"/>
-      <c r="BD25" s="417"/>
-      <c r="BE25" s="417"/>
-      <c r="BF25" s="417"/>
-      <c r="BG25" s="417"/>
-      <c r="BH25" s="417"/>
-      <c r="BI25" s="417"/>
-      <c r="BJ25" s="417"/>
-      <c r="BK25" s="417"/>
-      <c r="BL25" s="417"/>
-      <c r="BM25" s="417"/>
-      <c r="BN25" s="417"/>
-      <c r="BO25" s="417"/>
-      <c r="BP25" s="417"/>
-      <c r="BQ25" s="417"/>
-      <c r="BR25" s="417"/>
-      <c r="BS25" s="417"/>
-      <c r="BT25" s="417"/>
-      <c r="BU25" s="417"/>
-      <c r="BV25" s="417"/>
-      <c r="BW25" s="417"/>
-      <c r="BX25" s="417"/>
-      <c r="BY25" s="417"/>
-      <c r="BZ25" s="417"/>
-      <c r="CA25" s="417"/>
-      <c r="CB25" s="417"/>
-      <c r="CC25" s="417"/>
-      <c r="CD25" s="417"/>
-      <c r="CE25" s="417"/>
-      <c r="CF25" s="417"/>
-      <c r="CG25" s="417"/>
-      <c r="CH25" s="417"/>
-      <c r="CI25" s="417"/>
-      <c r="CJ25" s="417"/>
-      <c r="CK25" s="417"/>
-      <c r="CL25" s="417"/>
-      <c r="CM25" s="417"/>
-      <c r="CN25" s="417"/>
-      <c r="CO25" s="417"/>
-      <c r="CP25" s="417"/>
-      <c r="CQ25" s="417"/>
-      <c r="CR25" s="417"/>
-      <c r="CS25" s="417"/>
-      <c r="CT25" s="417"/>
-      <c r="CU25" s="417"/>
-      <c r="CV25" s="417"/>
-      <c r="CW25" s="417"/>
-      <c r="CX25" s="417"/>
-      <c r="CY25" s="417"/>
-      <c r="CZ25" s="417"/>
-      <c r="DA25" s="417"/>
-      <c r="DB25" s="417"/>
-      <c r="DC25" s="417"/>
-      <c r="DD25" s="417"/>
-      <c r="DE25" s="417"/>
-      <c r="DF25" s="417"/>
-      <c r="DG25" s="417"/>
-      <c r="DH25" s="417"/>
-      <c r="DI25" s="417"/>
-      <c r="DJ25" s="417"/>
-      <c r="DK25" s="417"/>
-      <c r="DL25" s="417"/>
-      <c r="DM25" s="417"/>
-      <c r="DN25" s="417"/>
-      <c r="DO25" s="417"/>
-      <c r="DP25" s="417"/>
-      <c r="DQ25" s="417"/>
-      <c r="DR25" s="417"/>
-      <c r="DS25" s="417"/>
-      <c r="DT25" s="417"/>
-      <c r="DU25" s="417"/>
-      <c r="DV25" s="417"/>
-      <c r="DW25" s="417"/>
-      <c r="DX25" s="417"/>
-      <c r="DY25" s="417"/>
-      <c r="DZ25" s="417"/>
-      <c r="EA25" s="417"/>
-      <c r="EB25" s="417"/>
-      <c r="EC25" s="417"/>
-      <c r="ED25" s="417"/>
-      <c r="EE25" s="417"/>
-      <c r="EF25" s="417"/>
-      <c r="EG25" s="417"/>
-      <c r="EH25" s="417"/>
-      <c r="EI25" s="417"/>
-      <c r="EJ25" s="417"/>
-      <c r="EK25" s="417"/>
-      <c r="EL25" s="417"/>
-      <c r="EM25" s="417"/>
-      <c r="EN25" s="417"/>
-      <c r="EO25" s="417"/>
-      <c r="EP25" s="417"/>
-      <c r="EQ25" s="417"/>
-      <c r="ER25" s="417"/>
-      <c r="ES25" s="417"/>
-      <c r="ET25" s="417"/>
-      <c r="EU25" s="417"/>
-      <c r="EV25" s="417"/>
-      <c r="EW25" s="417"/>
-      <c r="EX25" s="417"/>
-      <c r="EY25" s="417"/>
-      <c r="EZ25" s="417"/>
-      <c r="FA25" s="417"/>
-      <c r="FB25" s="417"/>
-      <c r="FC25" s="417"/>
-      <c r="FD25" s="417"/>
-      <c r="FE25" s="417"/>
-      <c r="FF25" s="417"/>
-      <c r="FG25" s="417"/>
-      <c r="FH25" s="417"/>
-      <c r="FI25" s="417"/>
-      <c r="FJ25" s="417"/>
-      <c r="FK25" s="417"/>
-      <c r="FL25" s="417"/>
-      <c r="FM25" s="417"/>
-      <c r="FN25" s="417"/>
-      <c r="FO25" s="417"/>
-      <c r="FP25" s="417"/>
-      <c r="FQ25" s="417"/>
-      <c r="FR25" s="417"/>
-      <c r="FS25" s="417"/>
-      <c r="FT25" s="417"/>
-      <c r="FU25" s="417"/>
-      <c r="FV25" s="417"/>
-      <c r="FW25" s="417"/>
-      <c r="FX25" s="417"/>
-      <c r="FY25" s="417"/>
-      <c r="FZ25" s="417"/>
-      <c r="GA25" s="417"/>
-      <c r="GB25" s="417"/>
-      <c r="GC25" s="417"/>
-      <c r="GD25" s="417"/>
-      <c r="GE25" s="417"/>
-      <c r="GF25" s="417"/>
-      <c r="GG25" s="417"/>
-      <c r="GH25" s="417"/>
-      <c r="GI25" s="417"/>
-      <c r="GJ25" s="417"/>
-      <c r="GK25" s="417"/>
-      <c r="GL25" s="417"/>
-      <c r="GM25" s="417"/>
-      <c r="GN25" s="417"/>
-      <c r="GO25" s="417"/>
-      <c r="GP25" s="417"/>
-      <c r="GQ25" s="417"/>
-      <c r="GR25" s="417"/>
-      <c r="GS25" s="417"/>
-      <c r="GT25" s="417"/>
-      <c r="GU25" s="417"/>
-      <c r="GV25" s="417"/>
-      <c r="GW25" s="417"/>
-      <c r="GX25" s="417"/>
-      <c r="GY25" s="417"/>
-      <c r="GZ25" s="417"/>
-      <c r="HA25" s="417"/>
-      <c r="HB25" s="417"/>
-      <c r="HC25" s="417"/>
-      <c r="HD25" s="417"/>
-      <c r="HE25" s="417"/>
-      <c r="HF25" s="417"/>
-      <c r="HG25" s="417"/>
-      <c r="HH25" s="417"/>
-      <c r="HI25" s="417"/>
-      <c r="HJ25" s="417"/>
-      <c r="HK25" s="417"/>
-      <c r="HL25" s="417"/>
-      <c r="HM25" s="417"/>
-      <c r="HN25" s="417"/>
-      <c r="HO25" s="417"/>
-      <c r="HP25" s="417"/>
-      <c r="HQ25" s="417"/>
-      <c r="HR25" s="417"/>
-      <c r="HS25" s="417"/>
-      <c r="HT25" s="417"/>
-      <c r="HU25" s="417"/>
-      <c r="HV25" s="417"/>
-      <c r="HW25" s="417"/>
-      <c r="HX25" s="417"/>
-      <c r="HY25" s="417"/>
-      <c r="HZ25" s="417"/>
-      <c r="IA25" s="417"/>
-      <c r="IB25" s="417"/>
-      <c r="IC25" s="417"/>
-      <c r="ID25" s="417"/>
-      <c r="IE25" s="417"/>
-      <c r="IF25" s="417"/>
-      <c r="IG25" s="417"/>
-      <c r="IH25" s="417"/>
-      <c r="II25" s="417"/>
-      <c r="IJ25" s="417"/>
-      <c r="IK25" s="417"/>
-      <c r="IL25" s="417"/>
-      <c r="IM25" s="417"/>
-      <c r="IN25" s="417"/>
-      <c r="IO25" s="417"/>
+      <c r="O25" s="423"/>
+      <c r="P25" s="423"/>
+      <c r="Q25" s="423"/>
+      <c r="R25" s="423"/>
+      <c r="S25" s="423"/>
+      <c r="T25" s="423"/>
+      <c r="U25" s="423"/>
+      <c r="V25" s="423"/>
+      <c r="W25" s="423"/>
+      <c r="X25" s="423"/>
+      <c r="Y25" s="423"/>
+      <c r="Z25" s="423"/>
+      <c r="AA25" s="423"/>
+      <c r="AB25" s="423"/>
+      <c r="AC25" s="423"/>
+      <c r="AD25" s="423"/>
+      <c r="AE25" s="423"/>
+      <c r="AF25" s="423"/>
+      <c r="AG25" s="423"/>
+      <c r="AH25" s="423"/>
+      <c r="AI25" s="423"/>
+      <c r="AJ25" s="423"/>
+      <c r="AK25" s="423"/>
+      <c r="AL25" s="423"/>
+      <c r="AM25" s="423"/>
+      <c r="AN25" s="423"/>
+      <c r="AO25" s="423"/>
+      <c r="AP25" s="423"/>
+      <c r="AQ25" s="423"/>
+      <c r="AR25" s="423"/>
+      <c r="AS25" s="423"/>
+      <c r="AT25" s="423"/>
+      <c r="AU25" s="423"/>
+      <c r="AV25" s="423"/>
+      <c r="AW25" s="423"/>
+      <c r="AX25" s="423"/>
+      <c r="AY25" s="423"/>
+      <c r="AZ25" s="423"/>
+      <c r="BA25" s="423"/>
+      <c r="BB25" s="423"/>
+      <c r="BC25" s="423"/>
+      <c r="BD25" s="423"/>
+      <c r="BE25" s="423"/>
+      <c r="BF25" s="423"/>
+      <c r="BG25" s="423"/>
+      <c r="BH25" s="423"/>
+      <c r="BI25" s="423"/>
+      <c r="BJ25" s="423"/>
+      <c r="BK25" s="423"/>
+      <c r="BL25" s="423"/>
+      <c r="BM25" s="423"/>
+      <c r="BN25" s="423"/>
+      <c r="BO25" s="423"/>
+      <c r="BP25" s="423"/>
+      <c r="BQ25" s="423"/>
+      <c r="BR25" s="423"/>
+      <c r="BS25" s="423"/>
+      <c r="BT25" s="423"/>
+      <c r="BU25" s="423"/>
+      <c r="BV25" s="423"/>
+      <c r="BW25" s="423"/>
+      <c r="BX25" s="423"/>
+      <c r="BY25" s="423"/>
+      <c r="BZ25" s="423"/>
+      <c r="CA25" s="423"/>
+      <c r="CB25" s="423"/>
+      <c r="CC25" s="423"/>
+      <c r="CD25" s="423"/>
+      <c r="CE25" s="423"/>
+      <c r="CF25" s="423"/>
+      <c r="CG25" s="423"/>
+      <c r="CH25" s="423"/>
+      <c r="CI25" s="423"/>
+      <c r="CJ25" s="423"/>
+      <c r="CK25" s="423"/>
+      <c r="CL25" s="423"/>
+      <c r="CM25" s="423"/>
+      <c r="CN25" s="423"/>
+      <c r="CO25" s="423"/>
+      <c r="CP25" s="423"/>
+      <c r="CQ25" s="423"/>
+      <c r="CR25" s="423"/>
+      <c r="CS25" s="423"/>
+      <c r="CT25" s="423"/>
+      <c r="CU25" s="423"/>
+      <c r="CV25" s="423"/>
+      <c r="CW25" s="423"/>
+      <c r="CX25" s="423"/>
+      <c r="CY25" s="423"/>
+      <c r="CZ25" s="423"/>
+      <c r="DA25" s="423"/>
+      <c r="DB25" s="423"/>
+      <c r="DC25" s="423"/>
+      <c r="DD25" s="423"/>
+      <c r="DE25" s="423"/>
+      <c r="DF25" s="423"/>
+      <c r="DG25" s="423"/>
+      <c r="DH25" s="423"/>
+      <c r="DI25" s="423"/>
+      <c r="DJ25" s="423"/>
+      <c r="DK25" s="423"/>
+      <c r="DL25" s="423"/>
+      <c r="DM25" s="423"/>
+      <c r="DN25" s="423"/>
+      <c r="DO25" s="423"/>
+      <c r="DP25" s="423"/>
+      <c r="DQ25" s="423"/>
+      <c r="DR25" s="423"/>
+      <c r="DS25" s="423"/>
+      <c r="DT25" s="423"/>
+      <c r="DU25" s="423"/>
+      <c r="DV25" s="423"/>
+      <c r="DW25" s="423"/>
+      <c r="DX25" s="423"/>
+      <c r="DY25" s="423"/>
+      <c r="DZ25" s="423"/>
+      <c r="EA25" s="423"/>
+      <c r="EB25" s="423"/>
+      <c r="EC25" s="423"/>
+      <c r="ED25" s="423"/>
+      <c r="EE25" s="423"/>
+      <c r="EF25" s="423"/>
+      <c r="EG25" s="423"/>
+      <c r="EH25" s="423"/>
+      <c r="EI25" s="423"/>
+      <c r="EJ25" s="423"/>
+      <c r="EK25" s="423"/>
+      <c r="EL25" s="423"/>
+      <c r="EM25" s="423"/>
+      <c r="EN25" s="423"/>
+      <c r="EO25" s="423"/>
+      <c r="EP25" s="423"/>
+      <c r="EQ25" s="423"/>
+      <c r="ER25" s="423"/>
+      <c r="ES25" s="423"/>
+      <c r="ET25" s="423"/>
+      <c r="EU25" s="423"/>
+      <c r="EV25" s="423"/>
+      <c r="EW25" s="423"/>
+      <c r="EX25" s="423"/>
+      <c r="EY25" s="423"/>
+      <c r="EZ25" s="423"/>
+      <c r="FA25" s="423"/>
+      <c r="FB25" s="423"/>
+      <c r="FC25" s="423"/>
+      <c r="FD25" s="423"/>
+      <c r="FE25" s="423"/>
+      <c r="FF25" s="423"/>
+      <c r="FG25" s="423"/>
+      <c r="FH25" s="423"/>
+      <c r="FI25" s="423"/>
+      <c r="FJ25" s="423"/>
+      <c r="FK25" s="423"/>
+      <c r="FL25" s="423"/>
+      <c r="FM25" s="423"/>
+      <c r="FN25" s="423"/>
+      <c r="FO25" s="423"/>
+      <c r="FP25" s="423"/>
+      <c r="FQ25" s="423"/>
+      <c r="FR25" s="423"/>
+      <c r="FS25" s="423"/>
+      <c r="FT25" s="423"/>
+      <c r="FU25" s="423"/>
+      <c r="FV25" s="423"/>
+      <c r="FW25" s="423"/>
+      <c r="FX25" s="423"/>
+      <c r="FY25" s="423"/>
+      <c r="FZ25" s="423"/>
+      <c r="GA25" s="423"/>
+      <c r="GB25" s="423"/>
+      <c r="GC25" s="423"/>
+      <c r="GD25" s="423"/>
+      <c r="GE25" s="423"/>
+      <c r="GF25" s="423"/>
+      <c r="GG25" s="423"/>
+      <c r="GH25" s="423"/>
+      <c r="GI25" s="423"/>
+      <c r="GJ25" s="423"/>
+      <c r="GK25" s="423"/>
+      <c r="GL25" s="423"/>
+      <c r="GM25" s="423"/>
+      <c r="GN25" s="423"/>
+      <c r="GO25" s="423"/>
+      <c r="GP25" s="423"/>
+      <c r="GQ25" s="423"/>
+      <c r="GR25" s="423"/>
+      <c r="GS25" s="423"/>
+      <c r="GT25" s="423"/>
+      <c r="GU25" s="423"/>
+      <c r="GV25" s="423"/>
+      <c r="GW25" s="423"/>
+      <c r="GX25" s="423"/>
+      <c r="GY25" s="423"/>
+      <c r="GZ25" s="423"/>
+      <c r="HA25" s="423"/>
+      <c r="HB25" s="423"/>
+      <c r="HC25" s="423"/>
+      <c r="HD25" s="423"/>
+      <c r="HE25" s="423"/>
+      <c r="HF25" s="423"/>
+      <c r="HG25" s="423"/>
+      <c r="HH25" s="423"/>
+      <c r="HI25" s="423"/>
+      <c r="HJ25" s="423"/>
+      <c r="HK25" s="423"/>
+      <c r="HL25" s="423"/>
+      <c r="HM25" s="423"/>
+      <c r="HN25" s="423"/>
+      <c r="HO25" s="423"/>
+      <c r="HP25" s="423"/>
+      <c r="HQ25" s="423"/>
+      <c r="HR25" s="423"/>
+      <c r="HS25" s="423"/>
+      <c r="HT25" s="423"/>
+      <c r="HU25" s="423"/>
+      <c r="HV25" s="423"/>
+      <c r="HW25" s="423"/>
+      <c r="HX25" s="423"/>
+      <c r="HY25" s="423"/>
+      <c r="HZ25" s="423"/>
+      <c r="IA25" s="423"/>
+      <c r="IB25" s="423"/>
+      <c r="IC25" s="423"/>
+      <c r="ID25" s="423"/>
+      <c r="IE25" s="423"/>
+      <c r="IF25" s="423"/>
+      <c r="IG25" s="423"/>
+      <c r="IH25" s="423"/>
+      <c r="II25" s="423"/>
+      <c r="IJ25" s="423"/>
+      <c r="IK25" s="423"/>
+      <c r="IL25" s="423"/>
+      <c r="IM25" s="423"/>
+      <c r="IN25" s="423"/>
+      <c r="IO25" s="423"/>
     </row>
     <row r="26" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="74">
@@ -36166,7 +36199,7 @@
       </c>
       <c r="B40" s="301"/>
       <c r="C40" s="302" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D40" s="342" t="s">
         <v>910</v>
@@ -36189,55 +36222,55 @@
       <c r="N40" s="343" t="s">
         <v>784</v>
       </c>
-      <c r="O40" s="417"/>
-      <c r="P40" s="417"/>
-      <c r="Q40" s="417"/>
-      <c r="R40" s="417"/>
-      <c r="S40" s="417"/>
-      <c r="T40" s="417"/>
-      <c r="U40" s="417"/>
-      <c r="V40" s="417"/>
-      <c r="W40" s="417"/>
-      <c r="X40" s="417"/>
-      <c r="Y40" s="417"/>
-      <c r="Z40" s="417"/>
-      <c r="AA40" s="417"/>
-      <c r="AB40" s="417"/>
-      <c r="AC40" s="417"/>
-      <c r="AD40" s="417"/>
-      <c r="AE40" s="417"/>
-      <c r="AF40" s="417"/>
-      <c r="AG40" s="417"/>
-      <c r="AH40" s="417"/>
-      <c r="AI40" s="417"/>
-      <c r="AJ40" s="417"/>
-      <c r="AK40" s="417"/>
-      <c r="AL40" s="417"/>
-      <c r="AM40" s="417"/>
-      <c r="AN40" s="417"/>
-      <c r="AO40" s="417"/>
-      <c r="AP40" s="417"/>
-      <c r="AQ40" s="417"/>
-      <c r="AR40" s="417"/>
-      <c r="AS40" s="417"/>
-      <c r="AT40" s="417"/>
-      <c r="AU40" s="417"/>
-      <c r="AV40" s="417"/>
-      <c r="AW40" s="417"/>
-      <c r="AX40" s="417"/>
-      <c r="AY40" s="417"/>
-      <c r="AZ40" s="417"/>
-      <c r="BA40" s="417"/>
-      <c r="BB40" s="417"/>
-      <c r="BC40" s="417"/>
-      <c r="BD40" s="417"/>
-      <c r="BE40" s="417"/>
-      <c r="BF40" s="417"/>
-      <c r="BG40" s="417"/>
-      <c r="BH40" s="417"/>
-      <c r="BI40" s="417"/>
-      <c r="BJ40" s="417"/>
-      <c r="BK40" s="417"/>
+      <c r="O40" s="423"/>
+      <c r="P40" s="423"/>
+      <c r="Q40" s="423"/>
+      <c r="R40" s="423"/>
+      <c r="S40" s="423"/>
+      <c r="T40" s="423"/>
+      <c r="U40" s="423"/>
+      <c r="V40" s="423"/>
+      <c r="W40" s="423"/>
+      <c r="X40" s="423"/>
+      <c r="Y40" s="423"/>
+      <c r="Z40" s="423"/>
+      <c r="AA40" s="423"/>
+      <c r="AB40" s="423"/>
+      <c r="AC40" s="423"/>
+      <c r="AD40" s="423"/>
+      <c r="AE40" s="423"/>
+      <c r="AF40" s="423"/>
+      <c r="AG40" s="423"/>
+      <c r="AH40" s="423"/>
+      <c r="AI40" s="423"/>
+      <c r="AJ40" s="423"/>
+      <c r="AK40" s="423"/>
+      <c r="AL40" s="423"/>
+      <c r="AM40" s="423"/>
+      <c r="AN40" s="423"/>
+      <c r="AO40" s="423"/>
+      <c r="AP40" s="423"/>
+      <c r="AQ40" s="423"/>
+      <c r="AR40" s="423"/>
+      <c r="AS40" s="423"/>
+      <c r="AT40" s="423"/>
+      <c r="AU40" s="423"/>
+      <c r="AV40" s="423"/>
+      <c r="AW40" s="423"/>
+      <c r="AX40" s="423"/>
+      <c r="AY40" s="423"/>
+      <c r="AZ40" s="423"/>
+      <c r="BA40" s="423"/>
+      <c r="BB40" s="423"/>
+      <c r="BC40" s="423"/>
+      <c r="BD40" s="423"/>
+      <c r="BE40" s="423"/>
+      <c r="BF40" s="423"/>
+      <c r="BG40" s="423"/>
+      <c r="BH40" s="423"/>
+      <c r="BI40" s="423"/>
+      <c r="BJ40" s="423"/>
+      <c r="BK40" s="423"/>
       <c r="BL40" s="305"/>
       <c r="BM40" s="305"/>
       <c r="BN40" s="305"/>
@@ -36431,7 +36464,7 @@
       </c>
       <c r="B41" s="301"/>
       <c r="C41" s="302" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D41" s="307" t="s">
         <v>911</v>
@@ -36454,55 +36487,55 @@
       <c r="N41" s="343" t="s">
         <v>784</v>
       </c>
-      <c r="O41" s="417"/>
-      <c r="P41" s="417"/>
-      <c r="Q41" s="417"/>
-      <c r="R41" s="417"/>
-      <c r="S41" s="417"/>
-      <c r="T41" s="417"/>
-      <c r="U41" s="417"/>
-      <c r="V41" s="417"/>
-      <c r="W41" s="417"/>
-      <c r="X41" s="417"/>
-      <c r="Y41" s="417"/>
-      <c r="Z41" s="417"/>
-      <c r="AA41" s="417"/>
-      <c r="AB41" s="417"/>
-      <c r="AC41" s="417"/>
-      <c r="AD41" s="417"/>
-      <c r="AE41" s="417"/>
-      <c r="AF41" s="417"/>
-      <c r="AG41" s="417"/>
-      <c r="AH41" s="417"/>
-      <c r="AI41" s="417"/>
-      <c r="AJ41" s="417"/>
-      <c r="AK41" s="417"/>
-      <c r="AL41" s="417"/>
-      <c r="AM41" s="417"/>
-      <c r="AN41" s="417"/>
-      <c r="AO41" s="417"/>
-      <c r="AP41" s="417"/>
-      <c r="AQ41" s="417"/>
-      <c r="AR41" s="417"/>
-      <c r="AS41" s="417"/>
-      <c r="AT41" s="417"/>
-      <c r="AU41" s="417"/>
-      <c r="AV41" s="417"/>
-      <c r="AW41" s="417"/>
-      <c r="AX41" s="417"/>
-      <c r="AY41" s="417"/>
-      <c r="AZ41" s="417"/>
-      <c r="BA41" s="417"/>
-      <c r="BB41" s="417"/>
-      <c r="BC41" s="417"/>
-      <c r="BD41" s="417"/>
-      <c r="BE41" s="417"/>
-      <c r="BF41" s="417"/>
-      <c r="BG41" s="417"/>
-      <c r="BH41" s="417"/>
-      <c r="BI41" s="417"/>
-      <c r="BJ41" s="417"/>
-      <c r="BK41" s="417"/>
+      <c r="O41" s="423"/>
+      <c r="P41" s="423"/>
+      <c r="Q41" s="423"/>
+      <c r="R41" s="423"/>
+      <c r="S41" s="423"/>
+      <c r="T41" s="423"/>
+      <c r="U41" s="423"/>
+      <c r="V41" s="423"/>
+      <c r="W41" s="423"/>
+      <c r="X41" s="423"/>
+      <c r="Y41" s="423"/>
+      <c r="Z41" s="423"/>
+      <c r="AA41" s="423"/>
+      <c r="AB41" s="423"/>
+      <c r="AC41" s="423"/>
+      <c r="AD41" s="423"/>
+      <c r="AE41" s="423"/>
+      <c r="AF41" s="423"/>
+      <c r="AG41" s="423"/>
+      <c r="AH41" s="423"/>
+      <c r="AI41" s="423"/>
+      <c r="AJ41" s="423"/>
+      <c r="AK41" s="423"/>
+      <c r="AL41" s="423"/>
+      <c r="AM41" s="423"/>
+      <c r="AN41" s="423"/>
+      <c r="AO41" s="423"/>
+      <c r="AP41" s="423"/>
+      <c r="AQ41" s="423"/>
+      <c r="AR41" s="423"/>
+      <c r="AS41" s="423"/>
+      <c r="AT41" s="423"/>
+      <c r="AU41" s="423"/>
+      <c r="AV41" s="423"/>
+      <c r="AW41" s="423"/>
+      <c r="AX41" s="423"/>
+      <c r="AY41" s="423"/>
+      <c r="AZ41" s="423"/>
+      <c r="BA41" s="423"/>
+      <c r="BB41" s="423"/>
+      <c r="BC41" s="423"/>
+      <c r="BD41" s="423"/>
+      <c r="BE41" s="423"/>
+      <c r="BF41" s="423"/>
+      <c r="BG41" s="423"/>
+      <c r="BH41" s="423"/>
+      <c r="BI41" s="423"/>
+      <c r="BJ41" s="423"/>
+      <c r="BK41" s="423"/>
       <c r="BL41" s="305"/>
       <c r="BM41" s="305"/>
       <c r="BN41" s="305"/>
@@ -36719,39 +36752,39 @@
       <c r="N42" s="17" t="s">
         <v>784</v>
       </c>
-      <c r="O42" s="417"/>
-      <c r="P42" s="417"/>
-      <c r="Q42" s="417"/>
-      <c r="R42" s="417"/>
-      <c r="S42" s="417"/>
-      <c r="T42" s="417"/>
-      <c r="U42" s="417"/>
-      <c r="V42" s="417"/>
-      <c r="W42" s="417"/>
-      <c r="X42" s="417"/>
-      <c r="Y42" s="417"/>
-      <c r="Z42" s="417"/>
-      <c r="AA42" s="417"/>
-      <c r="AB42" s="417"/>
-      <c r="AC42" s="417"/>
-      <c r="AD42" s="417"/>
-      <c r="AE42" s="417"/>
-      <c r="AF42" s="417"/>
-      <c r="AG42" s="417"/>
-      <c r="AH42" s="417"/>
-      <c r="AI42" s="417"/>
-      <c r="AJ42" s="417"/>
-      <c r="AK42" s="417"/>
-      <c r="AL42" s="417"/>
-      <c r="AM42" s="417"/>
-      <c r="AN42" s="417"/>
-      <c r="AO42" s="417"/>
-      <c r="AP42" s="417"/>
-      <c r="AQ42" s="417"/>
-      <c r="AR42" s="417"/>
-      <c r="AS42" s="417"/>
-      <c r="AT42" s="417"/>
-      <c r="AU42" s="417"/>
+      <c r="O42" s="423"/>
+      <c r="P42" s="423"/>
+      <c r="Q42" s="423"/>
+      <c r="R42" s="423"/>
+      <c r="S42" s="423"/>
+      <c r="T42" s="423"/>
+      <c r="U42" s="423"/>
+      <c r="V42" s="423"/>
+      <c r="W42" s="423"/>
+      <c r="X42" s="423"/>
+      <c r="Y42" s="423"/>
+      <c r="Z42" s="423"/>
+      <c r="AA42" s="423"/>
+      <c r="AB42" s="423"/>
+      <c r="AC42" s="423"/>
+      <c r="AD42" s="423"/>
+      <c r="AE42" s="423"/>
+      <c r="AF42" s="423"/>
+      <c r="AG42" s="423"/>
+      <c r="AH42" s="423"/>
+      <c r="AI42" s="423"/>
+      <c r="AJ42" s="423"/>
+      <c r="AK42" s="423"/>
+      <c r="AL42" s="423"/>
+      <c r="AM42" s="423"/>
+      <c r="AN42" s="423"/>
+      <c r="AO42" s="423"/>
+      <c r="AP42" s="423"/>
+      <c r="AQ42" s="423"/>
+      <c r="AR42" s="423"/>
+      <c r="AS42" s="423"/>
+      <c r="AT42" s="423"/>
+      <c r="AU42" s="423"/>
     </row>
     <row r="43" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="74">
@@ -43320,10 +43353,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2A25AD-5D69-564D-9511-0323740C2E1F}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -44087,86 +44120,107 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="306" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="349">
-        <v>42736</v>
-      </c>
-      <c r="B37" s="351"/>
+      <c r="A37" s="350">
+        <v>42736</v>
+      </c>
+      <c r="B37" s="352"/>
       <c r="C37" s="346" t="s">
-        <v>921</v>
-      </c>
-      <c r="D37" s="364" t="s">
+        <v>924</v>
+      </c>
+      <c r="D37" s="368" t="s">
         <v>911</v>
       </c>
       <c r="E37" s="307" t="s">
         <v>915</v>
       </c>
-      <c r="F37" s="365" t="s">
+      <c r="F37" s="369" t="s">
         <v>778</v>
       </c>
-      <c r="G37" s="366" t="s">
+      <c r="G37" s="370" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="306" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="350">
-        <v>42736</v>
-      </c>
-      <c r="B38" s="348"/>
+      <c r="A38" s="351">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="349"/>
       <c r="C38" s="346" t="s">
-        <v>921</v>
-      </c>
-      <c r="D38" s="364" t="s">
+        <v>924</v>
+      </c>
+      <c r="D38" s="368" t="s">
         <v>911</v>
       </c>
       <c r="E38" s="307" t="s">
         <v>916</v>
       </c>
-      <c r="F38" s="365" t="s">
+      <c r="F38" s="369" t="s">
         <v>778</v>
       </c>
-      <c r="G38" s="366" t="s">
+      <c r="G38" s="370" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="306" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="349">
-        <v>42736</v>
-      </c>
-      <c r="B39" s="351"/>
+      <c r="A39" s="350">
+        <v>42736</v>
+      </c>
+      <c r="B39" s="352"/>
       <c r="C39" s="346" t="s">
-        <v>921</v>
-      </c>
-      <c r="D39" s="364" t="s">
+        <v>924</v>
+      </c>
+      <c r="D39" s="368" t="s">
         <v>911</v>
       </c>
       <c r="E39" s="307" t="s">
         <v>909</v>
       </c>
-      <c r="F39" s="365" t="s">
+      <c r="F39" s="369" t="s">
         <v>778</v>
       </c>
-      <c r="G39" s="366" t="s">
+      <c r="G39" s="370" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="306" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="349">
-        <v>42736</v>
-      </c>
-      <c r="B40" s="351"/>
+      <c r="A40" s="350">
+        <v>42736</v>
+      </c>
+      <c r="B40" s="352"/>
       <c r="C40" s="346" t="s">
-        <v>921</v>
-      </c>
-      <c r="D40" s="364" t="s">
+        <v>924</v>
+      </c>
+      <c r="D40" s="368" t="s">
         <v>911</v>
       </c>
       <c r="E40" s="307" t="s">
         <v>917</v>
       </c>
-      <c r="F40" s="365" t="s">
+      <c r="F40" s="369" t="s">
         <v>778</v>
       </c>
-      <c r="G40" s="366" t="s">
+      <c r="G40" s="370" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="306" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="353">
+        <v>42736</v>
+      </c>
+      <c r="B41" s="354"/>
+      <c r="C41" s="355" t="s">
+        <v>924</v>
+      </c>
+      <c r="D41" s="347" t="s">
+        <v>911</v>
+      </c>
+      <c r="E41" s="348" t="s">
+        <v>918</v>
+      </c>
+      <c r="F41" s="371" t="s">
+        <v>778</v>
+      </c>
+      <c r="G41" s="372" t="s">
         <v>339</v>
       </c>
     </row>
@@ -44180,10 +44234,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -44285,7 +44339,7 @@
         <v>225</v>
       </c>
       <c r="G3" s="255" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="H3" s="255" t="s">
         <v>369</v>
@@ -44792,819 +44846,817 @@
         <v>43101</v>
       </c>
       <c r="B21" s="345"/>
-      <c r="C21" s="347" t="s">
+      <c r="C21" s="348" t="s">
         <v>909</v>
       </c>
-      <c r="D21" s="347" t="s">
-        <v>922</v>
-      </c>
-      <c r="E21" s="352" t="s">
+      <c r="D21" s="348" t="s">
+        <v>925</v>
+      </c>
+      <c r="E21" s="356" t="s">
         <v>910</v>
       </c>
-      <c r="F21" s="353" t="s">
-        <v>918</v>
-      </c>
-      <c r="G21" s="353"/>
+      <c r="F21" s="357" t="s">
+        <v>919</v>
+      </c>
+      <c r="G21" s="357"/>
       <c r="H21" s="345" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="I21" s="345"/>
       <c r="J21" s="345">
         <v>1</v>
       </c>
-      <c r="K21" s="353" t="s">
+      <c r="K21" s="357" t="s">
         <v>375</v>
       </c>
-      <c r="L21" s="354"/>
+      <c r="L21" s="358"/>
     </row>
     <row r="22" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="344">
         <v>43101</v>
       </c>
       <c r="B22" s="345"/>
-      <c r="C22" s="347" t="s">
-        <v>914</v>
-      </c>
-      <c r="D22" s="347" t="s">
+      <c r="C22" s="348" t="s">
+        <v>909</v>
+      </c>
+      <c r="D22" s="348" t="s">
+        <v>925</v>
+      </c>
+      <c r="E22" s="356" t="s">
+        <v>910</v>
+      </c>
+      <c r="F22" s="357" t="s">
+        <v>921</v>
+      </c>
+      <c r="G22" s="357"/>
+      <c r="H22" s="357" t="s">
         <v>922</v>
       </c>
-      <c r="E22" s="352" t="s">
-        <v>911</v>
-      </c>
-      <c r="F22" s="353" t="s">
-        <v>917</v>
-      </c>
-      <c r="G22" s="353"/>
-      <c r="H22" s="345"/>
       <c r="I22" s="345"/>
       <c r="J22" s="345">
-        <v>3</v>
-      </c>
-      <c r="K22" s="353" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="357" t="s">
         <v>375</v>
       </c>
-      <c r="L22" s="354"/>
+      <c r="L22" s="358"/>
     </row>
     <row r="23" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="344">
         <v>43101</v>
       </c>
       <c r="B23" s="345"/>
-      <c r="C23" s="347" t="s">
+      <c r="C23" s="348" t="s">
         <v>914</v>
       </c>
-      <c r="D23" s="347" t="s">
-        <v>922</v>
-      </c>
-      <c r="E23" s="352" t="s">
+      <c r="D23" s="348" t="s">
+        <v>925</v>
+      </c>
+      <c r="E23" s="356" t="s">
         <v>911</v>
       </c>
-      <c r="F23" s="353" t="s">
-        <v>915</v>
-      </c>
-      <c r="G23" s="353" t="s">
-        <v>687</v>
-      </c>
+      <c r="F23" s="357" t="s">
+        <v>917</v>
+      </c>
+      <c r="G23" s="357"/>
       <c r="H23" s="345"/>
       <c r="I23" s="345"/>
       <c r="J23" s="345">
-        <v>5</v>
-      </c>
-      <c r="K23" s="353" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="357" t="s">
         <v>375</v>
       </c>
-      <c r="L23" s="354"/>
+      <c r="L23" s="358"/>
     </row>
     <row r="24" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="344">
         <v>43101</v>
       </c>
       <c r="B24" s="345"/>
-      <c r="C24" s="347" t="s">
+      <c r="C24" s="348" t="s">
         <v>914</v>
       </c>
-      <c r="D24" s="347" t="s">
-        <v>922</v>
-      </c>
-      <c r="E24" s="352" t="s">
+      <c r="D24" s="348" t="s">
+        <v>925</v>
+      </c>
+      <c r="E24" s="356" t="s">
         <v>911</v>
       </c>
-      <c r="F24" s="353" t="s">
-        <v>916</v>
-      </c>
-      <c r="G24" s="353"/>
+      <c r="F24" s="357" t="s">
+        <v>918</v>
+      </c>
+      <c r="G24" s="357"/>
       <c r="H24" s="345"/>
       <c r="I24" s="345"/>
       <c r="J24" s="345">
-        <v>6</v>
-      </c>
-      <c r="K24" s="353" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="357" t="s">
         <v>375</v>
       </c>
-      <c r="L24" s="354"/>
+      <c r="L24" s="358"/>
     </row>
     <row r="25" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="344">
         <v>43101</v>
       </c>
       <c r="B25" s="345"/>
-      <c r="C25" s="347" t="s">
-        <v>909</v>
-      </c>
-      <c r="D25" s="347" t="s">
-        <v>923</v>
-      </c>
-      <c r="E25" s="352" t="s">
-        <v>910</v>
-      </c>
-      <c r="F25" s="353" t="s">
-        <v>918</v>
-      </c>
-      <c r="G25" s="353"/>
+      <c r="C25" s="348" t="s">
+        <v>914</v>
+      </c>
+      <c r="D25" s="348" t="s">
+        <v>925</v>
+      </c>
+      <c r="E25" s="356" t="s">
+        <v>911</v>
+      </c>
+      <c r="F25" s="357" t="s">
+        <v>915</v>
+      </c>
+      <c r="G25" s="357" t="s">
+        <v>687</v>
+      </c>
       <c r="H25" s="345"/>
       <c r="I25" s="345"/>
       <c r="J25" s="345">
-        <v>1</v>
-      </c>
-      <c r="K25" s="353" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="357" t="s">
         <v>375</v>
       </c>
-      <c r="L25" s="354"/>
+      <c r="L25" s="358"/>
     </row>
     <row r="26" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="344">
         <v>43101</v>
       </c>
       <c r="B26" s="345"/>
-      <c r="C26" s="347" t="s">
+      <c r="C26" s="348" t="s">
         <v>914</v>
       </c>
-      <c r="D26" s="347" t="s">
-        <v>923</v>
-      </c>
-      <c r="E26" s="352" t="s">
+      <c r="D26" s="348" t="s">
+        <v>925</v>
+      </c>
+      <c r="E26" s="356" t="s">
         <v>911</v>
       </c>
-      <c r="F26" s="353" t="s">
-        <v>917</v>
-      </c>
-      <c r="G26" s="353"/>
+      <c r="F26" s="357" t="s">
+        <v>916</v>
+      </c>
+      <c r="G26" s="357"/>
       <c r="H26" s="345"/>
       <c r="I26" s="345"/>
       <c r="J26" s="345">
-        <v>3</v>
-      </c>
-      <c r="K26" s="353" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="357" t="s">
         <v>375</v>
       </c>
-      <c r="L26" s="354"/>
+      <c r="L26" s="358"/>
     </row>
     <row r="27" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="344">
         <v>43101</v>
       </c>
       <c r="B27" s="345"/>
-      <c r="C27" s="347" t="s">
-        <v>914</v>
-      </c>
-      <c r="D27" s="347" t="s">
-        <v>923</v>
-      </c>
-      <c r="E27" s="352" t="s">
-        <v>911</v>
-      </c>
-      <c r="F27" s="353" t="s">
-        <v>915</v>
-      </c>
-      <c r="G27" s="353" t="s">
-        <v>695</v>
-      </c>
+      <c r="C27" s="348" t="s">
+        <v>909</v>
+      </c>
+      <c r="D27" s="348" t="s">
+        <v>926</v>
+      </c>
+      <c r="E27" s="356" t="s">
+        <v>910</v>
+      </c>
+      <c r="F27" s="357" t="s">
+        <v>919</v>
+      </c>
+      <c r="G27" s="357"/>
       <c r="H27" s="345"/>
       <c r="I27" s="345"/>
       <c r="J27" s="345">
-        <v>5</v>
-      </c>
-      <c r="K27" s="353" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="357" t="s">
         <v>375</v>
       </c>
-      <c r="L27" s="354"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L27" s="358"/>
+    </row>
+    <row r="28" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="344">
         <v>43101</v>
       </c>
       <c r="B28" s="345"/>
-      <c r="C28" s="347" t="s">
-        <v>914</v>
-      </c>
-      <c r="D28" s="347" t="s">
-        <v>923</v>
-      </c>
-      <c r="E28" s="352" t="s">
-        <v>911</v>
-      </c>
-      <c r="F28" s="353" t="s">
-        <v>916</v>
-      </c>
-      <c r="G28" s="353"/>
-      <c r="H28" s="345"/>
+      <c r="C28" s="348" t="s">
+        <v>909</v>
+      </c>
+      <c r="D28" s="348" t="s">
+        <v>926</v>
+      </c>
+      <c r="E28" s="356" t="s">
+        <v>910</v>
+      </c>
+      <c r="F28" s="357" t="s">
+        <v>921</v>
+      </c>
+      <c r="G28" s="357"/>
+      <c r="H28" s="357"/>
       <c r="I28" s="345"/>
       <c r="J28" s="345">
+        <v>2</v>
+      </c>
+      <c r="K28" s="357" t="s">
+        <v>375</v>
+      </c>
+      <c r="L28" s="358"/>
+    </row>
+    <row r="29" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="344">
+        <v>43101</v>
+      </c>
+      <c r="B29" s="345"/>
+      <c r="C29" s="348" t="s">
+        <v>914</v>
+      </c>
+      <c r="D29" s="348" t="s">
+        <v>926</v>
+      </c>
+      <c r="E29" s="356" t="s">
+        <v>911</v>
+      </c>
+      <c r="F29" s="357" t="s">
+        <v>917</v>
+      </c>
+      <c r="G29" s="357"/>
+      <c r="H29" s="345"/>
+      <c r="I29" s="345"/>
+      <c r="J29" s="345">
+        <v>3</v>
+      </c>
+      <c r="K29" s="357" t="s">
+        <v>375</v>
+      </c>
+      <c r="L29" s="358"/>
+    </row>
+    <row r="30" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="344">
+        <v>43101</v>
+      </c>
+      <c r="B30" s="345"/>
+      <c r="C30" s="348" t="s">
+        <v>914</v>
+      </c>
+      <c r="D30" s="348" t="s">
+        <v>926</v>
+      </c>
+      <c r="E30" s="356" t="s">
+        <v>911</v>
+      </c>
+      <c r="F30" s="357" t="s">
+        <v>918</v>
+      </c>
+      <c r="G30" s="357"/>
+      <c r="H30" s="345"/>
+      <c r="I30" s="345"/>
+      <c r="J30" s="345">
+        <v>4</v>
+      </c>
+      <c r="K30" s="357" t="s">
+        <v>375</v>
+      </c>
+      <c r="L30" s="358"/>
+    </row>
+    <row r="31" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="344">
+        <v>43101</v>
+      </c>
+      <c r="B31" s="345"/>
+      <c r="C31" s="348" t="s">
+        <v>914</v>
+      </c>
+      <c r="D31" s="348" t="s">
+        <v>926</v>
+      </c>
+      <c r="E31" s="356" t="s">
+        <v>911</v>
+      </c>
+      <c r="F31" s="357" t="s">
+        <v>915</v>
+      </c>
+      <c r="G31" s="357" t="s">
+        <v>695</v>
+      </c>
+      <c r="H31" s="345"/>
+      <c r="I31" s="345"/>
+      <c r="J31" s="345">
+        <v>5</v>
+      </c>
+      <c r="K31" s="357" t="s">
+        <v>375</v>
+      </c>
+      <c r="L31" s="358"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="344">
+        <v>43101</v>
+      </c>
+      <c r="B32" s="345"/>
+      <c r="C32" s="348" t="s">
+        <v>914</v>
+      </c>
+      <c r="D32" s="348" t="s">
+        <v>926</v>
+      </c>
+      <c r="E32" s="356" t="s">
+        <v>911</v>
+      </c>
+      <c r="F32" s="357" t="s">
+        <v>916</v>
+      </c>
+      <c r="G32" s="357"/>
+      <c r="H32" s="345"/>
+      <c r="I32" s="345"/>
+      <c r="J32" s="345">
         <v>6</v>
       </c>
-      <c r="K28" s="353" t="s">
+      <c r="K32" s="357" t="s">
         <v>375</v>
       </c>
-      <c r="L28" s="354"/>
-    </row>
-    <row r="29" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="407">
+      <c r="L32" s="358"/>
+    </row>
+    <row r="33" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="413">
         <v>43983</v>
       </c>
-      <c r="B29" s="408"/>
-      <c r="C29" s="409" t="s">
-        <v>934</v>
-      </c>
-      <c r="D29" s="409" t="s">
+      <c r="B33" s="414"/>
+      <c r="C33" s="415" t="s">
+        <v>937</v>
+      </c>
+      <c r="D33" s="415" t="s">
         <v>392</v>
       </c>
-      <c r="E29" s="410" t="s">
-        <v>936</v>
-      </c>
-      <c r="F29" s="411" t="s">
+      <c r="E33" s="416" t="s">
+        <v>939</v>
+      </c>
+      <c r="F33" s="417" t="s">
         <v>917</v>
       </c>
-      <c r="G29" s="411"/>
-      <c r="H29" s="411"/>
-      <c r="I29" s="408"/>
-      <c r="J29" s="408">
+      <c r="G33" s="417"/>
+      <c r="H33" s="417"/>
+      <c r="I33" s="414"/>
+      <c r="J33" s="414">
         <v>3</v>
       </c>
-      <c r="K29" s="411" t="s">
+      <c r="K33" s="417" t="s">
         <v>375</v>
       </c>
-      <c r="L29" s="412"/>
-    </row>
-    <row r="30" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="407">
+      <c r="L33" s="418"/>
+    </row>
+    <row r="34" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="413">
         <v>43983</v>
       </c>
-      <c r="B30" s="408"/>
-      <c r="C30" s="409" t="s">
-        <v>934</v>
-      </c>
-      <c r="D30" s="409" t="s">
+      <c r="B34" s="414"/>
+      <c r="C34" s="415" t="s">
+        <v>937</v>
+      </c>
+      <c r="D34" s="415" t="s">
         <v>392</v>
       </c>
-      <c r="E30" s="410" t="s">
-        <v>936</v>
-      </c>
-      <c r="F30" s="411" t="s">
+      <c r="E34" s="416" t="s">
+        <v>939</v>
+      </c>
+      <c r="F34" s="417" t="s">
+        <v>918</v>
+      </c>
+      <c r="G34" s="417"/>
+      <c r="H34" s="417"/>
+      <c r="I34" s="414"/>
+      <c r="J34" s="414">
+        <v>4</v>
+      </c>
+      <c r="K34" s="417" t="s">
+        <v>375</v>
+      </c>
+      <c r="L34" s="418"/>
+    </row>
+    <row r="35" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="413">
+        <v>43983</v>
+      </c>
+      <c r="B35" s="414"/>
+      <c r="C35" s="415" t="s">
+        <v>937</v>
+      </c>
+      <c r="D35" s="415" t="s">
+        <v>392</v>
+      </c>
+      <c r="E35" s="416" t="s">
+        <v>939</v>
+      </c>
+      <c r="F35" s="417" t="s">
         <v>915</v>
       </c>
-      <c r="G30" s="411" t="s">
-        <v>942</v>
-      </c>
-      <c r="H30" s="411"/>
-      <c r="I30" s="408"/>
-      <c r="J30" s="408">
+      <c r="G35" s="417" t="s">
+        <v>945</v>
+      </c>
+      <c r="H35" s="417"/>
+      <c r="I35" s="414"/>
+      <c r="J35" s="414">
         <v>5</v>
       </c>
-      <c r="K30" s="411" t="s">
+      <c r="K35" s="417" t="s">
         <v>375</v>
       </c>
-      <c r="L30" s="412"/>
-    </row>
-    <row r="31" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="407">
+      <c r="L35" s="418"/>
+    </row>
+    <row r="36" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="413">
         <v>43983</v>
       </c>
-      <c r="B31" s="408"/>
-      <c r="C31" s="409" t="s">
-        <v>934</v>
-      </c>
-      <c r="D31" s="409" t="s">
+      <c r="B36" s="414"/>
+      <c r="C36" s="415" t="s">
+        <v>937</v>
+      </c>
+      <c r="D36" s="415" t="s">
         <v>392</v>
       </c>
-      <c r="E31" s="410" t="s">
-        <v>936</v>
-      </c>
-      <c r="F31" s="411" t="s">
+      <c r="E36" s="416" t="s">
+        <v>939</v>
+      </c>
+      <c r="F36" s="417" t="s">
         <v>916</v>
       </c>
-      <c r="G31" s="411"/>
-      <c r="H31" s="411"/>
-      <c r="I31" s="408"/>
-      <c r="J31" s="408">
+      <c r="G36" s="417"/>
+      <c r="H36" s="417"/>
+      <c r="I36" s="414"/>
+      <c r="J36" s="414">
         <v>6</v>
       </c>
-      <c r="K31" s="411" t="s">
+      <c r="K36" s="417" t="s">
         <v>375</v>
       </c>
-      <c r="L31" s="412"/>
-    </row>
-    <row r="32" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="407">
+      <c r="L36" s="418"/>
+    </row>
+    <row r="37" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="413">
         <v>43983</v>
       </c>
-      <c r="B32" s="408"/>
-      <c r="C32" s="409" t="s">
-        <v>934</v>
-      </c>
-      <c r="D32" s="409" t="s">
+      <c r="B37" s="414"/>
+      <c r="C37" s="415" t="s">
+        <v>937</v>
+      </c>
+      <c r="D37" s="415" t="s">
         <v>392</v>
       </c>
-      <c r="E32" s="410" t="s">
+      <c r="E37" s="416" t="s">
+        <v>940</v>
+      </c>
+      <c r="F37" s="417" t="s">
+        <v>917</v>
+      </c>
+      <c r="G37" s="417"/>
+      <c r="H37" s="417"/>
+      <c r="I37" s="414"/>
+      <c r="J37" s="414">
+        <v>7</v>
+      </c>
+      <c r="K37" s="417" t="s">
+        <v>375</v>
+      </c>
+      <c r="L37" s="418"/>
+    </row>
+    <row r="38" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="413">
+        <v>43983</v>
+      </c>
+      <c r="B38" s="414"/>
+      <c r="C38" s="415" t="s">
         <v>937</v>
       </c>
-      <c r="F32" s="411" t="s">
+      <c r="D38" s="415" t="s">
+        <v>392</v>
+      </c>
+      <c r="E38" s="416" t="s">
+        <v>940</v>
+      </c>
+      <c r="F38" s="417" t="s">
+        <v>918</v>
+      </c>
+      <c r="G38" s="417"/>
+      <c r="H38" s="417"/>
+      <c r="I38" s="414"/>
+      <c r="J38" s="414">
+        <v>8</v>
+      </c>
+      <c r="K38" s="417" t="s">
+        <v>375</v>
+      </c>
+      <c r="L38" s="418"/>
+    </row>
+    <row r="39" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="413">
+        <v>43983</v>
+      </c>
+      <c r="B39" s="414"/>
+      <c r="C39" s="415" t="s">
+        <v>937</v>
+      </c>
+      <c r="D39" s="415" t="s">
+        <v>392</v>
+      </c>
+      <c r="E39" s="416" t="s">
+        <v>940</v>
+      </c>
+      <c r="F39" s="417" t="s">
+        <v>915</v>
+      </c>
+      <c r="G39" s="417" t="s">
+        <v>695</v>
+      </c>
+      <c r="H39" s="417"/>
+      <c r="I39" s="414"/>
+      <c r="J39" s="414">
+        <v>9</v>
+      </c>
+      <c r="K39" s="417" t="s">
+        <v>375</v>
+      </c>
+      <c r="L39" s="418"/>
+    </row>
+    <row r="40" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="413">
+        <v>43983</v>
+      </c>
+      <c r="B40" s="414"/>
+      <c r="C40" s="415" t="s">
+        <v>937</v>
+      </c>
+      <c r="D40" s="415" t="s">
+        <v>392</v>
+      </c>
+      <c r="E40" s="416" t="s">
+        <v>940</v>
+      </c>
+      <c r="F40" s="417" t="s">
+        <v>916</v>
+      </c>
+      <c r="G40" s="417"/>
+      <c r="H40" s="417"/>
+      <c r="I40" s="414"/>
+      <c r="J40" s="414">
+        <v>10</v>
+      </c>
+      <c r="K40" s="417" t="s">
+        <v>375</v>
+      </c>
+      <c r="L40" s="418"/>
+    </row>
+    <row r="41" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="413">
+        <v>43983</v>
+      </c>
+      <c r="B41" s="414"/>
+      <c r="C41" s="415" t="s">
+        <v>937</v>
+      </c>
+      <c r="D41" s="415" t="s">
+        <v>943</v>
+      </c>
+      <c r="E41" s="416" t="s">
+        <v>939</v>
+      </c>
+      <c r="F41" s="417" t="s">
         <v>917</v>
       </c>
-      <c r="G32" s="411"/>
-      <c r="H32" s="411"/>
-      <c r="I32" s="408"/>
-      <c r="J32" s="408">
+      <c r="G41" s="417"/>
+      <c r="H41" s="417"/>
+      <c r="I41" s="414"/>
+      <c r="J41" s="414">
+        <v>3</v>
+      </c>
+      <c r="K41" s="417" t="s">
+        <v>375</v>
+      </c>
+      <c r="L41" s="418"/>
+    </row>
+    <row r="42" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="413">
+        <v>43983</v>
+      </c>
+      <c r="B42" s="414"/>
+      <c r="C42" s="415" t="s">
+        <v>937</v>
+      </c>
+      <c r="D42" s="415" t="s">
+        <v>943</v>
+      </c>
+      <c r="E42" s="416" t="s">
+        <v>939</v>
+      </c>
+      <c r="F42" s="417" t="s">
+        <v>918</v>
+      </c>
+      <c r="G42" s="417"/>
+      <c r="H42" s="417"/>
+      <c r="I42" s="414"/>
+      <c r="J42" s="414">
+        <v>4</v>
+      </c>
+      <c r="K42" s="417" t="s">
+        <v>375</v>
+      </c>
+      <c r="L42" s="418"/>
+    </row>
+    <row r="43" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="413">
+        <v>43983</v>
+      </c>
+      <c r="B43" s="414"/>
+      <c r="C43" s="415" t="s">
+        <v>937</v>
+      </c>
+      <c r="D43" s="415" t="s">
+        <v>943</v>
+      </c>
+      <c r="E43" s="416" t="s">
+        <v>939</v>
+      </c>
+      <c r="F43" s="417" t="s">
+        <v>915</v>
+      </c>
+      <c r="G43" s="417" t="s">
+        <v>695</v>
+      </c>
+      <c r="H43" s="417"/>
+      <c r="I43" s="414"/>
+      <c r="J43" s="414">
+        <v>5</v>
+      </c>
+      <c r="K43" s="417" t="s">
+        <v>375</v>
+      </c>
+      <c r="L43" s="418"/>
+    </row>
+    <row r="44" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="413">
+        <v>43983</v>
+      </c>
+      <c r="B44" s="414"/>
+      <c r="C44" s="415" t="s">
+        <v>937</v>
+      </c>
+      <c r="D44" s="415" t="s">
+        <v>943</v>
+      </c>
+      <c r="E44" s="416" t="s">
+        <v>939</v>
+      </c>
+      <c r="F44" s="417" t="s">
+        <v>916</v>
+      </c>
+      <c r="G44" s="417"/>
+      <c r="H44" s="417"/>
+      <c r="I44" s="414"/>
+      <c r="J44" s="414">
+        <v>6</v>
+      </c>
+      <c r="K44" s="417" t="s">
+        <v>375</v>
+      </c>
+      <c r="L44" s="418"/>
+    </row>
+    <row r="45" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="413">
+        <v>43983</v>
+      </c>
+      <c r="B45" s="414"/>
+      <c r="C45" s="415" t="s">
+        <v>937</v>
+      </c>
+      <c r="D45" s="415" t="s">
+        <v>943</v>
+      </c>
+      <c r="E45" s="416" t="s">
+        <v>940</v>
+      </c>
+      <c r="F45" s="417" t="s">
+        <v>917</v>
+      </c>
+      <c r="G45" s="417"/>
+      <c r="H45" s="417"/>
+      <c r="I45" s="414"/>
+      <c r="J45" s="414">
         <v>7</v>
       </c>
-      <c r="K32" s="411" t="s">
+      <c r="K45" s="417" t="s">
         <v>375</v>
       </c>
-      <c r="L32" s="412"/>
-    </row>
-    <row r="33" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="407">
+      <c r="L45" s="418"/>
+    </row>
+    <row r="46" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="413">
         <v>43983</v>
       </c>
-      <c r="B33" s="408"/>
-      <c r="C33" s="409" t="s">
-        <v>934</v>
-      </c>
-      <c r="D33" s="409" t="s">
-        <v>392</v>
-      </c>
-      <c r="E33" s="410" t="s">
+      <c r="B46" s="414"/>
+      <c r="C46" s="415" t="s">
         <v>937</v>
       </c>
-      <c r="F33" s="411" t="s">
+      <c r="D46" s="415" t="s">
+        <v>943</v>
+      </c>
+      <c r="E46" s="416" t="s">
+        <v>940</v>
+      </c>
+      <c r="F46" s="417" t="s">
+        <v>918</v>
+      </c>
+      <c r="G46" s="417"/>
+      <c r="H46" s="417"/>
+      <c r="I46" s="414"/>
+      <c r="J46" s="414">
+        <v>8</v>
+      </c>
+      <c r="K46" s="417" t="s">
+        <v>375</v>
+      </c>
+      <c r="L46" s="418"/>
+    </row>
+    <row r="47" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="413">
+        <v>43983</v>
+      </c>
+      <c r="B47" s="414"/>
+      <c r="C47" s="415" t="s">
+        <v>937</v>
+      </c>
+      <c r="D47" s="415" t="s">
+        <v>943</v>
+      </c>
+      <c r="E47" s="416" t="s">
+        <v>940</v>
+      </c>
+      <c r="F47" s="417" t="s">
         <v>915</v>
       </c>
-      <c r="G33" s="411" t="s">
-        <v>695</v>
-      </c>
-      <c r="H33" s="411"/>
-      <c r="I33" s="408"/>
-      <c r="J33" s="408">
+      <c r="G47" s="417" t="s">
+        <v>687</v>
+      </c>
+      <c r="H47" s="417"/>
+      <c r="I47" s="414"/>
+      <c r="J47" s="414">
         <v>9</v>
       </c>
-      <c r="K33" s="411" t="s">
+      <c r="K47" s="417" t="s">
         <v>375</v>
       </c>
-      <c r="L33" s="412"/>
-    </row>
-    <row r="34" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="407">
+      <c r="L47" s="418"/>
+    </row>
+    <row r="48" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="413">
         <v>43983</v>
       </c>
-      <c r="B34" s="408"/>
-      <c r="C34" s="409" t="s">
-        <v>934</v>
-      </c>
-      <c r="D34" s="409" t="s">
-        <v>392</v>
-      </c>
-      <c r="E34" s="410" t="s">
+      <c r="B48" s="414"/>
+      <c r="C48" s="415" t="s">
         <v>937</v>
       </c>
-      <c r="F34" s="411" t="s">
+      <c r="D48" s="415" t="s">
+        <v>943</v>
+      </c>
+      <c r="E48" s="416" t="s">
+        <v>940</v>
+      </c>
+      <c r="F48" s="417" t="s">
         <v>916</v>
       </c>
-      <c r="G34" s="411"/>
-      <c r="H34" s="411"/>
-      <c r="I34" s="408"/>
-      <c r="J34" s="408">
+      <c r="G48" s="417"/>
+      <c r="H48" s="417"/>
+      <c r="I48" s="414"/>
+      <c r="J48" s="414">
         <v>10</v>
       </c>
-      <c r="K34" s="411" t="s">
+      <c r="K48" s="417" t="s">
         <v>375</v>
       </c>
-      <c r="L34" s="412"/>
-    </row>
-    <row r="35" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="407">
-        <v>43983</v>
-      </c>
-      <c r="B35" s="408"/>
-      <c r="C35" s="409" t="s">
-        <v>934</v>
-      </c>
-      <c r="D35" s="409" t="s">
-        <v>940</v>
-      </c>
-      <c r="E35" s="410" t="s">
-        <v>936</v>
-      </c>
-      <c r="F35" s="411" t="s">
-        <v>917</v>
-      </c>
-      <c r="G35" s="411"/>
-      <c r="H35" s="411"/>
-      <c r="I35" s="408"/>
-      <c r="J35" s="408">
-        <v>3</v>
-      </c>
-      <c r="K35" s="411" t="s">
-        <v>375</v>
-      </c>
-      <c r="L35" s="412"/>
-    </row>
-    <row r="36" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="407">
-        <v>43983</v>
-      </c>
-      <c r="B36" s="408"/>
-      <c r="C36" s="409" t="s">
-        <v>934</v>
-      </c>
-      <c r="D36" s="409" t="s">
-        <v>940</v>
-      </c>
-      <c r="E36" s="410" t="s">
-        <v>936</v>
-      </c>
-      <c r="F36" s="411" t="s">
-        <v>915</v>
-      </c>
-      <c r="G36" s="411" t="s">
-        <v>695</v>
-      </c>
-      <c r="H36" s="411"/>
-      <c r="I36" s="408"/>
-      <c r="J36" s="408">
-        <v>5</v>
-      </c>
-      <c r="K36" s="411" t="s">
-        <v>375</v>
-      </c>
-      <c r="L36" s="412"/>
-    </row>
-    <row r="37" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="407">
-        <v>43983</v>
-      </c>
-      <c r="B37" s="408"/>
-      <c r="C37" s="409" t="s">
-        <v>934</v>
-      </c>
-      <c r="D37" s="409" t="s">
-        <v>940</v>
-      </c>
-      <c r="E37" s="410" t="s">
-        <v>936</v>
-      </c>
-      <c r="F37" s="411" t="s">
-        <v>916</v>
-      </c>
-      <c r="G37" s="411"/>
-      <c r="H37" s="411"/>
-      <c r="I37" s="408"/>
-      <c r="J37" s="408">
-        <v>6</v>
-      </c>
-      <c r="K37" s="411" t="s">
-        <v>375</v>
-      </c>
-      <c r="L37" s="412"/>
-    </row>
-    <row r="38" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="407">
-        <v>43983</v>
-      </c>
-      <c r="B38" s="408"/>
-      <c r="C38" s="409" t="s">
-        <v>934</v>
-      </c>
-      <c r="D38" s="409" t="s">
-        <v>940</v>
-      </c>
-      <c r="E38" s="410" t="s">
-        <v>937</v>
-      </c>
-      <c r="F38" s="411" t="s">
-        <v>917</v>
-      </c>
-      <c r="G38" s="411"/>
-      <c r="H38" s="411"/>
-      <c r="I38" s="408"/>
-      <c r="J38" s="408">
-        <v>7</v>
-      </c>
-      <c r="K38" s="411" t="s">
-        <v>375</v>
-      </c>
-      <c r="L38" s="412"/>
-    </row>
-    <row r="39" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="407">
-        <v>43983</v>
-      </c>
-      <c r="B39" s="408"/>
-      <c r="C39" s="409" t="s">
-        <v>934</v>
-      </c>
-      <c r="D39" s="409" t="s">
-        <v>940</v>
-      </c>
-      <c r="E39" s="410" t="s">
-        <v>937</v>
-      </c>
-      <c r="F39" s="411" t="s">
-        <v>915</v>
-      </c>
-      <c r="G39" s="411" t="s">
-        <v>687</v>
-      </c>
-      <c r="H39" s="411"/>
-      <c r="I39" s="408"/>
-      <c r="J39" s="408">
-        <v>9</v>
-      </c>
-      <c r="K39" s="411" t="s">
-        <v>375</v>
-      </c>
-      <c r="L39" s="412"/>
-    </row>
-    <row r="40" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="407">
-        <v>43983</v>
-      </c>
-      <c r="B40" s="408"/>
-      <c r="C40" s="409" t="s">
-        <v>934</v>
-      </c>
-      <c r="D40" s="409" t="s">
-        <v>940</v>
-      </c>
-      <c r="E40" s="410" t="s">
-        <v>937</v>
-      </c>
-      <c r="F40" s="411" t="s">
-        <v>916</v>
-      </c>
-      <c r="G40" s="411"/>
-      <c r="H40" s="411"/>
-      <c r="I40" s="408"/>
-      <c r="J40" s="408">
-        <v>10</v>
-      </c>
-      <c r="K40" s="411" t="s">
-        <v>375</v>
-      </c>
-      <c r="L40" s="412"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41" s="251">
-        <v>43101</v>
-      </c>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98" t="s">
-        <v>297</v>
-      </c>
-      <c r="D41" s="132" t="s">
-        <v>388</v>
-      </c>
-      <c r="E41" s="132" t="s">
-        <v>124</v>
-      </c>
-      <c r="F41" s="132" t="s">
-        <v>344</v>
-      </c>
-      <c r="G41" s="132"/>
-      <c r="H41" s="98"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="98">
-        <v>1</v>
-      </c>
-      <c r="K41" s="132" t="s">
-        <v>389</v>
-      </c>
-      <c r="L41" s="231" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="251">
-        <v>43101</v>
-      </c>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98" t="s">
-        <v>297</v>
-      </c>
-      <c r="D42" s="132" t="s">
-        <v>388</v>
-      </c>
-      <c r="E42" s="132" t="s">
-        <v>124</v>
-      </c>
-      <c r="F42" s="132" t="s">
-        <v>341</v>
-      </c>
-      <c r="G42" s="132"/>
-      <c r="H42" s="98"/>
-      <c r="I42" s="98"/>
-      <c r="J42" s="98">
-        <v>1</v>
-      </c>
-      <c r="K42" s="132" t="s">
-        <v>375</v>
-      </c>
-      <c r="L42" s="231" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A43" s="251">
-        <v>43101</v>
-      </c>
-      <c r="B43" s="98"/>
-      <c r="C43" s="79" t="s">
-        <v>214</v>
-      </c>
-      <c r="D43" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="E43" s="96" t="s">
-        <v>212</v>
-      </c>
-      <c r="F43" s="132" t="s">
-        <v>326</v>
-      </c>
-      <c r="G43" s="132"/>
-      <c r="H43" s="98"/>
-      <c r="I43" s="98"/>
-      <c r="J43" s="98">
-        <v>1</v>
-      </c>
-      <c r="K43" s="132" t="s">
-        <v>374</v>
-      </c>
-      <c r="L43" s="77"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A44" s="251">
-        <v>43101</v>
-      </c>
-      <c r="B44" s="98"/>
-      <c r="C44" s="79" t="s">
-        <v>214</v>
-      </c>
-      <c r="D44" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="E44" s="96" t="s">
-        <v>212</v>
-      </c>
-      <c r="F44" s="132" t="s">
-        <v>328</v>
-      </c>
-      <c r="G44" s="132"/>
-      <c r="H44" s="98"/>
-      <c r="I44" s="98"/>
-      <c r="J44" s="98">
-        <v>1</v>
-      </c>
-      <c r="K44" s="132" t="s">
-        <v>374</v>
-      </c>
-      <c r="L44" s="77"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A45" s="251">
-        <v>43101</v>
-      </c>
-      <c r="B45" s="98"/>
-      <c r="C45" s="82" t="s">
-        <v>218</v>
-      </c>
-      <c r="D45" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="E45" s="96" t="s">
-        <v>216</v>
-      </c>
-      <c r="F45" s="132" t="s">
-        <v>330</v>
-      </c>
-      <c r="G45" s="132"/>
-      <c r="H45" s="98"/>
-      <c r="I45" s="98"/>
-      <c r="J45" s="98">
-        <v>2</v>
-      </c>
-      <c r="K45" s="132" t="s">
-        <v>374</v>
-      </c>
-      <c r="L45" s="77"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="251">
-        <v>43101</v>
-      </c>
-      <c r="B46" s="98"/>
-      <c r="C46" s="79" t="s">
-        <v>214</v>
-      </c>
-      <c r="D46" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="E46" s="96" t="s">
-        <v>212</v>
-      </c>
-      <c r="F46" s="132" t="s">
-        <v>326</v>
-      </c>
-      <c r="G46" s="132"/>
-      <c r="H46" s="98"/>
-      <c r="I46" s="98"/>
-      <c r="J46" s="98">
-        <v>1</v>
-      </c>
-      <c r="K46" s="132" t="s">
-        <v>374</v>
-      </c>
-      <c r="L46" s="77"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A47" s="251">
-        <v>43101</v>
-      </c>
-      <c r="B47" s="98"/>
-      <c r="C47" s="79" t="s">
-        <v>214</v>
-      </c>
-      <c r="D47" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="E47" s="96" t="s">
-        <v>212</v>
-      </c>
-      <c r="F47" s="132" t="s">
-        <v>328</v>
-      </c>
-      <c r="G47" s="132"/>
-      <c r="H47" s="98"/>
-      <c r="I47" s="98"/>
-      <c r="J47" s="98">
-        <v>1</v>
-      </c>
-      <c r="K47" s="132" t="s">
-        <v>374</v>
-      </c>
-      <c r="L47" s="77"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A48" s="251">
-        <v>43101</v>
-      </c>
-      <c r="B48" s="98"/>
-      <c r="C48" s="82" t="s">
-        <v>218</v>
-      </c>
-      <c r="D48" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="E48" s="96" t="s">
-        <v>216</v>
-      </c>
-      <c r="F48" s="132" t="s">
-        <v>330</v>
-      </c>
-      <c r="G48" s="132"/>
-      <c r="H48" s="98"/>
-      <c r="I48" s="98"/>
-      <c r="J48" s="98">
-        <v>2</v>
-      </c>
-      <c r="K48" s="132" t="s">
-        <v>374</v>
-      </c>
-      <c r="L48" s="77"/>
+      <c r="L48" s="418"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="251">
         <v>43101</v>
       </c>
       <c r="B49" s="98"/>
-      <c r="C49" s="79" t="s">
-        <v>214</v>
-      </c>
-      <c r="D49" s="82" t="s">
-        <v>394</v>
-      </c>
-      <c r="E49" s="96" t="s">
-        <v>212</v>
+      <c r="C49" s="98" t="s">
+        <v>297</v>
+      </c>
+      <c r="D49" s="132" t="s">
+        <v>388</v>
+      </c>
+      <c r="E49" s="132" t="s">
+        <v>124</v>
       </c>
       <c r="F49" s="132" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="G49" s="132"/>
       <c r="H49" s="98"/>
@@ -45613,37 +45665,265 @@
         <v>1</v>
       </c>
       <c r="K49" s="132" t="s">
+        <v>389</v>
+      </c>
+      <c r="L49" s="231" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A50" s="251">
+        <v>43101</v>
+      </c>
+      <c r="B50" s="98"/>
+      <c r="C50" s="98" t="s">
+        <v>297</v>
+      </c>
+      <c r="D50" s="132" t="s">
+        <v>388</v>
+      </c>
+      <c r="E50" s="132" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" s="132" t="s">
+        <v>341</v>
+      </c>
+      <c r="G50" s="132"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="98"/>
+      <c r="J50" s="98">
+        <v>1</v>
+      </c>
+      <c r="K50" s="132" t="s">
+        <v>375</v>
+      </c>
+      <c r="L50" s="231" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A51" s="251">
+        <v>43101</v>
+      </c>
+      <c r="B51" s="98"/>
+      <c r="C51" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="D51" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="E51" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="F51" s="132" t="s">
+        <v>326</v>
+      </c>
+      <c r="G51" s="132"/>
+      <c r="H51" s="98"/>
+      <c r="I51" s="98"/>
+      <c r="J51" s="98">
+        <v>1</v>
+      </c>
+      <c r="K51" s="132" t="s">
         <v>374</v>
       </c>
-      <c r="L49" s="77"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A50" s="252">
+      <c r="L51" s="77"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A52" s="251">
         <v>43101</v>
       </c>
-      <c r="B50" s="104"/>
-      <c r="C50" s="87" t="s">
+      <c r="B52" s="98"/>
+      <c r="C52" s="79" t="s">
         <v>214</v>
       </c>
-      <c r="D50" s="100" t="s">
+      <c r="D52" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="E52" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="F52" s="132" t="s">
+        <v>328</v>
+      </c>
+      <c r="G52" s="132"/>
+      <c r="H52" s="98"/>
+      <c r="I52" s="98"/>
+      <c r="J52" s="98">
+        <v>1</v>
+      </c>
+      <c r="K52" s="132" t="s">
+        <v>374</v>
+      </c>
+      <c r="L52" s="77"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A53" s="251">
+        <v>43101</v>
+      </c>
+      <c r="B53" s="98"/>
+      <c r="C53" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="D53" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="E53" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="F53" s="132" t="s">
+        <v>330</v>
+      </c>
+      <c r="G53" s="132"/>
+      <c r="H53" s="98"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="98">
+        <v>2</v>
+      </c>
+      <c r="K53" s="132" t="s">
+        <v>374</v>
+      </c>
+      <c r="L53" s="77"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A54" s="251">
+        <v>43101</v>
+      </c>
+      <c r="B54" s="98"/>
+      <c r="C54" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="D54" s="82" t="s">
+        <v>393</v>
+      </c>
+      <c r="E54" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="F54" s="132" t="s">
+        <v>326</v>
+      </c>
+      <c r="G54" s="132"/>
+      <c r="H54" s="98"/>
+      <c r="I54" s="98"/>
+      <c r="J54" s="98">
+        <v>1</v>
+      </c>
+      <c r="K54" s="132" t="s">
+        <v>374</v>
+      </c>
+      <c r="L54" s="77"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A55" s="251">
+        <v>43101</v>
+      </c>
+      <c r="B55" s="98"/>
+      <c r="C55" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="D55" s="82" t="s">
+        <v>393</v>
+      </c>
+      <c r="E55" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="F55" s="132" t="s">
+        <v>328</v>
+      </c>
+      <c r="G55" s="132"/>
+      <c r="H55" s="98"/>
+      <c r="I55" s="98"/>
+      <c r="J55" s="98">
+        <v>1</v>
+      </c>
+      <c r="K55" s="132" t="s">
+        <v>374</v>
+      </c>
+      <c r="L55" s="77"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A56" s="251">
+        <v>43101</v>
+      </c>
+      <c r="B56" s="98"/>
+      <c r="C56" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="D56" s="82" t="s">
+        <v>393</v>
+      </c>
+      <c r="E56" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="F56" s="132" t="s">
+        <v>330</v>
+      </c>
+      <c r="G56" s="132"/>
+      <c r="H56" s="98"/>
+      <c r="I56" s="98"/>
+      <c r="J56" s="98">
+        <v>2</v>
+      </c>
+      <c r="K56" s="132" t="s">
+        <v>374</v>
+      </c>
+      <c r="L56" s="77"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A57" s="251">
+        <v>43101</v>
+      </c>
+      <c r="B57" s="98"/>
+      <c r="C57" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="D57" s="82" t="s">
         <v>394</v>
       </c>
-      <c r="E50" s="102" t="s">
+      <c r="E57" s="96" t="s">
         <v>212</v>
       </c>
-      <c r="F50" s="253" t="s">
+      <c r="F57" s="132" t="s">
+        <v>326</v>
+      </c>
+      <c r="G57" s="132"/>
+      <c r="H57" s="98"/>
+      <c r="I57" s="98"/>
+      <c r="J57" s="98">
+        <v>1</v>
+      </c>
+      <c r="K57" s="132" t="s">
+        <v>374</v>
+      </c>
+      <c r="L57" s="77"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A58" s="252">
+        <v>43101</v>
+      </c>
+      <c r="B58" s="104"/>
+      <c r="C58" s="87" t="s">
+        <v>214</v>
+      </c>
+      <c r="D58" s="100" t="s">
+        <v>394</v>
+      </c>
+      <c r="E58" s="102" t="s">
+        <v>212</v>
+      </c>
+      <c r="F58" s="253" t="s">
         <v>328</v>
       </c>
-      <c r="G50" s="253"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="104"/>
-      <c r="J50" s="104">
+      <c r="G58" s="253"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="104"/>
+      <c r="J58" s="104">
         <v>1</v>
       </c>
-      <c r="K50" s="253" t="s">
+      <c r="K58" s="253" t="s">
         <v>374</v>
       </c>
-      <c r="L50" s="105"/>
+      <c r="L58" s="105"/>
     </row>
   </sheetData>
   <phoneticPr fontId="58" type="noConversion"/>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/BEFTA_Master_Definition_invalid.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/BEFTA_Master_Definition_invalid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olawaleolanrewaju/Documents/Git_MOJ/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniellysiak/development/ccd/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3506C73D-DF6B-D949-BB07-30DFAF57027C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401A2267-8E7C-3444-A1E6-2966DFD69F8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39040" yWindow="1580" windowWidth="33600" windowHeight="19340" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5619" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5615" uniqueCount="946">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -11993,7 +11993,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F47" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F46" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="14"/>
@@ -32065,10 +32065,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:EK47"/>
+  <dimension ref="A1:EK46"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -32215,13 +32215,13 @@
       </c>
       <c r="B8" s="95"/>
       <c r="C8" s="76" t="s">
-        <v>884</v>
-      </c>
-      <c r="D8" s="79" t="s">
-        <v>943</v>
+        <v>882</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>392</v>
       </c>
       <c r="E8" s="148" t="s">
-        <v>938</v>
+        <v>778</v>
       </c>
       <c r="F8" s="129" t="s">
         <v>339</v>
@@ -32235,8 +32235,8 @@
       <c r="C9" s="76" t="s">
         <v>882</v>
       </c>
-      <c r="D9" s="76" t="s">
-        <v>392</v>
+      <c r="D9" s="79" t="s">
+        <v>535</v>
       </c>
       <c r="E9" s="148" t="s">
         <v>778</v>
@@ -32250,11 +32250,11 @@
         <v>42736</v>
       </c>
       <c r="B10" s="95"/>
-      <c r="C10" s="76" t="s">
-        <v>882</v>
-      </c>
-      <c r="D10" s="79" t="s">
-        <v>535</v>
+      <c r="C10" s="79" t="s">
+        <v>883</v>
+      </c>
+      <c r="D10" s="76" t="s">
+        <v>392</v>
       </c>
       <c r="E10" s="148" t="s">
         <v>778</v>
@@ -32263,39 +32263,39 @@
         <v>339</v>
       </c>
     </row>
-    <row r="11" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="74">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="79" t="s">
+    <row r="11" spans="1:141" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="80">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="98"/>
+      <c r="C11" s="132" t="s">
         <v>883</v>
       </c>
-      <c r="D11" s="76" t="s">
-        <v>392</v>
+      <c r="D11" s="132" t="s">
+        <v>388</v>
       </c>
       <c r="E11" s="148" t="s">
         <v>778</v>
       </c>
-      <c r="F11" s="129" t="s">
+      <c r="F11" s="133" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="12" spans="1:141" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="80">
-        <v>42736</v>
-      </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="132" t="s">
+    <row r="12" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="74">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="95"/>
+      <c r="C12" s="134" t="s">
         <v>883</v>
       </c>
-      <c r="D12" s="132" t="s">
-        <v>388</v>
+      <c r="D12" s="134" t="s">
+        <v>373</v>
       </c>
       <c r="E12" s="148" t="s">
         <v>778</v>
       </c>
-      <c r="F12" s="133" t="s">
+      <c r="F12" s="129" t="s">
         <v>339</v>
       </c>
     </row>
@@ -32308,7 +32308,7 @@
         <v>883</v>
       </c>
       <c r="D13" s="134" t="s">
-        <v>373</v>
+        <v>542</v>
       </c>
       <c r="E13" s="148" t="s">
         <v>778</v>
@@ -32326,7 +32326,7 @@
         <v>883</v>
       </c>
       <c r="D14" s="134" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E14" s="148" t="s">
         <v>778</v>
@@ -32335,39 +32335,174 @@
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="74">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="134" t="s">
-        <v>883</v>
-      </c>
-      <c r="D15" s="134" t="s">
-        <v>544</v>
-      </c>
-      <c r="E15" s="148" t="s">
+    <row r="15" spans="1:141" s="306" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="359">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="352"/>
+      <c r="C15" s="307" t="s">
+        <v>924</v>
+      </c>
+      <c r="D15" s="307" t="s">
+        <v>926</v>
+      </c>
+      <c r="E15" s="385" t="s">
         <v>778</v>
       </c>
-      <c r="F15" s="129" t="s">
+      <c r="F15" s="381" t="s">
         <v>339</v>
       </c>
+      <c r="G15" s="419"/>
+      <c r="H15" s="419"/>
+      <c r="I15" s="419"/>
+      <c r="J15" s="419"/>
+      <c r="K15" s="419"/>
+      <c r="L15" s="419"/>
+      <c r="M15" s="419"/>
+      <c r="N15" s="419"/>
+      <c r="O15" s="419"/>
+      <c r="P15" s="419"/>
+      <c r="Q15" s="419"/>
+      <c r="R15" s="419"/>
+      <c r="S15" s="419"/>
+      <c r="T15" s="419"/>
+      <c r="U15" s="419"/>
+      <c r="V15" s="419"/>
+      <c r="W15" s="419"/>
+      <c r="X15" s="419"/>
+      <c r="Y15" s="419"/>
+      <c r="Z15" s="419"/>
+      <c r="AA15" s="419"/>
+      <c r="AB15" s="419"/>
+      <c r="AC15" s="419"/>
+      <c r="AD15" s="419"/>
+      <c r="AE15" s="419"/>
+      <c r="AF15" s="419"/>
+      <c r="AG15" s="419"/>
+      <c r="AH15" s="419"/>
+      <c r="AI15" s="419"/>
+      <c r="AJ15" s="419"/>
+      <c r="AK15" s="419"/>
+      <c r="AL15" s="419"/>
+      <c r="AM15" s="419"/>
+      <c r="AN15" s="419"/>
+      <c r="AO15" s="419"/>
+      <c r="AP15" s="419"/>
+      <c r="AQ15" s="419"/>
+      <c r="AR15" s="419"/>
+      <c r="AS15" s="419"/>
+      <c r="AT15" s="419"/>
+      <c r="AU15" s="419"/>
+      <c r="AV15" s="419"/>
+      <c r="AW15" s="419"/>
+      <c r="AX15" s="419"/>
+      <c r="AY15" s="419"/>
+      <c r="AZ15" s="419"/>
+      <c r="BA15" s="419"/>
+      <c r="BB15" s="419"/>
+      <c r="BC15" s="419"/>
+      <c r="BD15" s="419"/>
+      <c r="BE15" s="419"/>
+      <c r="BF15" s="419"/>
+      <c r="BG15" s="419"/>
+      <c r="BH15" s="419"/>
+      <c r="BI15" s="419"/>
+      <c r="BJ15" s="419"/>
+      <c r="BK15" s="419"/>
+      <c r="BL15" s="419"/>
+      <c r="BM15" s="419"/>
+      <c r="BN15" s="419"/>
+      <c r="BO15" s="419"/>
+      <c r="BP15" s="419"/>
+      <c r="BQ15" s="419"/>
+      <c r="BR15" s="419"/>
+      <c r="BS15" s="419"/>
+      <c r="BT15" s="419"/>
+      <c r="BU15" s="419"/>
+      <c r="BV15" s="419"/>
+      <c r="BW15" s="419"/>
+      <c r="BX15" s="419"/>
+      <c r="BY15" s="419"/>
+      <c r="BZ15" s="419"/>
+      <c r="CA15" s="419"/>
+      <c r="CB15" s="419"/>
+      <c r="CC15" s="419"/>
+      <c r="CD15" s="419"/>
+      <c r="CE15" s="419"/>
+      <c r="CF15" s="419"/>
+      <c r="CG15" s="419"/>
+      <c r="CH15" s="419"/>
+      <c r="CI15" s="419"/>
+      <c r="CJ15" s="419"/>
+      <c r="CK15" s="419"/>
+      <c r="CL15" s="419"/>
+      <c r="CM15" s="419"/>
+      <c r="CN15" s="419"/>
+      <c r="CO15" s="419"/>
+      <c r="CP15" s="419"/>
+      <c r="CQ15" s="419"/>
+      <c r="CR15" s="419"/>
+      <c r="CS15" s="419"/>
+      <c r="CT15" s="419"/>
+      <c r="CU15" s="419"/>
+      <c r="CV15" s="419"/>
+      <c r="CW15" s="419"/>
+      <c r="CX15" s="419"/>
+      <c r="CY15" s="419"/>
+      <c r="CZ15" s="419"/>
+      <c r="DA15" s="419"/>
+      <c r="DB15" s="419"/>
+      <c r="DC15" s="419"/>
+      <c r="DD15" s="419"/>
+      <c r="DE15" s="419"/>
+      <c r="DF15" s="419"/>
+      <c r="DG15" s="419"/>
+      <c r="DH15" s="419"/>
+      <c r="DI15" s="419"/>
+      <c r="DJ15" s="419"/>
+      <c r="DK15" s="419"/>
+      <c r="DL15" s="419"/>
+      <c r="DM15" s="419"/>
+      <c r="DN15" s="419"/>
+      <c r="DO15" s="419"/>
+      <c r="DP15" s="419"/>
+      <c r="DQ15" s="419"/>
+      <c r="DR15" s="419"/>
+      <c r="DS15" s="419"/>
+      <c r="DT15" s="419"/>
+      <c r="DU15" s="419"/>
+      <c r="DV15" s="419"/>
+      <c r="DW15" s="419"/>
+      <c r="DX15" s="419"/>
+      <c r="DY15" s="419"/>
+      <c r="DZ15" s="419"/>
+      <c r="EA15" s="419"/>
+      <c r="EB15" s="419"/>
+      <c r="EC15" s="419"/>
+      <c r="ED15" s="419"/>
+      <c r="EE15" s="419"/>
+      <c r="EF15" s="419"/>
+      <c r="EG15" s="419"/>
+      <c r="EH15" s="419"/>
+      <c r="EI15" s="419"/>
+      <c r="EJ15" s="419"/>
+      <c r="EK15" s="419"/>
     </row>
     <row r="16" spans="1:141" s="306" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="359">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="352"/>
+      <c r="A16" s="300">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="303"/>
       <c r="C16" s="307" t="s">
         <v>924</v>
       </c>
       <c r="D16" s="307" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E16" s="385" t="s">
         <v>778</v>
       </c>
-      <c r="F16" s="381" t="s">
+      <c r="F16" s="308" t="s">
         <v>339</v>
       </c>
       <c r="G16" s="419"/>
@@ -32506,166 +32641,31 @@
       <c r="EJ16" s="419"/>
       <c r="EK16" s="419"/>
     </row>
-    <row r="17" spans="1:141" s="306" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="300">
-        <v>42736</v>
-      </c>
-      <c r="B17" s="303"/>
-      <c r="C17" s="307" t="s">
-        <v>924</v>
-      </c>
-      <c r="D17" s="307" t="s">
-        <v>925</v>
-      </c>
-      <c r="E17" s="385" t="s">
+    <row r="17" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="74">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="95"/>
+      <c r="C17" s="79" t="s">
+        <v>885</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>392</v>
+      </c>
+      <c r="E17" s="148" t="s">
         <v>778</v>
       </c>
-      <c r="F17" s="308" t="s">
+      <c r="F17" s="129" t="s">
         <v>339</v>
       </c>
-      <c r="G17" s="419"/>
-      <c r="H17" s="419"/>
-      <c r="I17" s="419"/>
-      <c r="J17" s="419"/>
-      <c r="K17" s="419"/>
-      <c r="L17" s="419"/>
-      <c r="M17" s="419"/>
-      <c r="N17" s="419"/>
-      <c r="O17" s="419"/>
-      <c r="P17" s="419"/>
-      <c r="Q17" s="419"/>
-      <c r="R17" s="419"/>
-      <c r="S17" s="419"/>
-      <c r="T17" s="419"/>
-      <c r="U17" s="419"/>
-      <c r="V17" s="419"/>
-      <c r="W17" s="419"/>
-      <c r="X17" s="419"/>
-      <c r="Y17" s="419"/>
-      <c r="Z17" s="419"/>
-      <c r="AA17" s="419"/>
-      <c r="AB17" s="419"/>
-      <c r="AC17" s="419"/>
-      <c r="AD17" s="419"/>
-      <c r="AE17" s="419"/>
-      <c r="AF17" s="419"/>
-      <c r="AG17" s="419"/>
-      <c r="AH17" s="419"/>
-      <c r="AI17" s="419"/>
-      <c r="AJ17" s="419"/>
-      <c r="AK17" s="419"/>
-      <c r="AL17" s="419"/>
-      <c r="AM17" s="419"/>
-      <c r="AN17" s="419"/>
-      <c r="AO17" s="419"/>
-      <c r="AP17" s="419"/>
-      <c r="AQ17" s="419"/>
-      <c r="AR17" s="419"/>
-      <c r="AS17" s="419"/>
-      <c r="AT17" s="419"/>
-      <c r="AU17" s="419"/>
-      <c r="AV17" s="419"/>
-      <c r="AW17" s="419"/>
-      <c r="AX17" s="419"/>
-      <c r="AY17" s="419"/>
-      <c r="AZ17" s="419"/>
-      <c r="BA17" s="419"/>
-      <c r="BB17" s="419"/>
-      <c r="BC17" s="419"/>
-      <c r="BD17" s="419"/>
-      <c r="BE17" s="419"/>
-      <c r="BF17" s="419"/>
-      <c r="BG17" s="419"/>
-      <c r="BH17" s="419"/>
-      <c r="BI17" s="419"/>
-      <c r="BJ17" s="419"/>
-      <c r="BK17" s="419"/>
-      <c r="BL17" s="419"/>
-      <c r="BM17" s="419"/>
-      <c r="BN17" s="419"/>
-      <c r="BO17" s="419"/>
-      <c r="BP17" s="419"/>
-      <c r="BQ17" s="419"/>
-      <c r="BR17" s="419"/>
-      <c r="BS17" s="419"/>
-      <c r="BT17" s="419"/>
-      <c r="BU17" s="419"/>
-      <c r="BV17" s="419"/>
-      <c r="BW17" s="419"/>
-      <c r="BX17" s="419"/>
-      <c r="BY17" s="419"/>
-      <c r="BZ17" s="419"/>
-      <c r="CA17" s="419"/>
-      <c r="CB17" s="419"/>
-      <c r="CC17" s="419"/>
-      <c r="CD17" s="419"/>
-      <c r="CE17" s="419"/>
-      <c r="CF17" s="419"/>
-      <c r="CG17" s="419"/>
-      <c r="CH17" s="419"/>
-      <c r="CI17" s="419"/>
-      <c r="CJ17" s="419"/>
-      <c r="CK17" s="419"/>
-      <c r="CL17" s="419"/>
-      <c r="CM17" s="419"/>
-      <c r="CN17" s="419"/>
-      <c r="CO17" s="419"/>
-      <c r="CP17" s="419"/>
-      <c r="CQ17" s="419"/>
-      <c r="CR17" s="419"/>
-      <c r="CS17" s="419"/>
-      <c r="CT17" s="419"/>
-      <c r="CU17" s="419"/>
-      <c r="CV17" s="419"/>
-      <c r="CW17" s="419"/>
-      <c r="CX17" s="419"/>
-      <c r="CY17" s="419"/>
-      <c r="CZ17" s="419"/>
-      <c r="DA17" s="419"/>
-      <c r="DB17" s="419"/>
-      <c r="DC17" s="419"/>
-      <c r="DD17" s="419"/>
-      <c r="DE17" s="419"/>
-      <c r="DF17" s="419"/>
-      <c r="DG17" s="419"/>
-      <c r="DH17" s="419"/>
-      <c r="DI17" s="419"/>
-      <c r="DJ17" s="419"/>
-      <c r="DK17" s="419"/>
-      <c r="DL17" s="419"/>
-      <c r="DM17" s="419"/>
-      <c r="DN17" s="419"/>
-      <c r="DO17" s="419"/>
-      <c r="DP17" s="419"/>
-      <c r="DQ17" s="419"/>
-      <c r="DR17" s="419"/>
-      <c r="DS17" s="419"/>
-      <c r="DT17" s="419"/>
-      <c r="DU17" s="419"/>
-      <c r="DV17" s="419"/>
-      <c r="DW17" s="419"/>
-      <c r="DX17" s="419"/>
-      <c r="DY17" s="419"/>
-      <c r="DZ17" s="419"/>
-      <c r="EA17" s="419"/>
-      <c r="EB17" s="419"/>
-      <c r="EC17" s="419"/>
-      <c r="ED17" s="419"/>
-      <c r="EE17" s="419"/>
-      <c r="EF17" s="419"/>
-      <c r="EG17" s="419"/>
-      <c r="EH17" s="419"/>
-      <c r="EI17" s="419"/>
-      <c r="EJ17" s="419"/>
-      <c r="EK17" s="419"/>
-    </row>
-    <row r="18" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="74">
         <v>42736</v>
       </c>
       <c r="B18" s="95"/>
       <c r="C18" s="79" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D18" s="76" t="s">
         <v>392</v>
@@ -32677,7 +32677,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="19" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="74">
         <v>42736</v>
       </c>
@@ -32686,7 +32686,7 @@
         <v>886</v>
       </c>
       <c r="D19" s="76" t="s">
-        <v>392</v>
+        <v>546</v>
       </c>
       <c r="E19" s="148" t="s">
         <v>778</v>
@@ -32695,7 +32695,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="74">
         <v>42736</v>
       </c>
@@ -32704,7 +32704,7 @@
         <v>886</v>
       </c>
       <c r="D20" s="76" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E20" s="148" t="s">
         <v>778</v>
@@ -32713,7 +32713,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="21" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="74">
         <v>42736</v>
       </c>
@@ -32722,7 +32722,7 @@
         <v>886</v>
       </c>
       <c r="D21" s="76" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E21" s="148" t="s">
         <v>778</v>
@@ -32731,7 +32731,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="22" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="74">
         <v>42736</v>
       </c>
@@ -32740,7 +32740,7 @@
         <v>886</v>
       </c>
       <c r="D22" s="76" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E22" s="148" t="s">
         <v>778</v>
@@ -32749,16 +32749,16 @@
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="74">
         <v>42736</v>
       </c>
       <c r="B23" s="95"/>
-      <c r="C23" s="79" t="s">
-        <v>886</v>
+      <c r="C23" s="76" t="s">
+        <v>887</v>
       </c>
       <c r="D23" s="76" t="s">
-        <v>552</v>
+        <v>392</v>
       </c>
       <c r="E23" s="148" t="s">
         <v>778</v>
@@ -32767,13 +32767,13 @@
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:141" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="74">
         <v>42736</v>
       </c>
       <c r="B24" s="95"/>
       <c r="C24" s="76" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D24" s="76" t="s">
         <v>392</v>
@@ -32785,25 +32785,25 @@
         <v>339</v>
       </c>
     </row>
-    <row r="25" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="74">
-        <v>42736</v>
-      </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="76" t="s">
+    <row r="25" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="80">
+        <v>42736</v>
+      </c>
+      <c r="B25" s="98"/>
+      <c r="C25" s="82" t="s">
         <v>888</v>
       </c>
-      <c r="D25" s="76" t="s">
-        <v>392</v>
+      <c r="D25" s="82" t="s">
+        <v>555</v>
       </c>
       <c r="E25" s="148" t="s">
         <v>778</v>
       </c>
-      <c r="F25" s="129" t="s">
+      <c r="F25" s="133" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="80">
         <v>42736</v>
       </c>
@@ -32812,7 +32812,7 @@
         <v>888</v>
       </c>
       <c r="D26" s="82" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E26" s="148" t="s">
         <v>778</v>
@@ -32821,7 +32821,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="27" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="80">
         <v>42736</v>
       </c>
@@ -32830,7 +32830,7 @@
         <v>888</v>
       </c>
       <c r="D27" s="82" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E27" s="148" t="s">
         <v>778</v>
@@ -32839,7 +32839,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="28" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="80">
         <v>42736</v>
       </c>
@@ -32848,7 +32848,7 @@
         <v>888</v>
       </c>
       <c r="D28" s="82" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="E28" s="148" t="s">
         <v>778</v>
@@ -32857,43 +32857,43 @@
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:141" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="80">
-        <v>42736</v>
-      </c>
-      <c r="B29" s="98"/>
-      <c r="C29" s="82" t="s">
-        <v>888</v>
-      </c>
-      <c r="D29" s="82" t="s">
-        <v>561</v>
+    <row r="29" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="74">
+        <v>42736</v>
+      </c>
+      <c r="B29" s="95"/>
+      <c r="C29" s="76" t="s">
+        <v>890</v>
+      </c>
+      <c r="D29" s="76" t="s">
+        <v>392</v>
       </c>
       <c r="E29" s="148" t="s">
         <v>778</v>
       </c>
-      <c r="F29" s="133" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="30" spans="1:141" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="74">
-        <v>42736</v>
-      </c>
-      <c r="B30" s="95"/>
-      <c r="C30" s="76" t="s">
-        <v>890</v>
-      </c>
-      <c r="D30" s="76" t="s">
+      <c r="F29" s="129" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="80">
+        <v>42736</v>
+      </c>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98" t="s">
+        <v>889</v>
+      </c>
+      <c r="D30" s="79" t="s">
         <v>392</v>
       </c>
       <c r="E30" s="148" t="s">
         <v>778</v>
       </c>
-      <c r="F30" s="129" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="31" spans="1:141" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F30" s="133" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="80">
         <v>42736</v>
       </c>
@@ -32901,8 +32901,8 @@
       <c r="C31" s="98" t="s">
         <v>889</v>
       </c>
-      <c r="D31" s="79" t="s">
-        <v>392</v>
+      <c r="D31" s="132" t="s">
+        <v>563</v>
       </c>
       <c r="E31" s="148" t="s">
         <v>778</v>
@@ -32911,7 +32911,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="32" spans="1:141" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="80">
         <v>42736</v>
       </c>
@@ -32920,7 +32920,7 @@
         <v>889</v>
       </c>
       <c r="D32" s="132" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="E32" s="148" t="s">
         <v>778</v>
@@ -32934,11 +32934,11 @@
         <v>42736</v>
       </c>
       <c r="B33" s="98"/>
-      <c r="C33" s="98" t="s">
-        <v>889</v>
-      </c>
-      <c r="D33" s="132" t="s">
-        <v>567</v>
+      <c r="C33" s="79" t="s">
+        <v>891</v>
+      </c>
+      <c r="D33" s="82" t="s">
+        <v>392</v>
       </c>
       <c r="E33" s="148" t="s">
         <v>778</v>
@@ -32952,14 +32952,14 @@
         <v>42736</v>
       </c>
       <c r="B34" s="98"/>
-      <c r="C34" s="79" t="s">
-        <v>891</v>
-      </c>
-      <c r="D34" s="82" t="s">
+      <c r="C34" s="82" t="s">
+        <v>894</v>
+      </c>
+      <c r="D34" s="96" t="s">
         <v>392</v>
       </c>
-      <c r="E34" s="148" t="s">
-        <v>778</v>
+      <c r="E34" s="98" t="s">
+        <v>779</v>
       </c>
       <c r="F34" s="133" t="s">
         <v>339</v>
@@ -32974,13 +32974,13 @@
         <v>894</v>
       </c>
       <c r="D35" s="96" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E35" s="98" t="s">
         <v>779</v>
       </c>
       <c r="F35" s="133" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -32992,13 +32992,13 @@
         <v>894</v>
       </c>
       <c r="D36" s="96" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E36" s="98" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F36" s="133" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -33010,16 +33010,16 @@
         <v>894</v>
       </c>
       <c r="D37" s="96" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E37" s="98" t="s">
         <v>780</v>
       </c>
       <c r="F37" s="133" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="80">
         <v>42736</v>
       </c>
@@ -33027,14 +33027,14 @@
       <c r="C38" s="82" t="s">
         <v>894</v>
       </c>
-      <c r="D38" s="96" t="s">
-        <v>393</v>
+      <c r="D38" s="82" t="s">
+        <v>394</v>
       </c>
       <c r="E38" s="98" t="s">
         <v>780</v>
       </c>
       <c r="F38" s="133" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -33049,7 +33049,7 @@
         <v>394</v>
       </c>
       <c r="E39" s="98" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F39" s="133" t="s">
         <v>340</v>
@@ -33060,20 +33060,20 @@
         <v>42736</v>
       </c>
       <c r="B40" s="98"/>
-      <c r="C40" s="82" t="s">
-        <v>894</v>
+      <c r="C40" s="79" t="s">
+        <v>892</v>
       </c>
       <c r="D40" s="82" t="s">
-        <v>394</v>
-      </c>
-      <c r="E40" s="98" t="s">
-        <v>779</v>
+        <v>392</v>
+      </c>
+      <c r="E40" s="148" t="s">
+        <v>778</v>
       </c>
       <c r="F40" s="133" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="80">
         <v>42736</v>
       </c>
@@ -33082,7 +33082,7 @@
         <v>892</v>
       </c>
       <c r="D41" s="82" t="s">
-        <v>392</v>
+        <v>731</v>
       </c>
       <c r="E41" s="148" t="s">
         <v>778</v>
@@ -33092,20 +33092,20 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="80">
-        <v>42736</v>
-      </c>
-      <c r="B42" s="98"/>
-      <c r="C42" s="79" t="s">
+      <c r="A42" s="85">
+        <v>42736</v>
+      </c>
+      <c r="B42" s="104"/>
+      <c r="C42" s="87" t="s">
         <v>892</v>
       </c>
-      <c r="D42" s="82" t="s">
-        <v>731</v>
-      </c>
-      <c r="E42" s="148" t="s">
+      <c r="D42" s="100" t="s">
+        <v>734</v>
+      </c>
+      <c r="E42" s="209" t="s">
         <v>778</v>
       </c>
-      <c r="F42" s="133" t="s">
+      <c r="F42" s="139" t="s">
         <v>339</v>
       </c>
     </row>
@@ -33113,12 +33113,12 @@
       <c r="A43" s="85">
         <v>42736</v>
       </c>
-      <c r="B43" s="104"/>
-      <c r="C43" s="87" t="s">
-        <v>892</v>
-      </c>
-      <c r="D43" s="100" t="s">
-        <v>734</v>
+      <c r="B43" s="83"/>
+      <c r="C43" s="79" t="s">
+        <v>893</v>
+      </c>
+      <c r="D43" s="96" t="s">
+        <v>836</v>
       </c>
       <c r="E43" s="209" t="s">
         <v>778</v>
@@ -33136,7 +33136,7 @@
         <v>893</v>
       </c>
       <c r="D44" s="96" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="E44" s="209" t="s">
         <v>778</v>
@@ -33154,7 +33154,7 @@
         <v>893</v>
       </c>
       <c r="D45" s="96" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E45" s="209" t="s">
         <v>778</v>
@@ -33167,35 +33167,17 @@
       <c r="A46" s="85">
         <v>42736</v>
       </c>
-      <c r="B46" s="83"/>
+      <c r="B46" s="86"/>
       <c r="C46" s="79" t="s">
         <v>893</v>
       </c>
-      <c r="D46" s="96" t="s">
-        <v>841</v>
+      <c r="D46" s="102" t="s">
+        <v>843</v>
       </c>
       <c r="E46" s="209" t="s">
         <v>778</v>
       </c>
       <c r="F46" s="139" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="85">
-        <v>42736</v>
-      </c>
-      <c r="B47" s="86"/>
-      <c r="C47" s="79" t="s">
-        <v>893</v>
-      </c>
-      <c r="D47" s="102" t="s">
-        <v>843</v>
-      </c>
-      <c r="E47" s="209" t="s">
-        <v>778</v>
-      </c>
-      <c r="F47" s="139" t="s">
         <v>339</v>
       </c>
     </row>
@@ -44236,7 +44218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
